--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="218">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -659,6 +659,18 @@
   </si>
   <si>
     <t>ταξι από δουλειά πανελλήνιο</t>
+  </si>
+  <si>
+    <t>Αντικλείδι για το κουτί</t>
+  </si>
+  <si>
+    <t>νερό και κρουασαν</t>
+  </si>
+  <si>
+    <t>βενζίνη πετρου</t>
+  </si>
+  <si>
+    <t>burger στο BurgerVill</t>
   </si>
 </sst>
 </file>
@@ -889,24 +901,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148816640"/>
-        <c:axId val="148818176"/>
+        <c:axId val="154653440"/>
+        <c:axId val="154654976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148816640"/>
+        <c:axId val="154653440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148818176"/>
+        <c:crossAx val="154654976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148818176"/>
+        <c:axId val="154654976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +926,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148816640"/>
+        <c:crossAx val="154653440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -976,7 +988,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1104,24 +1116,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="148784640"/>
-        <c:axId val="148786176"/>
+        <c:axId val="154596864"/>
+        <c:axId val="154598400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148784640"/>
+        <c:axId val="154596864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148786176"/>
+        <c:crossAx val="154598400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148786176"/>
+        <c:axId val="154598400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1141,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148784640"/>
+        <c:crossAx val="154596864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1138,7 +1150,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1193,24 +1205,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="178608384"/>
-        <c:axId val="178614272"/>
+        <c:axId val="156588288"/>
+        <c:axId val="156590080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178608384"/>
+        <c:axId val="156588288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178614272"/>
+        <c:crossAx val="156590080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178614272"/>
+        <c:axId val="156590080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1218,7 +1230,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178608384"/>
+        <c:crossAx val="156588288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1227,7 +1239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1686,7 +1698,7 @@
   <dimension ref="A1:L368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="H188" sqref="H188"/>
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5817,7 +5829,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B183" t="s">
         <v>68</v>
@@ -5826,7 +5838,7 @@
         <v>43237</v>
       </c>
       <c r="D183" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E183" t="s">
         <v>205</v>
@@ -5839,17 +5851,17 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="9">
-        <v>3.5</v>
+      <c r="A184" s="8">
+        <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
       </c>
       <c r="D184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E184" t="s">
         <v>205</v>
@@ -5858,21 +5870,21 @@
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="8">
-        <v>10</v>
+      <c r="A185" s="9">
+        <v>3.5</v>
       </c>
       <c r="B185" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
       </c>
       <c r="D185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E185" t="s">
         <v>205</v>
@@ -5881,21 +5893,21 @@
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C186" s="2">
-        <v>43238</v>
+        <v>43237</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E186" t="s">
         <v>205</v>
@@ -5904,21 +5916,21 @@
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="9">
-        <v>6.2</v>
+      <c r="A187" s="8">
+        <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C187" s="2">
         <v>43238</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E187" t="s">
         <v>205</v>
@@ -5927,7 +5939,99 @@
         <v>5</v>
       </c>
       <c r="H187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188" s="2">
+        <v>43238</v>
+      </c>
+      <c r="D188" t="s">
+        <v>213</v>
+      </c>
+      <c r="E188" t="s">
+        <v>205</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="8">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>67</v>
+      </c>
+      <c r="C189" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D189" t="s">
+        <v>215</v>
+      </c>
+      <c r="E189" t="s">
+        <v>205</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="H189" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="8">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>64</v>
+      </c>
+      <c r="C190" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D190" t="s">
+        <v>216</v>
+      </c>
+      <c r="E190" t="s">
+        <v>205</v>
+      </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
+      <c r="H190" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="8">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>67</v>
+      </c>
+      <c r="C191" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D191" t="s">
+        <v>217</v>
+      </c>
+      <c r="E191" t="s">
+        <v>205</v>
+      </c>
+      <c r="F191">
+        <v>4</v>
+      </c>
+      <c r="H191" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -5947,7 +6051,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2091.3799999999997</v>
+        <v>2128.3799999999997</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="221">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -671,6 +671,15 @@
   </si>
   <si>
     <t>burger στο BurgerVill</t>
+  </si>
+  <si>
+    <t>moschato dusty (Χ2)</t>
+  </si>
+  <si>
+    <t>ταξί τα ξυμερώματα</t>
+  </si>
+  <si>
+    <t>πρωινό μετά από προπόνηση</t>
   </si>
 </sst>
 </file>
@@ -901,24 +910,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154653440"/>
-        <c:axId val="154654976"/>
+        <c:axId val="146457728"/>
+        <c:axId val="146459264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154653440"/>
+        <c:axId val="146457728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154654976"/>
+        <c:crossAx val="146459264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154654976"/>
+        <c:axId val="146459264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +935,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154653440"/>
+        <c:crossAx val="146457728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -988,7 +997,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1116,24 +1125,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154596864"/>
-        <c:axId val="154598400"/>
+        <c:axId val="146397056"/>
+        <c:axId val="146398592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154596864"/>
+        <c:axId val="146397056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154598400"/>
+        <c:crossAx val="146398592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154598400"/>
+        <c:axId val="146398592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1150,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154596864"/>
+        <c:crossAx val="146397056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1150,7 +1159,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1205,24 +1214,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="156588288"/>
-        <c:axId val="156590080"/>
+        <c:axId val="147413632"/>
+        <c:axId val="147419520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156588288"/>
+        <c:axId val="147413632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156590080"/>
+        <c:crossAx val="147419520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156590080"/>
+        <c:axId val="147419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1239,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156588288"/>
+        <c:crossAx val="147413632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +1248,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1697,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6034,6 +6043,75 @@
         <v>81</v>
       </c>
     </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="8">
+        <v>14</v>
+      </c>
+      <c r="B192" t="s">
+        <v>67</v>
+      </c>
+      <c r="C192" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D192" t="s">
+        <v>218</v>
+      </c>
+      <c r="E192" t="s">
+        <v>78</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="H192" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="8">
+        <v>14</v>
+      </c>
+      <c r="B193" t="s">
+        <v>64</v>
+      </c>
+      <c r="C193" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D193" t="s">
+        <v>219</v>
+      </c>
+      <c r="E193" t="s">
+        <v>78</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="H193" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D194" t="s">
+        <v>220</v>
+      </c>
+      <c r="E194" t="s">
+        <v>78</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="H194" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6051,7 +6129,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2128.3799999999997</v>
+        <v>2161.0799999999995</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="230">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -680,6 +680,33 @@
   </si>
   <si>
     <t>πρωινό μετά από προπόνηση</t>
+  </si>
+  <si>
+    <t>ακουστικά razer</t>
+  </si>
+  <si>
+    <t>κέικ, μπισκότα Caprice</t>
+  </si>
+  <si>
+    <t>μερίδα κοτόπουλο</t>
+  </si>
+  <si>
+    <t>πρωινό</t>
+  </si>
+  <si>
+    <t>φούρνος (τυρόπιτάκια, σκατάκια)</t>
+  </si>
+  <si>
+    <t>Βενέτι φούρνος</t>
+  </si>
+  <si>
+    <t>Μεξικάνικο με μιχάλη</t>
+  </si>
+  <si>
+    <t>Κηφισσιά</t>
+  </si>
+  <si>
+    <t>(τσάντα, καπέλο)Cosmos Sport</t>
   </si>
 </sst>
 </file>
@@ -910,24 +937,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146457728"/>
-        <c:axId val="146459264"/>
+        <c:axId val="155104384"/>
+        <c:axId val="155105920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146457728"/>
+        <c:axId val="155104384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146459264"/>
+        <c:crossAx val="155105920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146459264"/>
+        <c:axId val="155105920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +962,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146457728"/>
+        <c:crossAx val="155104384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -997,7 +1024,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1125,24 +1152,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="146397056"/>
-        <c:axId val="146398592"/>
+        <c:axId val="155047808"/>
+        <c:axId val="155049344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146397056"/>
+        <c:axId val="155047808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146398592"/>
+        <c:crossAx val="155049344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146398592"/>
+        <c:axId val="155049344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1177,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146397056"/>
+        <c:crossAx val="155047808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1159,7 +1186,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1214,24 +1241,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="147413632"/>
-        <c:axId val="147419520"/>
+        <c:axId val="184965760"/>
+        <c:axId val="184967552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147413632"/>
+        <c:axId val="184965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147419520"/>
+        <c:crossAx val="184967552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147419520"/>
+        <c:axId val="184967552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,7 +1266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147413632"/>
+        <c:crossAx val="184965760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1248,7 +1275,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1706,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6112,6 +6139,213 @@
         <v>164</v>
       </c>
     </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="9">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B195" t="s">
+        <v>72</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D195" t="s">
+        <v>221</v>
+      </c>
+      <c r="E195" t="s">
+        <v>78</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="H195" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>67</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43242</v>
+      </c>
+      <c r="D196" t="s">
+        <v>222</v>
+      </c>
+      <c r="E196" t="s">
+        <v>78</v>
+      </c>
+      <c r="F196">
+        <v>4</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="8">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43243</v>
+      </c>
+      <c r="D197" t="s">
+        <v>223</v>
+      </c>
+      <c r="E197" t="s">
+        <v>78</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="H197" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D198" t="s">
+        <v>224</v>
+      </c>
+      <c r="E198" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="H198" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="8">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>67</v>
+      </c>
+      <c r="C199" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D199" t="s">
+        <v>225</v>
+      </c>
+      <c r="E199" t="s">
+        <v>78</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="H199" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="9">
+        <v>5.46</v>
+      </c>
+      <c r="B200" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D200" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" t="s">
+        <v>78</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="H200" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="9">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="B201" t="s">
+        <v>69</v>
+      </c>
+      <c r="C201" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D201" t="s">
+        <v>229</v>
+      </c>
+      <c r="E201" t="s">
+        <v>78</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="H201" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="8">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>67</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D202" t="s">
+        <v>227</v>
+      </c>
+      <c r="E202" t="s">
+        <v>78</v>
+      </c>
+      <c r="F202">
+        <v>5</v>
+      </c>
+      <c r="H202" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="8">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>68</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43246</v>
+      </c>
+      <c r="D203" t="s">
+        <v>105</v>
+      </c>
+      <c r="E203" t="s">
+        <v>78</v>
+      </c>
+      <c r="F203">
+        <v>5</v>
+      </c>
+      <c r="H203" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6129,7 +6363,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2161.0799999999995</v>
+        <v>2359.1899999999996</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="233">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -707,6 +707,15 @@
   </si>
   <si>
     <t>(τσάντα, καπέλο)Cosmos Sport</t>
+  </si>
+  <si>
+    <t>burger, μακαρόνια (+ Σιμώνη)</t>
+  </si>
+  <si>
+    <t>τσάι κρύο</t>
+  </si>
+  <si>
+    <t>παγωτό</t>
   </si>
 </sst>
 </file>
@@ -937,24 +946,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155104384"/>
-        <c:axId val="155105920"/>
+        <c:axId val="179155712"/>
+        <c:axId val="179157248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155104384"/>
+        <c:axId val="179155712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155105920"/>
+        <c:crossAx val="179157248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155105920"/>
+        <c:axId val="179157248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +971,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155104384"/>
+        <c:crossAx val="179155712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1024,7 +1033,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1152,24 +1161,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="155047808"/>
-        <c:axId val="155049344"/>
+        <c:axId val="147715584"/>
+        <c:axId val="147717120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="155047808"/>
+        <c:axId val="147715584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155049344"/>
+        <c:crossAx val="147717120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155049344"/>
+        <c:axId val="147717120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,7 +1186,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155047808"/>
+        <c:crossAx val="147715584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1186,7 +1195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,24 +1250,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="184965760"/>
-        <c:axId val="184967552"/>
+        <c:axId val="179849472"/>
+        <c:axId val="179855360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184965760"/>
+        <c:axId val="179849472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184967552"/>
+        <c:crossAx val="179855360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184967552"/>
+        <c:axId val="179855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1275,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184965760"/>
+        <c:crossAx val="179849472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1275,7 +1284,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1733,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6346,6 +6355,75 @@
         <v>81</v>
       </c>
     </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="8">
+        <v>26</v>
+      </c>
+      <c r="B204" t="s">
+        <v>67</v>
+      </c>
+      <c r="C204" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D204" t="s">
+        <v>230</v>
+      </c>
+      <c r="E204" t="s">
+        <v>108</v>
+      </c>
+      <c r="F204">
+        <v>5</v>
+      </c>
+      <c r="H204" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="8">
+        <v>2</v>
+      </c>
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D205" t="s">
+        <v>231</v>
+      </c>
+      <c r="E205" t="s">
+        <v>108</v>
+      </c>
+      <c r="F205">
+        <v>5</v>
+      </c>
+      <c r="H205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>67</v>
+      </c>
+      <c r="C206" s="2">
+        <v>43247</v>
+      </c>
+      <c r="D206" t="s">
+        <v>232</v>
+      </c>
+      <c r="E206" t="s">
+        <v>108</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+      <c r="H206" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6363,7 +6441,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2359.1899999999996</v>
+        <v>2389.6899999999996</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="234">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>παγωτό</t>
+  </si>
+  <si>
+    <t>ντάκος, Caprice</t>
   </si>
 </sst>
 </file>
@@ -946,24 +949,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="179155712"/>
-        <c:axId val="179157248"/>
+        <c:axId val="160084736"/>
+        <c:axId val="160086272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179155712"/>
+        <c:axId val="160084736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179157248"/>
+        <c:crossAx val="160086272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179157248"/>
+        <c:axId val="160086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +974,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179155712"/>
+        <c:crossAx val="160084736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1033,7 +1036,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1161,24 +1164,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="147715584"/>
-        <c:axId val="147717120"/>
+        <c:axId val="158725632"/>
+        <c:axId val="158727168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147715584"/>
+        <c:axId val="158725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147717120"/>
+        <c:crossAx val="158727168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147717120"/>
+        <c:axId val="158727168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,7 +1189,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147715584"/>
+        <c:crossAx val="158725632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1195,7 +1198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1250,24 +1253,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="179849472"/>
-        <c:axId val="179855360"/>
+        <c:axId val="188893440"/>
+        <c:axId val="188899328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179849472"/>
+        <c:axId val="188893440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179855360"/>
+        <c:crossAx val="188899328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179855360"/>
+        <c:axId val="188899328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1278,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179849472"/>
+        <c:crossAx val="188893440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1284,7 +1287,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1743,7 +1746,7 @@
   <dimension ref="A1:L368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+      <selection activeCell="H208" sqref="H208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6424,6 +6427,29 @@
         <v>81</v>
       </c>
     </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="B207" t="s">
+        <v>67</v>
+      </c>
+      <c r="C207" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D207" t="s">
+        <v>233</v>
+      </c>
+      <c r="E207" t="s">
+        <v>108</v>
+      </c>
+      <c r="F207">
+        <v>4</v>
+      </c>
+      <c r="H207" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6441,7 +6467,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2389.6899999999996</v>
+        <v>2395.5899999999997</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="240">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -719,6 +719,24 @@
   </si>
   <si>
     <t>ντάκος, Caprice</t>
+  </si>
+  <si>
+    <t>σουβλάκια (+ μανούλα)</t>
+  </si>
+  <si>
+    <t>πρωινό Βενέτι</t>
+  </si>
+  <si>
+    <t>ταξι από ανθούπολη</t>
+  </si>
+  <si>
+    <t>παγωτό στον σταθμό Περιστέρι</t>
+  </si>
+  <si>
+    <t>powerade</t>
+  </si>
+  <si>
+    <t>Cesar's</t>
   </si>
 </sst>
 </file>
@@ -949,24 +967,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="160084736"/>
-        <c:axId val="160086272"/>
+        <c:axId val="124834560"/>
+        <c:axId val="124836096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160084736"/>
+        <c:axId val="124834560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160086272"/>
+        <c:crossAx val="124836096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160086272"/>
+        <c:axId val="124836096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +992,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160084736"/>
+        <c:crossAx val="124834560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,7 +1054,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1164,24 +1182,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158725632"/>
-        <c:axId val="158727168"/>
+        <c:axId val="124806656"/>
+        <c:axId val="124808192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158725632"/>
+        <c:axId val="124806656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158727168"/>
+        <c:crossAx val="124808192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158727168"/>
+        <c:axId val="124808192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1189,7 +1207,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158725632"/>
+        <c:crossAx val="124806656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1198,7 +1216,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1253,24 +1271,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="188893440"/>
-        <c:axId val="188899328"/>
+        <c:axId val="158099712"/>
+        <c:axId val="158105600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188893440"/>
+        <c:axId val="158099712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188899328"/>
+        <c:crossAx val="158105600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188899328"/>
+        <c:axId val="158105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1296,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188893440"/>
+        <c:crossAx val="158099712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1287,7 +1305,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1745,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="H208" sqref="H208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6450,6 +6468,190 @@
         <v>164</v>
       </c>
     </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="9">
+        <v>8.6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>67</v>
+      </c>
+      <c r="C208" s="2">
+        <v>43248</v>
+      </c>
+      <c r="D208" t="s">
+        <v>234</v>
+      </c>
+      <c r="E208" t="s">
+        <v>108</v>
+      </c>
+      <c r="F208">
+        <v>4</v>
+      </c>
+      <c r="H208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>67</v>
+      </c>
+      <c r="C209" s="2">
+        <v>43249</v>
+      </c>
+      <c r="D209" t="s">
+        <v>235</v>
+      </c>
+      <c r="E209" t="s">
+        <v>108</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+      <c r="H209" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="9">
+        <v>4.8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D210" t="s">
+        <v>155</v>
+      </c>
+      <c r="E210" t="s">
+        <v>108</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="H210" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D211" t="s">
+        <v>224</v>
+      </c>
+      <c r="E211" t="s">
+        <v>108</v>
+      </c>
+      <c r="F211">
+        <v>4</v>
+      </c>
+      <c r="H211" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="8">
+        <v>2</v>
+      </c>
+      <c r="B212" t="s">
+        <v>67</v>
+      </c>
+      <c r="C212" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D212" t="s">
+        <v>238</v>
+      </c>
+      <c r="E212" t="s">
+        <v>108</v>
+      </c>
+      <c r="F212">
+        <v>4</v>
+      </c>
+      <c r="H212" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="8">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D213" t="s">
+        <v>239</v>
+      </c>
+      <c r="E213" t="s">
+        <v>108</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+      <c r="H213" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>67</v>
+      </c>
+      <c r="C214" s="2">
+        <v>43250</v>
+      </c>
+      <c r="D214" t="s">
+        <v>237</v>
+      </c>
+      <c r="E214" t="s">
+        <v>108</v>
+      </c>
+      <c r="F214">
+        <v>4</v>
+      </c>
+      <c r="H214" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D215" t="s">
+        <v>236</v>
+      </c>
+      <c r="E215" t="s">
+        <v>108</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
+      </c>
+      <c r="H215" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6467,7 +6669,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2395.5899999999997</v>
+        <v>2427.4899999999998</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="243">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -737,6 +737,15 @@
   </si>
   <si>
     <t>Cesar's</t>
+  </si>
+  <si>
+    <t>ντομάτα με ελιά</t>
+  </si>
+  <si>
+    <t>χυμός με κουλούρι με τυρί</t>
+  </si>
+  <si>
+    <t>burger cocacola</t>
   </si>
 </sst>
 </file>
@@ -967,24 +976,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124834560"/>
-        <c:axId val="124836096"/>
+        <c:axId val="150328064"/>
+        <c:axId val="150329600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124834560"/>
+        <c:axId val="150328064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124836096"/>
+        <c:crossAx val="150329600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124836096"/>
+        <c:axId val="150329600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +1001,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124834560"/>
+        <c:crossAx val="150328064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,7 +1063,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1182,24 +1191,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="124806656"/>
-        <c:axId val="124808192"/>
+        <c:axId val="150304256"/>
+        <c:axId val="150305792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124806656"/>
+        <c:axId val="150304256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124808192"/>
+        <c:crossAx val="150305792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124808192"/>
+        <c:axId val="150305792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1216,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124806656"/>
+        <c:crossAx val="150304256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1216,7 +1225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1271,24 +1280,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="158099712"/>
-        <c:axId val="158105600"/>
+        <c:axId val="151021824"/>
+        <c:axId val="151031808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158099712"/>
+        <c:axId val="151021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158105600"/>
+        <c:crossAx val="151031808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158105600"/>
+        <c:axId val="151031808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1305,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158099712"/>
+        <c:crossAx val="151021824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,7 +1314,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1763,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D220" sqref="D220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6652,6 +6661,98 @@
         <v>81</v>
       </c>
     </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D216" t="s">
+        <v>240</v>
+      </c>
+      <c r="E216" t="s">
+        <v>108</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+      <c r="H216" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="8">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>67</v>
+      </c>
+      <c r="C217" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D217" t="s">
+        <v>241</v>
+      </c>
+      <c r="E217" t="s">
+        <v>108</v>
+      </c>
+      <c r="F217">
+        <v>4</v>
+      </c>
+      <c r="H217" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="8">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D218" t="s">
+        <v>242</v>
+      </c>
+      <c r="E218" t="s">
+        <v>108</v>
+      </c>
+      <c r="F218">
+        <v>4</v>
+      </c>
+      <c r="H218" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D219" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" t="s">
+        <v>108</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="H219" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6669,7 +6770,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2427.4899999999998</v>
+        <v>2441.09</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="248">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -746,6 +746,21 @@
   </si>
   <si>
     <t>burger cocacola</t>
+  </si>
+  <si>
+    <t>ταξί από την ανθούπολη</t>
+  </si>
+  <si>
+    <t>κοτόπουλο με λαχανικά</t>
+  </si>
+  <si>
+    <t>πρωινό, πίτσα και χυμός</t>
+  </si>
+  <si>
+    <t>1,5€</t>
+  </si>
+  <si>
+    <t>λεμονάδα από τα mikel</t>
   </si>
 </sst>
 </file>
@@ -976,24 +991,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150328064"/>
-        <c:axId val="150329600"/>
+        <c:axId val="149607168"/>
+        <c:axId val="149608704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150328064"/>
+        <c:axId val="149607168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150329600"/>
+        <c:crossAx val="149608704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150329600"/>
+        <c:axId val="149608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1016,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150328064"/>
+        <c:crossAx val="149607168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1063,7 +1078,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1191,24 +1206,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150304256"/>
-        <c:axId val="150305792"/>
+        <c:axId val="149583360"/>
+        <c:axId val="149584896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150304256"/>
+        <c:axId val="149583360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150305792"/>
+        <c:crossAx val="149584896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150305792"/>
+        <c:axId val="149584896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1231,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150304256"/>
+        <c:crossAx val="149583360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1225,7 +1240,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1280,24 +1295,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151021824"/>
-        <c:axId val="151031808"/>
+        <c:axId val="150300928"/>
+        <c:axId val="150302720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151021824"/>
+        <c:axId val="150300928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151031808"/>
+        <c:crossAx val="150302720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151031808"/>
+        <c:axId val="150302720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1320,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151021824"/>
+        <c:crossAx val="150300928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,7 +1329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1772,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6753,6 +6768,144 @@
         <v>81</v>
       </c>
     </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="8">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D220" t="s">
+        <v>243</v>
+      </c>
+      <c r="E220" t="s">
+        <v>108</v>
+      </c>
+      <c r="F220">
+        <v>4</v>
+      </c>
+      <c r="H220" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="8">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>67</v>
+      </c>
+      <c r="C221" s="2">
+        <v>43255</v>
+      </c>
+      <c r="D221" t="s">
+        <v>180</v>
+      </c>
+      <c r="E221" t="s">
+        <v>108</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="H221" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D222" t="s">
+        <v>245</v>
+      </c>
+      <c r="E222" t="s">
+        <v>108</v>
+      </c>
+      <c r="F222">
+        <v>4</v>
+      </c>
+      <c r="H222" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="8">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D223" t="s">
+        <v>244</v>
+      </c>
+      <c r="E223" t="s">
+        <v>108</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+      <c r="H223" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="8">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E224" t="s">
+        <v>108</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>246</v>
+      </c>
+      <c r="B225" t="s">
+        <v>67</v>
+      </c>
+      <c r="C225" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D225" t="s">
+        <v>247</v>
+      </c>
+      <c r="E225" t="s">
+        <v>108</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
+      <c r="H225" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6770,7 +6923,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2441.09</v>
+        <v>2470.79</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="250">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -757,10 +757,16 @@
     <t>πρωινό, πίτσα και χυμός</t>
   </si>
   <si>
-    <t>1,5€</t>
-  </si>
-  <si>
     <t>λεμονάδα από τα mikel</t>
+  </si>
+  <si>
+    <t>αεροπορικά για Κρήτη</t>
+  </si>
+  <si>
+    <t>μπριζόλα με τζίντζερ και ντάκος</t>
+  </si>
+  <si>
+    <t>ζαμπονοτυρόπιτα και Λεμονάδα</t>
   </si>
 </sst>
 </file>
@@ -991,24 +997,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="149607168"/>
-        <c:axId val="149608704"/>
+        <c:axId val="153670400"/>
+        <c:axId val="153671936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149607168"/>
+        <c:axId val="153670400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149608704"/>
+        <c:crossAx val="153671936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149608704"/>
+        <c:axId val="153671936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1016,7 +1022,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149607168"/>
+        <c:crossAx val="153670400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1078,7 +1084,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1206,24 +1212,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="149583360"/>
-        <c:axId val="149584896"/>
+        <c:axId val="153654784"/>
+        <c:axId val="153656320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149583360"/>
+        <c:axId val="153654784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149584896"/>
+        <c:crossAx val="153656320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149584896"/>
+        <c:axId val="153656320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1237,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149583360"/>
+        <c:crossAx val="153654784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1240,7 +1246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1295,24 +1301,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150300928"/>
-        <c:axId val="150302720"/>
+        <c:axId val="154364160"/>
+        <c:axId val="154365952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150300928"/>
+        <c:axId val="154364160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150302720"/>
+        <c:crossAx val="154365952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150302720"/>
+        <c:axId val="154365952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1326,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150300928"/>
+        <c:crossAx val="154364160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,7 +1335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1787,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6884,8 +6890,8 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" t="s">
-        <v>246</v>
+      <c r="A225" s="9">
+        <v>1.5</v>
       </c>
       <c r="B225" t="s">
         <v>67</v>
@@ -6894,7 +6900,7 @@
         <v>43256</v>
       </c>
       <c r="D225" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E225" t="s">
         <v>108</v>
@@ -6903,6 +6909,75 @@
         <v>4</v>
       </c>
       <c r="H225" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="8">
+        <v>99</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D226" t="s">
+        <v>247</v>
+      </c>
+      <c r="E226" t="s">
+        <v>108</v>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+      <c r="H226" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="8">
+        <v>7</v>
+      </c>
+      <c r="B227" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E227" t="s">
+        <v>108</v>
+      </c>
+      <c r="F227">
+        <v>3</v>
+      </c>
+      <c r="H227" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="B228" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D228" t="s">
+        <v>249</v>
+      </c>
+      <c r="E228" t="s">
+        <v>108</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="H228" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6923,7 +6998,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2470.79</v>
+        <v>2581.09</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="261">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -767,6 +767,39 @@
   </si>
   <si>
     <t>ζαμπονοτυρόπιτα και Λεμονάδα</t>
+  </si>
+  <si>
+    <t>τσίχλα trintent</t>
+  </si>
+  <si>
+    <t>pepsy, νερό λεμονάδα</t>
+  </si>
+  <si>
+    <t>δώρο Μανούλας</t>
+  </si>
+  <si>
+    <t>παγωτά για την ήττα μου</t>
+  </si>
+  <si>
+    <t>piccetti</t>
+  </si>
+  <si>
+    <t>σουβλάκια νερό με Ειρήνη και Ιωάννα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pepsy </t>
+  </si>
+  <si>
+    <t>ταξί μέχρι τα village cinemas</t>
+  </si>
+  <si>
+    <t>εισητήρια (+ Αναστασίας)</t>
+  </si>
+  <si>
+    <t>μπουνιές (+ Αναστασίας)</t>
+  </si>
+  <si>
+    <t>ταξί από τα village cinemas</t>
   </si>
 </sst>
 </file>
@@ -997,24 +1030,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153670400"/>
-        <c:axId val="153671936"/>
+        <c:axId val="153543808"/>
+        <c:axId val="153545344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153670400"/>
+        <c:axId val="153543808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153671936"/>
+        <c:crossAx val="153545344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153671936"/>
+        <c:axId val="153545344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1055,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153670400"/>
+        <c:crossAx val="153543808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1084,7 +1117,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1212,24 +1245,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153654784"/>
-        <c:axId val="153656320"/>
+        <c:axId val="153507712"/>
+        <c:axId val="153509248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153654784"/>
+        <c:axId val="153507712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153656320"/>
+        <c:crossAx val="153509248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153656320"/>
+        <c:axId val="153509248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1270,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153654784"/>
+        <c:crossAx val="153507712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,7 +1279,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1301,24 +1334,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154364160"/>
-        <c:axId val="154365952"/>
+        <c:axId val="154233472"/>
+        <c:axId val="154235264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154364160"/>
+        <c:axId val="154233472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154365952"/>
+        <c:crossAx val="154235264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154365952"/>
+        <c:axId val="154235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1359,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154364160"/>
+        <c:crossAx val="154233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,7 +1368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1793,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="H228" sqref="H228"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6981,6 +7014,259 @@
         <v>81</v>
       </c>
     </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="8">
+        <v>1</v>
+      </c>
+      <c r="B229" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D229" t="s">
+        <v>250</v>
+      </c>
+      <c r="E229" t="s">
+        <v>108</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+      <c r="H229" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="8">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D230" t="s">
+        <v>251</v>
+      </c>
+      <c r="E230" t="s">
+        <v>108</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+      <c r="H230" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="8">
+        <v>50</v>
+      </c>
+      <c r="B231" t="s">
+        <v>68</v>
+      </c>
+      <c r="C231" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D231" t="s">
+        <v>252</v>
+      </c>
+      <c r="E231" t="s">
+        <v>108</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+      <c r="H231" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="9">
+        <v>7.2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>67</v>
+      </c>
+      <c r="C232" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D232" t="s">
+        <v>253</v>
+      </c>
+      <c r="E232" t="s">
+        <v>108</v>
+      </c>
+      <c r="F232">
+        <v>4</v>
+      </c>
+      <c r="H232" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="8">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>67</v>
+      </c>
+      <c r="C233" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D233" t="s">
+        <v>254</v>
+      </c>
+      <c r="E233" t="s">
+        <v>108</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
+      </c>
+      <c r="H233" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="8">
+        <v>7</v>
+      </c>
+      <c r="B234" t="s">
+        <v>67</v>
+      </c>
+      <c r="C234" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D234" t="s">
+        <v>255</v>
+      </c>
+      <c r="E234" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+      <c r="H234" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B235" t="s">
+        <v>67</v>
+      </c>
+      <c r="C235" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D235" t="s">
+        <v>256</v>
+      </c>
+      <c r="E235" t="s">
+        <v>108</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="H235" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="8">
+        <v>7</v>
+      </c>
+      <c r="B236" t="s">
+        <v>64</v>
+      </c>
+      <c r="C236" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D236" t="s">
+        <v>257</v>
+      </c>
+      <c r="E236" t="s">
+        <v>108</v>
+      </c>
+      <c r="F236">
+        <v>4</v>
+      </c>
+      <c r="H236" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="8">
+        <v>15</v>
+      </c>
+      <c r="B237" t="s">
+        <v>73</v>
+      </c>
+      <c r="C237" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D237" t="s">
+        <v>258</v>
+      </c>
+      <c r="E237" t="s">
+        <v>108</v>
+      </c>
+      <c r="F237">
+        <v>4</v>
+      </c>
+      <c r="H237" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="8">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
+        <v>73</v>
+      </c>
+      <c r="C238" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D238" t="s">
+        <v>259</v>
+      </c>
+      <c r="E238" t="s">
+        <v>108</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
+      </c>
+      <c r="H238" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="9">
+        <v>11.2</v>
+      </c>
+      <c r="B239" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239" s="2">
+        <v>43263</v>
+      </c>
+      <c r="D239" t="s">
+        <v>260</v>
+      </c>
+      <c r="E239" t="s">
+        <v>108</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="H239" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="366" spans="1:12">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
@@ -6998,7 +7284,7 @@
     <row r="367" spans="1:12">
       <c r="A367" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2581.09</v>
+        <v>2688.5899999999997</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="266">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -800,6 +800,21 @@
   </si>
   <si>
     <t>ταξί από τα village cinemas</t>
+  </si>
+  <si>
+    <t>σουβλάκια σκέτα (διατροφή)</t>
+  </si>
+  <si>
+    <t>παπούτσια addidas</t>
+  </si>
+  <si>
+    <t>writing tablet</t>
+  </si>
+  <si>
+    <t>δίπλωμα οδήγησης</t>
+  </si>
+  <si>
+    <t>πρωινό moccachino κουλούρι</t>
   </si>
 </sst>
 </file>
@@ -1030,24 +1045,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153543808"/>
-        <c:axId val="153545344"/>
+        <c:axId val="126608128"/>
+        <c:axId val="126609664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153543808"/>
+        <c:axId val="126608128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153545344"/>
+        <c:crossAx val="126609664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153545344"/>
+        <c:axId val="126609664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1070,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153543808"/>
+        <c:crossAx val="126608128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1117,7 +1132,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1245,24 +1260,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="153507712"/>
-        <c:axId val="153509248"/>
+        <c:axId val="126592512"/>
+        <c:axId val="126594048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153507712"/>
+        <c:axId val="126592512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153509248"/>
+        <c:crossAx val="126594048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153509248"/>
+        <c:axId val="126594048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1285,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153507712"/>
+        <c:crossAx val="126592512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1279,7 +1294,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1334,24 +1349,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="154233472"/>
-        <c:axId val="154235264"/>
+        <c:axId val="157444352"/>
+        <c:axId val="157446144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="154233472"/>
+        <c:axId val="157444352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154235264"/>
+        <c:crossAx val="157446144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154235264"/>
+        <c:axId val="157446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1374,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154233472"/>
+        <c:crossAx val="157444352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,7 +1383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1518,8 +1533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:J367" totalsRowCount="1">
-  <autoFilter ref="A1:J366">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:J368" totalsRowCount="1">
+  <autoFilter ref="A1:J367">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -1824,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L368"/>
+  <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5199,7 +5214,7 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="3">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="B150" t="s">
         <v>68</v>
@@ -5208,7 +5223,7 @@
         <v>43211</v>
       </c>
       <c r="D150" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="E150" t="s">
         <v>166</v>
@@ -5222,16 +5237,16 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
       </c>
       <c r="D151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E151" t="s">
         <v>166</v>
@@ -5240,12 +5255,12 @@
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>67</v>
@@ -5254,7 +5269,7 @@
         <v>43211</v>
       </c>
       <c r="D152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E152" t="s">
         <v>166</v>
@@ -5267,17 +5282,17 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="7">
-        <v>3.5</v>
+      <c r="A153" s="3">
+        <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2">
         <v>43211</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E153" t="s">
         <v>166</v>
@@ -5286,21 +5301,21 @@
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="8">
-        <v>55</v>
+      <c r="A154" s="7">
+        <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C154" s="2">
-        <v>43213</v>
+        <v>43211</v>
       </c>
       <c r="D154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E154" t="s">
         <v>166</v>
@@ -5313,17 +5328,17 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="9">
-        <v>0.6</v>
+      <c r="A155" s="8">
+        <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
       </c>
       <c r="D155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E155" t="s">
         <v>166</v>
@@ -5332,21 +5347,21 @@
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="8">
-        <v>4</v>
+      <c r="A156" s="9">
+        <v>0.6</v>
       </c>
       <c r="B156" t="s">
         <v>67</v>
       </c>
       <c r="C156" s="2">
-        <v>43214</v>
+        <v>43213</v>
       </c>
       <c r="D156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E156" t="s">
         <v>166</v>
@@ -5359,17 +5374,17 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="9">
-        <v>39.9</v>
+      <c r="A157" s="8">
+        <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2">
-        <v>43216</v>
+        <v>43214</v>
       </c>
       <c r="D157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E157" t="s">
         <v>166</v>
@@ -5378,21 +5393,21 @@
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="9">
-        <v>1.6</v>
+        <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
       </c>
       <c r="D158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E158" t="s">
         <v>166</v>
@@ -5401,21 +5416,21 @@
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="8">
-        <v>80</v>
+      <c r="A159" s="9">
+        <v>1.6</v>
       </c>
       <c r="B159" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C159" s="2">
-        <v>43217</v>
+        <v>43216</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E159" t="s">
         <v>166</v>
@@ -5424,21 +5439,21 @@
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="9">
-        <v>6.2</v>
+      <c r="A160" s="8">
+        <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C160" s="2">
         <v>43217</v>
       </c>
       <c r="D160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E160" t="s">
         <v>166</v>
@@ -5447,21 +5462,21 @@
         <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="8">
-        <v>15</v>
+      <c r="A161" s="9">
+        <v>6.2</v>
       </c>
       <c r="B161" t="s">
         <v>67</v>
       </c>
       <c r="C161" s="2">
-        <v>43218</v>
+        <v>43217</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E161" t="s">
         <v>166</v>
@@ -5470,12 +5485,12 @@
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9">
-        <v>4.3</v>
+      <c r="A162" s="8">
+        <v>15</v>
       </c>
       <c r="B162" t="s">
         <v>67</v>
@@ -5484,7 +5499,7 @@
         <v>43218</v>
       </c>
       <c r="D162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E162" t="s">
         <v>166</v>
@@ -5493,21 +5508,21 @@
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="9">
-        <v>9.6999999999999993</v>
+        <v>4.3</v>
       </c>
       <c r="B163" t="s">
         <v>67</v>
       </c>
       <c r="C163" s="2">
-        <v>43219</v>
+        <v>43218</v>
       </c>
       <c r="D163" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E163" t="s">
         <v>166</v>
@@ -5516,35 +5531,35 @@
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="9">
-        <v>2.4500000000000002</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="B164" t="s">
         <v>67</v>
       </c>
       <c r="C164" s="2">
-        <v>43220</v>
+        <v>43219</v>
       </c>
       <c r="D164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E164" t="s">
         <v>166</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="9">
-        <v>1.96</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="B165" t="s">
         <v>67</v>
@@ -5553,7 +5568,7 @@
         <v>43220</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E165" t="s">
         <v>166</v>
@@ -5562,21 +5577,21 @@
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="9">
-        <v>11.5</v>
+        <v>1.96</v>
       </c>
       <c r="B166" t="s">
         <v>67</v>
       </c>
       <c r="C166" s="2">
-        <v>43221</v>
+        <v>43220</v>
       </c>
       <c r="D166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E166" t="s">
         <v>166</v>
@@ -5585,21 +5600,21 @@
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="9">
-        <v>2.7</v>
+        <v>11.5</v>
       </c>
       <c r="B167" t="s">
         <v>67</v>
       </c>
       <c r="C167" s="2">
-        <v>43223</v>
+        <v>43221</v>
       </c>
       <c r="D167" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E167" t="s">
         <v>166</v>
@@ -5608,7 +5623,7 @@
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5619,33 +5634,33 @@
         <v>67</v>
       </c>
       <c r="C168" s="2">
-        <v>43224</v>
+        <v>43223</v>
       </c>
       <c r="D168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
       </c>
       <c r="F168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="8">
-        <v>7</v>
+      <c r="A169" s="9">
+        <v>2.7</v>
       </c>
       <c r="B169" t="s">
         <v>67</v>
       </c>
       <c r="C169" s="2">
-        <v>43225</v>
+        <v>43224</v>
       </c>
       <c r="D169" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E169" t="s">
         <v>166</v>
@@ -5654,21 +5669,21 @@
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9">
-        <v>4.8</v>
+      <c r="A170" s="8">
+        <v>7</v>
       </c>
       <c r="B170" t="s">
         <v>67</v>
       </c>
       <c r="C170" s="2">
-        <v>43227</v>
+        <v>43225</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E170" t="s">
         <v>166</v>
@@ -5677,12 +5692,12 @@
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="9">
-        <v>4.4000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="B171" t="s">
         <v>67</v>
@@ -5691,7 +5706,7 @@
         <v>43227</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="E171" t="s">
         <v>166</v>
@@ -5700,21 +5715,21 @@
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="9">
-        <v>3.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B172" t="s">
         <v>67</v>
       </c>
       <c r="C172" s="2">
-        <v>43228</v>
+        <v>43227</v>
       </c>
       <c r="D172" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="E172" t="s">
         <v>166</v>
@@ -5723,35 +5738,35 @@
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="9">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="B173" t="s">
         <v>67</v>
       </c>
       <c r="C173" s="2">
-        <v>43229</v>
+        <v>43228</v>
       </c>
       <c r="D173" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E173" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="H173" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="9">
-        <v>11.5</v>
+        <v>1.5</v>
       </c>
       <c r="B174" t="s">
         <v>67</v>
@@ -5760,7 +5775,7 @@
         <v>43229</v>
       </c>
       <c r="D174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E174" t="s">
         <v>108</v>
@@ -5769,21 +5784,21 @@
         <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="9">
-        <v>4.4000000000000004</v>
+        <v>11.5</v>
       </c>
       <c r="B175" t="s">
         <v>67</v>
       </c>
       <c r="C175" s="2">
-        <v>43230</v>
+        <v>43229</v>
       </c>
       <c r="D175" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E175" t="s">
         <v>108</v>
@@ -5797,16 +5812,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="9">
-        <v>6.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B176" t="s">
         <v>67</v>
       </c>
       <c r="C176" s="2">
-        <v>43233</v>
+        <v>43230</v>
       </c>
       <c r="D176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E176" t="s">
         <v>108</v>
@@ -5815,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5829,76 +5844,76 @@
         <v>43233</v>
       </c>
       <c r="D177" t="s">
+        <v>201</v>
+      </c>
+      <c r="E177" t="s">
+        <v>108</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="2">
+        <v>43233</v>
+      </c>
+      <c r="D178" t="s">
         <v>203</v>
       </c>
-      <c r="E177" t="s">
-        <v>108</v>
-      </c>
-      <c r="F177">
-        <v>5</v>
-      </c>
-      <c r="H177" t="s">
+      <c r="E178" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="H178" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="8">
-        <v>5</v>
-      </c>
-      <c r="B178" t="s">
-        <v>67</v>
-      </c>
-      <c r="C178" s="2">
-        <v>43234</v>
-      </c>
-      <c r="D178" t="s">
-        <v>180</v>
-      </c>
-      <c r="E178" t="s">
-        <v>205</v>
-      </c>
-      <c r="F178">
-        <v>3</v>
-      </c>
-      <c r="H178" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
         <v>67</v>
       </c>
       <c r="C179" s="2">
-        <v>43236</v>
+        <v>43234</v>
       </c>
       <c r="D179" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E179" t="s">
         <v>205</v>
       </c>
       <c r="F179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C180" s="2">
         <v>43236</v>
       </c>
       <c r="D180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E180" t="s">
         <v>205</v>
@@ -5907,21 +5922,21 @@
         <v>4</v>
       </c>
       <c r="H180" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="9">
-        <v>3.2</v>
+      <c r="A181" s="8">
+        <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C181" s="2">
-        <v>43237</v>
+        <v>43236</v>
       </c>
       <c r="D181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E181" t="s">
         <v>205</v>
@@ -5930,35 +5945,35 @@
         <v>4</v>
       </c>
       <c r="H181" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="8">
-        <v>10</v>
+      <c r="A182" s="9">
+        <v>3.2</v>
       </c>
       <c r="B182" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C182" s="2">
         <v>43237</v>
       </c>
       <c r="D182" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="E182" t="s">
         <v>205</v>
       </c>
       <c r="F182">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="8">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
         <v>68</v>
@@ -5967,7 +5982,7 @@
         <v>43237</v>
       </c>
       <c r="D183" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="E183" t="s">
         <v>205</v>
@@ -5976,12 +5991,12 @@
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="8">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
         <v>68</v>
@@ -5990,7 +6005,7 @@
         <v>43237</v>
       </c>
       <c r="D184" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E184" t="s">
         <v>205</v>
@@ -6003,17 +6018,17 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="9">
-        <v>3.5</v>
+      <c r="A185" s="8">
+        <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
       </c>
       <c r="D185" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E185" t="s">
         <v>205</v>
@@ -6022,21 +6037,21 @@
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="8">
-        <v>10</v>
+      <c r="A186" s="9">
+        <v>3.5</v>
       </c>
       <c r="B186" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C186" s="2">
         <v>43237</v>
       </c>
       <c r="D186" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E186" t="s">
         <v>205</v>
@@ -6045,21 +6060,21 @@
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C187" s="2">
-        <v>43238</v>
+        <v>43237</v>
       </c>
       <c r="D187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E187" t="s">
         <v>205</v>
@@ -6068,21 +6083,21 @@
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="9">
-        <v>6.2</v>
+      <c r="A188" s="8">
+        <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C188" s="2">
         <v>43238</v>
       </c>
       <c r="D188" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E188" t="s">
         <v>205</v>
@@ -6091,21 +6106,21 @@
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="8">
-        <v>2</v>
+      <c r="A189" s="9">
+        <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C189" s="2">
-        <v>43239</v>
+        <v>43238</v>
       </c>
       <c r="D189" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E189" t="s">
         <v>205</v>
@@ -6119,16 +6134,16 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C190" s="2">
         <v>43239</v>
       </c>
       <c r="D190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E190" t="s">
         <v>205</v>
@@ -6137,27 +6152,27 @@
         <v>5</v>
       </c>
       <c r="H190" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
       </c>
       <c r="D191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E191" t="s">
         <v>205</v>
       </c>
       <c r="F191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H191" t="s">
         <v>81</v>
@@ -6165,25 +6180,25 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B192" t="s">
         <v>67</v>
       </c>
       <c r="C192" s="2">
-        <v>43240</v>
+        <v>43239</v>
       </c>
       <c r="D192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E192" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="F192">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6191,36 +6206,36 @@
         <v>14</v>
       </c>
       <c r="B193" t="s">
+        <v>67</v>
+      </c>
+      <c r="C193" s="2">
+        <v>43240</v>
+      </c>
+      <c r="D193" t="s">
+        <v>218</v>
+      </c>
+      <c r="E193" t="s">
+        <v>78</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="H193" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="8">
+        <v>14</v>
+      </c>
+      <c r="B194" t="s">
         <v>64</v>
-      </c>
-      <c r="C193" s="2">
-        <v>43241</v>
-      </c>
-      <c r="D193" t="s">
-        <v>219</v>
-      </c>
-      <c r="E193" t="s">
-        <v>78</v>
-      </c>
-      <c r="F193">
-        <v>5</v>
-      </c>
-      <c r="H193" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="B194" t="s">
-        <v>67</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
       </c>
       <c r="D194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E194" t="s">
         <v>78</v>
@@ -6229,21 +6244,21 @@
         <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="9">
-        <v>69.900000000000006</v>
+        <v>4.7</v>
       </c>
       <c r="B195" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C195" s="2">
         <v>43241</v>
       </c>
       <c r="D195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E195" t="s">
         <v>78</v>
@@ -6252,81 +6267,81 @@
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="9">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43241</v>
+      </c>
+      <c r="D196" t="s">
+        <v>221</v>
+      </c>
+      <c r="E196" t="s">
+        <v>78</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="H196" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="9">
         <v>8.4</v>
       </c>
-      <c r="B196" t="s">
-        <v>67</v>
-      </c>
-      <c r="C196" s="2">
+      <c r="B197" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="2">
         <v>43242</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>222</v>
       </c>
-      <c r="E196" t="s">
-        <v>78</v>
-      </c>
-      <c r="F196">
-        <v>4</v>
-      </c>
-      <c r="H196" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="8">
-        <v>5</v>
-      </c>
-      <c r="B197" t="s">
-        <v>67</v>
-      </c>
-      <c r="C197" s="2">
+      <c r="E197" t="s">
+        <v>78</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+      <c r="H197" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="8">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>67</v>
+      </c>
+      <c r="C198" s="2">
         <v>43243</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>223</v>
       </c>
-      <c r="E197" t="s">
-        <v>78</v>
-      </c>
-      <c r="F197">
-        <v>4</v>
-      </c>
-      <c r="H197" t="s">
+      <c r="E198" t="s">
+        <v>78</v>
+      </c>
+      <c r="F198">
+        <v>4</v>
+      </c>
+      <c r="H198" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="9">
+    <row r="199" spans="1:8">
+      <c r="A199" s="9">
         <v>4.5</v>
-      </c>
-      <c r="B198" t="s">
-        <v>67</v>
-      </c>
-      <c r="C198" s="2">
-        <v>43244</v>
-      </c>
-      <c r="D198" t="s">
-        <v>224</v>
-      </c>
-      <c r="E198" t="s">
-        <v>78</v>
-      </c>
-      <c r="F198">
-        <v>4</v>
-      </c>
-      <c r="H198" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="8">
-        <v>6</v>
       </c>
       <c r="B199" t="s">
         <v>67</v>
@@ -6335,77 +6350,77 @@
         <v>43244</v>
       </c>
       <c r="D199" t="s">
+        <v>224</v>
+      </c>
+      <c r="E199" t="s">
+        <v>78</v>
+      </c>
+      <c r="F199">
+        <v>4</v>
+      </c>
+      <c r="H199" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="8">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>67</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43244</v>
+      </c>
+      <c r="D200" t="s">
         <v>225</v>
       </c>
-      <c r="E199" t="s">
-        <v>78</v>
-      </c>
-      <c r="F199">
-        <v>4</v>
-      </c>
-      <c r="H199" t="s">
+      <c r="E200" t="s">
+        <v>78</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="H200" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="9">
-        <v>5.46</v>
-      </c>
-      <c r="B200" t="s">
-        <v>67</v>
-      </c>
-      <c r="C200" s="2">
-        <v>43245</v>
-      </c>
-      <c r="D200" t="s">
-        <v>226</v>
-      </c>
-      <c r="E200" t="s">
-        <v>78</v>
-      </c>
-      <c r="F200">
-        <v>4</v>
-      </c>
-      <c r="H200" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="9">
-        <v>78.849999999999994</v>
+        <v>5.46</v>
       </c>
       <c r="B201" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C201" s="2">
         <v>43245</v>
       </c>
       <c r="D201" t="s">
+        <v>226</v>
+      </c>
+      <c r="E201" t="s">
+        <v>78</v>
+      </c>
+      <c r="F201">
+        <v>4</v>
+      </c>
+      <c r="H201" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="9">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="B202" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43245</v>
+      </c>
+      <c r="D202" t="s">
         <v>229</v>
       </c>
-      <c r="E201" t="s">
-        <v>78</v>
-      </c>
-      <c r="F201">
-        <v>5</v>
-      </c>
-      <c r="H201" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="8">
-        <v>10</v>
-      </c>
-      <c r="B202" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" s="2">
-        <v>43246</v>
-      </c>
-      <c r="D202" t="s">
-        <v>227</v>
-      </c>
       <c r="E202" t="s">
         <v>78</v>
       </c>
@@ -6413,7 +6428,7 @@
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6421,13 +6436,13 @@
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C203" s="2">
         <v>43246</v>
       </c>
       <c r="D203" t="s">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="E203" t="s">
         <v>78</v>
@@ -6436,35 +6451,35 @@
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>81</v>
+        <v>228</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="8">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C204" s="2">
-        <v>43247</v>
+        <v>43246</v>
       </c>
       <c r="D204" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="E204" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F204">
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="8">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B205" t="s">
         <v>67</v>
@@ -6473,7 +6488,7 @@
         <v>43247</v>
       </c>
       <c r="D205" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E205" t="s">
         <v>108</v>
@@ -6486,8 +6501,8 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="9">
-        <v>2.5</v>
+      <c r="A206" s="8">
+        <v>2</v>
       </c>
       <c r="B206" t="s">
         <v>67</v>
@@ -6496,7 +6511,7 @@
         <v>43247</v>
       </c>
       <c r="D206" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E206" t="s">
         <v>108</v>
@@ -6505,35 +6520,35 @@
         <v>5</v>
       </c>
       <c r="H206" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="9">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="B207" t="s">
         <v>67</v>
       </c>
       <c r="C207" s="2">
-        <v>43248</v>
+        <v>43247</v>
       </c>
       <c r="D207" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E207" t="s">
         <v>108</v>
       </c>
       <c r="F207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H207" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="9">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="B208" t="s">
         <v>67</v>
@@ -6542,7 +6557,7 @@
         <v>43248</v>
       </c>
       <c r="D208" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E208" t="s">
         <v>108</v>
@@ -6551,21 +6566,21 @@
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="9">
-        <v>2.7</v>
+        <v>8.6</v>
       </c>
       <c r="B209" t="s">
         <v>67</v>
       </c>
       <c r="C209" s="2">
-        <v>43249</v>
+        <v>43248</v>
       </c>
       <c r="D209" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E209" t="s">
         <v>108</v>
@@ -6574,21 +6589,21 @@
         <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="9">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="B210" t="s">
         <v>67</v>
       </c>
       <c r="C210" s="2">
-        <v>43250</v>
+        <v>43249</v>
       </c>
       <c r="D210" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="E210" t="s">
         <v>108</v>
@@ -6597,12 +6612,12 @@
         <v>4</v>
       </c>
       <c r="H210" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="9">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="B211" t="s">
         <v>67</v>
@@ -6611,7 +6626,7 @@
         <v>43250</v>
       </c>
       <c r="D211" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="E211" t="s">
         <v>108</v>
@@ -6620,12 +6635,12 @@
         <v>4</v>
       </c>
       <c r="H211" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="8">
-        <v>2</v>
+      <c r="A212" s="9">
+        <v>2.8</v>
       </c>
       <c r="B212" t="s">
         <v>67</v>
@@ -6634,7 +6649,7 @@
         <v>43250</v>
       </c>
       <c r="D212" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="E212" t="s">
         <v>108</v>
@@ -6643,12 +6658,12 @@
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
         <v>67</v>
@@ -6657,7 +6672,7 @@
         <v>43250</v>
       </c>
       <c r="D213" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E213" t="s">
         <v>108</v>
@@ -6666,12 +6681,12 @@
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="9">
-        <v>2.5</v>
+      <c r="A214" s="8">
+        <v>5</v>
       </c>
       <c r="B214" t="s">
         <v>67</v>
@@ -6680,7 +6695,7 @@
         <v>43250</v>
       </c>
       <c r="D214" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E214" t="s">
         <v>108</v>
@@ -6689,21 +6704,21 @@
         <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="B215" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C215" s="2">
-        <v>43251</v>
+        <v>43250</v>
       </c>
       <c r="D215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E215" t="s">
         <v>108</v>
@@ -6717,30 +6732,30 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="2">
+        <v>43251</v>
+      </c>
+      <c r="D216" t="s">
+        <v>236</v>
+      </c>
+      <c r="E216" t="s">
+        <v>108</v>
+      </c>
+      <c r="F216">
+        <v>4</v>
+      </c>
+      <c r="H216" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="9">
         <v>1.8</v>
-      </c>
-      <c r="B216" t="s">
-        <v>67</v>
-      </c>
-      <c r="C216" s="2">
-        <v>43252</v>
-      </c>
-      <c r="D216" t="s">
-        <v>240</v>
-      </c>
-      <c r="E216" t="s">
-        <v>108</v>
-      </c>
-      <c r="F216">
-        <v>4</v>
-      </c>
-      <c r="H216" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="8">
-        <v>4</v>
       </c>
       <c r="B217" t="s">
         <v>67</v>
@@ -6749,7 +6764,7 @@
         <v>43252</v>
       </c>
       <c r="D217" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E217" t="s">
         <v>108</v>
@@ -6758,12 +6773,12 @@
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>67</v>
@@ -6772,7 +6787,7 @@
         <v>43252</v>
       </c>
       <c r="D218" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E218" t="s">
         <v>108</v>
@@ -6785,8 +6800,8 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="9">
-        <v>1.8</v>
+      <c r="A219" s="8">
+        <v>6</v>
       </c>
       <c r="B219" t="s">
         <v>67</v>
@@ -6795,30 +6810,30 @@
         <v>43252</v>
       </c>
       <c r="D219" t="s">
+        <v>242</v>
+      </c>
+      <c r="E219" t="s">
+        <v>108</v>
+      </c>
+      <c r="F219">
+        <v>4</v>
+      </c>
+      <c r="H219" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" s="2">
+        <v>43252</v>
+      </c>
+      <c r="D220" t="s">
         <v>33</v>
-      </c>
-      <c r="E219" t="s">
-        <v>108</v>
-      </c>
-      <c r="F219">
-        <v>4</v>
-      </c>
-      <c r="H219" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="8">
-        <v>5</v>
-      </c>
-      <c r="B220" t="s">
-        <v>64</v>
-      </c>
-      <c r="C220" s="2">
-        <v>43254</v>
-      </c>
-      <c r="D220" t="s">
-        <v>243</v>
       </c>
       <c r="E220" t="s">
         <v>108</v>
@@ -6835,36 +6850,36 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C221" s="2">
+        <v>43254</v>
+      </c>
+      <c r="D221" t="s">
+        <v>243</v>
+      </c>
+      <c r="E221" t="s">
+        <v>108</v>
+      </c>
+      <c r="F221">
+        <v>4</v>
+      </c>
+      <c r="H221" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="8">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="2">
         <v>43255</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>180</v>
-      </c>
-      <c r="E221" t="s">
-        <v>108</v>
-      </c>
-      <c r="F221">
-        <v>4</v>
-      </c>
-      <c r="H221" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="B222" t="s">
-        <v>67</v>
-      </c>
-      <c r="C222" s="2">
-        <v>43256</v>
-      </c>
-      <c r="D222" t="s">
-        <v>245</v>
       </c>
       <c r="E222" t="s">
         <v>108</v>
@@ -6877,8 +6892,8 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="8">
-        <v>5</v>
+      <c r="A223" s="9">
+        <v>4.7</v>
       </c>
       <c r="B223" t="s">
         <v>67</v>
@@ -6887,7 +6902,7 @@
         <v>43256</v>
       </c>
       <c r="D223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E223" t="s">
         <v>108</v>
@@ -6901,16 +6916,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C224" s="2">
         <v>43256</v>
       </c>
       <c r="D224" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="E224" t="s">
         <v>108</v>
@@ -6919,67 +6934,67 @@
         <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="9">
-        <v>1.5</v>
+      <c r="A225" s="8">
+        <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C225" s="2">
         <v>43256</v>
       </c>
       <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" t="s">
+        <v>108</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
+      <c r="H225" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226" s="2">
+        <v>43256</v>
+      </c>
+      <c r="D226" t="s">
         <v>246</v>
       </c>
-      <c r="E225" t="s">
-        <v>108</v>
-      </c>
-      <c r="F225">
-        <v>4</v>
-      </c>
-      <c r="H225" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="8">
-        <v>99</v>
-      </c>
-      <c r="B226" t="s">
-        <v>64</v>
-      </c>
-      <c r="C226" s="2">
-        <v>43257</v>
-      </c>
-      <c r="D226" t="s">
-        <v>247</v>
-      </c>
       <c r="E226" t="s">
         <v>108</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="8">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B227" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>248</v>
+      <c r="D227" t="s">
+        <v>247</v>
       </c>
       <c r="E227" t="s">
         <v>108</v>
@@ -6992,8 +7007,8 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="9">
-        <v>2.8</v>
+      <c r="A228" s="8">
+        <v>7</v>
       </c>
       <c r="B228" t="s">
         <v>67</v>
@@ -7001,8 +7016,8 @@
       <c r="C228" s="2">
         <v>43257</v>
       </c>
-      <c r="D228" t="s">
-        <v>249</v>
+      <c r="D228" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="E228" t="s">
         <v>108</v>
@@ -7011,27 +7026,27 @@
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="8">
-        <v>1</v>
+      <c r="A229" s="9">
+        <v>2.8</v>
       </c>
       <c r="B229" t="s">
         <v>67</v>
       </c>
       <c r="C229" s="2">
-        <v>43260</v>
+        <v>43257</v>
       </c>
       <c r="D229" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E229" t="s">
         <v>108</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H229" t="s">
         <v>81</v>
@@ -7039,7 +7054,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
         <v>67</v>
@@ -7048,7 +7063,7 @@
         <v>43260</v>
       </c>
       <c r="D230" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E230" t="s">
         <v>108</v>
@@ -7062,39 +7077,39 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="8">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>67</v>
+      </c>
+      <c r="C231" s="2">
+        <v>43260</v>
+      </c>
+      <c r="D231" t="s">
+        <v>251</v>
+      </c>
+      <c r="E231" t="s">
+        <v>108</v>
+      </c>
+      <c r="F231">
+        <v>4</v>
+      </c>
+      <c r="H231" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="8">
         <v>50</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>68</v>
-      </c>
-      <c r="C231" s="2">
-        <v>43261</v>
-      </c>
-      <c r="D231" t="s">
-        <v>252</v>
-      </c>
-      <c r="E231" t="s">
-        <v>108</v>
-      </c>
-      <c r="F231">
-        <v>4</v>
-      </c>
-      <c r="H231" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="9">
-        <v>7.2</v>
-      </c>
-      <c r="B232" t="s">
-        <v>67</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
       </c>
       <c r="D232" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E232" t="s">
         <v>108</v>
@@ -7103,12 +7118,12 @@
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="8">
-        <v>1</v>
+      <c r="A233" s="9">
+        <v>7.2</v>
       </c>
       <c r="B233" t="s">
         <v>67</v>
@@ -7117,7 +7132,7 @@
         <v>43261</v>
       </c>
       <c r="D233" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E233" t="s">
         <v>108</v>
@@ -7131,7 +7146,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
         <v>67</v>
@@ -7140,7 +7155,7 @@
         <v>43261</v>
       </c>
       <c r="D234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E234" t="s">
         <v>108</v>
@@ -7149,12 +7164,12 @@
         <v>4</v>
       </c>
       <c r="H234" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="9">
-        <v>1.1000000000000001</v>
+      <c r="A235" s="8">
+        <v>7</v>
       </c>
       <c r="B235" t="s">
         <v>67</v>
@@ -7163,31 +7178,31 @@
         <v>43261</v>
       </c>
       <c r="D235" t="s">
+        <v>255</v>
+      </c>
+      <c r="E235" t="s">
+        <v>108</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="H235" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B236" t="s">
+        <v>67</v>
+      </c>
+      <c r="C236" s="2">
+        <v>43261</v>
+      </c>
+      <c r="D236" t="s">
         <v>256</v>
       </c>
-      <c r="E235" t="s">
-        <v>108</v>
-      </c>
-      <c r="F235">
-        <v>4</v>
-      </c>
-      <c r="H235" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="8">
-        <v>7</v>
-      </c>
-      <c r="B236" t="s">
-        <v>64</v>
-      </c>
-      <c r="C236" s="2">
-        <v>43262</v>
-      </c>
-      <c r="D236" t="s">
-        <v>257</v>
-      </c>
       <c r="E236" t="s">
         <v>108</v>
       </c>
@@ -7195,21 +7210,21 @@
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
       </c>
       <c r="D237" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E237" t="s">
         <v>108</v>
@@ -7223,7 +7238,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="8">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B238" t="s">
         <v>73</v>
@@ -7232,7 +7247,7 @@
         <v>43262</v>
       </c>
       <c r="D238" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E238" t="s">
         <v>108</v>
@@ -7245,47 +7260,168 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="9">
+      <c r="A239" s="8">
+        <v>3</v>
+      </c>
+      <c r="B239" t="s">
+        <v>73</v>
+      </c>
+      <c r="C239" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D239" t="s">
+        <v>259</v>
+      </c>
+      <c r="E239" t="s">
+        <v>108</v>
+      </c>
+      <c r="F239">
+        <v>4</v>
+      </c>
+      <c r="H239" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="9">
         <v>11.2</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>64</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C240" s="2">
         <v>43263</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" t="s">
         <v>260</v>
       </c>
-      <c r="E239" t="s">
-        <v>108</v>
-      </c>
-      <c r="F239">
-        <v>4</v>
-      </c>
-      <c r="H239" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="366" spans="1:12">
-      <c r="A366" s="1"/>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
-      <c r="G366" s="1"/>
-      <c r="H366" s="1"/>
-      <c r="I366" s="1"/>
-      <c r="J366" s="1"/>
-      <c r="K366" s="1"/>
-      <c r="L366" s="1"/>
+      <c r="E240" t="s">
+        <v>108</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+      <c r="H240" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="B241" t="s">
+        <v>67</v>
+      </c>
+      <c r="C241" s="2">
+        <v>43263</v>
+      </c>
+      <c r="D241" t="s">
+        <v>265</v>
+      </c>
+      <c r="E241" t="s">
+        <v>108</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+      <c r="H241" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="8">
+        <v>150</v>
+      </c>
+      <c r="B242" t="s">
+        <v>68</v>
+      </c>
+      <c r="C242" s="2">
+        <v>43263</v>
+      </c>
+      <c r="D242" t="s">
+        <v>264</v>
+      </c>
+      <c r="E242" t="s">
+        <v>108</v>
+      </c>
+      <c r="F242">
+        <v>5</v>
+      </c>
+      <c r="H242" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="9">
+        <v>12.7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>72</v>
+      </c>
+      <c r="C243" s="2">
+        <v>43264</v>
+      </c>
+      <c r="D243" t="s">
+        <v>263</v>
+      </c>
+      <c r="E243" t="s">
+        <v>108</v>
+      </c>
+      <c r="F243">
+        <v>4</v>
+      </c>
+      <c r="H243" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="9">
+        <v>89.9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>69</v>
+      </c>
+      <c r="C244" s="2">
+        <v>43264</v>
+      </c>
+      <c r="D244" t="s">
+        <v>262</v>
+      </c>
+      <c r="E244" t="s">
+        <v>108</v>
+      </c>
+      <c r="F244">
+        <v>4</v>
+      </c>
+      <c r="H244" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B245" t="s">
+        <v>67</v>
+      </c>
+      <c r="C245" s="2">
+        <v>43264</v>
+      </c>
+      <c r="D245" t="s">
+        <v>261</v>
+      </c>
+      <c r="E245" t="s">
+        <v>108</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="H245" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="367" spans="1:12">
-      <c r="A367" s="1">
-        <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>2688.5899999999997</v>
-      </c>
+      <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -7295,9 +7431,26 @@
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="L367" s="1"/>
     </row>
     <row r="368" spans="1:12">
-      <c r="A368" s="4"/>
+      <c r="A368" s="1">
+        <f>SUBTOTAL(109,[Ποσό €])</f>
+        <v>3097.6899999999991</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+      <c r="F368" s="1"/>
+      <c r="G368" s="1"/>
+      <c r="H368" s="1"/>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1045,24 +1045,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126608128"/>
-        <c:axId val="126609664"/>
+        <c:axId val="113632000"/>
+        <c:axId val="113633536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126608128"/>
+        <c:axId val="113632000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126609664"/>
+        <c:crossAx val="113633536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126609664"/>
+        <c:axId val="113633536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1070,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126608128"/>
+        <c:crossAx val="113632000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +1132,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1260,24 +1260,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126592512"/>
-        <c:axId val="126594048"/>
+        <c:axId val="113616384"/>
+        <c:axId val="113617920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126592512"/>
+        <c:axId val="113616384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126594048"/>
+        <c:crossAx val="113617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126594048"/>
+        <c:axId val="113617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1285,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126592512"/>
+        <c:crossAx val="113616384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1294,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,24 +1349,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="157444352"/>
-        <c:axId val="157446144"/>
+        <c:axId val="115435776"/>
+        <c:axId val="115437568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157444352"/>
+        <c:axId val="115435776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157446144"/>
+        <c:crossAx val="115437568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157446144"/>
+        <c:axId val="115437568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1374,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157444352"/>
+        <c:crossAx val="115435776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1383,7 +1383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1841,8 +1841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="H151" sqref="H151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B368" sqref="B368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4458,7 +4458,7 @@
         <v>0.7</v>
       </c>
       <c r="B117" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C117" s="2">
         <v>43194</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="269">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -815,6 +815,15 @@
   </si>
   <si>
     <t>πρωινό moccachino κουλούρι</t>
+  </si>
+  <si>
+    <t>burger με γύρο</t>
+  </si>
+  <si>
+    <t>osphee</t>
+  </si>
+  <si>
+    <t>κινέζικο ρυζι με κοτόπουλο</t>
   </si>
 </sst>
 </file>
@@ -1045,24 +1054,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113632000"/>
-        <c:axId val="113633536"/>
+        <c:axId val="151773952"/>
+        <c:axId val="151775488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113632000"/>
+        <c:axId val="151773952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113633536"/>
+        <c:crossAx val="151775488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113633536"/>
+        <c:axId val="151775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1079,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113632000"/>
+        <c:crossAx val="151773952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,7 +1141,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1260,24 +1269,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113616384"/>
-        <c:axId val="113617920"/>
+        <c:axId val="151758336"/>
+        <c:axId val="151759872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113616384"/>
+        <c:axId val="151758336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113617920"/>
+        <c:crossAx val="151759872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113617920"/>
+        <c:axId val="151759872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1285,7 +1294,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113616384"/>
+        <c:crossAx val="151758336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,7 +1303,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1349,24 +1358,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="115435776"/>
-        <c:axId val="115437568"/>
+        <c:axId val="152463616"/>
+        <c:axId val="152465408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115435776"/>
+        <c:axId val="152463616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115437568"/>
+        <c:crossAx val="152465408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115437568"/>
+        <c:axId val="152465408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1383,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115435776"/>
+        <c:crossAx val="152463616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1383,7 +1392,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1841,8 +1850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B368" sqref="B368"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H249" sqref="H249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7420,6 +7429,75 @@
         <v>81</v>
       </c>
     </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="B246" t="s">
+        <v>67</v>
+      </c>
+      <c r="C246" s="2">
+        <v>43265</v>
+      </c>
+      <c r="D246" t="s">
+        <v>266</v>
+      </c>
+      <c r="E246" t="s">
+        <v>108</v>
+      </c>
+      <c r="F246">
+        <v>4</v>
+      </c>
+      <c r="H246" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B247" t="s">
+        <v>67</v>
+      </c>
+      <c r="C247" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D247" t="s">
+        <v>267</v>
+      </c>
+      <c r="E247" t="s">
+        <v>108</v>
+      </c>
+      <c r="F247">
+        <v>4</v>
+      </c>
+      <c r="H247" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="8">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>67</v>
+      </c>
+      <c r="C248" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D248" t="s">
+        <v>268</v>
+      </c>
+      <c r="E248" t="s">
+        <v>108</v>
+      </c>
+      <c r="F248">
+        <v>5</v>
+      </c>
+      <c r="H248" t="s">
+        <v>187</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
@@ -7437,7 +7515,7 @@
     <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>3097.6899999999991</v>
+        <v>3109.0899999999988</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="271">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>κινέζικο ρυζι με κοτόπουλο</t>
+  </si>
+  <si>
+    <t>καφε και τσάι (+ σταμάτη)</t>
+  </si>
+  <si>
+    <t>Ναύπλιο</t>
   </si>
 </sst>
 </file>
@@ -1054,24 +1060,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151773952"/>
-        <c:axId val="151775488"/>
+        <c:axId val="126542592"/>
+        <c:axId val="126544128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151773952"/>
+        <c:axId val="126542592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151775488"/>
+        <c:crossAx val="126544128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151775488"/>
+        <c:axId val="126544128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1085,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151773952"/>
+        <c:crossAx val="126542592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1141,7 +1147,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1269,24 +1275,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="151758336"/>
-        <c:axId val="151759872"/>
+        <c:axId val="126526976"/>
+        <c:axId val="126528512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151758336"/>
+        <c:axId val="126526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151759872"/>
+        <c:crossAx val="126528512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151759872"/>
+        <c:axId val="126528512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1300,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151758336"/>
+        <c:crossAx val="126526976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,7 +1309,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1358,24 +1364,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152463616"/>
-        <c:axId val="152465408"/>
+        <c:axId val="127232256"/>
+        <c:axId val="127234048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152463616"/>
+        <c:axId val="127232256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152465408"/>
+        <c:crossAx val="127234048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152465408"/>
+        <c:axId val="127234048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1389,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152463616"/>
+        <c:crossAx val="127232256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,7 +1398,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1850,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H249" sqref="H249"/>
+    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7498,6 +7504,29 @@
         <v>187</v>
       </c>
     </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="8">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>67</v>
+      </c>
+      <c r="C249" s="2">
+        <v>43267</v>
+      </c>
+      <c r="D249" t="s">
+        <v>269</v>
+      </c>
+      <c r="E249" t="s">
+        <v>108</v>
+      </c>
+      <c r="F249">
+        <v>5</v>
+      </c>
+      <c r="H249" t="s">
+        <v>270</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
@@ -7515,7 +7544,7 @@
     <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>3109.0899999999988</v>
+        <v>3114.0899999999988</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="273">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -830,6 +830,12 @@
   </si>
   <si>
     <t>Ναύπλιο</t>
+  </si>
+  <si>
+    <t>σαντουιτς με προσουτο</t>
+  </si>
+  <si>
+    <t>γκοφρέτα</t>
   </si>
 </sst>
 </file>
@@ -1060,24 +1066,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126542592"/>
-        <c:axId val="126544128"/>
+        <c:axId val="113238784"/>
+        <c:axId val="113240320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126542592"/>
+        <c:axId val="113238784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126544128"/>
+        <c:crossAx val="113240320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126544128"/>
+        <c:axId val="113240320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1091,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126542592"/>
+        <c:crossAx val="113238784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1147,7 +1153,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1275,24 +1281,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126526976"/>
-        <c:axId val="126528512"/>
+        <c:axId val="113223168"/>
+        <c:axId val="113224704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126526976"/>
+        <c:axId val="113223168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126528512"/>
+        <c:crossAx val="113224704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126528512"/>
+        <c:axId val="113224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1306,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126526976"/>
+        <c:crossAx val="113223168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1309,7 +1315,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1364,24 +1370,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127232256"/>
-        <c:axId val="127234048"/>
+        <c:axId val="145783040"/>
+        <c:axId val="145784832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127232256"/>
+        <c:axId val="145783040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127234048"/>
+        <c:crossAx val="145784832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127234048"/>
+        <c:axId val="145784832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1395,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127232256"/>
+        <c:crossAx val="145783040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1856,8 +1862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7527,6 +7533,49 @@
         <v>270</v>
       </c>
     </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>67</v>
+      </c>
+      <c r="C250" s="2">
+        <v>43269</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E250" t="s">
+        <v>108</v>
+      </c>
+      <c r="F250">
+        <v>5</v>
+      </c>
+      <c r="H250" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>67</v>
+      </c>
+      <c r="C251" s="2">
+        <v>43269</v>
+      </c>
+      <c r="D251" t="s">
+        <v>272</v>
+      </c>
+      <c r="E251" t="s">
+        <v>108</v>
+      </c>
+      <c r="F251">
+        <v>5</v>
+      </c>
+      <c r="H251" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
@@ -7544,7 +7593,7 @@
     <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>3114.0899999999988</v>
+        <v>3117.9899999999989</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="300">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -836,6 +836,87 @@
   </si>
   <si>
     <t>γκοφρέτα</t>
+  </si>
+  <si>
+    <t>Κύπρος</t>
+  </si>
+  <si>
+    <t>σαντουιτς</t>
+  </si>
+  <si>
+    <t>Γαλάτσι</t>
+  </si>
+  <si>
+    <t>Αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>μοχίτο, κριτσίνια και πρωτεΐνη</t>
+  </si>
+  <si>
+    <t>σαλάτα</t>
+  </si>
+  <si>
+    <t>burger</t>
+  </si>
+  <si>
+    <t>amarretti coca-cola</t>
+  </si>
+  <si>
+    <t>κρέπα</t>
+  </si>
+  <si>
+    <t>freduccino venti Srarbucks</t>
+  </si>
+  <si>
+    <t>ταξί από Σταύρος Νιάρχος</t>
+  </si>
+  <si>
+    <t>street work(+ Αγίλαρας)</t>
+  </si>
+  <si>
+    <t>κρασιά (+ Αγίλαρας)</t>
+  </si>
+  <si>
+    <t>ταξί για αγιο αντώνιο</t>
+  </si>
+  <si>
+    <t>ταξί για γαλάτσι από Ανω πατήσια</t>
+  </si>
+  <si>
+    <t>καφές (+ αρετής)</t>
+  </si>
+  <si>
+    <t>ταξί από γαλάτσι προς Περιστέρι</t>
+  </si>
+  <si>
+    <t>ταξί από χαλάνδρι αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>νερό για την γιαγιά</t>
+  </si>
+  <si>
+    <t>γρανίτες</t>
+  </si>
+  <si>
+    <t>καραμούζα και κύπελλο</t>
+  </si>
+  <si>
+    <t>καφεδες (+ θείων και Αλίκης)</t>
+  </si>
+  <si>
+    <t>ντουζιέρα</t>
+  </si>
+  <si>
+    <t>εισητήριο Αεροδρομίου</t>
+  </si>
+  <si>
+    <t>Σερμπετόσπιτο (+ Αρετής)</t>
+  </si>
+  <si>
+    <t>burger (+ κώστα)</t>
   </si>
 </sst>
 </file>
@@ -1066,24 +1147,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113238784"/>
-        <c:axId val="113240320"/>
+        <c:axId val="112780032"/>
+        <c:axId val="112781568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113238784"/>
+        <c:axId val="112780032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113240320"/>
+        <c:crossAx val="112781568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113240320"/>
+        <c:axId val="112781568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +1172,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113238784"/>
+        <c:crossAx val="112780032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1153,7 +1234,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1281,24 +1362,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113223168"/>
-        <c:axId val="113224704"/>
+        <c:axId val="112764416"/>
+        <c:axId val="112765952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113223168"/>
+        <c:axId val="112764416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113224704"/>
+        <c:crossAx val="112765952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113224704"/>
+        <c:axId val="112765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1387,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113223168"/>
+        <c:crossAx val="112764416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1315,7 +1396,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1370,24 +1451,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145783040"/>
-        <c:axId val="145784832"/>
+        <c:axId val="115046656"/>
+        <c:axId val="115048448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145783040"/>
+        <c:axId val="115046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145784832"/>
+        <c:crossAx val="115048448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145784832"/>
+        <c:axId val="115048448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1476,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145783040"/>
+        <c:crossAx val="115046656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1404,7 +1485,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1862,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7557,6 +7638,9 @@
       </c>
     </row>
     <row r="251" spans="1:8">
+      <c r="A251" s="9">
+        <v>0.5</v>
+      </c>
       <c r="B251" t="s">
         <v>67</v>
       </c>
@@ -7574,6 +7658,673 @@
       </c>
       <c r="H251" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>67</v>
+      </c>
+      <c r="C252" s="2">
+        <v>43269</v>
+      </c>
+      <c r="D252" t="s">
+        <v>274</v>
+      </c>
+      <c r="E252" t="s">
+        <v>108</v>
+      </c>
+      <c r="F252">
+        <v>5</v>
+      </c>
+      <c r="H252" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="8">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>67</v>
+      </c>
+      <c r="C253" s="2">
+        <v>43270</v>
+      </c>
+      <c r="D253" t="s">
+        <v>277</v>
+      </c>
+      <c r="E253" t="s">
+        <v>108</v>
+      </c>
+      <c r="F253">
+        <v>5</v>
+      </c>
+      <c r="H253" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="9">
+        <v>4.7</v>
+      </c>
+      <c r="B254" t="s">
+        <v>67</v>
+      </c>
+      <c r="C254" s="2">
+        <v>43270</v>
+      </c>
+      <c r="D254" t="s">
+        <v>278</v>
+      </c>
+      <c r="E254" t="s">
+        <v>108</v>
+      </c>
+      <c r="F254">
+        <v>5</v>
+      </c>
+      <c r="H254" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>67</v>
+      </c>
+      <c r="C255" s="2">
+        <v>43270</v>
+      </c>
+      <c r="D255" t="s">
+        <v>279</v>
+      </c>
+      <c r="E255" t="s">
+        <v>108</v>
+      </c>
+      <c r="F255">
+        <v>5</v>
+      </c>
+      <c r="H255" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>67</v>
+      </c>
+      <c r="C256" s="2">
+        <v>43272</v>
+      </c>
+      <c r="D256" t="s">
+        <v>224</v>
+      </c>
+      <c r="E256" t="s">
+        <v>108</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+      <c r="H256" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="A257" s="8">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" s="2">
+        <v>43272</v>
+      </c>
+      <c r="D257" t="s">
+        <v>280</v>
+      </c>
+      <c r="E257" t="s">
+        <v>108</v>
+      </c>
+      <c r="F257">
+        <v>5</v>
+      </c>
+      <c r="H257" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>67</v>
+      </c>
+      <c r="C258" s="2">
+        <v>43272</v>
+      </c>
+      <c r="D258" t="s">
+        <v>281</v>
+      </c>
+      <c r="E258" t="s">
+        <v>108</v>
+      </c>
+      <c r="F258">
+        <v>5</v>
+      </c>
+      <c r="H258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="B259" t="s">
+        <v>67</v>
+      </c>
+      <c r="C259" s="2">
+        <v>43272</v>
+      </c>
+      <c r="D259" t="s">
+        <v>282</v>
+      </c>
+      <c r="E259" t="s">
+        <v>108</v>
+      </c>
+      <c r="F259">
+        <v>5</v>
+      </c>
+      <c r="H259" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>67</v>
+      </c>
+      <c r="C260" s="2">
+        <v>43272</v>
+      </c>
+      <c r="D260" t="s">
+        <v>283</v>
+      </c>
+      <c r="E260" t="s">
+        <v>108</v>
+      </c>
+      <c r="F260">
+        <v>5</v>
+      </c>
+      <c r="H260" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="8">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>64</v>
+      </c>
+      <c r="C261" s="2">
+        <v>43274</v>
+      </c>
+      <c r="D261" t="s">
+        <v>284</v>
+      </c>
+      <c r="E261" t="s">
+        <v>108</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="H261" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B262" t="s">
+        <v>67</v>
+      </c>
+      <c r="C262" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D262" t="s">
+        <v>285</v>
+      </c>
+      <c r="E262" t="s">
+        <v>108</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+      <c r="H262" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" s="8">
+        <v>8</v>
+      </c>
+      <c r="B263" t="s">
+        <v>67</v>
+      </c>
+      <c r="C263" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D263" t="s">
+        <v>286</v>
+      </c>
+      <c r="E263" t="s">
+        <v>108</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+      <c r="H263" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="A264" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>67</v>
+      </c>
+      <c r="C264" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D264" t="s">
+        <v>287</v>
+      </c>
+      <c r="E264" t="s">
+        <v>108</v>
+      </c>
+      <c r="F264">
+        <v>5</v>
+      </c>
+      <c r="H264" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="B265" t="s">
+        <v>67</v>
+      </c>
+      <c r="C265" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D265" t="s">
+        <v>288</v>
+      </c>
+      <c r="E265" t="s">
+        <v>108</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="H265" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" s="8">
+        <v>7</v>
+      </c>
+      <c r="B266" t="s">
+        <v>67</v>
+      </c>
+      <c r="C266" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D266" t="s">
+        <v>289</v>
+      </c>
+      <c r="E266" t="s">
+        <v>78</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="H266" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="A267" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>64</v>
+      </c>
+      <c r="C267" s="2">
+        <v>43275</v>
+      </c>
+      <c r="D267" t="s">
+        <v>290</v>
+      </c>
+      <c r="E267" t="s">
+        <v>77</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+      <c r="H267" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" s="8">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>67</v>
+      </c>
+      <c r="C268" s="2">
+        <v>43277</v>
+      </c>
+      <c r="D268" t="s">
+        <v>280</v>
+      </c>
+      <c r="E268" t="s">
+        <v>77</v>
+      </c>
+      <c r="F268">
+        <v>5</v>
+      </c>
+      <c r="H268" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" s="8">
+        <v>20</v>
+      </c>
+      <c r="B269" t="s">
+        <v>64</v>
+      </c>
+      <c r="C269" s="2">
+        <v>43277</v>
+      </c>
+      <c r="D269" t="s">
+        <v>291</v>
+      </c>
+      <c r="E269" t="s">
+        <v>77</v>
+      </c>
+      <c r="F269">
+        <v>5</v>
+      </c>
+      <c r="H269" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="A270" s="8">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>67</v>
+      </c>
+      <c r="C270" s="2">
+        <v>43277</v>
+      </c>
+      <c r="D270" t="s">
+        <v>194</v>
+      </c>
+      <c r="E270" t="s">
+        <v>77</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+      <c r="H270" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>67</v>
+      </c>
+      <c r="C271" s="2">
+        <v>43279</v>
+      </c>
+      <c r="D271" t="s">
+        <v>292</v>
+      </c>
+      <c r="E271" t="s">
+        <v>77</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="H271" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="A272" s="8">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>67</v>
+      </c>
+      <c r="C272" s="2">
+        <v>43279</v>
+      </c>
+      <c r="D272" t="s">
+        <v>293</v>
+      </c>
+      <c r="E272" t="s">
+        <v>77</v>
+      </c>
+      <c r="F272">
+        <v>5</v>
+      </c>
+      <c r="H272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="8">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>67</v>
+      </c>
+      <c r="C273" s="2">
+        <v>43279</v>
+      </c>
+      <c r="D273" t="s">
+        <v>294</v>
+      </c>
+      <c r="E273" t="s">
+        <v>77</v>
+      </c>
+      <c r="F273">
+        <v>5</v>
+      </c>
+      <c r="H273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B274" t="s">
+        <v>67</v>
+      </c>
+      <c r="C274" s="2">
+        <v>43280</v>
+      </c>
+      <c r="D274" t="s">
+        <v>295</v>
+      </c>
+      <c r="E274" t="s">
+        <v>77</v>
+      </c>
+      <c r="F274">
+        <v>5</v>
+      </c>
+      <c r="H274" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>67</v>
+      </c>
+      <c r="C275" s="2">
+        <v>43280</v>
+      </c>
+      <c r="D275" t="s">
+        <v>296</v>
+      </c>
+      <c r="E275" t="s">
+        <v>77</v>
+      </c>
+      <c r="F275">
+        <v>5</v>
+      </c>
+      <c r="H275" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="8">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>64</v>
+      </c>
+      <c r="C276" s="2">
+        <v>43280</v>
+      </c>
+      <c r="D276" t="s">
+        <v>297</v>
+      </c>
+      <c r="E276" t="s">
+        <v>77</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="H276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="8">
+        <v>10</v>
+      </c>
+      <c r="B277" t="s">
+        <v>67</v>
+      </c>
+      <c r="C277" s="2">
+        <v>43280</v>
+      </c>
+      <c r="D277" t="s">
+        <v>105</v>
+      </c>
+      <c r="E277" t="s">
+        <v>77</v>
+      </c>
+      <c r="F277">
+        <v>5</v>
+      </c>
+      <c r="H277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="8">
+        <v>15</v>
+      </c>
+      <c r="B278" t="s">
+        <v>67</v>
+      </c>
+      <c r="C278" s="2">
+        <v>43280</v>
+      </c>
+      <c r="D278" t="s">
+        <v>298</v>
+      </c>
+      <c r="E278" t="s">
+        <v>77</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+      <c r="H278" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="8">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
+        <v>64</v>
+      </c>
+      <c r="C279" s="2">
+        <v>43281</v>
+      </c>
+      <c r="D279" t="s">
+        <v>290</v>
+      </c>
+      <c r="E279" t="s">
+        <v>77</v>
+      </c>
+      <c r="F279">
+        <v>5</v>
+      </c>
+      <c r="H279" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="9">
+        <v>11.9</v>
+      </c>
+      <c r="B280" t="s">
+        <v>67</v>
+      </c>
+      <c r="C280" s="2">
+        <v>43281</v>
+      </c>
+      <c r="D280" t="s">
+        <v>299</v>
+      </c>
+      <c r="E280" t="s">
+        <v>77</v>
+      </c>
+      <c r="F280">
+        <v>5</v>
+      </c>
+      <c r="H280" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -7593,7 +8344,7 @@
     <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>3117.9899999999989</v>
+        <v>3310.6899999999987</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="302">
   <si>
     <t>Ημερομηνία</t>
   </si>
@@ -917,6 +917,12 @@
   </si>
   <si>
     <t>burger (+ κώστα)</t>
+  </si>
+  <si>
+    <t>milkshake banana with Stavrino</t>
+  </si>
+  <si>
+    <t>rise in Street work</t>
   </si>
 </sst>
 </file>
@@ -1147,24 +1153,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112780032"/>
-        <c:axId val="112781568"/>
+        <c:axId val="145220736"/>
+        <c:axId val="145222272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112780032"/>
+        <c:axId val="145220736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112781568"/>
+        <c:crossAx val="145222272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112781568"/>
+        <c:axId val="145222272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1178,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112780032"/>
+        <c:crossAx val="145220736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,7 +1240,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1362,24 +1368,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112764416"/>
-        <c:axId val="112765952"/>
+        <c:axId val="95164288"/>
+        <c:axId val="95165824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112764416"/>
+        <c:axId val="95164288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112765952"/>
+        <c:crossAx val="95165824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112765952"/>
+        <c:axId val="95165824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1393,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112764416"/>
+        <c:crossAx val="95164288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1396,7 +1402,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1451,24 +1457,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="115046656"/>
-        <c:axId val="115048448"/>
+        <c:axId val="145140352"/>
+        <c:axId val="145146240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115046656"/>
+        <c:axId val="145140352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115048448"/>
+        <c:crossAx val="145146240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115048448"/>
+        <c:axId val="145146240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1476,7 +1482,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115046656"/>
+        <c:crossAx val="145140352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1485,7 +1491,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1943,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="F281" sqref="F281"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="H283" sqref="H283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8327,6 +8333,52 @@
         <v>81</v>
       </c>
     </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="8">
+        <v>7</v>
+      </c>
+      <c r="B281" t="s">
+        <v>67</v>
+      </c>
+      <c r="C281" s="2">
+        <v>43282</v>
+      </c>
+      <c r="D281" t="s">
+        <v>300</v>
+      </c>
+      <c r="E281" t="s">
+        <v>77</v>
+      </c>
+      <c r="F281">
+        <v>5</v>
+      </c>
+      <c r="H281" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B282" t="s">
+        <v>67</v>
+      </c>
+      <c r="C282" s="2">
+        <v>43282</v>
+      </c>
+      <c r="D282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E282" t="s">
+        <v>77</v>
+      </c>
+      <c r="F282">
+        <v>5</v>
+      </c>
+      <c r="H282" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
@@ -8344,7 +8396,7 @@
     <row r="368" spans="1:12">
       <c r="A368" s="1">
         <f>SUBTOTAL(109,[Ποσό €])</f>
-        <v>3310.6899999999987</v>
+        <v>3322.7899999999986</v>
       </c>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,50 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Έξοδα" sheetId="1" r:id="rId1"/>
-    <sheet name="Κατά είδος" sheetId="4" r:id="rId2"/>
-    <sheet name="Κατά περιοχή" sheetId="2" r:id="rId3"/>
-    <sheet name="Κατά μήνα" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="302">
-  <si>
-    <t>Ημερομηνία</t>
-  </si>
-  <si>
-    <t>Είδος</t>
-  </si>
-  <si>
-    <t>Περιγραφή</t>
-  </si>
-  <si>
-    <t>Κατάσταση Χρήστη</t>
-  </si>
-  <si>
-    <t>Επίπεδο Ψυχολογίας</t>
-  </si>
-  <si>
-    <t>Καιρός</t>
-  </si>
-  <si>
-    <t>Περιοχή Αγοράς</t>
-  </si>
-  <si>
-    <t>Περιοχή Χρήστη</t>
-  </si>
-  <si>
-    <t>Ηλικία Χρήστη</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="292">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -199,9 +169,6 @@
     <t>αεροπορικά για Λάρνακα</t>
   </si>
   <si>
-    <t>Διαμονή για Θεσσαλονίκη</t>
-  </si>
-  <si>
     <t>GoPro accessories</t>
   </si>
   <si>
@@ -211,45 +178,12 @@
     <t>Bull house (και του Νίκου)</t>
   </si>
   <si>
-    <t>μεταφορά</t>
-  </si>
-  <si>
-    <t>ομορφιά</t>
-  </si>
-  <si>
-    <t>βοήθεια</t>
-  </si>
-  <si>
-    <t>φαγητό</t>
-  </si>
-  <si>
-    <t>υποχρεώσεις</t>
-  </si>
-  <si>
-    <t>ένδυση</t>
-  </si>
-  <si>
     <t>Μικέλ καφέδες προσφορά</t>
   </si>
   <si>
     <t>σάντουιτς (Σ.Ε.Φ)</t>
   </si>
   <si>
-    <t>υλικά αγαθά</t>
-  </si>
-  <si>
-    <t>διασκέδαση</t>
-  </si>
-  <si>
-    <t>διαμονή</t>
-  </si>
-  <si>
-    <t>Ποσό €</t>
-  </si>
-  <si>
-    <t>μεταφορές</t>
-  </si>
-  <si>
     <t>σε σχέση</t>
   </si>
   <si>
@@ -271,9 +205,6 @@
     <t>Πειραιάς</t>
   </si>
   <si>
-    <t>Κηψέλη</t>
-  </si>
-  <si>
     <t>Μοναστηράκι</t>
   </si>
   <si>
@@ -316,9 +247,6 @@
     <t>Nike mall</t>
   </si>
   <si>
-    <t>Φαγητό με την Κυρία Βίκυ</t>
-  </si>
-  <si>
     <t>Πανόρμου</t>
   </si>
   <si>
@@ -331,9 +259,6 @@
     <t>Γλυφάδα</t>
   </si>
   <si>
-    <t>κάρτα κινητού</t>
-  </si>
-  <si>
     <t>Cosmote</t>
   </si>
   <si>
@@ -367,18 +292,6 @@
     <t>μήλα, καλαμάκια κοτόπουλο</t>
   </si>
   <si>
-    <t>Κηφισσός</t>
-  </si>
-  <si>
-    <t>Ιανουάριος</t>
-  </si>
-  <si>
-    <t>Φεβρουάριος</t>
-  </si>
-  <si>
-    <t>Μάριος</t>
-  </si>
-  <si>
     <t>burger από το Resto</t>
   </si>
   <si>
@@ -571,15 +484,6 @@
     <t>ρούχα Περιστέρι Εσπόζο</t>
   </si>
   <si>
-    <t>φαγητό στον παννελήνιο</t>
-  </si>
-  <si>
-    <t>φαγητό ποτό Banana</t>
-  </si>
-  <si>
-    <t>φαγητό στο παννελήνιο</t>
-  </si>
-  <si>
     <t>Χαλάνδρι</t>
   </si>
   <si>
@@ -592,9 +496,6 @@
     <t>redbull, πατατάκια</t>
   </si>
   <si>
-    <t>φαγητό με την Αγίλαρα</t>
-  </si>
-  <si>
     <t>πίτσα</t>
   </si>
   <si>
@@ -923,21 +824,83 @@
   </si>
   <si>
     <t>rise in Street work</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>food-drink</t>
+  </si>
+  <si>
+    <t>food-drink με την Κυρία Βίκυ</t>
+  </si>
+  <si>
+    <t>food-drink στον παννελήνιο</t>
+  </si>
+  <si>
+    <t>food-drink ποτό Banana</t>
+  </si>
+  <si>
+    <t>food-drink στο παννελήνιο</t>
+  </si>
+  <si>
+    <t>food-drink με την Αγίλαρα</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>obligation</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>staying</t>
+  </si>
+  <si>
+    <t>staying για Θεσσαλονίκη</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>userStatus</t>
+  </si>
+  <si>
+    <t>moodLevel</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>weather</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,38 +930,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1065,605 +1008,36 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="el-GR"/>
-  <c:style val="48"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Κατά είδος'!$B$3:$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>φαγητό</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>διαμονή</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>μεταφορές</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ομορφιά</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>βοήθεια</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>διασκέδαση</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>ένδυση</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>υλικά αγαθά</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>υποχρεώσεις</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Κατά είδος'!$C$3:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>285.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>234.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>199.82</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>208.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="145220736"/>
-        <c:axId val="145222272"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="145220736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145222272"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="145222272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145220736"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:shade val="51000"/>
-            <a:satMod val="130000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="80000">
-          <a:schemeClr val="dk1">
-            <a:shade val="93000"/>
-            <a:satMod val="130000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:shade val="94000"/>
-            <a:satMod val="135000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:lin ang="16200000" scaled="0"/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
-    </a:ln>
-    <a:effectLst>
-      <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-        <a:srgbClr val="000000">
-          <a:alpha val="35000"/>
-        </a:srgbClr>
-      </a:outerShdw>
-    </a:effectLst>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId1"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="el-GR"/>
-  <c:style val="48"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Κατά περιοχή'!$B$5:$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Αιγάλεω</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Γλυφάδα</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Θεσσαλονίκη</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Καλαμπάκα</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Καρδίτσα</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Κηφισσός</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Κηψέλη</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Λάρισα</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Μαρούσι</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Μοναστηράκι</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Νέο Ηράκλειο</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Πανόρμου</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Πειραιάς</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Περιστέρι</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Σύνταγμα</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Κατά περιοχή'!$C$5:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>96.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50.25</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>223.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>758.12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>25.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="95164288"/>
-        <c:axId val="95165824"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="95164288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95165824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="95165824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95164288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="el-GR"/>
-  <c:style val="48"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Κατά μήνα'!$B$4:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ιανουάριος</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Φεβρουάριος</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Μάριος</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Κατά μήνα'!$C$4:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>259.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>660.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>448.69</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="145140352"/>
-        <c:axId val="145146240"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="145140352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145146240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="145146240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145140352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 - Γράφημα"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0</cdr:x>
-      <cdr:y>0</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>1</cdr:y>
-    </cdr:to>
-    <cdr:pic>
-      <cdr:nvPicPr>
-        <cdr:cNvPr id="2" name="chart"/>
-        <cdr:cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cdr:cNvPicPr>
-      </cdr:nvPicPr>
-      <cdr:blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </cdr:blipFill>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="0" y="0"/>
-          <a:ext cx="7858125" cy="4143375"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-    </cdr:pic>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="3 - Γράφημα"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="1 - Γράφημα"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:J368" totalsRowCount="1">
-  <autoFilter ref="A1:J367">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-  </autoFilter>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Ποσό €" totalsRowFunction="sum" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="Είδος" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Ημερομηνία" totalsRowDxfId="7"/>
-    <tableColumn id="4" name="Περιγραφή" totalsRowDxfId="6"/>
-    <tableColumn id="5" name="Κατάσταση Χρήστη" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Επίπεδο Ψυχολογίας" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Καιρός" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Περιοχή Αγοράς" totalsRowDxfId="2"/>
-    <tableColumn id="9" name="Περιοχή Χρήστη" totalsRowDxfId="1"/>
-    <tableColumn id="10" name="Ηλικία Χρήστη" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H368" totalsRowCount="1">
+  <autoFilter ref="A1:H367"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="amount" totalsRowFunction="sum" totalsRowDxfId="7"/>
+    <tableColumn id="11" name="type" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="date" totalsRowDxfId="5"/>
+    <tableColumn id="4" name="description" totalsRowDxfId="4"/>
+    <tableColumn id="5" name="userStatus" totalsRowDxfId="3"/>
+    <tableColumn id="6" name="moodLevel" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="weather" totalsRowDxfId="1"/>
+    <tableColumn id="8" name="location" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1705,7 +1079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1737,9 +1111,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1771,6 +1146,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1946,14 +1322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="H283" sqref="H283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1968,6418 +1344,6421 @@
     <col min="11" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2">
         <v>43120</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5">
-        <v>10</v>
-      </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="C3" s="2">
         <v>43120</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>281</v>
       </c>
       <c r="C4" s="2">
         <v>43120</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2">
         <v>43121</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>3.2</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2">
         <v>43121</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>1.3</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C8" s="2">
         <v>43122</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>1.2</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C9" s="2">
         <v>43122</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C10" s="2">
         <v>43155</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>4.5</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C11" s="2">
         <v>43156</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C12" s="2">
         <v>43157</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>10.6</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C13" s="2">
         <v>43126</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>1.8</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C14" s="2">
         <v>43126</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>5.15</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C15" s="2">
         <v>43129</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>1.5</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C17" s="2">
         <v>43129</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>7.8</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C18" s="2">
         <v>43129</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C19" s="2">
         <v>43130</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>1.5</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C20" s="2">
         <v>43131</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>8.84</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C21" s="2">
         <v>43131</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C22" s="2">
         <v>43131</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C23" s="2">
         <v>43132</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>1.8</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C24" s="2">
         <v>43135</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>11.8</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C25" s="2">
         <v>43136</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2">
         <v>43139</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>2.9</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C27" s="2">
         <v>43140</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>4.3</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C28" s="2">
         <v>43141</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>3.35</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2">
         <v>43141</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>5.2</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2">
         <v>43141</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C31" s="2">
         <v>43141</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>3.9</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2">
         <v>43142</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>63.45</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2">
         <v>43143</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>49.9</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2">
         <v>43143</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>1.8</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C36" s="2">
         <v>43143</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>13.02</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2">
         <v>43147</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>4.7</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2">
         <v>43148</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>15.96</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C39" s="2">
         <v>43148</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C40" s="2">
         <v>43148</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>79.8</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2">
         <v>43148</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>11.9</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2">
         <v>43150</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C43" s="2">
         <v>43151</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>7.75</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2">
         <v>43152</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>0.79</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2">
         <v>43152</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C46" s="2">
         <v>43153</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C47" s="2">
         <v>43153</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C48" s="2">
         <v>43153</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>1.8</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C49" s="2">
         <v>43154</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C50" s="2">
         <v>43155</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C51" s="2">
         <v>43155</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>1.8</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C52" s="2">
         <v>43155</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>3.5</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C53" s="2">
         <v>43155</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>5.6</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C54" s="2">
         <v>43155</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>1.5</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C55" s="2">
         <v>43156</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C56" s="2">
         <v>43156</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>5.4</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C57" s="2">
         <v>43156</v>
       </c>
       <c r="D57" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C58" s="2">
         <v>43156</v>
       </c>
       <c r="D58" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C59" s="2">
         <v>43156</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>0.6</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C60" s="2">
         <v>43157</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C61" s="2">
         <v>43157</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>1.5</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C62" s="2">
         <v>43158</v>
       </c>
       <c r="D62" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C63" s="2">
         <v>43158</v>
       </c>
       <c r="D63" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C64" s="2">
         <v>43158</v>
       </c>
       <c r="D64" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>13.5</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C66" s="2">
         <v>43160</v>
       </c>
       <c r="D66" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>3.5</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C67" s="2">
         <v>43160</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="5">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C68" s="2">
         <v>43161</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C69" s="2">
         <v>43161</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>65.5</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>4.5</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C71" s="2">
         <v>43162</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
       </c>
       <c r="D72" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>18.8</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C73" s="2">
         <v>43164</v>
       </c>
       <c r="D73" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>1.8</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C74" s="2">
         <v>43165</v>
       </c>
       <c r="D74" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="5">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>5.5</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C75" s="2">
         <v>43166</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C76" s="2">
         <v>43166</v>
       </c>
       <c r="D76" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2">
         <v>43167</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C78" s="2">
         <v>43168</v>
       </c>
       <c r="D78" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>9.9</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C79" s="2">
         <v>43169</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>6.5</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C80" s="2">
         <v>43169</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F80">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>79.8</v>
       </c>
       <c r="B81" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C81" s="2">
         <v>43169</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>279</v>
       </c>
       <c r="C82" s="2">
         <v>43170</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F82">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>2.5</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C83" s="2">
         <v>43170</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C84" s="2">
         <v>43170</v>
       </c>
       <c r="D84" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F84">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>1.6</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C85" s="2">
         <v>43170</v>
       </c>
       <c r="D85" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F85">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>5.5</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C86" s="2">
         <v>43170</v>
       </c>
       <c r="D86" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E86" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F86">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>0.8</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C87" s="2">
         <v>43170</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E87" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C88" s="2">
         <v>43171</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>24.9</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>1.8</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2">
         <v>43172</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>44.99</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C91" s="2">
         <v>43174</v>
       </c>
       <c r="D91" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C92" s="2">
         <v>43175</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C93" s="2">
         <v>43175</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C94" s="2">
         <v>43175</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E94" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F94">
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C97" s="2">
         <v>43180</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E97" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C98" s="2">
         <v>43180</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E98" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C99" s="2">
         <v>43181</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>3.5</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C100" s="2">
         <v>43182</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>34.9</v>
       </c>
       <c r="B101" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C101" s="2">
         <v>43183</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="6"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C104" s="2">
         <v>43186</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="E104" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F104">
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>6.9</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C105" s="2">
         <v>43186</v>
       </c>
       <c r="D105" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E105" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F105">
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>6.04</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C106" s="2">
         <v>43187</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>4.8</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C107" s="2">
         <v>43188</v>
       </c>
       <c r="D107" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C108" s="2">
         <v>43189</v>
       </c>
       <c r="D108" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E108" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>5.5</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C109" s="2">
         <v>43190</v>
       </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E109" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F109">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C110" s="2">
         <v>43190</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F110">
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C111" s="2">
         <v>43191</v>
       </c>
       <c r="D111" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C112" s="2">
         <v>43191</v>
       </c>
       <c r="D112" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E112" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C113" s="2">
         <v>43193</v>
       </c>
       <c r="D113" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E113" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F113">
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C114" s="2">
         <v>43193</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C115" s="2">
         <v>43194</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>12.5</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C116" s="2">
         <v>43194</v>
       </c>
       <c r="D116" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F116">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>0.7</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C117" s="2">
         <v>43194</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F117">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>6.3</v>
       </c>
       <c r="B118" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C118" s="2">
         <v>43194</v>
       </c>
       <c r="D118" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E118" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F118">
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C119" s="2">
         <v>43194</v>
       </c>
       <c r="D119" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E119" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C120" s="2">
         <v>43195</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F120">
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C121" s="2">
         <v>43196</v>
       </c>
       <c r="D121" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E121" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F121">
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>4.5</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C122" s="2">
         <v>43196</v>
       </c>
       <c r="D122" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E122" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F122">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>2.5</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C123" s="2">
         <v>43197</v>
       </c>
       <c r="D123" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E123" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F123">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>24.3</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C124" s="2">
         <v>43199</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E124" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F124">
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C125" s="2">
         <v>43199</v>
       </c>
       <c r="D125" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C126" s="2">
         <v>43199</v>
       </c>
       <c r="D126" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E126" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F126">
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C127" s="2">
         <v>43200</v>
       </c>
       <c r="D127" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F127">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C128" s="2">
         <v>43200</v>
       </c>
       <c r="D128" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E128" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F128">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>6.52</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C129" s="2">
         <v>43201</v>
       </c>
       <c r="D129" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="E129" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F129">
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>1.8</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C130" s="2">
         <v>43201</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C131" s="2">
         <v>43202</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F131">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C132" s="2">
         <v>43202</v>
       </c>
       <c r="D132" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="E132" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F132">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C133" s="2">
         <v>43203</v>
       </c>
       <c r="D133" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="E133" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F133">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C134" s="2">
         <v>43203</v>
       </c>
       <c r="D134" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F134">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>2.97</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C135" s="2">
         <v>43203</v>
       </c>
       <c r="D135" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E135" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F135">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C136" s="2">
         <v>43204</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E136" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>1.6</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C137" s="2">
         <v>43206</v>
       </c>
       <c r="D137" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="E137" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F137">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>1.5</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C138" s="2">
         <v>43206</v>
       </c>
       <c r="D138" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F138">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>1.8</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C139" s="2">
         <v>43206</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F139">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>7.3</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C140" s="2">
         <v>43207</v>
       </c>
       <c r="D140" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F140">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C141" s="2">
         <v>43207</v>
       </c>
       <c r="D141" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F141">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>2.1</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C142" s="2">
         <v>43208</v>
       </c>
       <c r="D142" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F142">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>4.2</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C143" s="2">
         <v>43208</v>
       </c>
       <c r="D143" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E143" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F143">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C144" s="2">
         <v>43209</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E144" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F144">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C145" s="2">
         <v>43209</v>
       </c>
       <c r="D145" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E145" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F145">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>3.5</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C146" s="2">
         <v>43209</v>
       </c>
       <c r="D146" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="E146" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F146">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C147" s="2">
         <v>43209</v>
       </c>
       <c r="D147" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E147" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F147">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C148" s="2">
         <v>43210</v>
       </c>
       <c r="D148" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="E148" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F148">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C149" s="2">
         <v>43210</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E149" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F149">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C150" s="2">
         <v>43211</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E150" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
       </c>
       <c r="D151" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E151" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F151">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C152" s="2">
         <v>43211</v>
       </c>
       <c r="D152" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E152" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F152">
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
-      <c r="A153" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C153" s="2">
         <v>43211</v>
       </c>
       <c r="D153" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E153" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F153">
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C154" s="2">
         <v>43211</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E154" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F154">
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E155" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F155">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
-      <c r="A156" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>0.6</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C156" s="2">
         <v>43213</v>
       </c>
       <c r="D156" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="E156" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C157" s="2">
         <v>43214</v>
       </c>
       <c r="D157" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E157" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F157">
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="A158" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
       </c>
       <c r="D158" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E158" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F158">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>1.6</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C159" s="2">
         <v>43216</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="E159" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F159">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C160" s="2">
         <v>43217</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="E160" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F160">
         <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>6.2</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C161" s="2">
         <v>43217</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="E161" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F161">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C162" s="2">
         <v>43218</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="E162" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>4.3</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C163" s="2">
         <v>43218</v>
       </c>
       <c r="D163" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F163">
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C164" s="2">
         <v>43219</v>
       </c>
       <c r="D164" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E164" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F164">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C165" s="2">
         <v>43220</v>
       </c>
       <c r="D165" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E165" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
-      <c r="A166" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>1.96</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C166" s="2">
         <v>43220</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="E166" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>11.5</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C167" s="2">
         <v>43221</v>
       </c>
       <c r="D167" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="E167" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F167">
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="A168" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>2.7</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C168" s="2">
         <v>43223</v>
       </c>
       <c r="D168" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E168" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F168">
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
-      <c r="A169" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>2.7</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C169" s="2">
         <v>43224</v>
       </c>
       <c r="D169" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E169" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F169">
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C170" s="2">
         <v>43225</v>
       </c>
       <c r="D170" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E170" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="A171" s="9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>4.8</v>
       </c>
       <c r="B171" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C171" s="2">
         <v>43227</v>
       </c>
       <c r="D171" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="E171" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F171">
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
-      <c r="A172" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B172" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C172" s="2">
         <v>43227</v>
       </c>
       <c r="D172" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E172" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F172">
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>3.8</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C173" s="2">
         <v>43228</v>
       </c>
       <c r="D173" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="E173" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="H173" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>1.5</v>
       </c>
       <c r="B174" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C174" s="2">
         <v>43229</v>
       </c>
       <c r="D174" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E174" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F174">
         <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="A175" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>11.5</v>
       </c>
       <c r="B175" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C175" s="2">
         <v>43229</v>
       </c>
       <c r="D175" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F175">
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B176" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C176" s="2">
         <v>43230</v>
       </c>
       <c r="D176" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E176" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F176">
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>6.5</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C177" s="2">
         <v>43233</v>
       </c>
       <c r="D177" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F177">
         <v>5</v>
       </c>
       <c r="H177" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>6.5</v>
       </c>
       <c r="B178" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C178" s="2">
         <v>43233</v>
       </c>
       <c r="D178" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="E178" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F178">
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C179" s="2">
         <v>43234</v>
       </c>
       <c r="D179" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E179" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C180" s="2">
         <v>43236</v>
       </c>
       <c r="D180" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="E180" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F180">
         <v>4</v>
       </c>
       <c r="H180" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
-      <c r="A181" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C181" s="2">
         <v>43236</v>
       </c>
       <c r="D181" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E181" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F181">
         <v>4</v>
       </c>
       <c r="H181" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>3.2</v>
       </c>
       <c r="B182" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C182" s="2">
         <v>43237</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="E182" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F182">
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="E183" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F183">
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
-      <c r="A184" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
       </c>
       <c r="D184" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E184" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
       </c>
       <c r="D185" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F185">
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>3.5</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2">
         <v>43237</v>
       </c>
       <c r="D186" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E186" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F186">
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
-      <c r="A187" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C187" s="2">
         <v>43237</v>
       </c>
       <c r="D187" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E187" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F187">
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C188" s="2">
         <v>43238</v>
       </c>
       <c r="D188" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="E188" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F188">
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C189" s="2">
         <v>43238</v>
       </c>
       <c r="D189" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E189" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
-      <c r="A190" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C190" s="2">
         <v>43239</v>
       </c>
       <c r="D190" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E190" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F190">
         <v>5</v>
       </c>
       <c r="H190" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
       </c>
       <c r="D191" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="E191" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F191">
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C192" s="2">
         <v>43239</v>
       </c>
       <c r="D192" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E192" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F192">
         <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C193" s="2">
         <v>43240</v>
       </c>
       <c r="D193" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E193" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F193">
         <v>5</v>
       </c>
       <c r="H193" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
       </c>
       <c r="D194" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="E194" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F194">
         <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="A195" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>4.7</v>
       </c>
       <c r="B195" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C195" s="2">
         <v>43241</v>
       </c>
       <c r="D195" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F195">
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
       <c r="B196" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C196" s="2">
         <v>43241</v>
       </c>
       <c r="D196" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E196" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F196">
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>8.4</v>
       </c>
       <c r="B197" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C197" s="2">
         <v>43242</v>
       </c>
       <c r="D197" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E197" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F197">
         <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C198" s="2">
         <v>43243</v>
       </c>
       <c r="D198" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E198" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F198">
         <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
-      <c r="A199" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>4.5</v>
       </c>
       <c r="B199" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C199" s="2">
         <v>43244</v>
       </c>
       <c r="D199" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E199" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F199">
         <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C200" s="2">
         <v>43244</v>
       </c>
       <c r="D200" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E200" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F200">
         <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>5.46</v>
       </c>
       <c r="B201" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C201" s="2">
         <v>43245</v>
       </c>
       <c r="D201" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E201" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F201">
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
-      <c r="A202" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
       <c r="B202" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C202" s="2">
         <v>43245</v>
       </c>
       <c r="D202" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E202" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F202">
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C203" s="2">
         <v>43246</v>
       </c>
       <c r="D203" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F203">
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C204" s="2">
         <v>43246</v>
       </c>
       <c r="D204" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E204" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F204">
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C205" s="2">
         <v>43247</v>
       </c>
       <c r="D205" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="E205" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F205">
         <v>5</v>
       </c>
       <c r="H205" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C206" s="2">
         <v>43247</v>
       </c>
       <c r="D206" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E206" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F206">
         <v>5</v>
       </c>
       <c r="H206" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
         <v>2.5</v>
       </c>
       <c r="B207" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C207" s="2">
         <v>43247</v>
       </c>
       <c r="D207" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E207" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F207">
         <v>5</v>
       </c>
       <c r="H207" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
         <v>5.9</v>
       </c>
       <c r="B208" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C208" s="2">
         <v>43248</v>
       </c>
       <c r="D208" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E208" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F208">
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
         <v>8.6</v>
       </c>
       <c r="B209" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C209" s="2">
         <v>43248</v>
       </c>
       <c r="D209" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="E209" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F209">
         <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
         <v>2.7</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C210" s="2">
         <v>43249</v>
       </c>
       <c r="D210" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E210" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F210">
         <v>4</v>
       </c>
       <c r="H210" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
         <v>4.8</v>
       </c>
       <c r="B211" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C211" s="2">
         <v>43250</v>
       </c>
       <c r="D211" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="E211" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F211">
         <v>4</v>
       </c>
       <c r="H211" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
         <v>2.8</v>
       </c>
       <c r="B212" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C212" s="2">
         <v>43250</v>
       </c>
       <c r="D212" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E212" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F212">
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C213" s="2">
         <v>43250</v>
       </c>
       <c r="D213" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="E213" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F213">
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C214" s="2">
         <v>43250</v>
       </c>
       <c r="D214" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E214" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F214">
         <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
         <v>2.5</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C215" s="2">
         <v>43250</v>
       </c>
       <c r="D215" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E215" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F215">
         <v>4</v>
       </c>
       <c r="H215" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
         <v>3.5</v>
       </c>
       <c r="B216" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C216" s="2">
         <v>43251</v>
       </c>
       <c r="D216" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="E216" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
         <v>1.8</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C217" s="2">
         <v>43252</v>
       </c>
       <c r="D217" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="E217" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F217">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C218" s="2">
         <v>43252</v>
       </c>
       <c r="D218" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E218" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F218">
         <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C219" s="2">
         <v>43252</v>
       </c>
       <c r="D219" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="E219" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F219">
         <v>4</v>
       </c>
       <c r="H219" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
         <v>1.8</v>
       </c>
       <c r="B220" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C220" s="2">
         <v>43252</v>
       </c>
       <c r="D220" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F220">
         <v>4</v>
       </c>
       <c r="H220" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C221" s="2">
         <v>43254</v>
       </c>
       <c r="D221" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="E221" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F221">
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C222" s="2">
         <v>43255</v>
       </c>
       <c r="D222" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="E222" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F222">
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
         <v>4.7</v>
       </c>
       <c r="B223" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C223" s="2">
         <v>43256</v>
       </c>
       <c r="D223" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E223" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F223">
         <v>4</v>
       </c>
       <c r="H223" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C224" s="2">
         <v>43256</v>
       </c>
       <c r="D224" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E224" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F224">
         <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
         <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="C225" s="2">
         <v>43256</v>
       </c>
       <c r="D225" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F225">
         <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
         <v>1.5</v>
       </c>
       <c r="B226" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C226" s="2">
         <v>43256</v>
       </c>
       <c r="D226" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="E226" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F226">
         <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
         <v>99</v>
       </c>
       <c r="B227" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
       <c r="D227" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E227" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F227">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
         <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C228" s="2">
         <v>43257</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="E228" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F228">
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
         <v>2.8</v>
       </c>
       <c r="B229" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C229" s="2">
         <v>43257</v>
       </c>
       <c r="D229" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E229" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F229">
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2">
         <v>43260</v>
       </c>
       <c r="D230" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E230" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F230">
         <v>4</v>
       </c>
       <c r="H230" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C231" s="2">
         <v>43260</v>
       </c>
       <c r="D231" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="E231" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F231">
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
       </c>
       <c r="D232" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E232" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
         <v>7.2</v>
       </c>
       <c r="B233" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C233" s="2">
         <v>43261</v>
       </c>
       <c r="D233" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="E233" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F233">
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C234" s="2">
         <v>43261</v>
       </c>
       <c r="D234" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="E234" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F234">
         <v>4</v>
       </c>
       <c r="H234" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C235" s="2">
         <v>43261</v>
       </c>
       <c r="D235" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E235" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F235">
         <v>4</v>
       </c>
       <c r="H235" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B236" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C236" s="2">
         <v>43261</v>
       </c>
       <c r="D236" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="E236" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F236">
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
       </c>
       <c r="D237" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E237" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F237">
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="E238" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F238">
         <v>4</v>
       </c>
       <c r="H238" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
       </c>
       <c r="D239" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E239" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F239">
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
         <v>11.2</v>
       </c>
       <c r="B240" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
       </c>
       <c r="D240" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E240" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F240">
         <v>4</v>
       </c>
       <c r="H240" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
         <v>2.1</v>
       </c>
       <c r="B241" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C241" s="2">
         <v>43263</v>
       </c>
       <c r="D241" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="E241" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F241">
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="8">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>68</v>
+        <v>279</v>
       </c>
       <c r="C242" s="2">
         <v>43263</v>
       </c>
       <c r="D242" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="E242" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F242">
         <v>5</v>
       </c>
       <c r="H242" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
         <v>12.7</v>
       </c>
       <c r="B243" t="s">
-        <v>72</v>
+        <v>280</v>
       </c>
       <c r="C243" s="2">
         <v>43264</v>
       </c>
       <c r="D243" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E243" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F243">
         <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
         <v>89.9</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="C244" s="2">
         <v>43264</v>
       </c>
       <c r="D244" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="E244" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F244">
         <v>4</v>
       </c>
       <c r="H244" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B245" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C245" s="2">
         <v>43264</v>
       </c>
       <c r="D245" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E245" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F245">
         <v>4</v>
       </c>
       <c r="H245" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
         <v>4.2</v>
       </c>
       <c r="B246" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C246" s="2">
         <v>43265</v>
       </c>
       <c r="D246" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E246" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F246">
         <v>4</v>
       </c>
       <c r="H246" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B247" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C247" s="2">
         <v>43266</v>
       </c>
       <c r="D247" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E247" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F247">
         <v>4</v>
       </c>
       <c r="H247" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C248" s="2">
         <v>43266</v>
       </c>
       <c r="D248" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E248" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F248">
         <v>5</v>
       </c>
       <c r="H248" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C249" s="2">
         <v>43267</v>
       </c>
       <c r="D249" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E249" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F249">
         <v>5</v>
       </c>
       <c r="H249" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
         <v>3.9</v>
       </c>
       <c r="B250" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C250" s="2">
         <v>43269</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="E250" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F250">
         <v>5</v>
       </c>
       <c r="H250" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
         <v>0.5</v>
       </c>
       <c r="B251" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C251" s="2">
         <v>43269</v>
       </c>
       <c r="D251" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E251" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F251">
         <v>5</v>
       </c>
       <c r="H251" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
         <v>2.4</v>
       </c>
       <c r="B252" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C252" s="2">
         <v>43269</v>
       </c>
       <c r="D252" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="E252" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F252">
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C253" s="2">
         <v>43270</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="E253" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F253">
         <v>5</v>
       </c>
       <c r="H253" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
         <v>4.7</v>
       </c>
       <c r="B254" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C254" s="2">
         <v>43270</v>
       </c>
       <c r="D254" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="E254" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F254">
         <v>5</v>
       </c>
       <c r="H254" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
         <v>5.3</v>
       </c>
       <c r="B255" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C255" s="2">
         <v>43270</v>
       </c>
       <c r="D255" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="E255" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F255">
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
-      <c r="A256" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
         <v>4.2</v>
       </c>
       <c r="B256" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C256" s="2">
         <v>43272</v>
       </c>
       <c r="D256" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E256" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="H256" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" s="8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
         <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C257" s="2">
         <v>43272</v>
       </c>
       <c r="D257" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E257" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F257">
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="A258" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
         <v>2.5</v>
       </c>
       <c r="B258" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C258" s="2">
         <v>43272</v>
       </c>
       <c r="D258" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="E258" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F258">
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
-      <c r="A259" s="9">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
         <v>3.3</v>
       </c>
       <c r="B259" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C259" s="2">
         <v>43272</v>
       </c>
       <c r="D259" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="E259" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F259">
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" s="9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
         <v>5.6</v>
       </c>
       <c r="B260" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C260" s="2">
         <v>43272</v>
       </c>
       <c r="D260" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E260" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F260">
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="A261" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C261" s="2">
         <v>43274</v>
       </c>
       <c r="D261" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="E261" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F261">
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
-      <c r="A262" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="B262" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C262" s="2">
         <v>43275</v>
       </c>
       <c r="D262" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="E262" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F262">
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
         <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C263" s="2">
         <v>43275</v>
       </c>
       <c r="D263" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="E263" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F263">
         <v>5</v>
       </c>
       <c r="H263" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="A264" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
         <v>2.1</v>
       </c>
       <c r="B264" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C264" s="2">
         <v>43275</v>
       </c>
       <c r="D264" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="E264" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F264">
         <v>5</v>
       </c>
       <c r="H264" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
-      <c r="A265" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
         <v>3.7</v>
       </c>
       <c r="B265" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C265" s="2">
         <v>43275</v>
       </c>
       <c r="D265" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="E265" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F265">
         <v>5</v>
       </c>
       <c r="H265" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" s="8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C266" s="2">
         <v>43275</v>
       </c>
       <c r="D266" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="E266" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F266">
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="A267" s="9">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
         <v>13.5</v>
       </c>
       <c r="B267" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C267" s="2">
         <v>43275</v>
       </c>
       <c r="D267" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E267" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F267">
         <v>5</v>
       </c>
       <c r="H267" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
-      <c r="A268" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C268" s="2">
         <v>43277</v>
       </c>
       <c r="D268" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E268" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F268">
         <v>5</v>
       </c>
       <c r="H268" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" s="8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C269" s="2">
         <v>43277</v>
       </c>
       <c r="D269" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="E269" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F269">
         <v>5</v>
       </c>
       <c r="H269" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="A270" s="8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C270" s="2">
         <v>43277</v>
       </c>
       <c r="D270" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E270" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F270">
         <v>5</v>
       </c>
       <c r="H270" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
-      <c r="A271" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
         <v>0.5</v>
       </c>
       <c r="B271" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C271" s="2">
         <v>43279</v>
       </c>
       <c r="D271" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E271" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F271">
         <v>5</v>
       </c>
       <c r="H271" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C272" s="2">
         <v>43279</v>
       </c>
       <c r="D272" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="E272" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F272">
         <v>5</v>
       </c>
       <c r="H272" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
         <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C273" s="2">
         <v>43279</v>
       </c>
       <c r="D273" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="E273" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F273">
         <v>5</v>
       </c>
       <c r="H273" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="B274" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C274" s="2">
         <v>43280</v>
       </c>
       <c r="D274" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E274" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F274">
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
         <v>0.5</v>
       </c>
       <c r="B275" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C275" s="2">
         <v>43280</v>
       </c>
       <c r="D275" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="E275" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F275">
         <v>5</v>
       </c>
       <c r="H275" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C276" s="2">
         <v>43280</v>
       </c>
       <c r="D276" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E276" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F276">
         <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C277" s="2">
         <v>43280</v>
       </c>
       <c r="D277" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E277" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F277">
         <v>5</v>
       </c>
       <c r="H277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C278" s="2">
         <v>43280</v>
       </c>
       <c r="D278" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="E278" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F278">
         <v>5</v>
       </c>
       <c r="H278" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="C279" s="2">
         <v>43281</v>
       </c>
       <c r="D279" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="E279" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F279">
         <v>5</v>
       </c>
       <c r="H279" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
         <v>11.9</v>
       </c>
       <c r="B280" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C280" s="2">
         <v>43281</v>
       </c>
       <c r="D280" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="E280" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F280">
         <v>5</v>
       </c>
       <c r="H280" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
-      <c r="A281" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C281" s="2">
         <v>43282</v>
       </c>
       <c r="D281" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="E281" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F281">
         <v>5</v>
       </c>
       <c r="H281" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B282" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="C282" s="2">
         <v>43282</v>
       </c>
       <c r="D282" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E282" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="F282">
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -8393,9 +7772,9 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <f>SUBTOTAL(109,[Ποσό €])</f>
+        <f>SUBTOTAL(109,Πίνακας1[amount])</f>
         <v>3322.7899999999986</v>
       </c>
       <c r="B368" s="1"/>
@@ -8408,7 +7787,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="4"/>
     </row>
   </sheetData>
@@ -8418,279 +7797,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="4">
-        <v>285.2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9">
-        <v>234.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>199.82</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11">
-        <v>208.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:C19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11">
-        <v>64.099999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13">
-        <v>96.2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17">
-        <v>223.95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18">
-        <v>758.12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19">
-        <v>25.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4">
-        <v>259.33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5">
-        <v>660.7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6">
-        <v>448.69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Έξοδα" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="291">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -184,51 +184,15 @@
     <t>σάντουιτς (Σ.Ε.Φ)</t>
   </si>
   <si>
-    <t>σε σχέση</t>
-  </si>
-  <si>
-    <t>κάτι παίζει</t>
-  </si>
-  <si>
     <t>εστιατόριο Siemens</t>
   </si>
   <si>
     <t>εισητήρια Χρύσας</t>
   </si>
   <si>
-    <t>Περιστέρι</t>
-  </si>
-  <si>
-    <t>Νέο Ηράκλειο</t>
-  </si>
-  <si>
-    <t>Πειραιάς</t>
-  </si>
-  <si>
-    <t>Μοναστηράκι</t>
-  </si>
-  <si>
-    <t>Σύνταγμα</t>
-  </si>
-  <si>
-    <t>Αιγάλεω</t>
-  </si>
-  <si>
     <t>Wish (camping - GoPro)</t>
   </si>
   <si>
-    <t>Κηφισός</t>
-  </si>
-  <si>
-    <t>Λάρισα</t>
-  </si>
-  <si>
-    <t>Καρδίτσα</t>
-  </si>
-  <si>
-    <t>Καλαμπάκα</t>
-  </si>
-  <si>
     <t>Χυμός με Κλεοπάτρα</t>
   </si>
   <si>
@@ -238,27 +202,18 @@
     <t>Jumbo</t>
   </si>
   <si>
-    <t>Μαρούσι</t>
-  </si>
-  <si>
     <t>Pitsa.gr με Νίκο</t>
   </si>
   <si>
     <t>Nike mall</t>
   </si>
   <si>
-    <t>Πανόρμου</t>
-  </si>
-  <si>
     <t>Μπύρα αμστελ</t>
   </si>
   <si>
     <t>Fetticcio</t>
   </si>
   <si>
-    <t>Γλυφάδα</t>
-  </si>
-  <si>
     <t>Cosmote</t>
   </si>
   <si>
@@ -268,18 +223,12 @@
     <t>Μπλούζα για θεσσαλονίκη</t>
   </si>
   <si>
-    <t>ελεύθερος</t>
-  </si>
-  <si>
     <t>σάντουιτς Π.Γ.Σ κυρα κούλα</t>
   </si>
   <si>
     <t>Ακουστικά με ξύλο</t>
   </si>
   <si>
-    <t>Θεσσαλονίκη</t>
-  </si>
-  <si>
     <t>χυμός κουλουρι Αγίλαρας</t>
   </si>
   <si>
@@ -307,9 +256,6 @@
     <t>ανοιχτή κοτόπιτα. Λιοντάρια</t>
   </si>
   <si>
-    <t>Ηράκλειο</t>
-  </si>
-  <si>
     <t>παγωτό (+ Κώστα)</t>
   </si>
   <si>
@@ -328,18 +274,12 @@
     <t>καπέλο addidas</t>
   </si>
   <si>
-    <t>Ρέθυμνο</t>
-  </si>
-  <si>
     <t>μακαρονάδα, σαλάτα, πατάτες</t>
   </si>
   <si>
     <t>νερό</t>
   </si>
   <si>
-    <t>ΚΤΕΛ για Ηράκλειο</t>
-  </si>
-  <si>
     <t>Σουβλάκι, μπύρα, αναψυκτικό</t>
   </si>
   <si>
@@ -373,9 +313,6 @@
     <t xml:space="preserve">Στεργίου μίλκο </t>
   </si>
   <si>
-    <t>Αμπελόκηποι</t>
-  </si>
-  <si>
     <t>ταξί από το ρακάδικο</t>
   </si>
   <si>
@@ -388,9 +325,6 @@
     <t>SuperMarket - Πουρές και γάλα</t>
   </si>
   <si>
-    <t>Τζιτζιφιές</t>
-  </si>
-  <si>
     <t>Πεϊνιρλί και λουκανικόπιτα</t>
   </si>
   <si>
@@ -403,9 +337,6 @@
     <t>ρούχα Addidas με Μιχάλη</t>
   </si>
   <si>
-    <t>Κάτω Πατήσια</t>
-  </si>
-  <si>
     <t>Κοδρικτώνος</t>
   </si>
   <si>
@@ -424,15 +355,9 @@
     <t>πάγος</t>
   </si>
   <si>
-    <t>Κυψέλη</t>
-  </si>
-  <si>
     <t>νερό και καλτσόνε, σχολή</t>
   </si>
   <si>
-    <t>ερωτευμένος</t>
-  </si>
-  <si>
     <t>γίγας, κρέας στην πυρά</t>
   </si>
   <si>
@@ -481,12 +406,6 @@
     <t>λουκουμάς κουλούρι</t>
   </si>
   <si>
-    <t>ρούχα Περιστέρι Εσπόζο</t>
-  </si>
-  <si>
-    <t>Χαλάνδρι</t>
-  </si>
-  <si>
     <t>burger, κρύα σοκολάτα TreJolie</t>
   </si>
   <si>
@@ -505,9 +424,6 @@
     <t>σκατολοΐδια</t>
   </si>
   <si>
-    <t>Τρίπολη</t>
-  </si>
-  <si>
     <t>κοτόπουλο</t>
   </si>
   <si>
@@ -526,24 +442,12 @@
     <t>τόστ, παγωτό, caprice</t>
   </si>
   <si>
-    <t>Αγ.Κοσμάς</t>
-  </si>
-  <si>
     <t>burger, μπύρα</t>
   </si>
   <si>
-    <t>Νέα Σμύρνη</t>
-  </si>
-  <si>
-    <t>εντυπωσιασμένος</t>
-  </si>
-  <si>
     <t>μπριζόλα</t>
   </si>
   <si>
-    <t>ταξί για περιστέρι από κυψέλη</t>
-  </si>
-  <si>
     <t>πίτσα, νερό</t>
   </si>
   <si>
@@ -604,9 +508,6 @@
     <t>Μεξικάνικο με μιχάλη</t>
   </si>
   <si>
-    <t>Κηφισσιά</t>
-  </si>
-  <si>
     <t>(τσάντα, καπέλο)Cosmos Sport</t>
   </si>
   <si>
@@ -631,9 +532,6 @@
     <t>ταξι από ανθούπολη</t>
   </si>
   <si>
-    <t>παγωτό στον σταθμό Περιστέρι</t>
-  </si>
-  <si>
     <t>powerade</t>
   </si>
   <si>
@@ -730,27 +628,15 @@
     <t>καφε και τσάι (+ σταμάτη)</t>
   </si>
   <si>
-    <t>Ναύπλιο</t>
-  </si>
-  <si>
     <t>σαντουιτς με προσουτο</t>
   </si>
   <si>
     <t>γκοφρέτα</t>
   </si>
   <si>
-    <t>Κύπρος</t>
-  </si>
-  <si>
     <t>σαντουιτς</t>
   </si>
   <si>
-    <t>Γαλάτσι</t>
-  </si>
-  <si>
-    <t>Αεροδρόμιο</t>
-  </si>
-  <si>
     <t>monster</t>
   </si>
   <si>
@@ -784,18 +670,9 @@
     <t>ταξί για αγιο αντώνιο</t>
   </si>
   <si>
-    <t>ταξί για γαλάτσι από Ανω πατήσια</t>
-  </si>
-  <si>
     <t>καφές (+ αρετής)</t>
   </si>
   <si>
-    <t>ταξί από γαλάτσι προς Περιστέρι</t>
-  </si>
-  <si>
-    <t>ταξί από χαλάνδρι αεροδρόμιο</t>
-  </si>
-  <si>
     <t>νερό για την γιαγιά</t>
   </si>
   <si>
@@ -890,17 +767,137 @@
   </si>
   <si>
     <t>weather</t>
+  </si>
+  <si>
+    <t>inRelationship</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>dating</t>
+  </si>
+  <si>
+    <t>inLove</t>
+  </si>
+  <si>
+    <t>Peristeri</t>
+  </si>
+  <si>
+    <t>ρούχα Peristeri Εσπόζο</t>
+  </si>
+  <si>
+    <t>παγωτό στον σταθμό Peristeri</t>
+  </si>
+  <si>
+    <t>New Irakleion</t>
+  </si>
+  <si>
+    <t>Piraeus</t>
+  </si>
+  <si>
+    <t>Monastiraki</t>
+  </si>
+  <si>
+    <t>Syntagma</t>
+  </si>
+  <si>
+    <t>Kypseli</t>
+  </si>
+  <si>
+    <t>ταξί για Peristeri από Kypseli</t>
+  </si>
+  <si>
+    <t>Chalandri</t>
+  </si>
+  <si>
+    <t>ταξί από Chalandri αεροδρόμιο</t>
+  </si>
+  <si>
+    <t>Irakleion</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ για Irakleion</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Ampelokipi</t>
+  </si>
+  <si>
+    <t>Tripoli</t>
+  </si>
+  <si>
+    <t>Rethymno</t>
+  </si>
+  <si>
+    <t>Panormou</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>New Smyrni</t>
+  </si>
+  <si>
+    <t>Nafplio</t>
+  </si>
+  <si>
+    <t>Marousi</t>
+  </si>
+  <si>
+    <t>Kifisos</t>
+  </si>
+  <si>
+    <t>Kifisia</t>
+  </si>
+  <si>
+    <t>Karditsa</t>
+  </si>
+  <si>
+    <t>Thessaloniki</t>
+  </si>
+  <si>
+    <t>Kalampaka</t>
+  </si>
+  <si>
+    <t>Ag.Kosmas</t>
+  </si>
+  <si>
+    <t>Aigaleo</t>
+  </si>
+  <si>
+    <t>ταξί για Galatsi από Ανω πατήσια</t>
+  </si>
+  <si>
+    <t>Galatsi</t>
+  </si>
+  <si>
+    <t>ταξί από Galatsi προς Peristeri</t>
+  </si>
+  <si>
+    <t>Glyfada</t>
+  </si>
+  <si>
+    <t>Kato Patisia</t>
+  </si>
+  <si>
+    <t>Tztzifies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,7 +936,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1023,7 +1020,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H368" totalsRowCount="1">
   <autoFilter ref="A1:H367"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="amount" totalsRowFunction="sum" totalsRowDxfId="7"/>
+    <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
     <tableColumn id="2" name="date" totalsRowDxfId="5"/>
     <tableColumn id="4" name="description" totalsRowDxfId="4"/>
@@ -1037,7 +1034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1079,7 +1076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1111,10 +1108,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1146,7 +1142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1322,14 +1317,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1344,41 +1337,41 @@
     <col min="11" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C2" s="2">
         <v>43120</v>
@@ -1387,22 +1380,22 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2">
         <v>43120</v>
@@ -1411,21 +1404,21 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2">
         <v>43120</v>
@@ -1434,21 +1427,21 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>
@@ -1457,21 +1450,21 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2">
         <v>43121</v>
@@ -1480,21 +1473,21 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2">
         <v>43121</v>
@@ -1503,21 +1496,21 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C8" s="2">
         <v>43122</v>
@@ -1526,21 +1519,21 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C9" s="2">
         <v>43122</v>
@@ -1549,21 +1542,21 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2">
         <v>43155</v>
@@ -1572,21 +1565,21 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C11" s="2">
         <v>43156</v>
@@ -1595,21 +1588,21 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C12" s="2">
         <v>43157</v>
@@ -1618,21 +1611,21 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C13" s="2">
         <v>43126</v>
@@ -1641,21 +1634,21 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C14" s="2">
         <v>43126</v>
@@ -1664,21 +1657,21 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C15" s="2">
         <v>43129</v>
@@ -1687,21 +1680,21 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
@@ -1710,21 +1703,21 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C17" s="2">
         <v>43129</v>
@@ -1733,21 +1726,21 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C18" s="2">
         <v>43129</v>
@@ -1756,21 +1749,21 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2">
         <v>43130</v>
@@ -1779,21 +1772,21 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2">
         <v>43131</v>
@@ -1802,21 +1795,21 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2">
         <v>43131</v>
@@ -1825,21 +1818,21 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2">
         <v>43131</v>
@@ -1848,21 +1841,21 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2">
         <v>43132</v>
@@ -1871,21 +1864,21 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2">
         <v>43135</v>
@@ -1894,21 +1887,21 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2">
         <v>43136</v>
@@ -1917,21 +1910,21 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2">
         <v>43139</v>
@@ -1940,21 +1933,21 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
       <c r="B27" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2">
         <v>43140</v>
@@ -1963,21 +1956,21 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C28" s="2">
         <v>43141</v>
@@ -1986,21 +1979,21 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2">
         <v>43141</v>
@@ -2009,21 +2002,21 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2">
         <v>43141</v>
@@ -2032,21 +2025,21 @@
         <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2">
         <v>43141</v>
@@ -2055,21 +2048,21 @@
         <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2">
         <v>43142</v>
@@ -2078,87 +2071,87 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
       <c r="B33" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C33" s="2">
         <v>43143</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2">
         <v>43143</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2">
         <v>43143</v>
@@ -2167,21 +2160,21 @@
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C37" s="2">
         <v>43147</v>
@@ -2190,21 +2183,21 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2">
         <v>43148</v>
@@ -2213,21 +2206,21 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2">
         <v>43148</v>
@@ -2236,21 +2229,21 @@
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C40" s="2">
         <v>43148</v>
@@ -2259,21 +2252,21 @@
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C41" s="2">
         <v>43148</v>
@@ -2282,21 +2275,21 @@
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
       <c r="B42" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C42" s="2">
         <v>43150</v>
@@ -2305,21 +2298,21 @@
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
       <c r="B43" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C43" s="2">
         <v>43151</v>
@@ -2328,21 +2321,21 @@
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C44" s="2">
         <v>43152</v>
@@ -2351,21 +2344,21 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
       <c r="B45" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C45" s="2">
         <v>43152</v>
@@ -2374,21 +2367,21 @@
         <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C46" s="2">
         <v>43153</v>
@@ -2397,21 +2390,21 @@
         <v>33</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C47" s="2">
         <v>43153</v>
@@ -2420,21 +2413,21 @@
         <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C48" s="2">
         <v>43153</v>
@@ -2443,21 +2436,21 @@
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C49" s="2">
         <v>43154</v>
@@ -2466,21 +2459,21 @@
         <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C50" s="2">
         <v>43155</v>
@@ -2489,21 +2482,21 @@
         <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C51" s="2">
         <v>43155</v>
@@ -2512,21 +2505,21 @@
         <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
       <c r="B52" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C52" s="2">
         <v>43155</v>
@@ -2535,21 +2528,21 @@
         <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
       <c r="B53" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2">
         <v>43155</v>
@@ -2558,21 +2551,21 @@
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C54" s="2">
         <v>43155</v>
@@ -2581,22 +2574,22 @@
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C55" s="2">
         <v>43156</v>
@@ -2605,21 +2598,21 @@
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C56" s="2">
         <v>43156</v>
@@ -2628,21 +2621,21 @@
         <v>42</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
       <c r="B57" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C57" s="2">
         <v>43156</v>
@@ -2651,21 +2644,21 @@
         <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C58" s="2">
         <v>43156</v>
@@ -2674,21 +2667,21 @@
         <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C59" s="2">
         <v>43156</v>
@@ -2697,21 +2690,21 @@
         <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C60" s="2">
         <v>43157</v>
@@ -2720,21 +2713,21 @@
         <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C61" s="2">
         <v>43157</v>
@@ -2743,21 +2736,21 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C62" s="2">
         <v>43158</v>
@@ -2766,21 +2759,21 @@
         <v>45</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C63" s="2">
         <v>43158</v>
@@ -2789,21 +2782,21 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C64" s="2">
         <v>43158</v>
@@ -2812,21 +2805,21 @@
         <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
@@ -2835,21 +2828,21 @@
         <v>46</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
       <c r="B66" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C66" s="2">
         <v>43160</v>
@@ -2858,21 +2851,21 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C67" s="2">
         <v>43160</v>
@@ -2881,22 +2874,22 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="B68" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2">
         <v>43161</v>
@@ -2905,21 +2898,21 @@
         <v>49</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C69" s="2">
         <v>43161</v>
@@ -2928,44 +2921,44 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
       <c r="B70" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
       <c r="B71" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C71" s="2">
         <v>43162</v>
@@ -2974,21 +2967,21 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
@@ -2997,21 +2990,21 @@
         <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C73" s="2">
         <v>43164</v>
@@ -3020,21 +3013,21 @@
         <v>53</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C74" s="2">
         <v>43165</v>
@@ -3043,45 +3036,45 @@
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>136</v>
+        <v>262</v>
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C75" s="2">
         <v>43166</v>
       </c>
       <c r="D75" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2">
         <v>43166</v>
@@ -3090,21 +3083,21 @@
         <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2">
         <v>43167</v>
@@ -3113,320 +3106,320 @@
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C78" s="2">
         <v>43168</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C79" s="2">
         <v>43169</v>
       </c>
       <c r="D79" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C80" s="2">
         <v>43169</v>
       </c>
       <c r="D80" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F80">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C81" s="2">
         <v>43169</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2">
         <v>43170</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F82">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2">
         <v>43170</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C84" s="2">
         <v>43170</v>
       </c>
       <c r="D84" t="s">
+        <v>232</v>
+      </c>
+      <c r="E84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
         <v>273</v>
       </c>
-      <c r="E84" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
-      </c>
-      <c r="H84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C85" s="2">
         <v>43170</v>
       </c>
       <c r="D85" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F85">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C86" s="2">
         <v>43170</v>
       </c>
       <c r="D86" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F86">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C87" s="2">
         <v>43170</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2">
         <v>43171</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C90" s="2">
         <v>43172</v>
       </c>
       <c r="D90" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C91" s="2">
         <v>43174</v>
@@ -3435,165 +3428,165 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2">
         <v>43175</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2">
         <v>43175</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C94" s="2">
         <v>43175</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F94">
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C97" s="2">
         <v>43180</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C98" s="2">
         <v>43180</v>
       </c>
       <c r="D98" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C99" s="2">
         <v>43181</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C100" s="2">
         <v>43182</v>
@@ -3602,649 +3595,649 @@
         <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C101" s="2">
         <v>43183</v>
       </c>
       <c r="D101" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="4"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C104" s="2">
         <v>43186</v>
       </c>
       <c r="D104" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F104">
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C105" s="2">
         <v>43186</v>
       </c>
       <c r="D105" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F105">
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C106" s="2">
         <v>43187</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C107" s="2">
         <v>43188</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C108" s="2">
         <v>43189</v>
       </c>
       <c r="D108" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
       <c r="B109" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C109" s="2">
         <v>43190</v>
       </c>
       <c r="D109" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F109">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C110" s="2">
         <v>43190</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F110">
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C111" s="2">
         <v>43191</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C112" s="2">
         <v>43191</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C113" s="2">
         <v>43193</v>
       </c>
       <c r="D113" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F113">
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
       <c r="B114" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2">
         <v>43193</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C115" s="2">
         <v>43194</v>
       </c>
       <c r="D115" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
       <c r="B116" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C116" s="2">
         <v>43194</v>
       </c>
       <c r="D116" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F116">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C117" s="2">
         <v>43194</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F117">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C118" s="2">
         <v>43194</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F118">
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C119" s="2">
         <v>43194</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C120" s="2">
         <v>43195</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F120">
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C121" s="2">
         <v>43196</v>
       </c>
       <c r="D121" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F121">
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C122" s="2">
         <v>43196</v>
       </c>
       <c r="D122" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F122">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C123" s="2">
         <v>43197</v>
       </c>
       <c r="D123" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F123">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
       <c r="B124" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C124" s="2">
         <v>43199</v>
       </c>
       <c r="D124" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F124">
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C125" s="2">
         <v>43199</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C126" s="2">
         <v>43199</v>
       </c>
       <c r="D126" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F126">
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C127" s="2">
         <v>43200</v>
       </c>
       <c r="D127" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="E127" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F127">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C128" s="2">
         <v>43200</v>
       </c>
       <c r="D128" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F128">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
       <c r="B129" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C129" s="2">
         <v>43201</v>
       </c>
       <c r="D129" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F129">
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C130" s="2">
         <v>43201</v>
@@ -4253,205 +4246,205 @@
         <v>24</v>
       </c>
       <c r="E130" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C131" s="2">
         <v>43202</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E131" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F131">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C132" s="2">
         <v>43202</v>
       </c>
       <c r="D132" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E132" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F132">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C133" s="2">
         <v>43203</v>
       </c>
       <c r="D133" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E133" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F133">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C134" s="2">
         <v>43203</v>
       </c>
       <c r="D134" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E134" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F134">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C135" s="2">
         <v>43203</v>
       </c>
       <c r="D135" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E135" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F135">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C136" s="2">
         <v>43204</v>
       </c>
       <c r="D136" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="E136" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C137" s="2">
         <v>43206</v>
       </c>
       <c r="D137" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="E137" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F137">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C138" s="2">
         <v>43206</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="E138" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F138">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C139" s="2">
         <v>43206</v>
@@ -4460,1861 +4453,1861 @@
         <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F139">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
       <c r="B140" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C140" s="2">
         <v>43207</v>
       </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F140">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C141" s="2">
         <v>43207</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F141">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C142" s="2">
         <v>43208</v>
       </c>
       <c r="D142" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E142" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F142">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
       <c r="B143" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C143" s="2">
         <v>43208</v>
       </c>
       <c r="D143" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E143" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F143">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C144" s="2">
         <v>43209</v>
       </c>
       <c r="D144" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E144" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F144">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C145" s="2">
         <v>43209</v>
       </c>
       <c r="D145" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="E145" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F145">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C146" s="2">
         <v>43209</v>
       </c>
       <c r="D146" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E146" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F146">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B147" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C147" s="2">
         <v>43209</v>
       </c>
       <c r="D147" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="E147" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F147">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C148" s="2">
         <v>43210</v>
       </c>
       <c r="D148" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E148" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F148">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C149" s="2">
         <v>43210</v>
       </c>
       <c r="D149" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E149" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F149">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C150" s="2">
         <v>43211</v>
       </c>
       <c r="D150" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E150" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
       </c>
       <c r="D151" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E151" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F151">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C152" s="2">
         <v>43211</v>
       </c>
       <c r="D152" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E152" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F152">
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C153" s="2">
         <v>43211</v>
       </c>
       <c r="D153" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E153" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F153">
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C154" s="2">
         <v>43211</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F154">
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
       </c>
       <c r="D155" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E155" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F155">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C156" s="2">
         <v>43213</v>
       </c>
       <c r="D156" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E156" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C157" s="2">
         <v>43214</v>
       </c>
       <c r="D157" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E157" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F157">
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
       </c>
       <c r="D158" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="E158" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F158">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C159" s="2">
         <v>43216</v>
       </c>
       <c r="D159" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E159" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F159">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C160" s="2">
         <v>43217</v>
       </c>
       <c r="D160" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="E160" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F160">
         <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C161" s="2">
         <v>43217</v>
       </c>
       <c r="D161" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="E161" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F161">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
       <c r="B162" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C162" s="2">
         <v>43218</v>
       </c>
       <c r="D162" t="s">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="E162" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
       <c r="B163" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C163" s="2">
         <v>43218</v>
       </c>
       <c r="D163" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
       <c r="E163" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F163">
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C164" s="2">
         <v>43219</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E164" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F164">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
       <c r="B165" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C165" s="2">
         <v>43220</v>
       </c>
       <c r="D165" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="E165" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C166" s="2">
         <v>43220</v>
       </c>
       <c r="D166" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E166" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C167" s="2">
         <v>43221</v>
       </c>
       <c r="D167" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="E167" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F167">
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C168" s="2">
         <v>43223</v>
       </c>
       <c r="D168" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E168" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F168">
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
       <c r="B169" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C169" s="2">
         <v>43224</v>
       </c>
       <c r="D169" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="E169" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F169">
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C170" s="2">
         <v>43225</v>
       </c>
       <c r="D170" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E170" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C171" s="2">
         <v>43227</v>
       </c>
       <c r="D171" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="E171" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F171">
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C172" s="2">
         <v>43227</v>
       </c>
       <c r="D172" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E172" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F172">
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C173" s="2">
         <v>43228</v>
       </c>
       <c r="D173" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E173" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="H173" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C174" s="2">
         <v>43229</v>
       </c>
       <c r="D174" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="E174" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F174">
         <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C175" s="2">
         <v>43229</v>
       </c>
       <c r="D175" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E175" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F175">
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C176" s="2">
         <v>43230</v>
       </c>
       <c r="D176" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E176" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F176">
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C177" s="2">
         <v>43233</v>
       </c>
       <c r="D177" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E177" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F177">
         <v>5</v>
       </c>
       <c r="H177" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C178" s="2">
         <v>43233</v>
       </c>
       <c r="D178" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="E178" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F178">
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C179" s="2">
         <v>43234</v>
       </c>
       <c r="D179" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E179" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C180" s="2">
         <v>43236</v>
       </c>
       <c r="D180" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="E180" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F180">
         <v>4</v>
       </c>
       <c r="H180" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C181" s="2">
         <v>43236</v>
       </c>
       <c r="D181" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="E181" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F181">
         <v>4</v>
       </c>
       <c r="H181" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
       <c r="B182" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C182" s="2">
         <v>43237</v>
       </c>
       <c r="D182" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="E182" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F182">
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
       </c>
       <c r="D183" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E183" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F183">
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
       </c>
       <c r="D184" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="E184" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
       </c>
       <c r="D185" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="E185" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F185">
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C186" s="2">
         <v>43237</v>
       </c>
       <c r="D186" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="E186" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F186">
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C187" s="2">
         <v>43237</v>
       </c>
       <c r="D187" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="E187" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F187">
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C188" s="2">
         <v>43238</v>
       </c>
       <c r="D188" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E188" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F188">
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C189" s="2">
         <v>43238</v>
       </c>
       <c r="D189" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E189" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C190" s="2">
         <v>43239</v>
       </c>
       <c r="D190" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="E190" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F190">
         <v>5</v>
       </c>
       <c r="H190" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
       </c>
       <c r="D191" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E191" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F191">
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
       <c r="B192" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C192" s="2">
         <v>43239</v>
       </c>
       <c r="D192" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E192" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="F192">
         <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C193" s="2">
         <v>43240</v>
       </c>
       <c r="D193" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E193" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F193">
         <v>5</v>
       </c>
       <c r="H193" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
       </c>
       <c r="D194" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="E194" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F194">
         <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
       <c r="B195" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C195" s="2">
         <v>43241</v>
       </c>
       <c r="D195" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E195" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F195">
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
       <c r="B196" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C196" s="2">
         <v>43241</v>
       </c>
       <c r="D196" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="E196" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F196">
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C197" s="2">
         <v>43242</v>
       </c>
       <c r="D197" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="E197" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F197">
         <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C198" s="2">
         <v>43243</v>
       </c>
       <c r="D198" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="E198" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F198">
         <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C199" s="2">
         <v>43244</v>
       </c>
       <c r="D199" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E199" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F199">
         <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C200" s="2">
         <v>43244</v>
       </c>
       <c r="D200" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="E200" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F200">
         <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C201" s="2">
         <v>43245</v>
       </c>
       <c r="D201" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E201" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F201">
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C202" s="2">
         <v>43245</v>
       </c>
       <c r="D202" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E202" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F202">
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C203" s="2">
         <v>43246</v>
       </c>
       <c r="D203" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F203">
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C204" s="2">
         <v>43246</v>
       </c>
       <c r="D204" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F204">
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C205" s="2">
         <v>43247</v>
       </c>
       <c r="D205" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E205" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F205">
         <v>5</v>
       </c>
       <c r="H205" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C206" s="2">
         <v>43247</v>
       </c>
       <c r="D206" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E206" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F206">
         <v>5</v>
       </c>
       <c r="H206" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
       <c r="B207" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C207" s="2">
         <v>43247</v>
       </c>
       <c r="D207" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="E207" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F207">
         <v>5</v>
       </c>
       <c r="H207" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
       <c r="B208" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C208" s="2">
         <v>43248</v>
       </c>
       <c r="D208" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="E208" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F208">
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
       <c r="B209" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C209" s="2">
         <v>43248</v>
       </c>
       <c r="D209" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="E209" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F209">
         <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
       <c r="B210" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C210" s="2">
         <v>43249</v>
       </c>
       <c r="D210" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E210" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F210">
         <v>4</v>
       </c>
       <c r="H210" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C211" s="2">
         <v>43250</v>
       </c>
       <c r="D211" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E211" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F211">
         <v>4</v>
       </c>
       <c r="H211" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
       <c r="B212" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C212" s="2">
         <v>43250</v>
       </c>
       <c r="D212" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E212" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F212">
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C213" s="2">
         <v>43250</v>
       </c>
       <c r="D213" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="E213" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F213">
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
       <c r="B214" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C214" s="2">
         <v>43250</v>
       </c>
       <c r="D214" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="E214" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F214">
         <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C215" s="2">
         <v>43250</v>
       </c>
       <c r="D215" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="E215" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F215">
         <v>4</v>
       </c>
       <c r="H215" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
       <c r="B216" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C216" s="2">
         <v>43251</v>
       </c>
       <c r="D216" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E216" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C217" s="2">
         <v>43252</v>
       </c>
       <c r="D217" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="E217" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F217">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
       <c r="B218" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C218" s="2">
         <v>43252</v>
       </c>
       <c r="D218" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E218" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F218">
         <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C219" s="2">
         <v>43252</v>
       </c>
       <c r="D219" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="E219" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F219">
         <v>4</v>
       </c>
       <c r="H219" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C220" s="2">
         <v>43252</v>
@@ -6323,113 +6316,113 @@
         <v>24</v>
       </c>
       <c r="E220" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F220">
         <v>4</v>
       </c>
       <c r="H220" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C221" s="2">
         <v>43254</v>
       </c>
       <c r="D221" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="E221" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F221">
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C222" s="2">
         <v>43255</v>
       </c>
       <c r="D222" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E222" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F222">
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
       <c r="B223" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C223" s="2">
         <v>43256</v>
       </c>
       <c r="D223" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="E223" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F223">
         <v>4</v>
       </c>
       <c r="H223" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C224" s="2">
         <v>43256</v>
       </c>
       <c r="D224" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="E224" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F224">
         <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
       <c r="B225" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C225" s="2">
         <v>43256</v>
@@ -6438,1327 +6431,1327 @@
         <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F225">
         <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
       <c r="B226" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C226" s="2">
         <v>43256</v>
       </c>
       <c r="D226" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E226" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F226">
         <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>99</v>
       </c>
       <c r="B227" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
       <c r="D227" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="E227" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F227">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C228" s="2">
         <v>43257</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="E228" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F228">
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C229" s="2">
         <v>43257</v>
       </c>
       <c r="D229" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="E229" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F229">
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C230" s="2">
         <v>43260</v>
       </c>
       <c r="D230" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E230" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F230">
         <v>4</v>
       </c>
       <c r="H230" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C231" s="2">
         <v>43260</v>
       </c>
       <c r="D231" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E231" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F231">
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
       </c>
       <c r="D232" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="E232" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
       <c r="B233" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C233" s="2">
         <v>43261</v>
       </c>
       <c r="D233" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="E233" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F233">
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C234" s="2">
         <v>43261</v>
       </c>
       <c r="D234" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="E234" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F234">
         <v>4</v>
       </c>
       <c r="H234" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
       <c r="B235" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C235" s="2">
         <v>43261</v>
       </c>
       <c r="D235" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="E235" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F235">
         <v>4</v>
       </c>
       <c r="H235" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C236" s="2">
         <v>43261</v>
       </c>
       <c r="D236" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="E236" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F236">
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
       </c>
       <c r="D237" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="E237" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F237">
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
       </c>
       <c r="D238" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E238" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F238">
         <v>4</v>
       </c>
       <c r="H238" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
       </c>
       <c r="D239" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="E239" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F239">
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
       <c r="B240" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
       </c>
       <c r="D240" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E240" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F240">
         <v>4</v>
       </c>
       <c r="H240" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
       <c r="B241" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C241" s="2">
         <v>43263</v>
       </c>
       <c r="D241" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E241" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F241">
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="C242" s="2">
         <v>43263</v>
       </c>
       <c r="D242" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E242" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F242">
         <v>5</v>
       </c>
       <c r="H242" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
       <c r="B243" t="s">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="C243" s="2">
         <v>43264</v>
       </c>
       <c r="D243" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E243" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F243">
         <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="C244" s="2">
         <v>43264</v>
       </c>
       <c r="D244" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="E244" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F244">
         <v>4</v>
       </c>
       <c r="H244" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
       <c r="B245" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C245" s="2">
         <v>43264</v>
       </c>
       <c r="D245" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E245" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F245">
         <v>4</v>
       </c>
       <c r="H245" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
       <c r="B246" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C246" s="2">
         <v>43265</v>
       </c>
       <c r="D246" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="E246" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F246">
         <v>4</v>
       </c>
       <c r="H246" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="B247" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C247" s="2">
         <v>43266</v>
       </c>
       <c r="D247" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="E247" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F247">
         <v>4</v>
       </c>
       <c r="H247" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
       <c r="B248" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C248" s="2">
         <v>43266</v>
       </c>
       <c r="D248" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="E248" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F248">
         <v>5</v>
       </c>
       <c r="H248" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C249" s="2">
         <v>43267</v>
       </c>
       <c r="D249" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="E249" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F249">
         <v>5</v>
       </c>
       <c r="H249" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
       <c r="B250" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C250" s="2">
         <v>43269</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="E250" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F250">
         <v>5</v>
       </c>
       <c r="H250" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
       <c r="B251" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C251" s="2">
         <v>43269</v>
       </c>
       <c r="D251" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="E251" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F251">
         <v>5</v>
       </c>
       <c r="H251" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
       <c r="B252" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C252" s="2">
         <v>43269</v>
       </c>
       <c r="D252" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="E252" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F252">
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
       <c r="B253" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C253" s="2">
         <v>43270</v>
       </c>
       <c r="D253" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="E253" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F253">
         <v>5</v>
       </c>
       <c r="H253" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
       <c r="B254" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C254" s="2">
         <v>43270</v>
       </c>
       <c r="D254" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="E254" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F254">
         <v>5</v>
       </c>
       <c r="H254" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
       <c r="B255" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C255" s="2">
         <v>43270</v>
       </c>
       <c r="D255" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="E255" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F255">
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
       <c r="B256" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C256" s="2">
         <v>43272</v>
       </c>
       <c r="D256" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E256" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="H256" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
       <c r="B257" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C257" s="2">
         <v>43272</v>
       </c>
       <c r="D257" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E257" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F257">
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
       <c r="B258" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C258" s="2">
         <v>43272</v>
       </c>
       <c r="D258" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="E258" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F258">
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C259" s="2">
         <v>43272</v>
       </c>
       <c r="D259" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="E259" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F259">
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C260" s="2">
         <v>43272</v>
       </c>
       <c r="D260" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="E260" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F260">
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C261" s="2">
         <v>43274</v>
       </c>
       <c r="D261" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="E261" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F261">
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
       <c r="B262" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C262" s="2">
         <v>43275</v>
       </c>
       <c r="D262" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="E262" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F262">
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C263" s="2">
         <v>43275</v>
       </c>
       <c r="D263" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E263" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F263">
         <v>5</v>
       </c>
       <c r="H263" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C264" s="2">
         <v>43275</v>
       </c>
       <c r="D264" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="E264" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F264">
         <v>5</v>
       </c>
       <c r="H264" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C265" s="2">
         <v>43275</v>
       </c>
       <c r="D265" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="E265" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="F265">
         <v>5</v>
       </c>
       <c r="H265" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C266" s="2">
         <v>43275</v>
       </c>
       <c r="D266" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="E266" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="F266">
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
       <c r="B267" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C267" s="2">
         <v>43275</v>
       </c>
       <c r="D267" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E267" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F267">
         <v>5</v>
       </c>
       <c r="H267" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C268" s="2">
         <v>43277</v>
       </c>
       <c r="D268" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="E268" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F268">
         <v>5</v>
       </c>
       <c r="H268" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C269" s="2">
         <v>43277</v>
       </c>
       <c r="D269" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E269" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F269">
         <v>5</v>
       </c>
       <c r="H269" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C270" s="2">
         <v>43277</v>
       </c>
       <c r="D270" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E270" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F270">
         <v>5</v>
       </c>
       <c r="H270" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C271" s="2">
         <v>43279</v>
       </c>
       <c r="D271" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="E271" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F271">
         <v>5</v>
       </c>
       <c r="H271" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
       <c r="B272" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C272" s="2">
         <v>43279</v>
       </c>
       <c r="D272" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="E272" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F272">
         <v>5</v>
       </c>
       <c r="H272" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C273" s="2">
         <v>43279</v>
       </c>
       <c r="D273" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="E273" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F273">
         <v>5</v>
       </c>
       <c r="H273" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
       <c r="B274" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C274" s="2">
         <v>43280</v>
       </c>
       <c r="D274" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="E274" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F274">
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C275" s="2">
         <v>43280</v>
       </c>
       <c r="D275" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="E275" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F275">
         <v>5</v>
       </c>
       <c r="H275" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C276" s="2">
         <v>43280</v>
       </c>
       <c r="D276" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="E276" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F276">
         <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C277" s="2">
         <v>43280</v>
       </c>
       <c r="D277" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E277" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F277">
         <v>5</v>
       </c>
       <c r="H277" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
       <c r="B278" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C278" s="2">
         <v>43280</v>
       </c>
       <c r="D278" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="E278" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F278">
         <v>5</v>
       </c>
       <c r="H278" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="C279" s="2">
         <v>43281</v>
       </c>
       <c r="D279" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="E279" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F279">
         <v>5</v>
       </c>
       <c r="H279" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
       <c r="B280" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C280" s="2">
         <v>43281</v>
       </c>
       <c r="D280" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="E280" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F280">
         <v>5</v>
       </c>
       <c r="H280" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C281" s="2">
         <v>43282</v>
       </c>
       <c r="D281" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="E281" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F281">
         <v>5</v>
       </c>
       <c r="H281" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
       <c r="B282" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C282" s="2">
         <v>43282</v>
       </c>
       <c r="D282" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="E282" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="F282">
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -7772,11 +7765,8 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
-        <f>SUBTOTAL(109,Πίνακας1[amount])</f>
-        <v>3322.7899999999986</v>
-      </c>
+    <row r="368" spans="1:12">
+      <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -7787,7 +7777,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" s="4"/>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="303">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -887,6 +887,42 @@
   </si>
   <si>
     <t>Tztzifies</t>
+  </si>
+  <si>
+    <t>pitsa.gr,  με Αρετη</t>
+  </si>
+  <si>
+    <t>παπούτσια jordan</t>
+  </si>
+  <si>
+    <t>piccetti και τσίχλες</t>
+  </si>
+  <si>
+    <t>μπουνιές (+ Αρετής)</t>
+  </si>
+  <si>
+    <t>νερό (+ Αρετής)</t>
+  </si>
+  <si>
+    <t>αραβική πίτα με κοτόπουλο</t>
+  </si>
+  <si>
+    <t>πεινιρλί</t>
+  </si>
+  <si>
+    <t>χοιρινές μπουκίτσες με ρυζι</t>
+  </si>
+  <si>
+    <t>κοτόπουλο με ρύζι</t>
+  </si>
+  <si>
+    <t>σουβλάκια (+ ιάσονα)</t>
+  </si>
+  <si>
+    <t>πρωινό και νερά</t>
+  </si>
+  <si>
+    <t>ρύζι με κοτόπουλο(+ μιχάλη, Ιασονα)</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="D295" sqref="D295"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6721,7 +6759,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
@@ -6744,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
@@ -7749,6 +7787,282 @@
       </c>
       <c r="H282" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>1.9</v>
+      </c>
+      <c r="B283" t="s">
+        <v>231</v>
+      </c>
+      <c r="C283" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D283" t="s">
+        <v>293</v>
+      </c>
+      <c r="E283" t="s">
+        <v>251</v>
+      </c>
+      <c r="F283">
+        <v>5</v>
+      </c>
+      <c r="H283" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>119.9</v>
+      </c>
+      <c r="B284" t="s">
+        <v>237</v>
+      </c>
+      <c r="C284" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D284" t="s">
+        <v>292</v>
+      </c>
+      <c r="E284" t="s">
+        <v>251</v>
+      </c>
+      <c r="F284">
+        <v>5</v>
+      </c>
+      <c r="H284" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>6.3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>231</v>
+      </c>
+      <c r="C285" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D285" t="s">
+        <v>291</v>
+      </c>
+      <c r="E285" t="s">
+        <v>251</v>
+      </c>
+      <c r="F285">
+        <v>5</v>
+      </c>
+      <c r="H285" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>3.5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>239</v>
+      </c>
+      <c r="C286" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D286" t="s">
+        <v>294</v>
+      </c>
+      <c r="E286" t="s">
+        <v>251</v>
+      </c>
+      <c r="F286">
+        <v>5</v>
+      </c>
+      <c r="H286" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>1.5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>231</v>
+      </c>
+      <c r="C287" s="2">
+        <v>43284</v>
+      </c>
+      <c r="D287" t="s">
+        <v>295</v>
+      </c>
+      <c r="E287" t="s">
+        <v>251</v>
+      </c>
+      <c r="F287">
+        <v>5</v>
+      </c>
+      <c r="H287" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>1.9</v>
+      </c>
+      <c r="B288" t="s">
+        <v>231</v>
+      </c>
+      <c r="C288" s="2">
+        <v>43285</v>
+      </c>
+      <c r="D288" t="s">
+        <v>297</v>
+      </c>
+      <c r="E288" t="s">
+        <v>251</v>
+      </c>
+      <c r="F288">
+        <v>5</v>
+      </c>
+      <c r="H288" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>4.5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>231</v>
+      </c>
+      <c r="C289" s="2">
+        <v>43285</v>
+      </c>
+      <c r="D289" t="s">
+        <v>298</v>
+      </c>
+      <c r="E289" t="s">
+        <v>251</v>
+      </c>
+      <c r="F289">
+        <v>5</v>
+      </c>
+      <c r="H289" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>6.4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>231</v>
+      </c>
+      <c r="C290" s="2">
+        <v>43286</v>
+      </c>
+      <c r="D290" t="s">
+        <v>299</v>
+      </c>
+      <c r="E290" t="s">
+        <v>251</v>
+      </c>
+      <c r="F290">
+        <v>5</v>
+      </c>
+      <c r="H290" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>1.9</v>
+      </c>
+      <c r="B291" t="s">
+        <v>231</v>
+      </c>
+      <c r="C291" s="2">
+        <v>43287</v>
+      </c>
+      <c r="D291" t="s">
+        <v>296</v>
+      </c>
+      <c r="E291" t="s">
+        <v>251</v>
+      </c>
+      <c r="F291">
+        <v>5</v>
+      </c>
+      <c r="H291" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>10.6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>231</v>
+      </c>
+      <c r="C292" s="2">
+        <v>43288</v>
+      </c>
+      <c r="D292" t="s">
+        <v>300</v>
+      </c>
+      <c r="E292" t="s">
+        <v>251</v>
+      </c>
+      <c r="F292">
+        <v>5</v>
+      </c>
+      <c r="H292" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>4.5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>231</v>
+      </c>
+      <c r="C293" s="2">
+        <v>43288</v>
+      </c>
+      <c r="D293" t="s">
+        <v>301</v>
+      </c>
+      <c r="E293" t="s">
+        <v>251</v>
+      </c>
+      <c r="F293">
+        <v>5</v>
+      </c>
+      <c r="H293" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>22.2</v>
+      </c>
+      <c r="B294" t="s">
+        <v>231</v>
+      </c>
+      <c r="C294" s="2">
+        <v>43288</v>
+      </c>
+      <c r="D294" t="s">
+        <v>302</v>
+      </c>
+      <c r="E294" t="s">
+        <v>251</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+      <c r="H294" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="367" spans="1:12">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="310">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -923,6 +923,27 @@
   </si>
   <si>
     <t>ρύζι με κοτόπουλο(+ μιχάλη, Ιασονα)</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>Είσοδος για το pool party</t>
+  </si>
+  <si>
+    <t>παγωτό και λουξ από τον φούρνο</t>
+  </si>
+  <si>
+    <t>σουβλάκια (+ μανουλας)</t>
+  </si>
+  <si>
+    <t>μπυρες (+ Αρετής) arch</t>
+  </si>
+  <si>
+    <t>σουβλάκια (+ Δημητρας)</t>
+  </si>
+  <si>
+    <t>ταξί σια μαρούσι</t>
   </si>
 </sst>
 </file>
@@ -963,13 +984,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1356,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="D295" sqref="D295"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7435,7 +7457,7 @@
         <v>287</v>
       </c>
       <c r="E267" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F267">
         <v>5</v>
@@ -7458,7 +7480,7 @@
         <v>210</v>
       </c>
       <c r="E268" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F268">
         <v>5</v>
@@ -7481,7 +7503,7 @@
         <v>265</v>
       </c>
       <c r="E269" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F269">
         <v>5</v>
@@ -7504,7 +7526,7 @@
         <v>135</v>
       </c>
       <c r="E270" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F270">
         <v>5</v>
@@ -7527,7 +7549,7 @@
         <v>219</v>
       </c>
       <c r="E271" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F271">
         <v>5</v>
@@ -7550,7 +7572,7 @@
         <v>220</v>
       </c>
       <c r="E272" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F272">
         <v>5</v>
@@ -7573,7 +7595,7 @@
         <v>221</v>
       </c>
       <c r="E273" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F273">
         <v>5</v>
@@ -7596,7 +7618,7 @@
         <v>222</v>
       </c>
       <c r="E274" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F274">
         <v>5</v>
@@ -7619,7 +7641,7 @@
         <v>223</v>
       </c>
       <c r="E275" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F275">
         <v>5</v>
@@ -7642,7 +7664,7 @@
         <v>224</v>
       </c>
       <c r="E276" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F276">
         <v>5</v>
@@ -7665,7 +7687,7 @@
         <v>66</v>
       </c>
       <c r="E277" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F277">
         <v>5</v>
@@ -7688,7 +7710,7 @@
         <v>225</v>
       </c>
       <c r="E278" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F278">
         <v>5</v>
@@ -7711,7 +7733,7 @@
         <v>287</v>
       </c>
       <c r="E279" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F279">
         <v>5</v>
@@ -7734,7 +7756,7 @@
         <v>226</v>
       </c>
       <c r="E280" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F280">
         <v>5</v>
@@ -7757,7 +7779,7 @@
         <v>227</v>
       </c>
       <c r="E281" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F281">
         <v>5</v>
@@ -7780,7 +7802,7 @@
         <v>228</v>
       </c>
       <c r="E282" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F282">
         <v>5</v>
@@ -7803,7 +7825,7 @@
         <v>293</v>
       </c>
       <c r="E283" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F283">
         <v>5</v>
@@ -7826,7 +7848,7 @@
         <v>292</v>
       </c>
       <c r="E284" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F284">
         <v>5</v>
@@ -7849,7 +7871,7 @@
         <v>291</v>
       </c>
       <c r="E285" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F285">
         <v>5</v>
@@ -7863,7 +7885,7 @@
         <v>3.5</v>
       </c>
       <c r="B286" t="s">
-        <v>239</v>
+        <v>303</v>
       </c>
       <c r="C286" s="2">
         <v>43284</v>
@@ -7872,7 +7894,7 @@
         <v>294</v>
       </c>
       <c r="E286" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F286">
         <v>5</v>
@@ -7895,7 +7917,7 @@
         <v>295</v>
       </c>
       <c r="E287" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F287">
         <v>5</v>
@@ -7918,7 +7940,7 @@
         <v>297</v>
       </c>
       <c r="E288" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F288">
         <v>5</v>
@@ -7941,7 +7963,7 @@
         <v>298</v>
       </c>
       <c r="E289" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F289">
         <v>5</v>
@@ -7964,7 +7986,7 @@
         <v>299</v>
       </c>
       <c r="E290" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F290">
         <v>5</v>
@@ -7987,7 +8009,7 @@
         <v>296</v>
       </c>
       <c r="E291" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F291">
         <v>5</v>
@@ -8010,7 +8032,7 @@
         <v>300</v>
       </c>
       <c r="E292" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F292">
         <v>5</v>
@@ -8033,7 +8055,7 @@
         <v>301</v>
       </c>
       <c r="E293" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F293">
         <v>5</v>
@@ -8056,13 +8078,174 @@
         <v>302</v>
       </c>
       <c r="E294" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F294">
         <v>5</v>
       </c>
       <c r="H294" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="6">
+        <v>25</v>
+      </c>
+      <c r="B295" t="s">
+        <v>303</v>
+      </c>
+      <c r="C295" s="2">
+        <v>43289</v>
+      </c>
+      <c r="D295" t="s">
+        <v>304</v>
+      </c>
+      <c r="E295" t="s">
+        <v>253</v>
+      </c>
+      <c r="F295">
+        <v>5</v>
+      </c>
+      <c r="H295" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>229</v>
+      </c>
+      <c r="C296" s="2">
+        <v>43289</v>
+      </c>
+      <c r="D296" t="s">
+        <v>309</v>
+      </c>
+      <c r="E296" t="s">
+        <v>253</v>
+      </c>
+      <c r="F296">
+        <v>5</v>
+      </c>
+      <c r="H296" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>231</v>
+      </c>
+      <c r="C297" s="2">
+        <v>43289</v>
+      </c>
+      <c r="D297" t="s">
+        <v>308</v>
+      </c>
+      <c r="E297" t="s">
+        <v>253</v>
+      </c>
+      <c r="F297">
+        <v>4</v>
+      </c>
+      <c r="H297" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B298" t="s">
+        <v>231</v>
+      </c>
+      <c r="C298" s="2">
+        <v>43290</v>
+      </c>
+      <c r="D298" t="s">
+        <v>201</v>
+      </c>
+      <c r="E298" t="s">
+        <v>253</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
+      </c>
+      <c r="H298" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299">
+        <v>11.5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>231</v>
+      </c>
+      <c r="C299" s="2">
+        <v>43291</v>
+      </c>
+      <c r="D299" t="s">
+        <v>307</v>
+      </c>
+      <c r="E299" t="s">
+        <v>252</v>
+      </c>
+      <c r="F299">
+        <v>4</v>
+      </c>
+      <c r="H299" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300">
+        <v>6.3</v>
+      </c>
+      <c r="B300" t="s">
+        <v>231</v>
+      </c>
+      <c r="C300" s="2">
+        <v>43292</v>
+      </c>
+      <c r="D300" t="s">
+        <v>306</v>
+      </c>
+      <c r="E300" t="s">
+        <v>252</v>
+      </c>
+      <c r="F300">
+        <v>4</v>
+      </c>
+      <c r="H300" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301">
+        <v>3.6</v>
+      </c>
+      <c r="B301" t="s">
+        <v>231</v>
+      </c>
+      <c r="C301" s="2">
+        <v>43292</v>
+      </c>
+      <c r="D301" t="s">
+        <v>305</v>
+      </c>
+      <c r="E301" t="s">
+        <v>252</v>
+      </c>
+      <c r="F301">
+        <v>4</v>
+      </c>
+      <c r="H301" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="367" spans="1:12">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="315">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -944,6 +944,21 @@
   </si>
   <si>
     <t>ταξί σια μαρούσι</t>
+  </si>
+  <si>
+    <t>κοτόπουλο ρολό</t>
+  </si>
+  <si>
+    <t>ice-tea και τσλιχλες</t>
+  </si>
+  <si>
+    <t>κάρτα μεταφορών</t>
+  </si>
+  <si>
+    <t>πίτσα απο τον γρηγόρη</t>
+  </si>
+  <si>
+    <t>μακαρονοσαλάτα με κοτόπουλο</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1394,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="D296" sqref="D296"/>
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8248,6 +8263,144 @@
         <v>255</v>
       </c>
     </row>
+    <row r="302" spans="1:8">
+      <c r="A302">
+        <v>15</v>
+      </c>
+      <c r="B302" t="s">
+        <v>229</v>
+      </c>
+      <c r="C302" s="2">
+        <v>43293</v>
+      </c>
+      <c r="D302" t="s">
+        <v>312</v>
+      </c>
+      <c r="E302" t="s">
+        <v>252</v>
+      </c>
+      <c r="F302">
+        <v>4</v>
+      </c>
+      <c r="H302" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303" t="s">
+        <v>231</v>
+      </c>
+      <c r="C303" s="2">
+        <v>43293</v>
+      </c>
+      <c r="D303" t="s">
+        <v>207</v>
+      </c>
+      <c r="E303" t="s">
+        <v>252</v>
+      </c>
+      <c r="F303">
+        <v>4</v>
+      </c>
+      <c r="H303" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304">
+        <v>4.5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>231</v>
+      </c>
+      <c r="C304" s="2">
+        <v>43293</v>
+      </c>
+      <c r="D304" t="s">
+        <v>310</v>
+      </c>
+      <c r="E304" t="s">
+        <v>252</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="H304" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="A305">
+        <v>2.9</v>
+      </c>
+      <c r="B305" t="s">
+        <v>231</v>
+      </c>
+      <c r="C305" s="2">
+        <v>43294</v>
+      </c>
+      <c r="D305" t="s">
+        <v>313</v>
+      </c>
+      <c r="E305" t="s">
+        <v>252</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+      <c r="H305" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="A306">
+        <v>3.9</v>
+      </c>
+      <c r="B306" t="s">
+        <v>231</v>
+      </c>
+      <c r="C306" s="2">
+        <v>43294</v>
+      </c>
+      <c r="D306" t="s">
+        <v>314</v>
+      </c>
+      <c r="E306" t="s">
+        <v>252</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+      <c r="H306" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
+      <c r="A307">
+        <v>1.7</v>
+      </c>
+      <c r="B307" t="s">
+        <v>231</v>
+      </c>
+      <c r="C307" s="2">
+        <v>43294</v>
+      </c>
+      <c r="D307" t="s">
+        <v>311</v>
+      </c>
+      <c r="E307" t="s">
+        <v>252</v>
+      </c>
+      <c r="F307">
+        <v>4</v>
+      </c>
+      <c r="H307" t="s">
+        <v>261</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="323">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -959,6 +959,30 @@
   </si>
   <si>
     <t>μακαρονοσαλάτα με κοτόπουλο</t>
+  </si>
+  <si>
+    <t>προαστιακός για Πάτρα</t>
+  </si>
+  <si>
+    <t>Extreme clyb Goodys</t>
+  </si>
+  <si>
+    <t>Θανόπουλος</t>
+  </si>
+  <si>
+    <t>Patra</t>
+  </si>
+  <si>
+    <t>ταξί για το στάδιο</t>
+  </si>
+  <si>
+    <t>καφές πρίν τον αγώνα</t>
+  </si>
+  <si>
+    <t>παγωτά για την νίκη μου</t>
+  </si>
+  <si>
+    <t>παγωτό (+ Νερό)</t>
   </si>
 </sst>
 </file>
@@ -1393,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8401,6 +8425,264 @@
         <v>261</v>
       </c>
     </row>
+    <row r="308" spans="1:8">
+      <c r="A308">
+        <v>10</v>
+      </c>
+      <c r="B308" t="s">
+        <v>230</v>
+      </c>
+      <c r="C308" s="2">
+        <v>43295</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+      <c r="E308" t="s">
+        <v>251</v>
+      </c>
+      <c r="F308">
+        <v>5</v>
+      </c>
+      <c r="H308" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="A309">
+        <v>7.5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>229</v>
+      </c>
+      <c r="C309" s="2">
+        <v>43295</v>
+      </c>
+      <c r="D309" t="s">
+        <v>315</v>
+      </c>
+      <c r="E309" t="s">
+        <v>251</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+      <c r="H309" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
+      <c r="A310">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B310" t="s">
+        <v>231</v>
+      </c>
+      <c r="C310" s="2">
+        <v>43295</v>
+      </c>
+      <c r="D310" t="s">
+        <v>316</v>
+      </c>
+      <c r="E310" t="s">
+        <v>251</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+      <c r="H310" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>240</v>
+      </c>
+      <c r="C311" s="2">
+        <v>43295</v>
+      </c>
+      <c r="D311" t="s">
+        <v>317</v>
+      </c>
+      <c r="E311" t="s">
+        <v>251</v>
+      </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+      <c r="H311" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="A312">
+        <v>3</v>
+      </c>
+      <c r="B312" t="s">
+        <v>229</v>
+      </c>
+      <c r="C312" s="2">
+        <v>43296</v>
+      </c>
+      <c r="D312" t="s">
+        <v>319</v>
+      </c>
+      <c r="E312" t="s">
+        <v>251</v>
+      </c>
+      <c r="F312">
+        <v>5</v>
+      </c>
+      <c r="H312" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
+      <c r="A313">
+        <v>2</v>
+      </c>
+      <c r="B313" t="s">
+        <v>231</v>
+      </c>
+      <c r="C313" s="2">
+        <v>43297</v>
+      </c>
+      <c r="D313" t="s">
+        <v>320</v>
+      </c>
+      <c r="E313" t="s">
+        <v>251</v>
+      </c>
+      <c r="F313">
+        <v>5</v>
+      </c>
+      <c r="H313" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314">
+        <v>10.6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>231</v>
+      </c>
+      <c r="C314" s="2">
+        <v>43297</v>
+      </c>
+      <c r="D314" t="s">
+        <v>321</v>
+      </c>
+      <c r="E314" t="s">
+        <v>251</v>
+      </c>
+      <c r="F314">
+        <v>5</v>
+      </c>
+      <c r="H314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="A315">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>231</v>
+      </c>
+      <c r="C315" s="2">
+        <v>43298</v>
+      </c>
+      <c r="D315" t="s">
+        <v>322</v>
+      </c>
+      <c r="E315" t="s">
+        <v>251</v>
+      </c>
+      <c r="F315">
+        <v>5</v>
+      </c>
+      <c r="H315" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
+      <c r="E316" t="s">
+        <v>251</v>
+      </c>
+      <c r="F316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="E317" t="s">
+        <v>251</v>
+      </c>
+      <c r="F317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="E318" t="s">
+        <v>251</v>
+      </c>
+      <c r="F318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
+      <c r="E319" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="E320" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5">
+      <c r="E325" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="326" spans="5:5">
+      <c r="E326" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5">
+      <c r="E327" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="328" spans="5:5">
+      <c r="E328" t="s">
+        <v>251</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="328">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -983,6 +983,21 @@
   </si>
   <si>
     <t>παγωτό (+ Νερό)</t>
+  </si>
+  <si>
+    <t>γρανίτα ροδάκινο</t>
+  </si>
+  <si>
+    <t>πίτσα κρητική</t>
+  </si>
+  <si>
+    <t>Pagrati</t>
+  </si>
+  <si>
+    <t>πρωινό (+ Γεωργίας)</t>
+  </si>
+  <si>
+    <t>Str8 red Action</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="H316" sqref="H316"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8610,77 +8625,284 @@
       </c>
     </row>
     <row r="316" spans="1:8">
+      <c r="A316">
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
+        <v>231</v>
+      </c>
+      <c r="C316" s="2">
+        <v>43299</v>
+      </c>
+      <c r="D316" t="s">
+        <v>323</v>
+      </c>
       <c r="E316" t="s">
         <v>251</v>
       </c>
       <c r="F316">
         <v>5</v>
       </c>
+      <c r="H316" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="317" spans="1:8">
+      <c r="A317">
+        <v>5.8</v>
+      </c>
+      <c r="B317" t="s">
+        <v>231</v>
+      </c>
+      <c r="C317" s="2">
+        <v>43299</v>
+      </c>
+      <c r="D317" t="s">
+        <v>324</v>
+      </c>
       <c r="E317" t="s">
         <v>251</v>
       </c>
       <c r="F317">
         <v>5</v>
       </c>
+      <c r="H317" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="318" spans="1:8">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318" t="s">
+        <v>231</v>
+      </c>
+      <c r="C318" s="2">
+        <v>43299</v>
+      </c>
+      <c r="D318" t="s">
+        <v>105</v>
+      </c>
       <c r="E318" t="s">
         <v>251</v>
       </c>
       <c r="F318">
         <v>5</v>
       </c>
+      <c r="H318" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="319" spans="1:8">
+      <c r="A319">
+        <v>6.55</v>
+      </c>
+      <c r="B319" t="s">
+        <v>231</v>
+      </c>
+      <c r="C319" s="2">
+        <v>43300</v>
+      </c>
+      <c r="D319" t="s">
+        <v>326</v>
+      </c>
       <c r="E319" t="s">
         <v>251</v>
       </c>
+      <c r="F319">
+        <v>5</v>
+      </c>
+      <c r="H319" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="320" spans="1:8">
+      <c r="A320">
+        <v>2.8</v>
+      </c>
+      <c r="B320" t="s">
+        <v>231</v>
+      </c>
+      <c r="C320" s="2">
+        <v>43300</v>
+      </c>
       <c r="E320" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="321" spans="5:5">
+      <c r="F320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321">
+        <v>3.8</v>
+      </c>
+      <c r="B321" t="s">
+        <v>231</v>
+      </c>
+      <c r="C321" s="2">
+        <v>43300</v>
+      </c>
       <c r="E321" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="322" spans="5:5">
+      <c r="F321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322">
+        <v>9</v>
+      </c>
+      <c r="B322" t="s">
+        <v>231</v>
+      </c>
+      <c r="C322" s="2">
+        <v>43302</v>
+      </c>
       <c r="E322" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="323" spans="5:5">
+      <c r="F322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>8</v>
+      </c>
+      <c r="B323" t="s">
+        <v>231</v>
+      </c>
+      <c r="C323" s="2">
+        <v>43302</v>
+      </c>
       <c r="E323" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="324" spans="5:5">
+      <c r="F323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>1.5</v>
+      </c>
+      <c r="B324" t="s">
+        <v>231</v>
+      </c>
+      <c r="C324" s="2">
+        <v>43302</v>
+      </c>
       <c r="E324" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="325" spans="5:5">
+      <c r="F324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>231</v>
+      </c>
+      <c r="C325" s="2">
+        <v>43303</v>
+      </c>
       <c r="E325" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="326" spans="5:5">
+      <c r="F325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B326" t="s">
+        <v>231</v>
+      </c>
+      <c r="C326" s="2">
+        <v>43303</v>
+      </c>
       <c r="E326" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="327" spans="5:5">
+      <c r="F326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>0.5</v>
+      </c>
+      <c r="B327" t="s">
+        <v>231</v>
+      </c>
+      <c r="C327" s="2">
+        <v>43304</v>
+      </c>
       <c r="E327" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="328" spans="5:5">
+      <c r="F327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>2.95</v>
+      </c>
+      <c r="B328" t="s">
+        <v>231</v>
+      </c>
+      <c r="C328" s="2">
+        <v>43305</v>
+      </c>
       <c r="E328" t="s">
         <v>251</v>
+      </c>
+      <c r="F328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>3.8</v>
+      </c>
+      <c r="B329" t="s">
+        <v>231</v>
+      </c>
+      <c r="C329" s="2">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>10</v>
+      </c>
+      <c r="B330" t="s">
+        <v>231</v>
+      </c>
+      <c r="C330" s="2">
+        <v>43305</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>3.85</v>
+      </c>
+      <c r="B331" t="s">
+        <v>230</v>
+      </c>
+      <c r="C331" s="2">
+        <v>43306</v>
+      </c>
+      <c r="D331" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="367" spans="1:12">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="331">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -998,6 +998,15 @@
   </si>
   <si>
     <t>Str8 red Action</t>
+  </si>
+  <si>
+    <t>mojito Caprice</t>
+  </si>
+  <si>
+    <t>ντάκος (+Νίκου)</t>
+  </si>
+  <si>
+    <t>Ινδικό σουβλάκι (+Δήμητρα)</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1442,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+      <selection activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8726,14 +8735,20 @@
       <c r="C320" s="2">
         <v>43300</v>
       </c>
+      <c r="D320" t="s">
+        <v>328</v>
+      </c>
       <c r="E320" t="s">
         <v>251</v>
       </c>
       <c r="F320">
         <v>5</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="H320" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -8743,14 +8758,20 @@
       <c r="C321" s="2">
         <v>43300</v>
       </c>
+      <c r="D321" t="s">
+        <v>127</v>
+      </c>
       <c r="E321" t="s">
         <v>251</v>
       </c>
       <c r="F321">
         <v>5</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="H321" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -8760,14 +8781,20 @@
       <c r="C322" s="2">
         <v>43302</v>
       </c>
+      <c r="D322" t="s">
+        <v>329</v>
+      </c>
       <c r="E322" t="s">
         <v>251</v>
       </c>
       <c r="F322">
         <v>5</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="H322" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -8777,14 +8804,20 @@
       <c r="C323" s="2">
         <v>43302</v>
       </c>
+      <c r="D323" t="s">
+        <v>330</v>
+      </c>
       <c r="E323" t="s">
         <v>251</v>
       </c>
       <c r="F323">
         <v>5</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="H323" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -8800,8 +8833,11 @@
       <c r="F324">
         <v>5</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="H324" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -8817,8 +8853,11 @@
       <c r="F325">
         <v>5</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="H325" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -8834,8 +8873,11 @@
       <c r="F326">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="H326" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -8851,8 +8893,11 @@
       <c r="F327">
         <v>5</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="H327" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -8868,8 +8913,11 @@
       <c r="F328">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="H328" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -8879,8 +8927,11 @@
       <c r="C329" s="2">
         <v>43305</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="H329" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -8890,8 +8941,11 @@
       <c r="C330" s="2">
         <v>43305</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="H330" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -8903,6 +8957,9 @@
       </c>
       <c r="D331" t="s">
         <v>327</v>
+      </c>
+      <c r="H331" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="367" spans="1:12">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="337">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1007,6 +1007,24 @@
   </si>
   <si>
     <t>Ινδικό σουβλάκι (+Δήμητρα)</t>
+  </si>
+  <si>
+    <t>κρύο τσάι</t>
+  </si>
+  <si>
+    <t>παγωτό (+ Γιάννη)</t>
+  </si>
+  <si>
+    <t>κουλούρι</t>
+  </si>
+  <si>
+    <t>κουρού</t>
+  </si>
+  <si>
+    <t>ceasar</t>
+  </si>
+  <si>
+    <t>σκεπαστή</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1460,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D324" sqref="D324"/>
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8827,6 +8845,9 @@
       <c r="C324" s="2">
         <v>43302</v>
       </c>
+      <c r="D324" t="s">
+        <v>331</v>
+      </c>
       <c r="E324" t="s">
         <v>251</v>
       </c>
@@ -8846,6 +8867,9 @@
       </c>
       <c r="C325" s="2">
         <v>43303</v>
+      </c>
+      <c r="D325" t="s">
+        <v>138</v>
       </c>
       <c r="E325" t="s">
         <v>251</v>
@@ -8867,6 +8891,9 @@
       <c r="C326" s="2">
         <v>43303</v>
       </c>
+      <c r="D326" t="s">
+        <v>332</v>
+      </c>
       <c r="E326" t="s">
         <v>251</v>
       </c>
@@ -8887,6 +8914,9 @@
       <c r="C327" s="2">
         <v>43304</v>
       </c>
+      <c r="D327" t="s">
+        <v>333</v>
+      </c>
       <c r="E327" t="s">
         <v>251</v>
       </c>
@@ -8907,6 +8937,9 @@
       <c r="C328" s="2">
         <v>43305</v>
       </c>
+      <c r="D328" t="s">
+        <v>334</v>
+      </c>
       <c r="E328" t="s">
         <v>251</v>
       </c>
@@ -8927,6 +8960,9 @@
       <c r="C329" s="2">
         <v>43305</v>
       </c>
+      <c r="D329" t="s">
+        <v>335</v>
+      </c>
       <c r="H329" t="s">
         <v>264</v>
       </c>
@@ -8940,6 +8976,9 @@
       </c>
       <c r="C330" s="2">
         <v>43305</v>
+      </c>
+      <c r="D330" t="s">
+        <v>336</v>
       </c>
       <c r="H330" t="s">
         <v>286</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="337">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D330" sqref="D330"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="F328" sqref="F328:F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8963,6 +8963,12 @@
       <c r="D329" t="s">
         <v>335</v>
       </c>
+      <c r="E329" t="s">
+        <v>251</v>
+      </c>
+      <c r="F329">
+        <v>5</v>
+      </c>
       <c r="H329" t="s">
         <v>264</v>
       </c>
@@ -8980,6 +8986,12 @@
       <c r="D330" t="s">
         <v>336</v>
       </c>
+      <c r="E330" t="s">
+        <v>251</v>
+      </c>
+      <c r="F330">
+        <v>5</v>
+      </c>
       <c r="H330" t="s">
         <v>286</v>
       </c>
@@ -8996,6 +9008,12 @@
       </c>
       <c r="D331" t="s">
         <v>327</v>
+      </c>
+      <c r="E331" t="s">
+        <v>251</v>
+      </c>
+      <c r="F331">
+        <v>5</v>
       </c>
       <c r="H331" t="s">
         <v>273</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="345">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1025,6 +1025,30 @@
   </si>
   <si>
     <t>σκεπαστή</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>γρανίτα φράουλα</t>
+  </si>
+  <si>
+    <t>μπριζόλα, πιτακια πατάτες και cocacola</t>
+  </si>
+  <si>
+    <t>ταξί για αναρρίχηση</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>αναρρίχηση</t>
+  </si>
+  <si>
+    <t>τα έφαγε το μηχάνημα</t>
+  </si>
+  <si>
+    <t>Chillbox απέναντι από το ξενοδοχείο</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="F328" sqref="F328:F331"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9019,6 +9043,164 @@
         <v>273</v>
       </c>
     </row>
+    <row r="332" spans="1:8">
+      <c r="A332">
+        <v>1.2</v>
+      </c>
+      <c r="B332" t="s">
+        <v>231</v>
+      </c>
+      <c r="C332" s="2">
+        <v>43306</v>
+      </c>
+      <c r="D332" t="s">
+        <v>337</v>
+      </c>
+      <c r="E332" t="s">
+        <v>251</v>
+      </c>
+      <c r="F332">
+        <v>5</v>
+      </c>
+      <c r="H332" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
+      <c r="A333">
+        <v>2</v>
+      </c>
+      <c r="B333" t="s">
+        <v>231</v>
+      </c>
+      <c r="C333" s="2">
+        <v>43307</v>
+      </c>
+      <c r="D333" t="s">
+        <v>338</v>
+      </c>
+      <c r="E333" t="s">
+        <v>251</v>
+      </c>
+      <c r="F333">
+        <v>5</v>
+      </c>
+      <c r="H333" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
+      <c r="A334">
+        <v>8.5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>231</v>
+      </c>
+      <c r="C334" s="2">
+        <v>43307</v>
+      </c>
+      <c r="D334" t="s">
+        <v>339</v>
+      </c>
+      <c r="E334" t="s">
+        <v>251</v>
+      </c>
+      <c r="F334">
+        <v>5</v>
+      </c>
+      <c r="H334" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
+      <c r="A335">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B335" t="s">
+        <v>229</v>
+      </c>
+      <c r="C335" s="2">
+        <v>43307</v>
+      </c>
+      <c r="D335" t="s">
+        <v>340</v>
+      </c>
+      <c r="E335" t="s">
+        <v>251</v>
+      </c>
+      <c r="F335">
+        <v>5</v>
+      </c>
+      <c r="H335" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>341</v>
+      </c>
+      <c r="C336" s="2">
+        <v>43307</v>
+      </c>
+      <c r="D336" t="s">
+        <v>342</v>
+      </c>
+      <c r="E336" t="s">
+        <v>251</v>
+      </c>
+      <c r="F336">
+        <v>5</v>
+      </c>
+      <c r="H336" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
+      <c r="A337">
+        <v>1.5</v>
+      </c>
+      <c r="C337" s="2">
+        <v>43307</v>
+      </c>
+      <c r="D337" t="s">
+        <v>343</v>
+      </c>
+      <c r="E337" t="s">
+        <v>251</v>
+      </c>
+      <c r="F337">
+        <v>3</v>
+      </c>
+      <c r="H337" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
+      <c r="A338">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B338" t="s">
+        <v>231</v>
+      </c>
+      <c r="C338" s="2">
+        <v>43308</v>
+      </c>
+      <c r="D338" t="s">
+        <v>344</v>
+      </c>
+      <c r="E338" t="s">
+        <v>251</v>
+      </c>
+      <c r="F338">
+        <v>5</v>
+      </c>
+      <c r="H338" t="s">
+        <v>274</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="357">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -925,9 +925,6 @@
     <t>ρύζι με κοτόπουλο(+ μιχάλη, Ιασονα)</t>
   </si>
   <si>
-    <t>fan</t>
-  </si>
-  <si>
     <t>Είσοδος για το pool party</t>
   </si>
   <si>
@@ -1049,6 +1046,45 @@
   </si>
   <si>
     <t>Chillbox απέναντι από το ξενοδοχείο</t>
+  </si>
+  <si>
+    <t>hell, mojito</t>
+  </si>
+  <si>
+    <t>Caprice</t>
+  </si>
+  <si>
+    <t>ταξί από πανελλήνιο για σπίτι</t>
+  </si>
+  <si>
+    <t>μπουγάτσα με γρανίτα βατόμουρο</t>
+  </si>
+  <si>
+    <t>κοτόπουλο με πετιμέζι</t>
+  </si>
+  <si>
+    <t>βιβλίο, adapter, ακουστικά</t>
+  </si>
+  <si>
+    <t>πεϊνιρλί</t>
+  </si>
+  <si>
+    <t>kinder</t>
+  </si>
+  <si>
+    <t>προφυλακτικά, ultrex</t>
+  </si>
+  <si>
+    <t>vegan burger</t>
+  </si>
+  <si>
+    <t>pizza στο tre jolie</t>
+  </si>
+  <si>
+    <t>σουβλάκια για τους γονείς</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
 </sst>
 </file>
@@ -1483,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="H339" sqref="H339"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7990,7 +8026,7 @@
         <v>3.5</v>
       </c>
       <c r="B286" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="C286" s="2">
         <v>43284</v>
@@ -8197,13 +8233,13 @@
         <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="C295" s="2">
         <v>43289</v>
       </c>
       <c r="D295" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E295" t="s">
         <v>253</v>
@@ -8226,7 +8262,7 @@
         <v>43289</v>
       </c>
       <c r="D296" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E296" t="s">
         <v>253</v>
@@ -8249,7 +8285,7 @@
         <v>43289</v>
       </c>
       <c r="D297" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E297" t="s">
         <v>253</v>
@@ -8295,7 +8331,7 @@
         <v>43291</v>
       </c>
       <c r="D299" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E299" t="s">
         <v>252</v>
@@ -8318,7 +8354,7 @@
         <v>43292</v>
       </c>
       <c r="D300" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E300" t="s">
         <v>252</v>
@@ -8341,7 +8377,7 @@
         <v>43292</v>
       </c>
       <c r="D301" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E301" t="s">
         <v>252</v>
@@ -8364,7 +8400,7 @@
         <v>43293</v>
       </c>
       <c r="D302" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E302" t="s">
         <v>252</v>
@@ -8410,7 +8446,7 @@
         <v>43293</v>
       </c>
       <c r="D304" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E304" t="s">
         <v>252</v>
@@ -8433,7 +8469,7 @@
         <v>43294</v>
       </c>
       <c r="D305" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E305" t="s">
         <v>252</v>
@@ -8456,7 +8492,7 @@
         <v>43294</v>
       </c>
       <c r="D306" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E306" t="s">
         <v>252</v>
@@ -8479,7 +8515,7 @@
         <v>43294</v>
       </c>
       <c r="D307" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E307" t="s">
         <v>252</v>
@@ -8525,7 +8561,7 @@
         <v>43295</v>
       </c>
       <c r="D309" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E309" t="s">
         <v>251</v>
@@ -8548,7 +8584,7 @@
         <v>43295</v>
       </c>
       <c r="D310" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E310" t="s">
         <v>251</v>
@@ -8571,7 +8607,7 @@
         <v>43295</v>
       </c>
       <c r="D311" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E311" t="s">
         <v>251</v>
@@ -8580,7 +8616,7 @@
         <v>5</v>
       </c>
       <c r="H311" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8594,7 +8630,7 @@
         <v>43296</v>
       </c>
       <c r="D312" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E312" t="s">
         <v>251</v>
@@ -8603,7 +8639,7 @@
         <v>5</v>
       </c>
       <c r="H312" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8617,7 +8653,7 @@
         <v>43297</v>
       </c>
       <c r="D313" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E313" t="s">
         <v>251</v>
@@ -8626,7 +8662,7 @@
         <v>5</v>
       </c>
       <c r="H313" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8640,7 +8676,7 @@
         <v>43297</v>
       </c>
       <c r="D314" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E314" t="s">
         <v>251</v>
@@ -8649,7 +8685,7 @@
         <v>5</v>
       </c>
       <c r="H314" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8663,7 +8699,7 @@
         <v>43298</v>
       </c>
       <c r="D315" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E315" t="s">
         <v>251</v>
@@ -8686,7 +8722,7 @@
         <v>43299</v>
       </c>
       <c r="D316" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E316" t="s">
         <v>251</v>
@@ -8709,7 +8745,7 @@
         <v>43299</v>
       </c>
       <c r="D317" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E317" t="s">
         <v>251</v>
@@ -8741,7 +8777,7 @@
         <v>5</v>
       </c>
       <c r="H318" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8755,7 +8791,7 @@
         <v>43300</v>
       </c>
       <c r="D319" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E319" t="s">
         <v>251</v>
@@ -8778,7 +8814,7 @@
         <v>43300</v>
       </c>
       <c r="D320" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E320" t="s">
         <v>251</v>
@@ -8824,7 +8860,7 @@
         <v>43302</v>
       </c>
       <c r="D322" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E322" t="s">
         <v>251</v>
@@ -8847,7 +8883,7 @@
         <v>43302</v>
       </c>
       <c r="D323" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E323" t="s">
         <v>251</v>
@@ -8870,7 +8906,7 @@
         <v>43302</v>
       </c>
       <c r="D324" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E324" t="s">
         <v>251</v>
@@ -8916,7 +8952,7 @@
         <v>43303</v>
       </c>
       <c r="D326" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E326" t="s">
         <v>251</v>
@@ -8939,7 +8975,7 @@
         <v>43304</v>
       </c>
       <c r="D327" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E327" t="s">
         <v>251</v>
@@ -8962,7 +8998,7 @@
         <v>43305</v>
       </c>
       <c r="D328" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E328" t="s">
         <v>251</v>
@@ -8985,7 +9021,7 @@
         <v>43305</v>
       </c>
       <c r="D329" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E329" t="s">
         <v>251</v>
@@ -9008,7 +9044,7 @@
         <v>43305</v>
       </c>
       <c r="D330" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E330" t="s">
         <v>251</v>
@@ -9031,7 +9067,7 @@
         <v>43306</v>
       </c>
       <c r="D331" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E331" t="s">
         <v>251</v>
@@ -9054,7 +9090,7 @@
         <v>43306</v>
       </c>
       <c r="D332" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E332" t="s">
         <v>251</v>
@@ -9077,7 +9113,7 @@
         <v>43307</v>
       </c>
       <c r="D333" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E333" t="s">
         <v>251</v>
@@ -9100,7 +9136,7 @@
         <v>43307</v>
       </c>
       <c r="D334" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E334" t="s">
         <v>251</v>
@@ -9123,7 +9159,7 @@
         <v>43307</v>
       </c>
       <c r="D335" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E335" t="s">
         <v>251</v>
@@ -9140,13 +9176,13 @@
         <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C336" s="2">
         <v>43307</v>
       </c>
       <c r="D336" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E336" t="s">
         <v>251</v>
@@ -9166,7 +9202,7 @@
         <v>43307</v>
       </c>
       <c r="D337" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E337" t="s">
         <v>251</v>
@@ -9180,16 +9216,16 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338">
-        <v>4.4000000000000004</v>
+        <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C338" s="2">
         <v>43308</v>
       </c>
       <c r="D338" t="s">
-        <v>344</v>
+        <v>198</v>
       </c>
       <c r="E338" t="s">
         <v>251</v>
@@ -9198,7 +9234,403 @@
         <v>5</v>
       </c>
       <c r="H338" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
+      <c r="A339">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B339" t="s">
+        <v>231</v>
+      </c>
+      <c r="C339" s="2">
+        <v>43308</v>
+      </c>
+      <c r="D339" t="s">
+        <v>343</v>
+      </c>
+      <c r="E339" t="s">
+        <v>251</v>
+      </c>
+      <c r="F339">
+        <v>5</v>
+      </c>
+      <c r="H339" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
+      <c r="A340">
+        <v>3.2</v>
+      </c>
+      <c r="B340" t="s">
+        <v>231</v>
+      </c>
+      <c r="C340" s="2">
+        <v>43310</v>
+      </c>
+      <c r="D340" t="s">
+        <v>344</v>
+      </c>
+      <c r="E340" t="s">
+        <v>251</v>
+      </c>
+      <c r="F340">
+        <v>5</v>
+      </c>
+      <c r="H340" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
+      <c r="A341">
+        <v>3.8</v>
+      </c>
+      <c r="B341" t="s">
+        <v>231</v>
+      </c>
+      <c r="C341" s="2">
+        <v>43311</v>
+      </c>
+      <c r="D341" t="s">
+        <v>345</v>
+      </c>
+      <c r="E341" t="s">
+        <v>251</v>
+      </c>
+      <c r="F341">
+        <v>5</v>
+      </c>
+      <c r="H341" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
+      <c r="A342">
+        <v>0.9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>231</v>
+      </c>
+      <c r="C342" s="2">
+        <v>43311</v>
+      </c>
+      <c r="D342" t="s">
+        <v>87</v>
+      </c>
+      <c r="E342" t="s">
+        <v>251</v>
+      </c>
+      <c r="F342">
+        <v>5</v>
+      </c>
+      <c r="H342" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>229</v>
+      </c>
+      <c r="C343" s="2">
+        <v>43311</v>
+      </c>
+      <c r="D343" t="s">
+        <v>346</v>
+      </c>
+      <c r="E343" t="s">
+        <v>251</v>
+      </c>
+      <c r="F343">
+        <v>5</v>
+      </c>
+      <c r="H343" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
+      <c r="A344">
+        <v>3.8</v>
+      </c>
+      <c r="B344" t="s">
+        <v>231</v>
+      </c>
+      <c r="C344" s="2">
+        <v>43311</v>
+      </c>
+      <c r="D344" t="s">
+        <v>347</v>
+      </c>
+      <c r="E344" t="s">
+        <v>251</v>
+      </c>
+      <c r="F344">
+        <v>5</v>
+      </c>
+      <c r="H344" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345" t="s">
+        <v>231</v>
+      </c>
+      <c r="C345" s="2">
+        <v>43312</v>
+      </c>
+      <c r="D345" t="s">
+        <v>322</v>
+      </c>
+      <c r="E345" t="s">
+        <v>251</v>
+      </c>
+      <c r="F345">
+        <v>5</v>
+      </c>
+      <c r="H345" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
+      <c r="A346">
+        <v>5.5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>231</v>
+      </c>
+      <c r="C346" s="2">
+        <v>43312</v>
+      </c>
+      <c r="D346" t="s">
+        <v>348</v>
+      </c>
+      <c r="E346" t="s">
+        <v>251</v>
+      </c>
+      <c r="F346">
+        <v>5</v>
+      </c>
+      <c r="H346" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347">
+        <v>43.22</v>
+      </c>
+      <c r="B347" t="s">
+        <v>239</v>
+      </c>
+      <c r="C347" s="2">
+        <v>43312</v>
+      </c>
+      <c r="D347" t="s">
+        <v>349</v>
+      </c>
+      <c r="E347" t="s">
+        <v>251</v>
+      </c>
+      <c r="F347">
+        <v>5</v>
+      </c>
+      <c r="H347" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="B348" t="s">
+        <v>231</v>
+      </c>
+      <c r="C348" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D348" t="s">
+        <v>350</v>
+      </c>
+      <c r="E348" t="s">
+        <v>251</v>
+      </c>
+      <c r="F348">
+        <v>5</v>
+      </c>
+      <c r="H348" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
+      <c r="A349">
+        <v>7</v>
+      </c>
+      <c r="B349" t="s">
+        <v>231</v>
+      </c>
+      <c r="C349" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D349" t="s">
+        <v>210</v>
+      </c>
+      <c r="E349" t="s">
+        <v>251</v>
+      </c>
+      <c r="F349">
+        <v>5</v>
+      </c>
+      <c r="H349" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
+      <c r="A350">
+        <v>1.61</v>
+      </c>
+      <c r="B350" t="s">
+        <v>231</v>
+      </c>
+      <c r="C350" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D350" t="s">
+        <v>351</v>
+      </c>
+      <c r="E350" t="s">
+        <v>251</v>
+      </c>
+      <c r="F350">
+        <v>5</v>
+      </c>
+      <c r="H350" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
+      <c r="A351">
+        <v>20</v>
+      </c>
+      <c r="B351" t="s">
+        <v>238</v>
+      </c>
+      <c r="C351" s="2">
+        <v>43314</v>
+      </c>
+      <c r="D351" t="s">
+        <v>198</v>
+      </c>
+      <c r="E351" t="s">
+        <v>251</v>
+      </c>
+      <c r="F351">
+        <v>4</v>
+      </c>
+      <c r="H351" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
+      <c r="A352">
+        <v>14.84</v>
+      </c>
+      <c r="B352" t="s">
+        <v>239</v>
+      </c>
+      <c r="C352" s="2">
+        <v>43314</v>
+      </c>
+      <c r="D352" t="s">
+        <v>352</v>
+      </c>
+      <c r="E352" t="s">
+        <v>251</v>
+      </c>
+      <c r="F352">
+        <v>3</v>
+      </c>
+      <c r="H352" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
+      <c r="A353">
+        <v>5.6</v>
+      </c>
+      <c r="B353" t="s">
+        <v>231</v>
+      </c>
+      <c r="C353" s="2">
+        <v>43315</v>
+      </c>
+      <c r="D353" t="s">
+        <v>353</v>
+      </c>
+      <c r="E353" t="s">
+        <v>251</v>
+      </c>
+      <c r="F353">
+        <v>4</v>
+      </c>
+      <c r="H353" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354">
+        <v>6.8</v>
+      </c>
+      <c r="B354" t="s">
+        <v>231</v>
+      </c>
+      <c r="C354" s="2">
+        <v>43315</v>
+      </c>
+      <c r="D354" t="s">
+        <v>354</v>
+      </c>
+      <c r="E354" t="s">
+        <v>251</v>
+      </c>
+      <c r="F354">
+        <v>5</v>
+      </c>
+      <c r="H354" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355">
+        <v>7.7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>231</v>
+      </c>
+      <c r="C355" s="2">
+        <v>43316</v>
+      </c>
+      <c r="D355" t="s">
+        <v>355</v>
+      </c>
+      <c r="E355" t="s">
+        <v>251</v>
+      </c>
+      <c r="F355">
+        <v>4</v>
+      </c>
+      <c r="H355" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
+      <c r="E362" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="367" spans="1:12">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="356">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1082,9 +1082,6 @@
   </si>
   <si>
     <t>σουβλάκια για τους γονείς</t>
-  </si>
-  <si>
-    <t>fuck</t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
       <selection activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
@@ -9628,11 +9625,6 @@
         <v>255</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
-      <c r="E362" t="s">
-        <v>356</v>
-      </c>
-    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="357">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1082,6 +1082,9 @@
   </si>
   <si>
     <t>σουβλάκια για τους γονείς</t>
+  </si>
+  <si>
+    <t>unvoxholics T-shirt and braclets</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1520,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="E362" sqref="E362"/>
+      <selection activeCell="H357" sqref="H357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9625,6 +9628,34 @@
         <v>255</v>
       </c>
     </row>
+    <row r="356" spans="1:12">
+      <c r="A356">
+        <v>29.4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>239</v>
+      </c>
+      <c r="C356" s="2">
+        <v>43317</v>
+      </c>
+      <c r="D356" t="s">
+        <v>356</v>
+      </c>
+      <c r="E356" t="s">
+        <v>251</v>
+      </c>
+      <c r="F356">
+        <v>4</v>
+      </c>
+      <c r="H356" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="H357" t="s">
+        <v>255</v>
+      </c>
+    </row>
     <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
-      <selection activeCell="H357" sqref="H357"/>
+      <selection activeCell="C357" sqref="C357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="376">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1078,57 +1078,21 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Food &amp; drink</t>
-  </si>
-  <si>
-    <t>Family &amp; friends</t>
-  </si>
-  <si>
-    <t>Health care &amp; Drug stores</t>
-  </si>
-  <si>
-    <t>household &amp; utilities</t>
-  </si>
-  <si>
-    <t>Insurance &amp; finances</t>
-  </si>
-  <si>
     <t>Entertainment</t>
   </si>
   <si>
-    <t>Media &amp; Electronics</t>
-  </si>
-  <si>
     <t>Shopping</t>
   </si>
   <si>
-    <t>Subscriptions &amp; donations</t>
-  </si>
-  <si>
-    <t>tax &amp; Fines</t>
-  </si>
-  <si>
     <t>Beaty</t>
   </si>
   <si>
-    <t>family &amp; friends</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>travel &amp; holidays</t>
-  </si>
-  <si>
-    <t>tax &amp; fines</t>
-  </si>
-  <si>
-    <t>media &amp; electonics</t>
-  </si>
-  <si>
     <t>health care</t>
   </si>
   <si>
@@ -1139,6 +1103,45 @@
   </si>
   <si>
     <t>αεροπορικά για Κρήτη (+ Μιχάλη)</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>family-friends</t>
+  </si>
+  <si>
+    <t>Food-drink</t>
+  </si>
+  <si>
+    <t>Family-friends</t>
+  </si>
+  <si>
+    <t>Health care-Drug stores</t>
+  </si>
+  <si>
+    <t>household-utilities</t>
+  </si>
+  <si>
+    <t>Insurance-finances</t>
+  </si>
+  <si>
+    <t>Media-Electronics</t>
+  </si>
+  <si>
+    <t>Subscriptions-donations</t>
+  </si>
+  <si>
+    <t>tax-Fines</t>
+  </si>
+  <si>
+    <t>travel-holidays</t>
+  </si>
+  <si>
+    <t>media-electonics</t>
+  </si>
+  <si>
+    <t>tax-fines</t>
   </si>
 </sst>
 </file>
@@ -1575,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D227" sqref="D227"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1632,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" s="2">
         <v>43120</v>
@@ -1673,13 +1676,16 @@
       <c r="K3" t="s">
         <v>353</v>
       </c>
+      <c r="L3" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="2">
         <v>43120</v>
@@ -1697,7 +1703,10 @@
         <v>250</v>
       </c>
       <c r="K4" t="s">
-        <v>354</v>
+        <v>365</v>
+      </c>
+      <c r="L4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,7 +1732,10 @@
         <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>355</v>
+        <v>366</v>
+      </c>
+      <c r="L5" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1731,7 +1743,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C6" s="2">
         <v>43121</v>
@@ -1749,7 +1761,10 @@
         <v>250</v>
       </c>
       <c r="K6" t="s">
-        <v>356</v>
+        <v>367</v>
+      </c>
+      <c r="L6" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1775,7 +1790,10 @@
         <v>250</v>
       </c>
       <c r="K7" t="s">
-        <v>357</v>
+        <v>368</v>
+      </c>
+      <c r="L7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1801,7 +1819,7 @@
         <v>254</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,7 +1845,10 @@
         <v>254</v>
       </c>
       <c r="K9" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="L9" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,7 +1874,10 @@
         <v>257</v>
       </c>
       <c r="K10" t="s">
-        <v>360</v>
+        <v>370</v>
+      </c>
+      <c r="L10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1879,7 +1903,10 @@
         <v>257</v>
       </c>
       <c r="K11" t="s">
-        <v>361</v>
+        <v>355</v>
+      </c>
+      <c r="L11" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1905,7 +1932,7 @@
         <v>255</v>
       </c>
       <c r="K12" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1931,6 +1958,9 @@
         <v>257</v>
       </c>
       <c r="K13" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" t="s">
         <v>363</v>
       </c>
     </row>
@@ -1957,7 +1987,10 @@
         <v>257</v>
       </c>
       <c r="K14" t="s">
-        <v>366</v>
+        <v>357</v>
+      </c>
+      <c r="L14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,7 +1998,7 @@
         <v>5.15</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C15" s="2">
         <v>43129</v>
@@ -1983,7 +2016,10 @@
         <v>256</v>
       </c>
       <c r="K15" t="s">
-        <v>368</v>
+        <v>373</v>
+      </c>
+      <c r="L15" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1991,7 +2027,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
@@ -2009,7 +2045,10 @@
         <v>255</v>
       </c>
       <c r="K16" t="s">
-        <v>364</v>
+        <v>356</v>
+      </c>
+      <c r="L16" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2224,7 +2263,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C26" s="2">
         <v>43139</v>
@@ -2408,7 +2447,7 @@
         <v>49.9</v>
       </c>
       <c r="B34" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C34" s="2">
         <v>43143</v>
@@ -2428,7 +2467,7 @@
         <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
@@ -2520,7 +2559,7 @@
         <v>15.96</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C39" s="2">
         <v>43148</v>
@@ -2566,7 +2605,7 @@
         <v>79.8</v>
       </c>
       <c r="B41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C41" s="2">
         <v>43148</v>
@@ -2612,7 +2651,7 @@
         <v>38.880000000000003</v>
       </c>
       <c r="B43" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2">
         <v>43151</v>
@@ -2658,7 +2697,7 @@
         <v>0.79</v>
       </c>
       <c r="B45" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C45" s="2">
         <v>43152</v>
@@ -2681,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2">
         <v>43153</v>
@@ -2773,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2">
         <v>43155</v>
@@ -2819,7 +2858,7 @@
         <v>1.8</v>
       </c>
       <c r="B52" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C52" s="2">
         <v>43155</v>
@@ -2935,7 +2974,7 @@
         <v>5.4</v>
       </c>
       <c r="B57" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C57" s="2">
         <v>43156</v>
@@ -2981,7 +3020,7 @@
         <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C59" s="2">
         <v>43156</v>
@@ -3004,7 +3043,7 @@
         <v>0.6</v>
       </c>
       <c r="B60" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C60" s="2">
         <v>43157</v>
@@ -3096,7 +3135,7 @@
         <v>1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C64" s="2">
         <v>43158</v>
@@ -3119,7 +3158,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
@@ -3142,7 +3181,7 @@
         <v>13.5</v>
       </c>
       <c r="B66" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2">
         <v>43160</v>
@@ -3212,7 +3251,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2">
         <v>43161</v>
@@ -3235,7 +3274,7 @@
         <v>65.5</v>
       </c>
       <c r="B70" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
@@ -3258,7 +3297,7 @@
         <v>4.5</v>
       </c>
       <c r="B71" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C71" s="2">
         <v>43162</v>
@@ -3281,7 +3320,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
@@ -3443,7 +3482,7 @@
         <v>9.9</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C79" s="2">
         <v>43169</v>
@@ -3489,7 +3528,7 @@
         <v>79.8</v>
       </c>
       <c r="B81" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C81" s="2">
         <v>43169</v>
@@ -3512,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C82" s="2">
         <v>43170</v>
@@ -3650,7 +3689,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C88" s="2">
         <v>43171</v>
@@ -3673,7 +3712,7 @@
         <v>24.9</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
@@ -3719,7 +3758,7 @@
         <v>44.99</v>
       </c>
       <c r="B91" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C91" s="2">
         <v>43174</v>
@@ -3742,7 +3781,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C92" s="2">
         <v>43175</v>
@@ -3909,7 +3948,7 @@
         <v>34.9</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C101" s="2">
         <v>43183</v>
@@ -4192,7 +4231,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C115" s="2">
         <v>43194</v>
@@ -4261,7 +4300,7 @@
         <v>6.3</v>
       </c>
       <c r="B118" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C118" s="2">
         <v>43194</v>
@@ -4399,7 +4438,7 @@
         <v>24.3</v>
       </c>
       <c r="B124" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C124" s="2">
         <v>43199</v>
@@ -4583,7 +4622,7 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C132" s="2">
         <v>43202</v>
@@ -4606,7 +4645,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C133" s="2">
         <v>43203</v>
@@ -4629,7 +4668,7 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C134" s="2">
         <v>43203</v>
@@ -4790,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C141" s="2">
         <v>43207</v>
@@ -4997,7 +5036,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C150" s="2">
         <v>43211</v>
@@ -5020,7 +5059,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
@@ -5089,7 +5128,7 @@
         <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C154" s="2">
         <v>43211</v>
@@ -5112,7 +5151,7 @@
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
@@ -5181,7 +5220,7 @@
         <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
@@ -5710,7 +5749,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C181" s="2">
         <v>43236</v>
@@ -5756,7 +5795,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
@@ -5779,7 +5818,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
@@ -5802,7 +5841,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
@@ -5848,7 +5887,7 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C187" s="2">
         <v>43237</v>
@@ -5894,7 +5933,7 @@
         <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C189" s="2">
         <v>43238</v>
@@ -5940,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
@@ -6009,7 +6048,7 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
@@ -6055,7 +6094,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B196" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C196" s="2">
         <v>43241</v>
@@ -6193,7 +6232,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="B202" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C202" s="2">
         <v>43245</v>
@@ -6515,7 +6554,7 @@
         <v>3.5</v>
       </c>
       <c r="B216" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C216" s="2">
         <v>43251</v>
@@ -6630,7 +6669,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C221" s="2">
         <v>43254</v>
@@ -6768,13 +6807,13 @@
         <v>129</v>
       </c>
       <c r="B227" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
       <c r="D227" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E227" t="s">
         <v>247</v>
@@ -6883,7 +6922,7 @@
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
@@ -6998,7 +7037,7 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
@@ -7021,7 +7060,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
@@ -7044,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
@@ -7067,7 +7106,7 @@
         <v>11.2</v>
       </c>
       <c r="B240" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
@@ -7113,7 +7152,7 @@
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C242" s="2">
         <v>43263</v>
@@ -7136,7 +7175,7 @@
         <v>12.7</v>
       </c>
       <c r="B243" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C243" s="2">
         <v>43264</v>
@@ -7159,7 +7198,7 @@
         <v>89.9</v>
       </c>
       <c r="B244" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C244" s="2">
         <v>43264</v>
@@ -7550,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C261" s="2">
         <v>43274</v>
@@ -7688,7 +7727,7 @@
         <v>13.5</v>
       </c>
       <c r="B267" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C267" s="2">
         <v>43275</v>
@@ -7734,7 +7773,7 @@
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C269" s="2">
         <v>43277</v>
@@ -7895,7 +7934,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C276" s="2">
         <v>43280</v>
@@ -7918,7 +7957,7 @@
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C277" s="2">
         <v>43280</v>
@@ -7964,7 +8003,7 @@
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C279" s="2">
         <v>43281</v>
@@ -8079,7 +8118,7 @@
         <v>119.9</v>
       </c>
       <c r="B284" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C284" s="2">
         <v>43284</v>
@@ -8125,7 +8164,7 @@
         <v>3.5</v>
       </c>
       <c r="B286" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C286" s="2">
         <v>43284</v>
@@ -8332,7 +8371,7 @@
         <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C295" s="2">
         <v>43289</v>
@@ -8355,7 +8394,7 @@
         <v>3.5</v>
       </c>
       <c r="B296" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C296" s="2">
         <v>43289</v>
@@ -8493,7 +8532,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C302" s="2">
         <v>43293</v>
@@ -8654,7 +8693,7 @@
         <v>7.5</v>
       </c>
       <c r="B309" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C309" s="2">
         <v>43295</v>
@@ -8700,7 +8739,7 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C311" s="2">
         <v>43295</v>
@@ -8723,7 +8762,7 @@
         <v>3</v>
       </c>
       <c r="B312" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C312" s="2">
         <v>43296</v>
@@ -9160,7 +9199,7 @@
         <v>3.85</v>
       </c>
       <c r="B331" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C331" s="2">
         <v>43306</v>
@@ -9252,7 +9291,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B335" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C335" s="2">
         <v>43307</v>
@@ -9275,7 +9314,7 @@
         <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C336" s="2">
         <v>43307</v>
@@ -9318,7 +9357,7 @@
         <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C338" s="2">
         <v>43308</v>
@@ -9433,7 +9472,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C343" s="2">
         <v>43311</v>
@@ -9525,7 +9564,7 @@
         <v>43.22</v>
       </c>
       <c r="B347" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C347" s="2">
         <v>43312</v>
@@ -9617,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C351" s="2">
         <v>43314</v>
@@ -9640,7 +9679,7 @@
         <v>14.84</v>
       </c>
       <c r="B352" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C352" s="2">
         <v>43314</v>
@@ -9732,7 +9771,7 @@
         <v>29.4</v>
       </c>
       <c r="B356" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C356" s="2">
         <v>43317</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="377">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1142,6 +1142,9 @@
   </si>
   <si>
     <t>tax-fines</t>
+  </si>
+  <si>
+    <t>Peri</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="365">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1075,18 +1075,6 @@
     <t>τσάι και κουλούρι</t>
   </si>
   <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
-    <t>Shopping</t>
-  </si>
-  <si>
-    <t>Beaty</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
@@ -1105,34 +1093,10 @@
     <t>αεροπορικά για Κρήτη (+ Μιχάλη)</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>family-friends</t>
   </si>
   <si>
-    <t>Food-drink</t>
-  </si>
-  <si>
-    <t>Family-friends</t>
-  </si>
-  <si>
-    <t>Health care-Drug stores</t>
-  </si>
-  <si>
     <t>household-utilities</t>
-  </si>
-  <si>
-    <t>Insurance-finances</t>
-  </si>
-  <si>
-    <t>Media-Electronics</t>
-  </si>
-  <si>
-    <t>Subscriptions-donations</t>
-  </si>
-  <si>
-    <t>tax-Fines</t>
   </si>
   <si>
     <t>travel-holidays</t>
@@ -1582,19 +1546,19 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D358" sqref="D358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -1635,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C2" s="2">
         <v>43120</v>
@@ -1676,19 +1640,13 @@
       <c r="H3" t="s">
         <v>250</v>
       </c>
-      <c r="K3" t="s">
-        <v>353</v>
-      </c>
-      <c r="L3" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C4" s="2">
         <v>43120</v>
@@ -1704,12 +1662,6 @@
       </c>
       <c r="H4" t="s">
         <v>250</v>
-      </c>
-      <c r="K4" t="s">
-        <v>365</v>
-      </c>
-      <c r="L4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1717,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>
@@ -1733,12 +1685,6 @@
       </c>
       <c r="H5" t="s">
         <v>253</v>
-      </c>
-      <c r="K5" t="s">
-        <v>366</v>
-      </c>
-      <c r="L5" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1746,7 +1692,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C6" s="2">
         <v>43121</v>
@@ -1762,12 +1708,6 @@
       </c>
       <c r="H6" t="s">
         <v>250</v>
-      </c>
-      <c r="K6" t="s">
-        <v>367</v>
-      </c>
-      <c r="L6" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1792,12 +1732,6 @@
       <c r="H7" t="s">
         <v>250</v>
       </c>
-      <c r="K7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L7" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1821,9 +1755,6 @@
       <c r="H8" t="s">
         <v>254</v>
       </c>
-      <c r="K8" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1847,12 +1778,6 @@
       <c r="H9" t="s">
         <v>254</v>
       </c>
-      <c r="K9" t="s">
-        <v>354</v>
-      </c>
-      <c r="L9" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1875,12 +1800,6 @@
       </c>
       <c r="H10" t="s">
         <v>257</v>
-      </c>
-      <c r="K10" t="s">
-        <v>370</v>
-      </c>
-      <c r="L10" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1905,12 +1824,6 @@
       <c r="H11" t="s">
         <v>257</v>
       </c>
-      <c r="K11" t="s">
-        <v>355</v>
-      </c>
-      <c r="L11" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1933,9 +1846,6 @@
       </c>
       <c r="H12" t="s">
         <v>255</v>
-      </c>
-      <c r="K12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1960,12 +1870,6 @@
       <c r="H13" t="s">
         <v>257</v>
       </c>
-      <c r="K13" t="s">
-        <v>372</v>
-      </c>
-      <c r="L13" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1989,19 +1893,13 @@
       <c r="H14" t="s">
         <v>257</v>
       </c>
-      <c r="K14" t="s">
-        <v>357</v>
-      </c>
-      <c r="L14" t="s">
-        <v>363</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C15" s="2">
         <v>43129</v>
@@ -2017,12 +1915,6 @@
       </c>
       <c r="H15" t="s">
         <v>256</v>
-      </c>
-      <c r="K15" t="s">
-        <v>373</v>
-      </c>
-      <c r="L15" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2030,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
@@ -2046,12 +1938,6 @@
       </c>
       <c r="H16" t="s">
         <v>255</v>
-      </c>
-      <c r="K16" t="s">
-        <v>356</v>
-      </c>
-      <c r="L16" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2266,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C26" s="2">
         <v>43139</v>
@@ -2450,7 +2336,7 @@
         <v>49.9</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C34" s="2">
         <v>43143</v>
@@ -2470,7 +2356,7 @@
         <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
@@ -2562,7 +2448,7 @@
         <v>15.96</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2">
         <v>43148</v>
@@ -2608,7 +2494,7 @@
         <v>79.8</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C41" s="2">
         <v>43148</v>
@@ -2654,7 +2540,7 @@
         <v>38.880000000000003</v>
       </c>
       <c r="B43" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2">
         <v>43151</v>
@@ -2700,7 +2586,7 @@
         <v>0.79</v>
       </c>
       <c r="B45" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2">
         <v>43152</v>
@@ -2723,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C46" s="2">
         <v>43153</v>
@@ -2815,7 +2701,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C50" s="2">
         <v>43155</v>
@@ -2861,7 +2747,7 @@
         <v>1.8</v>
       </c>
       <c r="B52" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2">
         <v>43155</v>
@@ -2977,7 +2863,7 @@
         <v>5.4</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2">
         <v>43156</v>
@@ -3023,7 +2909,7 @@
         <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2">
         <v>43156</v>
@@ -3046,7 +2932,7 @@
         <v>0.6</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C60" s="2">
         <v>43157</v>
@@ -3138,7 +3024,7 @@
         <v>1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C64" s="2">
         <v>43158</v>
@@ -3161,7 +3047,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
@@ -3184,7 +3070,7 @@
         <v>13.5</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C66" s="2">
         <v>43160</v>
@@ -3254,7 +3140,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C69" s="2">
         <v>43161</v>
@@ -3277,7 +3163,7 @@
         <v>65.5</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
@@ -3300,7 +3186,7 @@
         <v>4.5</v>
       </c>
       <c r="B71" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C71" s="2">
         <v>43162</v>
@@ -3323,7 +3209,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
@@ -3485,7 +3371,7 @@
         <v>9.9</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C79" s="2">
         <v>43169</v>
@@ -3531,7 +3417,7 @@
         <v>79.8</v>
       </c>
       <c r="B81" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C81" s="2">
         <v>43169</v>
@@ -3554,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C82" s="2">
         <v>43170</v>
@@ -3692,7 +3578,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C88" s="2">
         <v>43171</v>
@@ -3715,7 +3601,7 @@
         <v>24.9</v>
       </c>
       <c r="B89" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
@@ -3761,7 +3647,7 @@
         <v>44.99</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C91" s="2">
         <v>43174</v>
@@ -3784,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C92" s="2">
         <v>43175</v>
@@ -3951,7 +3837,7 @@
         <v>34.9</v>
       </c>
       <c r="B101" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C101" s="2">
         <v>43183</v>
@@ -4234,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C115" s="2">
         <v>43194</v>
@@ -4303,7 +4189,7 @@
         <v>6.3</v>
       </c>
       <c r="B118" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C118" s="2">
         <v>43194</v>
@@ -4441,7 +4327,7 @@
         <v>24.3</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C124" s="2">
         <v>43199</v>
@@ -4625,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C132" s="2">
         <v>43202</v>
@@ -4648,7 +4534,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C133" s="2">
         <v>43203</v>
@@ -4671,7 +4557,7 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C134" s="2">
         <v>43203</v>
@@ -4832,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C141" s="2">
         <v>43207</v>
@@ -5039,7 +4925,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C150" s="2">
         <v>43211</v>
@@ -5062,7 +4948,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
@@ -5131,7 +5017,7 @@
         <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C154" s="2">
         <v>43211</v>
@@ -5154,7 +5040,7 @@
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
@@ -5223,7 +5109,7 @@
         <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
@@ -5752,7 +5638,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C181" s="2">
         <v>43236</v>
@@ -5798,7 +5684,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
@@ -5821,7 +5707,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
@@ -5844,7 +5730,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
@@ -5890,7 +5776,7 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C187" s="2">
         <v>43237</v>
@@ -5936,7 +5822,7 @@
         <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C189" s="2">
         <v>43238</v>
@@ -5982,7 +5868,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
@@ -6051,7 +5937,7 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
@@ -6097,7 +5983,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C196" s="2">
         <v>43241</v>
@@ -6235,7 +6121,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="B202" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C202" s="2">
         <v>43245</v>
@@ -6557,7 +6443,7 @@
         <v>3.5</v>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C216" s="2">
         <v>43251</v>
@@ -6672,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C221" s="2">
         <v>43254</v>
@@ -6810,13 +6696,13 @@
         <v>129</v>
       </c>
       <c r="B227" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
       <c r="D227" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E227" t="s">
         <v>247</v>
@@ -6925,7 +6811,7 @@
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
@@ -7040,7 +6926,7 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
@@ -7063,7 +6949,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
@@ -7086,7 +6972,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
@@ -7109,7 +6995,7 @@
         <v>11.2</v>
       </c>
       <c r="B240" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
@@ -7155,7 +7041,7 @@
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C242" s="2">
         <v>43263</v>
@@ -7178,7 +7064,7 @@
         <v>12.7</v>
       </c>
       <c r="B243" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C243" s="2">
         <v>43264</v>
@@ -7201,7 +7087,7 @@
         <v>89.9</v>
       </c>
       <c r="B244" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C244" s="2">
         <v>43264</v>
@@ -7592,7 +7478,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C261" s="2">
         <v>43274</v>
@@ -7730,7 +7616,7 @@
         <v>13.5</v>
       </c>
       <c r="B267" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C267" s="2">
         <v>43275</v>
@@ -7776,7 +7662,7 @@
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C269" s="2">
         <v>43277</v>
@@ -7937,7 +7823,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C276" s="2">
         <v>43280</v>
@@ -7960,7 +7846,7 @@
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C277" s="2">
         <v>43280</v>
@@ -8006,7 +7892,7 @@
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C279" s="2">
         <v>43281</v>
@@ -8121,7 +8007,7 @@
         <v>119.9</v>
       </c>
       <c r="B284" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C284" s="2">
         <v>43284</v>
@@ -8167,7 +8053,7 @@
         <v>3.5</v>
       </c>
       <c r="B286" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C286" s="2">
         <v>43284</v>
@@ -8374,7 +8260,7 @@
         <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C295" s="2">
         <v>43289</v>
@@ -8397,7 +8283,7 @@
         <v>3.5</v>
       </c>
       <c r="B296" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C296" s="2">
         <v>43289</v>
@@ -8535,7 +8421,7 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C302" s="2">
         <v>43293</v>
@@ -8696,7 +8582,7 @@
         <v>7.5</v>
       </c>
       <c r="B309" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C309" s="2">
         <v>43295</v>
@@ -8742,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C311" s="2">
         <v>43295</v>
@@ -8765,7 +8651,7 @@
         <v>3</v>
       </c>
       <c r="B312" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C312" s="2">
         <v>43296</v>
@@ -9202,7 +9088,7 @@
         <v>3.85</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C331" s="2">
         <v>43306</v>
@@ -9294,7 +9180,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B335" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C335" s="2">
         <v>43307</v>
@@ -9317,7 +9203,7 @@
         <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C336" s="2">
         <v>43307</v>
@@ -9360,7 +9246,7 @@
         <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C338" s="2">
         <v>43308</v>
@@ -9475,7 +9361,7 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C343" s="2">
         <v>43311</v>
@@ -9567,7 +9453,7 @@
         <v>43.22</v>
       </c>
       <c r="B347" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C347" s="2">
         <v>43312</v>
@@ -9659,7 +9545,7 @@
         <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C351" s="2">
         <v>43314</v>
@@ -9682,7 +9568,7 @@
         <v>14.84</v>
       </c>
       <c r="B352" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C352" s="2">
         <v>43314</v>
@@ -9774,7 +9660,7 @@
         <v>29.4</v>
       </c>
       <c r="B356" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C356" s="2">
         <v>43317</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="364">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1106,9 +1106,6 @@
   </si>
   <si>
     <t>tax-fines</t>
-  </si>
-  <si>
-    <t>Peri</t>
   </si>
 </sst>
 </file>
@@ -1546,7 +1543,7 @@
   <dimension ref="A1:L369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D358" sqref="D358"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1666,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2">
         <v>43120</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="365">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1106,6 +1106,9 @@
   </si>
   <si>
     <t>tax-fines</t>
+  </si>
+  <si>
+    <t>κασερόπιτα και freddo cappucino</t>
   </si>
 </sst>
 </file>
@@ -1542,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9721,6 +9724,75 @@
         <v>268</v>
       </c>
     </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>3.5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>229</v>
+      </c>
+      <c r="C359" s="2">
+        <v>43320</v>
+      </c>
+      <c r="D359" t="s">
+        <v>127</v>
+      </c>
+      <c r="E359" t="s">
+        <v>246</v>
+      </c>
+      <c r="F359">
+        <v>4</v>
+      </c>
+      <c r="H359" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B360" t="s">
+        <v>229</v>
+      </c>
+      <c r="C360" s="2">
+        <v>43321</v>
+      </c>
+      <c r="D360" t="s">
+        <v>364</v>
+      </c>
+      <c r="E360" t="s">
+        <v>246</v>
+      </c>
+      <c r="F360">
+        <v>5</v>
+      </c>
+      <c r="H360" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>5.7</v>
+      </c>
+      <c r="B361" t="s">
+        <v>229</v>
+      </c>
+      <c r="C361" s="2">
+        <v>43321</v>
+      </c>
+      <c r="D361" t="s">
+        <v>347</v>
+      </c>
+      <c r="E361" t="s">
+        <v>246</v>
+      </c>
+      <c r="F361">
+        <v>4</v>
+      </c>
+      <c r="H361" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="365">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1114,12 +1114,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1159,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1299,7 +1299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1331,10 +1331,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,7 +1365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1542,14 +1540,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1565,7 +1563,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>243</v>
       </c>
@@ -1594,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1618,7 +1616,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1664,7 +1662,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1687,7 +1685,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1710,7 +1708,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1733,7 +1731,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1779,7 +1777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1802,7 +1800,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1825,7 +1823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -1848,7 +1846,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -1871,7 +1869,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -1894,7 +1892,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -1917,7 +1915,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -1940,7 +1938,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -1986,7 +1984,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2009,7 +2007,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2055,7 +2053,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2078,7 +2076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2101,7 +2099,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2124,7 +2122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2147,7 +2145,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2170,7 +2168,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2193,7 +2191,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2216,7 +2214,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2239,7 +2237,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2262,7 +2260,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2285,7 +2283,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2308,7 +2306,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2331,7 +2329,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2374,7 +2372,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2397,7 +2395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2443,7 +2441,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2466,7 +2464,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2489,7 +2487,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2512,7 +2510,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2535,7 +2533,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2558,7 +2556,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2581,7 +2579,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2650,7 +2648,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2673,7 +2671,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2696,7 +2694,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2719,7 +2717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2742,7 +2740,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2788,7 +2786,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2812,7 +2810,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2835,7 +2833,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -2881,7 +2879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -2904,7 +2902,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -2950,7 +2948,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -2996,7 +2994,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3065,7 +3063,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3088,7 +3086,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3112,7 +3110,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3181,7 +3179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3204,7 +3202,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3227,7 +3225,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3274,7 +3272,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3297,7 +3295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3320,7 +3318,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3343,7 +3341,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3366,7 +3364,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3389,7 +3387,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3412,7 +3410,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3435,7 +3433,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3458,7 +3456,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3504,7 +3502,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3550,7 +3548,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3573,7 +3571,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3596,7 +3594,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3619,7 +3617,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3642,7 +3640,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3688,7 +3686,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3734,13 +3732,13 @@
         <v>276</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3763,7 +3761,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3786,7 +3784,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3809,7 +3807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3832,7 +3830,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -3855,14 +3853,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -3885,7 +3883,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -3931,7 +3929,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -3954,7 +3952,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -3977,7 +3975,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4000,7 +3998,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4023,7 +4021,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4046,7 +4044,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4069,7 +4067,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4115,7 +4113,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4161,7 +4159,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4184,7 +4182,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4207,7 +4205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4230,7 +4228,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4253,7 +4251,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4276,7 +4274,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4299,7 +4297,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4322,7 +4320,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4414,7 +4412,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4437,7 +4435,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4460,7 +4458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4506,7 +4504,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4529,7 +4527,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4552,7 +4550,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4575,7 +4573,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4598,7 +4596,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4621,7 +4619,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4644,7 +4642,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4667,7 +4665,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4690,7 +4688,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4713,7 +4711,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4736,7 +4734,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4759,7 +4757,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4782,7 +4780,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -4828,7 +4826,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -4851,7 +4849,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4874,7 +4872,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -4897,7 +4895,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -4943,7 +4941,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -4966,7 +4964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -4989,7 +4987,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5012,7 +5010,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5035,7 +5033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5081,7 +5079,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5104,7 +5102,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5127,7 +5125,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5150,7 +5148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5173,7 +5171,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5196,7 +5194,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5219,7 +5217,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5242,7 +5240,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5288,7 +5286,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5311,7 +5309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5334,7 +5332,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5357,7 +5355,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5380,7 +5378,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5403,7 +5401,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5426,7 +5424,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5472,7 +5470,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5495,7 +5493,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5541,7 +5539,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5564,7 +5562,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5587,7 +5585,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5610,7 +5608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5633,7 +5631,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5656,7 +5654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5679,7 +5677,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5702,7 +5700,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5725,7 +5723,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5748,7 +5746,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5771,7 +5769,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5794,7 +5792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5817,7 +5815,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -5840,7 +5838,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -5863,7 +5861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -5886,7 +5884,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -5909,7 +5907,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -5932,7 +5930,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -5955,7 +5953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6024,7 +6022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6047,7 +6045,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6070,7 +6068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6093,7 +6091,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6116,7 +6114,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6139,7 +6137,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6162,7 +6160,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6300,7 +6298,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6323,7 +6321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6369,7 +6367,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6392,7 +6390,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6415,7 +6413,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6438,7 +6436,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6461,7 +6459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6484,7 +6482,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6530,7 +6528,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6553,7 +6551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6576,7 +6574,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6599,7 +6597,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6622,7 +6620,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6645,7 +6643,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6668,7 +6666,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6691,7 +6689,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6714,7 +6712,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6737,7 +6735,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6760,7 +6758,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6783,7 +6781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6806,7 +6804,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -6829,7 +6827,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -6852,7 +6850,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -6875,7 +6873,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -6898,7 +6896,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -6944,7 +6942,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -6967,7 +6965,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -6990,7 +6988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7013,7 +7011,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7036,7 +7034,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7059,7 +7057,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7082,7 +7080,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7105,7 +7103,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7151,7 +7149,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7174,7 +7172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7197,7 +7195,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7220,7 +7218,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7243,7 +7241,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7266,7 +7264,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7289,7 +7287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7312,7 +7310,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7335,7 +7333,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7358,7 +7356,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7381,7 +7379,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7404,7 +7402,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7427,7 +7425,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7450,7 +7448,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7473,7 +7471,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7496,7 +7494,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7519,7 +7517,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7542,7 +7540,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7565,7 +7563,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7588,7 +7586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7611,7 +7609,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7634,7 +7632,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7680,7 +7678,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7703,7 +7701,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7726,7 +7724,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7749,7 +7747,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7772,7 +7770,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7795,7 +7793,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7818,7 +7816,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -7864,7 +7862,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -7910,7 +7908,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -7933,7 +7931,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -7956,7 +7954,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -7979,7 +7977,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8002,7 +8000,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8048,7 +8046,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8071,7 +8069,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8094,7 +8092,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8117,7 +8115,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8140,7 +8138,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8163,7 +8161,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8186,7 +8184,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8209,7 +8207,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8232,7 +8230,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8255,7 +8253,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8278,7 +8276,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8301,7 +8299,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8324,7 +8322,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8347,7 +8345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8370,7 +8368,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8416,7 +8414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8439,7 +8437,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8462,7 +8460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8485,7 +8483,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8508,7 +8506,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8531,7 +8529,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8577,7 +8575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8600,7 +8598,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8623,7 +8621,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8646,7 +8644,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8692,7 +8690,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8715,7 +8713,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8761,7 +8759,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8784,7 +8782,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8807,7 +8805,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -8830,7 +8828,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -8853,7 +8851,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -8899,7 +8897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -8922,7 +8920,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -8945,7 +8943,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -8968,7 +8966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -8991,7 +8989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9014,7 +9012,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9060,7 +9058,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9083,7 +9081,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9106,7 +9104,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9129,7 +9127,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9152,7 +9150,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9175,7 +9173,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9198,7 +9196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9221,7 +9219,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9241,7 +9239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9264,7 +9262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9287,7 +9285,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9310,7 +9308,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9333,7 +9331,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9356,7 +9354,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9379,7 +9377,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9402,7 +9400,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9425,7 +9423,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9448,7 +9446,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9471,7 +9469,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9494,7 +9492,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9517,7 +9515,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9540,7 +9538,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9563,7 +9561,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9586,7 +9584,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9632,7 +9630,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9655,7 +9653,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9678,7 +9676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9701,7 +9699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9747,7 +9745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9770,7 +9768,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9793,7 +9791,30 @@
         <v>259</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
+      <c r="A363">
+        <v>10</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363" s="2">
+        <v>43324</v>
+      </c>
+      <c r="D363" t="s">
+        <v>66</v>
+      </c>
+      <c r="E363" t="s">
+        <v>246</v>
+      </c>
+      <c r="F363">
+        <v>4</v>
+      </c>
+      <c r="H363" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9807,7 +9828,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9819,7 +9840,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" s="4"/>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="371">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1109,6 +1109,24 @@
   </si>
   <si>
     <t>κασερόπιτα και freddo cappucino</t>
+  </si>
+  <si>
+    <t>παστελια, χυμούς καμπος Χίου</t>
+  </si>
+  <si>
+    <t>θερμός</t>
+  </si>
+  <si>
+    <t>pitsa με Σλοβένα και Γεωργία</t>
+  </si>
+  <si>
+    <t>παράσταση για διπλωμα οδήγησης</t>
+  </si>
+  <si>
+    <t>freduccino με Δήμητρα στο Άλσος</t>
+  </si>
+  <si>
+    <t>hell</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1157,6 +1175,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
@@ -1240,8 +1259,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H368" totalsRowCount="1">
-  <autoFilter ref="A1:H367"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H518" totalsRowShown="0">
+  <autoFilter ref="A1:H518"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1541,9 +1560,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L369"/>
+  <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
       <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
@@ -4561,7 +4580,7 @@
         <v>43203</v>
       </c>
       <c r="D134" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="E134" t="s">
         <v>247</v>
@@ -9791,18 +9810,41 @@
         <v>259</v>
       </c>
     </row>
+    <row r="362" spans="1:12">
+      <c r="A362">
+        <v>7.74</v>
+      </c>
+      <c r="B362" t="s">
+        <v>229</v>
+      </c>
+      <c r="C362" s="2">
+        <v>43321</v>
+      </c>
+      <c r="D362" t="s">
+        <v>365</v>
+      </c>
+      <c r="E362" t="s">
+        <v>246</v>
+      </c>
+      <c r="F362">
+        <v>4</v>
+      </c>
+      <c r="H362" t="s">
+        <v>265</v>
+      </c>
+    </row>
     <row r="363" spans="1:12">
       <c r="A363">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C363" s="2">
-        <v>43324</v>
+        <v>43321</v>
       </c>
       <c r="D363" t="s">
-        <v>66</v>
+        <v>366</v>
       </c>
       <c r="E363" t="s">
         <v>246</v>
@@ -9811,37 +9853,228 @@
         <v>4</v>
       </c>
       <c r="H363" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
+      <c r="A364">
+        <v>3.8</v>
+      </c>
+      <c r="B364" t="s">
+        <v>229</v>
+      </c>
+      <c r="C364" s="2">
+        <v>43322</v>
+      </c>
+      <c r="D364" t="s">
+        <v>367</v>
+      </c>
+      <c r="E364" t="s">
+        <v>246</v>
+      </c>
+      <c r="F364">
+        <v>4</v>
+      </c>
+      <c r="H364" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365">
+        <v>100</v>
+      </c>
+      <c r="B365" t="s">
+        <v>356</v>
+      </c>
+      <c r="C365" s="2">
+        <v>43322</v>
+      </c>
+      <c r="D365" t="s">
+        <v>368</v>
+      </c>
+      <c r="E365" t="s">
+        <v>246</v>
+      </c>
+      <c r="F365">
+        <v>3</v>
+      </c>
+      <c r="H365" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366" s="1">
+        <v>5</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C366" s="7">
+        <v>43322</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E366" t="s">
+        <v>246</v>
+      </c>
+      <c r="F366" s="1">
+        <v>5</v>
+      </c>
+      <c r="G366" s="1"/>
+      <c r="H366" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="367" spans="1:12">
-      <c r="A367" s="1"/>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-      <c r="D367" s="1"/>
-      <c r="E367" s="1"/>
-      <c r="F367" s="1"/>
-      <c r="G367" s="1"/>
-      <c r="H367" s="1"/>
+      <c r="A367" s="6">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>229</v>
+      </c>
+      <c r="C367" s="2">
+        <v>43322</v>
+      </c>
+      <c r="D367" t="s">
+        <v>370</v>
+      </c>
+      <c r="E367" t="s">
+        <v>246</v>
+      </c>
+      <c r="F367">
+        <v>5</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
     <row r="368" spans="1:12">
-      <c r="A368" s="1"/>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
-      <c r="D368" s="1"/>
-      <c r="E368" s="1"/>
-      <c r="F368" s="1"/>
-      <c r="G368" s="1"/>
+      <c r="E368" t="s">
+        <v>246</v>
+      </c>
       <c r="H368" s="1"/>
-      <c r="I368" s="1"/>
-      <c r="J368" s="1"/>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="4"/>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="E369" t="s">
+        <v>246</v>
+      </c>
+      <c r="H369" s="1"/>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="E370" t="s">
+        <v>246</v>
+      </c>
+      <c r="H370" s="1"/>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="E371" t="s">
+        <v>246</v>
+      </c>
+      <c r="H371" s="1"/>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="E372" t="s">
+        <v>246</v>
+      </c>
+      <c r="H372" s="1"/>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="E373" t="s">
+        <v>246</v>
+      </c>
+      <c r="H373" s="1"/>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="E374" t="s">
+        <v>246</v>
+      </c>
+      <c r="H374" s="1"/>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="E375" t="s">
+        <v>246</v>
+      </c>
+      <c r="H375" s="1"/>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="E376" t="s">
+        <v>246</v>
+      </c>
+      <c r="H376" s="1"/>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="E377" t="s">
+        <v>246</v>
+      </c>
+      <c r="H377" s="1"/>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="E378" t="s">
+        <v>246</v>
+      </c>
+      <c r="H378" s="1"/>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379">
+        <v>10</v>
+      </c>
+      <c r="B379" t="s">
+        <v>363</v>
+      </c>
+      <c r="C379" s="2">
+        <v>43324</v>
+      </c>
+      <c r="D379" t="s">
+        <v>66</v>
+      </c>
+      <c r="E379" t="s">
+        <v>246</v>
+      </c>
+      <c r="F379">
+        <v>4</v>
+      </c>
+      <c r="H379" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="H380" s="1"/>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="H381" s="1"/>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="H382" s="1"/>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="H383" s="1"/>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="H384" s="1"/>
+    </row>
+    <row r="385" spans="8:8">
+      <c r="H385" s="1"/>
+    </row>
+    <row r="386" spans="8:8">
+      <c r="H386" s="1"/>
+    </row>
+    <row r="387" spans="8:8">
+      <c r="H387" s="1"/>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
+      <c r="E518" s="1"/>
+      <c r="F518" s="1"/>
+      <c r="G518" s="1"/>
+      <c r="H518" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="375">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1127,6 +1127,18 @@
   </si>
   <si>
     <t>hell</t>
+  </si>
+  <si>
+    <t>ταξί από Λιόσια περιστέρι</t>
+  </si>
+  <si>
+    <t>ΚΤΕΛ από Ναύπλιο για Αθήνα</t>
+  </si>
+  <si>
+    <t>μπύρες (+ Ηλία, + Γιάννη)</t>
+  </si>
+  <si>
+    <t>κρέπα, νερό στο Αρόδο</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1575,7 @@
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+      <selection activeCell="E373" sqref="E373:E379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9954,93 +9966,140 @@
       <c r="L367" s="1"/>
     </row>
     <row r="368" spans="1:12">
+      <c r="A368">
+        <v>7</v>
+      </c>
+      <c r="B368" t="s">
+        <v>353</v>
+      </c>
+      <c r="C368" s="2">
+        <v>43322</v>
+      </c>
+      <c r="D368" t="s">
+        <v>371</v>
+      </c>
       <c r="E368" t="s">
         <v>246</v>
       </c>
-      <c r="H368" s="1"/>
+      <c r="F368">
+        <v>5</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="369" spans="1:8">
+      <c r="A369">
+        <v>10</v>
+      </c>
+      <c r="B369" t="s">
+        <v>363</v>
+      </c>
+      <c r="C369" s="2">
+        <v>43324</v>
+      </c>
+      <c r="D369" t="s">
+        <v>66</v>
+      </c>
       <c r="E369" t="s">
         <v>246</v>
       </c>
-      <c r="H369" s="1"/>
+      <c r="F369">
+        <v>5</v>
+      </c>
+      <c r="H369" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="370" spans="1:8">
+      <c r="A370">
+        <v>10.8</v>
+      </c>
+      <c r="B370" t="s">
+        <v>353</v>
+      </c>
+      <c r="C370" s="2">
+        <v>43326</v>
+      </c>
+      <c r="D370" t="s">
+        <v>372</v>
+      </c>
       <c r="E370" t="s">
         <v>246</v>
       </c>
-      <c r="H370" s="1"/>
+      <c r="F370">
+        <v>5</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="371" spans="1:8">
+      <c r="A371">
+        <v>10.5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>229</v>
+      </c>
+      <c r="C371" s="2">
+        <v>43326</v>
+      </c>
+      <c r="D371" t="s">
+        <v>373</v>
+      </c>
       <c r="E371" t="s">
         <v>246</v>
       </c>
-      <c r="H371" s="1"/>
+      <c r="F371">
+        <v>5</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="372" spans="1:8">
+      <c r="A372">
+        <v>5.5</v>
+      </c>
+      <c r="B372" t="s">
+        <v>229</v>
+      </c>
+      <c r="C372" s="2">
+        <v>43326</v>
+      </c>
+      <c r="D372" t="s">
+        <v>374</v>
+      </c>
       <c r="E372" t="s">
         <v>246</v>
       </c>
-      <c r="H372" s="1"/>
+      <c r="F372">
+        <v>5</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="373" spans="1:8">
-      <c r="E373" t="s">
-        <v>246</v>
-      </c>
       <c r="H373" s="1"/>
     </row>
     <row r="374" spans="1:8">
-      <c r="E374" t="s">
-        <v>246</v>
-      </c>
       <c r="H374" s="1"/>
     </row>
     <row r="375" spans="1:8">
-      <c r="E375" t="s">
-        <v>246</v>
-      </c>
       <c r="H375" s="1"/>
     </row>
     <row r="376" spans="1:8">
-      <c r="E376" t="s">
-        <v>246</v>
-      </c>
       <c r="H376" s="1"/>
     </row>
     <row r="377" spans="1:8">
-      <c r="E377" t="s">
-        <v>246</v>
-      </c>
       <c r="H377" s="1"/>
     </row>
     <row r="378" spans="1:8">
-      <c r="E378" t="s">
-        <v>246</v>
-      </c>
       <c r="H378" s="1"/>
     </row>
     <row r="379" spans="1:8">
-      <c r="A379">
-        <v>10</v>
-      </c>
-      <c r="B379" t="s">
-        <v>363</v>
-      </c>
-      <c r="C379" s="2">
-        <v>43324</v>
-      </c>
-      <c r="D379" t="s">
-        <v>66</v>
-      </c>
-      <c r="E379" t="s">
-        <v>246</v>
-      </c>
-      <c r="F379">
-        <v>4</v>
-      </c>
-      <c r="H379" t="s">
-        <v>250</v>
-      </c>
+      <c r="H379" s="1"/>
     </row>
     <row r="380" spans="1:8">
       <c r="H380" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="379">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1139,6 +1139,18 @@
   </si>
   <si>
     <t>κρέπα, νερό στο Αρόδο</t>
+  </si>
+  <si>
+    <t>freduccino (+ νερό Ιωάννας)</t>
+  </si>
+  <si>
+    <t>(+ Σταματη ποδοσφαιράκι)</t>
+  </si>
+  <si>
+    <t>μπύρες (+ Ηλία, + Ανέστη)</t>
+  </si>
+  <si>
+    <t>μπύρες (+ Ηλία, + Ανέστη, + Ζίνας)</t>
   </si>
 </sst>
 </file>
@@ -1574,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="E373" sqref="E373:E379"/>
+    <sheetView tabSelected="1" topLeftCell="A360" workbookViewId="0">
+      <selection activeCell="C376" sqref="C376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10081,18 +10093,99 @@
       </c>
     </row>
     <row r="373" spans="1:8">
-      <c r="H373" s="1"/>
+      <c r="A373">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>229</v>
+      </c>
+      <c r="C373" s="2">
+        <v>43327</v>
+      </c>
+      <c r="D373" t="s">
+        <v>375</v>
+      </c>
+      <c r="E373" t="s">
+        <v>246</v>
+      </c>
+      <c r="F373">
+        <v>5</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="374" spans="1:8">
-      <c r="H374" s="1"/>
+      <c r="A374">
+        <v>0.5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>357</v>
+      </c>
+      <c r="C374" s="2">
+        <v>43327</v>
+      </c>
+      <c r="D374" t="s">
+        <v>376</v>
+      </c>
+      <c r="E374" t="s">
+        <v>246</v>
+      </c>
+      <c r="F374">
+        <v>5</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="375" spans="1:8">
-      <c r="H375" s="1"/>
+      <c r="A375">
+        <v>10.5</v>
+      </c>
+      <c r="B375" t="s">
+        <v>229</v>
+      </c>
+      <c r="C375" s="2">
+        <v>43327</v>
+      </c>
+      <c r="D375" t="s">
+        <v>377</v>
+      </c>
+      <c r="E375" t="s">
+        <v>246</v>
+      </c>
+      <c r="F375">
+        <v>5</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="376" spans="1:8">
-      <c r="H376" s="1"/>
+      <c r="A376">
+        <v>14</v>
+      </c>
+      <c r="B376" t="s">
+        <v>229</v>
+      </c>
+      <c r="C376" s="2">
+        <v>43327</v>
+      </c>
+      <c r="D376" t="s">
+        <v>378</v>
+      </c>
+      <c r="E376" t="s">
+        <v>246</v>
+      </c>
+      <c r="F376">
+        <v>5</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="377" spans="1:8">
+      <c r="C377" s="2"/>
       <c r="H377" s="1"/>
     </row>
     <row r="378" spans="1:8">

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="384">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -706,9 +706,6 @@
     <t>clothing</t>
   </si>
   <si>
-    <t>obligation</t>
-  </si>
-  <si>
     <t>staying για Θεσσαλονίκη</t>
   </si>
   <si>
@@ -1154,6 +1151,21 @@
   </si>
   <si>
     <t>μπύρα με Κλεοπάτρα (+ Κλεοπάτρας)</t>
+  </si>
+  <si>
+    <t>καφές με αρετή στο coral</t>
+  </si>
+  <si>
+    <t>axe αποσμυτικό</t>
+  </si>
+  <si>
+    <t>μπύρα με Φακίνο</t>
+  </si>
+  <si>
+    <t>καφές στο coral</t>
+  </si>
+  <si>
+    <t>τοστ στο coral</t>
   </si>
 </sst>
 </file>
@@ -1589,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="F381" sqref="F381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,28 +1623,28 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" t="s">
         <v>237</v>
-      </c>
-      <c r="B1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" t="s">
-        <v>238</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1643,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C2" s="2">
         <v>43120</v>
@@ -1652,13 +1664,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -1676,13 +1688,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1690,7 +1702,7 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2">
         <v>43120</v>
@@ -1699,13 +1711,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1722,13 +1734,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1736,7 +1748,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C6" s="2">
         <v>43121</v>
@@ -1745,13 +1757,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1768,13 +1780,13 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1791,13 +1803,13 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1814,13 +1826,13 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1837,13 +1849,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1860,13 +1872,13 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1883,13 +1895,13 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1906,13 +1918,13 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1929,13 +1941,13 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1943,7 +1955,7 @@
         <v>5.15</v>
       </c>
       <c r="B15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C15" s="2">
         <v>43129</v>
@@ -1952,13 +1964,13 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1966,7 +1978,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C16" s="2">
         <v>43129</v>
@@ -1975,13 +1987,13 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1998,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2021,13 +2033,13 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2044,13 +2056,13 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2067,13 +2079,13 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2090,13 +2102,13 @@
         <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2113,13 +2125,13 @@
         <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2136,13 +2148,13 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2159,13 +2171,13 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2182,13 +2194,13 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2196,7 +2208,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C26" s="2">
         <v>43139</v>
@@ -2205,13 +2217,13 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2228,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2251,13 +2263,13 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2274,13 +2286,13 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2297,13 +2309,13 @@
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2317,16 +2329,16 @@
         <v>43141</v>
       </c>
       <c r="D31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2343,13 +2355,13 @@
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2366,13 +2378,13 @@
         <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2380,7 +2392,7 @@
         <v>49.9</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2">
         <v>43143</v>
@@ -2389,10 +2401,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2400,7 +2412,7 @@
         <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2">
         <v>43143</v>
@@ -2409,13 +2421,13 @@
         <v>56</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2432,13 +2444,13 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2455,13 +2467,13 @@
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2478,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2492,7 +2504,7 @@
         <v>15.96</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C39" s="2">
         <v>43148</v>
@@ -2501,13 +2513,13 @@
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2524,13 +2536,13 @@
         <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F40">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2538,7 +2550,7 @@
         <v>79.8</v>
       </c>
       <c r="B41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C41" s="2">
         <v>43148</v>
@@ -2547,13 +2559,13 @@
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41">
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2570,13 +2582,13 @@
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2584,7 +2596,7 @@
         <v>38.880000000000003</v>
       </c>
       <c r="B43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C43" s="2">
         <v>43151</v>
@@ -2593,13 +2605,13 @@
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F43">
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2616,13 +2628,13 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2630,7 +2642,7 @@
         <v>0.79</v>
       </c>
       <c r="B45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2">
         <v>43152</v>
@@ -2639,13 +2651,13 @@
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2653,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2">
         <v>43153</v>
@@ -2662,13 +2674,13 @@
         <v>32</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F46">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2685,13 +2697,13 @@
         <v>33</v>
       </c>
       <c r="E47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2708,13 +2720,13 @@
         <v>34</v>
       </c>
       <c r="E48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48">
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2731,13 +2743,13 @@
         <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2745,7 +2757,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C50" s="2">
         <v>43155</v>
@@ -2754,13 +2766,13 @@
         <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2777,13 +2789,13 @@
         <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="H51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2791,7 +2803,7 @@
         <v>1.8</v>
       </c>
       <c r="B52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C52" s="2">
         <v>43155</v>
@@ -2800,13 +2812,13 @@
         <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52">
         <v>5</v>
       </c>
       <c r="H52" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2823,13 +2835,13 @@
         <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F53">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2846,13 +2858,13 @@
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="H54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K54" s="4"/>
     </row>
@@ -2870,13 +2882,13 @@
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55">
         <v>5</v>
       </c>
       <c r="H55" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2893,13 +2905,13 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F56">
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2907,7 +2919,7 @@
         <v>5.4</v>
       </c>
       <c r="B57" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2">
         <v>43156</v>
@@ -2916,13 +2928,13 @@
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F57">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2939,13 +2951,13 @@
         <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2953,7 +2965,7 @@
         <v>5.4</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2">
         <v>43156</v>
@@ -2962,13 +2974,13 @@
         <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2976,7 +2988,7 @@
         <v>0.6</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C60" s="2">
         <v>43157</v>
@@ -2985,13 +2997,13 @@
         <v>37</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F60">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3008,13 +3020,13 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F61">
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3031,13 +3043,13 @@
         <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F62">
         <v>5</v>
       </c>
       <c r="H62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3054,13 +3066,13 @@
         <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F63">
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3068,7 +3080,7 @@
         <v>1.2</v>
       </c>
       <c r="B64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C64" s="2">
         <v>43158</v>
@@ -3077,13 +3089,13 @@
         <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F64">
         <v>5</v>
       </c>
       <c r="H64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3091,7 +3103,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2">
         <v>43158</v>
@@ -3100,13 +3112,13 @@
         <v>45</v>
       </c>
       <c r="E65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3114,7 +3126,7 @@
         <v>13.5</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C66" s="2">
         <v>43160</v>
@@ -3123,13 +3135,13 @@
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3146,13 +3158,13 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F67">
         <v>5</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -3170,13 +3182,13 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F68">
         <v>5</v>
       </c>
       <c r="H68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3184,7 +3196,7 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2">
         <v>43161</v>
@@ -3193,13 +3205,13 @@
         <v>49</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F69">
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3207,22 +3219,22 @@
         <v>65.5</v>
       </c>
       <c r="B70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C70" s="2">
         <v>43161</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F70">
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -3230,7 +3242,7 @@
         <v>4.5</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="2">
         <v>43162</v>
@@ -3239,13 +3251,13 @@
         <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F71">
         <v>5</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -3253,7 +3265,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C72" s="2">
         <v>43162</v>
@@ -3262,13 +3274,13 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -3285,13 +3297,13 @@
         <v>52</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F73">
         <v>5</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3308,13 +3320,13 @@
         <v>23</v>
       </c>
       <c r="E74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K74" s="4"/>
     </row>
@@ -3329,16 +3341,16 @@
         <v>43166</v>
       </c>
       <c r="D75" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F75">
         <v>5</v>
       </c>
       <c r="H75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3355,13 +3367,13 @@
         <v>34</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3378,13 +3390,13 @@
         <v>38</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77">
         <v>5</v>
       </c>
       <c r="H77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3401,13 +3413,13 @@
         <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3415,7 +3427,7 @@
         <v>9.9</v>
       </c>
       <c r="B79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C79" s="2">
         <v>43169</v>
@@ -3424,13 +3436,13 @@
         <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3447,13 +3459,13 @@
         <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F80">
         <v>5</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3461,7 +3473,7 @@
         <v>79.8</v>
       </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C81" s="2">
         <v>43169</v>
@@ -3470,13 +3482,13 @@
         <v>61</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81">
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3484,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2">
         <v>43170</v>
@@ -3493,13 +3505,13 @@
         <v>64</v>
       </c>
       <c r="E82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F82">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3513,16 +3525,16 @@
         <v>43170</v>
       </c>
       <c r="D83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F83">
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3536,16 +3548,16 @@
         <v>43170</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F84">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3562,13 +3574,13 @@
         <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F85">
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3585,13 +3597,13 @@
         <v>63</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F86">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3608,13 +3620,13 @@
         <v>65</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3622,7 +3634,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C88" s="2">
         <v>43171</v>
@@ -3631,13 +3643,13 @@
         <v>66</v>
       </c>
       <c r="E88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F88">
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3645,7 +3657,7 @@
         <v>24.9</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C89" s="2">
         <v>43171</v>
@@ -3654,13 +3666,13 @@
         <v>68</v>
       </c>
       <c r="E89" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3677,13 +3689,13 @@
         <v>67</v>
       </c>
       <c r="E90" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F90">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3691,7 +3703,7 @@
         <v>44.99</v>
       </c>
       <c r="B91" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C91" s="2">
         <v>43174</v>
@@ -3700,13 +3712,13 @@
         <v>50</v>
       </c>
       <c r="E91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3714,22 +3726,22 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C92" s="2">
         <v>43175</v>
       </c>
       <c r="D92" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E92" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3746,13 +3758,13 @@
         <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F93">
         <v>5</v>
       </c>
       <c r="H93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3769,13 +3781,13 @@
         <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F94">
         <v>5</v>
       </c>
       <c r="H94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3798,13 +3810,13 @@
         <v>73</v>
       </c>
       <c r="E97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F97">
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3821,13 +3833,13 @@
         <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F98">
         <v>5</v>
       </c>
       <c r="H98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3844,13 +3856,13 @@
         <v>71</v>
       </c>
       <c r="E99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3867,13 +3879,13 @@
         <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3881,7 +3893,7 @@
         <v>34.9</v>
       </c>
       <c r="B101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C101" s="2">
         <v>43183</v>
@@ -3890,13 +3902,13 @@
         <v>101</v>
       </c>
       <c r="E101" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F101">
         <v>5</v>
       </c>
       <c r="H101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3910,16 +3922,16 @@
         <v>43184</v>
       </c>
       <c r="D102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F102">
         <v>5</v>
       </c>
       <c r="H102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3939,13 +3951,13 @@
         <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F104">
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3962,13 +3974,13 @@
         <v>100</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F105">
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3985,13 +3997,13 @@
         <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4008,13 +4020,13 @@
         <v>98</v>
       </c>
       <c r="E107" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4031,13 +4043,13 @@
         <v>74</v>
       </c>
       <c r="E108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F108">
         <v>5</v>
       </c>
       <c r="H108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4054,13 +4066,13 @@
         <v>75</v>
       </c>
       <c r="E109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F109">
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4077,13 +4089,13 @@
         <v>76</v>
       </c>
       <c r="E110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F110">
         <v>5</v>
       </c>
       <c r="H110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4100,13 +4112,13 @@
         <v>77</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F111">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4123,13 +4135,13 @@
         <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F112">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4146,13 +4158,13 @@
         <v>79</v>
       </c>
       <c r="E113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F113">
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4169,13 +4181,13 @@
         <v>80</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F114">
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4183,7 +4195,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C115" s="2">
         <v>43194</v>
@@ -4192,13 +4204,13 @@
         <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F115">
         <v>5</v>
       </c>
       <c r="H115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4215,13 +4227,13 @@
         <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F116">
         <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4238,13 +4250,13 @@
         <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F117">
         <v>5</v>
       </c>
       <c r="H117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4252,22 +4264,22 @@
         <v>6.3</v>
       </c>
       <c r="B118" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C118" s="2">
         <v>43194</v>
       </c>
       <c r="D118" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F118">
         <v>5</v>
       </c>
       <c r="H118" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4284,13 +4296,13 @@
         <v>84</v>
       </c>
       <c r="E119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F119">
         <v>5</v>
       </c>
       <c r="H119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4307,13 +4319,13 @@
         <v>85</v>
       </c>
       <c r="E120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F120">
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4327,16 +4339,16 @@
         <v>43196</v>
       </c>
       <c r="D121" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E121" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F121">
         <v>5</v>
       </c>
       <c r="H121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4353,13 +4365,13 @@
         <v>86</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F122">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4376,13 +4388,13 @@
         <v>87</v>
       </c>
       <c r="E123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F123">
         <v>5</v>
       </c>
       <c r="H123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4390,7 +4402,7 @@
         <v>24.3</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C124" s="2">
         <v>43199</v>
@@ -4399,13 +4411,13 @@
         <v>88</v>
       </c>
       <c r="E124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F124">
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4422,13 +4434,13 @@
         <v>89</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4445,13 +4457,13 @@
         <v>90</v>
       </c>
       <c r="E126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F126">
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4468,13 +4480,13 @@
         <v>91</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F127">
         <v>5</v>
       </c>
       <c r="H127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4491,13 +4503,13 @@
         <v>92</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F128">
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4514,13 +4526,13 @@
         <v>93</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F129">
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4537,13 +4549,13 @@
         <v>23</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4560,13 +4572,13 @@
         <v>83</v>
       </c>
       <c r="E131" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F131">
         <v>5</v>
       </c>
       <c r="H131" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4574,7 +4586,7 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C132" s="2">
         <v>43202</v>
@@ -4583,13 +4595,13 @@
         <v>94</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F132">
         <v>5</v>
       </c>
       <c r="H132" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4597,7 +4609,7 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C133" s="2">
         <v>43203</v>
@@ -4606,13 +4618,13 @@
         <v>95</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F133">
         <v>5</v>
       </c>
       <c r="H133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4620,7 +4632,7 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C134" s="2">
         <v>43203</v>
@@ -4629,13 +4641,13 @@
         <v>64</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F134">
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4652,13 +4664,13 @@
         <v>97</v>
       </c>
       <c r="E135" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F135">
         <v>5</v>
       </c>
       <c r="H135" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4675,13 +4687,13 @@
         <v>104</v>
       </c>
       <c r="E136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F136">
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4698,13 +4710,13 @@
         <v>103</v>
       </c>
       <c r="E137" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F137">
         <v>5</v>
       </c>
       <c r="H137" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4721,13 +4733,13 @@
         <v>105</v>
       </c>
       <c r="E138" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F138">
         <v>5</v>
       </c>
       <c r="H138" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4744,13 +4756,13 @@
         <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F139">
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4767,13 +4779,13 @@
         <v>106</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F140">
         <v>5</v>
       </c>
       <c r="H140" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4781,7 +4793,7 @@
         <v>4</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C141" s="2">
         <v>43207</v>
@@ -4790,13 +4802,13 @@
         <v>107</v>
       </c>
       <c r="E141" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F141">
         <v>5</v>
       </c>
       <c r="H141" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4813,13 +4825,13 @@
         <v>108</v>
       </c>
       <c r="E142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F142">
         <v>5</v>
       </c>
       <c r="H142" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4836,13 +4848,13 @@
         <v>109</v>
       </c>
       <c r="E143" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F143">
         <v>5</v>
       </c>
       <c r="H143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4859,13 +4871,13 @@
         <v>110</v>
       </c>
       <c r="E144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F144">
         <v>5</v>
       </c>
       <c r="H144" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4882,13 +4894,13 @@
         <v>111</v>
       </c>
       <c r="E145" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F145">
         <v>5</v>
       </c>
       <c r="H145" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4905,13 +4917,13 @@
         <v>112</v>
       </c>
       <c r="E146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F146">
         <v>5</v>
       </c>
       <c r="H146" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4928,13 +4940,13 @@
         <v>113</v>
       </c>
       <c r="E147" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F147">
         <v>5</v>
       </c>
       <c r="H147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4951,13 +4963,13 @@
         <v>114</v>
       </c>
       <c r="E148" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F148">
         <v>5</v>
       </c>
       <c r="H148" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4974,13 +4986,13 @@
         <v>115</v>
       </c>
       <c r="E149" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F149">
         <v>5</v>
       </c>
       <c r="H149" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4988,7 +5000,7 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C150" s="2">
         <v>43211</v>
@@ -4997,13 +5009,13 @@
         <v>192</v>
       </c>
       <c r="E150" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="H150" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5011,7 +5023,7 @@
         <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C151" s="2">
         <v>43211</v>
@@ -5020,13 +5032,13 @@
         <v>116</v>
       </c>
       <c r="E151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F151">
         <v>5</v>
       </c>
       <c r="H151" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5043,13 +5055,13 @@
         <v>117</v>
       </c>
       <c r="E152" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F152">
         <v>5</v>
       </c>
       <c r="H152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5066,13 +5078,13 @@
         <v>118</v>
       </c>
       <c r="E153" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F153">
         <v>5</v>
       </c>
       <c r="H153" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5080,7 +5092,7 @@
         <v>3.5</v>
       </c>
       <c r="B154" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C154" s="2">
         <v>43211</v>
@@ -5089,13 +5101,13 @@
         <v>119</v>
       </c>
       <c r="E154" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F154">
         <v>5</v>
       </c>
       <c r="H154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5103,7 +5115,7 @@
         <v>55</v>
       </c>
       <c r="B155" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C155" s="2">
         <v>43213</v>
@@ -5112,13 +5124,13 @@
         <v>120</v>
       </c>
       <c r="E155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F155">
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5135,13 +5147,13 @@
         <v>121</v>
       </c>
       <c r="E156" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5158,13 +5170,13 @@
         <v>122</v>
       </c>
       <c r="E157" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F157">
         <v>5</v>
       </c>
       <c r="H157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5172,7 +5184,7 @@
         <v>39.9</v>
       </c>
       <c r="B158" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C158" s="2">
         <v>43216</v>
@@ -5181,13 +5193,13 @@
         <v>123</v>
       </c>
       <c r="E158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F158">
         <v>5</v>
       </c>
       <c r="H158" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5204,13 +5216,13 @@
         <v>124</v>
       </c>
       <c r="E159" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F159">
         <v>5</v>
       </c>
       <c r="H159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5224,16 +5236,16 @@
         <v>43217</v>
       </c>
       <c r="D160" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F160">
         <v>5</v>
       </c>
       <c r="H160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5250,13 +5262,13 @@
         <v>225</v>
       </c>
       <c r="E161" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F161">
         <v>5</v>
       </c>
       <c r="H161" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5273,13 +5285,13 @@
         <v>226</v>
       </c>
       <c r="E162" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="H162" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5296,13 +5308,13 @@
         <v>227</v>
       </c>
       <c r="E163" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F163">
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5319,13 +5331,13 @@
         <v>125</v>
       </c>
       <c r="E164" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F164">
         <v>5</v>
       </c>
       <c r="H164" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5342,13 +5354,13 @@
         <v>126</v>
       </c>
       <c r="E165" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5365,13 +5377,13 @@
         <v>127</v>
       </c>
       <c r="E166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F166">
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5388,13 +5400,13 @@
         <v>228</v>
       </c>
       <c r="E167" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F167">
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5411,13 +5423,13 @@
         <v>128</v>
       </c>
       <c r="E168" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F168">
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5434,13 +5446,13 @@
         <v>129</v>
       </c>
       <c r="E169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F169">
         <v>5</v>
       </c>
       <c r="H169" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5457,13 +5469,13 @@
         <v>130</v>
       </c>
       <c r="E170" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="H170" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5480,13 +5492,13 @@
         <v>131</v>
       </c>
       <c r="E171" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F171">
         <v>5</v>
       </c>
       <c r="H171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5503,13 +5515,13 @@
         <v>100</v>
       </c>
       <c r="E172" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F172">
         <v>5</v>
       </c>
       <c r="H172" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5526,13 +5538,13 @@
         <v>132</v>
       </c>
       <c r="E173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F173">
         <v>5</v>
       </c>
       <c r="H173" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5549,13 +5561,13 @@
         <v>133</v>
       </c>
       <c r="E174" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F174">
         <v>5</v>
       </c>
       <c r="H174" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5572,13 +5584,13 @@
         <v>134</v>
       </c>
       <c r="E175" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F175">
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5595,13 +5607,13 @@
         <v>135</v>
       </c>
       <c r="E176" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F176">
         <v>5</v>
       </c>
       <c r="H176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5618,13 +5630,13 @@
         <v>136</v>
       </c>
       <c r="E177" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F177">
         <v>5</v>
       </c>
       <c r="H177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5641,13 +5653,13 @@
         <v>137</v>
       </c>
       <c r="E178" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F178">
         <v>5</v>
       </c>
       <c r="H178" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5664,13 +5676,13 @@
         <v>122</v>
       </c>
       <c r="E179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5687,13 +5699,13 @@
         <v>138</v>
       </c>
       <c r="E180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F180">
         <v>4</v>
       </c>
       <c r="H180" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5701,22 +5713,22 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C181" s="2">
         <v>43236</v>
       </c>
       <c r="D181" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E181" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F181">
         <v>4</v>
       </c>
       <c r="H181" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5733,13 +5745,13 @@
         <v>139</v>
       </c>
       <c r="E182" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F182">
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5747,7 +5759,7 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C183" s="2">
         <v>43237</v>
@@ -5756,13 +5768,13 @@
         <v>96</v>
       </c>
       <c r="E183" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F183">
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5770,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C184" s="2">
         <v>43237</v>
@@ -5779,13 +5791,13 @@
         <v>145</v>
       </c>
       <c r="E184" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F184">
         <v>5</v>
       </c>
       <c r="H184" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5793,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C185" s="2">
         <v>43237</v>
@@ -5802,13 +5814,13 @@
         <v>140</v>
       </c>
       <c r="E185" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F185">
         <v>5</v>
       </c>
       <c r="H185" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5825,13 +5837,13 @@
         <v>141</v>
       </c>
       <c r="E186" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F186">
         <v>5</v>
       </c>
       <c r="H186" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5839,7 +5851,7 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C187" s="2">
         <v>43237</v>
@@ -5848,13 +5860,13 @@
         <v>142</v>
       </c>
       <c r="E187" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F187">
         <v>5</v>
       </c>
       <c r="H187" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5871,13 +5883,13 @@
         <v>143</v>
       </c>
       <c r="E188" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F188">
         <v>5</v>
       </c>
       <c r="H188" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5885,7 +5897,7 @@
         <v>6.2</v>
       </c>
       <c r="B189" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C189" s="2">
         <v>43238</v>
@@ -5894,13 +5906,13 @@
         <v>144</v>
       </c>
       <c r="E189" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F189">
         <v>5</v>
       </c>
       <c r="H189" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5917,13 +5929,13 @@
         <v>146</v>
       </c>
       <c r="E190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F190">
         <v>5</v>
       </c>
       <c r="H190" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5931,7 +5943,7 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C191" s="2">
         <v>43239</v>
@@ -5940,13 +5952,13 @@
         <v>147</v>
       </c>
       <c r="E191" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F191">
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5963,13 +5975,13 @@
         <v>148</v>
       </c>
       <c r="E192" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F192">
         <v>4</v>
       </c>
       <c r="H192" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5986,13 +5998,13 @@
         <v>149</v>
       </c>
       <c r="E193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F193">
         <v>5</v>
       </c>
       <c r="H193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6000,7 +6012,7 @@
         <v>14</v>
       </c>
       <c r="B194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C194" s="2">
         <v>43241</v>
@@ -6009,13 +6021,13 @@
         <v>150</v>
       </c>
       <c r="E194" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F194">
         <v>5</v>
       </c>
       <c r="H194" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6032,13 +6044,13 @@
         <v>151</v>
       </c>
       <c r="E195" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F195">
         <v>5</v>
       </c>
       <c r="H195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6046,7 +6058,7 @@
         <v>69.900000000000006</v>
       </c>
       <c r="B196" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C196" s="2">
         <v>43241</v>
@@ -6055,13 +6067,13 @@
         <v>152</v>
       </c>
       <c r="E196" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F196">
         <v>5</v>
       </c>
       <c r="H196" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6078,13 +6090,13 @@
         <v>153</v>
       </c>
       <c r="E197" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F197">
         <v>4</v>
       </c>
       <c r="H197" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6101,13 +6113,13 @@
         <v>154</v>
       </c>
       <c r="E198" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F198">
         <v>4</v>
       </c>
       <c r="H198" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6124,13 +6136,13 @@
         <v>155</v>
       </c>
       <c r="E199" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F199">
         <v>4</v>
       </c>
       <c r="H199" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6147,13 +6159,13 @@
         <v>156</v>
       </c>
       <c r="E200" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F200">
         <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6170,13 +6182,13 @@
         <v>157</v>
       </c>
       <c r="E201" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F201">
         <v>4</v>
       </c>
       <c r="H201" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6184,7 +6196,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="B202" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C202" s="2">
         <v>43245</v>
@@ -6193,13 +6205,13 @@
         <v>159</v>
       </c>
       <c r="E202" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F202">
         <v>5</v>
       </c>
       <c r="H202" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6216,13 +6228,13 @@
         <v>158</v>
       </c>
       <c r="E203" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F203">
         <v>5</v>
       </c>
       <c r="H203" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6230,7 +6242,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="C204" s="2">
         <v>43246</v>
@@ -6239,13 +6251,13 @@
         <v>64</v>
       </c>
       <c r="E204" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F204">
         <v>5</v>
       </c>
       <c r="H204" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6262,13 +6274,13 @@
         <v>160</v>
       </c>
       <c r="E205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F205">
         <v>5</v>
       </c>
       <c r="H205" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6285,13 +6297,13 @@
         <v>161</v>
       </c>
       <c r="E206" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F206">
         <v>5</v>
       </c>
       <c r="H206" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6308,13 +6320,13 @@
         <v>162</v>
       </c>
       <c r="E207" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F207">
         <v>5</v>
       </c>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6331,13 +6343,13 @@
         <v>163</v>
       </c>
       <c r="E208" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F208">
         <v>4</v>
       </c>
       <c r="H208" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6354,13 +6366,13 @@
         <v>164</v>
       </c>
       <c r="E209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F209">
         <v>4</v>
       </c>
       <c r="H209" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6377,13 +6389,13 @@
         <v>165</v>
       </c>
       <c r="E210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F210">
         <v>4</v>
       </c>
       <c r="H210" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6400,13 +6412,13 @@
         <v>100</v>
       </c>
       <c r="E211" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F211">
         <v>4</v>
       </c>
       <c r="H211" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6423,13 +6435,13 @@
         <v>155</v>
       </c>
       <c r="E212" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F212">
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6446,13 +6458,13 @@
         <v>167</v>
       </c>
       <c r="E213" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F213">
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6469,13 +6481,13 @@
         <v>168</v>
       </c>
       <c r="E214" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F214">
         <v>4</v>
       </c>
       <c r="H214" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6489,16 +6501,16 @@
         <v>43250</v>
       </c>
       <c r="D215" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E215" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F215">
         <v>4</v>
       </c>
       <c r="H215" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6506,7 +6518,7 @@
         <v>3.5</v>
       </c>
       <c r="B216" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C216" s="2">
         <v>43251</v>
@@ -6515,13 +6527,13 @@
         <v>166</v>
       </c>
       <c r="E216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F216">
         <v>4</v>
       </c>
       <c r="H216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6538,13 +6550,13 @@
         <v>169</v>
       </c>
       <c r="E217" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F217">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6561,13 +6573,13 @@
         <v>170</v>
       </c>
       <c r="E218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F218">
         <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6584,13 +6596,13 @@
         <v>171</v>
       </c>
       <c r="E219" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F219">
         <v>4</v>
       </c>
       <c r="H219" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6607,13 +6619,13 @@
         <v>23</v>
       </c>
       <c r="E220" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F220">
         <v>4</v>
       </c>
       <c r="H220" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6621,7 +6633,7 @@
         <v>5</v>
       </c>
       <c r="B221" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C221" s="2">
         <v>43254</v>
@@ -6630,13 +6642,13 @@
         <v>172</v>
       </c>
       <c r="E221" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F221">
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6653,13 +6665,13 @@
         <v>122</v>
       </c>
       <c r="E222" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F222">
         <v>4</v>
       </c>
       <c r="H222" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6676,13 +6688,13 @@
         <v>174</v>
       </c>
       <c r="E223" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F223">
         <v>4</v>
       </c>
       <c r="H223" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6699,13 +6711,13 @@
         <v>173</v>
       </c>
       <c r="E224" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F224">
         <v>4</v>
       </c>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6722,13 +6734,13 @@
         <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F225">
         <v>4</v>
       </c>
       <c r="H225" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6745,13 +6757,13 @@
         <v>175</v>
       </c>
       <c r="E226" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F226">
         <v>4</v>
       </c>
       <c r="H226" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6759,22 +6771,22 @@
         <v>129</v>
       </c>
       <c r="B227" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C227" s="2">
         <v>43257</v>
       </c>
       <c r="D227" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E227" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F227">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6791,13 +6803,13 @@
         <v>176</v>
       </c>
       <c r="E228" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F228">
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6814,13 +6826,13 @@
         <v>177</v>
       </c>
       <c r="E229" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F229">
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6837,13 +6849,13 @@
         <v>178</v>
       </c>
       <c r="E230" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F230">
         <v>4</v>
       </c>
       <c r="H230" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6860,13 +6872,13 @@
         <v>179</v>
       </c>
       <c r="E231" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F231">
         <v>4</v>
       </c>
       <c r="H231" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6874,7 +6886,7 @@
         <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C232" s="2">
         <v>43261</v>
@@ -6883,13 +6895,13 @@
         <v>180</v>
       </c>
       <c r="E232" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F232">
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6906,13 +6918,13 @@
         <v>181</v>
       </c>
       <c r="E233" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F233">
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6929,13 +6941,13 @@
         <v>182</v>
       </c>
       <c r="E234" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F234">
         <v>4</v>
       </c>
       <c r="H234" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6952,13 +6964,13 @@
         <v>183</v>
       </c>
       <c r="E235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F235">
         <v>4</v>
       </c>
       <c r="H235" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6975,13 +6987,13 @@
         <v>184</v>
       </c>
       <c r="E236" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F236">
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6989,7 +7001,7 @@
         <v>7</v>
       </c>
       <c r="B237" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" s="2">
         <v>43262</v>
@@ -6998,13 +7010,13 @@
         <v>185</v>
       </c>
       <c r="E237" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F237">
         <v>4</v>
       </c>
       <c r="H237" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7012,7 +7024,7 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C238" s="2">
         <v>43262</v>
@@ -7021,13 +7033,13 @@
         <v>186</v>
       </c>
       <c r="E238" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F238">
         <v>4</v>
       </c>
       <c r="H238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7035,7 +7047,7 @@
         <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C239" s="2">
         <v>43262</v>
@@ -7044,13 +7056,13 @@
         <v>187</v>
       </c>
       <c r="E239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F239">
         <v>4</v>
       </c>
       <c r="H239" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7058,7 +7070,7 @@
         <v>11.2</v>
       </c>
       <c r="B240" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C240" s="2">
         <v>43263</v>
@@ -7067,13 +7079,13 @@
         <v>188</v>
       </c>
       <c r="E240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F240">
         <v>4</v>
       </c>
       <c r="H240" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7090,13 +7102,13 @@
         <v>193</v>
       </c>
       <c r="E241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F241">
         <v>5</v>
       </c>
       <c r="H241" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7104,7 +7116,7 @@
         <v>150</v>
       </c>
       <c r="B242" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C242" s="2">
         <v>43263</v>
@@ -7113,13 +7125,13 @@
         <v>192</v>
       </c>
       <c r="E242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F242">
         <v>5</v>
       </c>
       <c r="H242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7127,7 +7139,7 @@
         <v>12.7</v>
       </c>
       <c r="B243" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C243" s="2">
         <v>43264</v>
@@ -7136,13 +7148,13 @@
         <v>191</v>
       </c>
       <c r="E243" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F243">
         <v>4</v>
       </c>
       <c r="H243" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7150,7 +7162,7 @@
         <v>89.9</v>
       </c>
       <c r="B244" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C244" s="2">
         <v>43264</v>
@@ -7159,13 +7171,13 @@
         <v>190</v>
       </c>
       <c r="E244" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F244">
         <v>4</v>
       </c>
       <c r="H244" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7182,13 +7194,13 @@
         <v>189</v>
       </c>
       <c r="E245" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F245">
         <v>4</v>
       </c>
       <c r="H245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7205,13 +7217,13 @@
         <v>194</v>
       </c>
       <c r="E246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F246">
         <v>4</v>
       </c>
       <c r="H246" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7228,13 +7240,13 @@
         <v>195</v>
       </c>
       <c r="E247" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F247">
         <v>4</v>
       </c>
       <c r="H247" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7251,13 +7263,13 @@
         <v>196</v>
       </c>
       <c r="E248" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F248">
         <v>5</v>
       </c>
       <c r="H248" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7274,13 +7286,13 @@
         <v>197</v>
       </c>
       <c r="E249" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F249">
         <v>5</v>
       </c>
       <c r="H249" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7297,13 +7309,13 @@
         <v>198</v>
       </c>
       <c r="E250" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F250">
         <v>5</v>
       </c>
       <c r="H250" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7320,13 +7332,13 @@
         <v>199</v>
       </c>
       <c r="E251" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F251">
         <v>5</v>
       </c>
       <c r="H251" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7343,13 +7355,13 @@
         <v>200</v>
       </c>
       <c r="E252" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F252">
         <v>5</v>
       </c>
       <c r="H252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7366,13 +7378,13 @@
         <v>201</v>
       </c>
       <c r="E253" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F253">
         <v>5</v>
       </c>
       <c r="H253" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7389,13 +7401,13 @@
         <v>202</v>
       </c>
       <c r="E254" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F254">
         <v>5</v>
       </c>
       <c r="H254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7412,13 +7424,13 @@
         <v>203</v>
       </c>
       <c r="E255" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F255">
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7435,13 +7447,13 @@
         <v>155</v>
       </c>
       <c r="E256" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F256">
         <v>5</v>
       </c>
       <c r="H256" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7458,13 +7470,13 @@
         <v>204</v>
       </c>
       <c r="E257" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F257">
         <v>5</v>
       </c>
       <c r="H257" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7481,13 +7493,13 @@
         <v>205</v>
       </c>
       <c r="E258" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F258">
         <v>5</v>
       </c>
       <c r="H258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7504,13 +7516,13 @@
         <v>206</v>
       </c>
       <c r="E259" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F259">
         <v>5</v>
       </c>
       <c r="H259" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7527,13 +7539,13 @@
         <v>207</v>
       </c>
       <c r="E260" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F260">
         <v>5</v>
       </c>
       <c r="H260" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7541,7 +7553,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C261" s="2">
         <v>43274</v>
@@ -7550,13 +7562,13 @@
         <v>208</v>
       </c>
       <c r="E261" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F261">
         <v>5</v>
       </c>
       <c r="H261" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7573,13 +7585,13 @@
         <v>209</v>
       </c>
       <c r="E262" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F262">
         <v>5</v>
       </c>
       <c r="H262" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7596,13 +7608,13 @@
         <v>210</v>
       </c>
       <c r="E263" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F263">
         <v>5</v>
       </c>
       <c r="H263" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7619,13 +7631,13 @@
         <v>211</v>
       </c>
       <c r="E264" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F264">
         <v>5</v>
       </c>
       <c r="H264" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7639,16 +7651,16 @@
         <v>43275</v>
       </c>
       <c r="D265" t="s">
+        <v>273</v>
+      </c>
+      <c r="E265" t="s">
+        <v>240</v>
+      </c>
+      <c r="F265">
+        <v>5</v>
+      </c>
+      <c r="H265" t="s">
         <v>274</v>
-      </c>
-      <c r="E265" t="s">
-        <v>241</v>
-      </c>
-      <c r="F265">
-        <v>5</v>
-      </c>
-      <c r="H265" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7665,13 +7677,13 @@
         <v>212</v>
       </c>
       <c r="E266" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F266">
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7679,22 +7691,22 @@
         <v>13.5</v>
       </c>
       <c r="B267" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C267" s="2">
         <v>43275</v>
       </c>
       <c r="D267" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E267" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F267">
         <v>5</v>
       </c>
       <c r="H267" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7711,13 +7723,13 @@
         <v>204</v>
       </c>
       <c r="E268" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F268">
         <v>5</v>
       </c>
       <c r="H268" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7725,22 +7737,22 @@
         <v>20</v>
       </c>
       <c r="B269" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C269" s="2">
         <v>43277</v>
       </c>
       <c r="D269" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E269" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F269">
         <v>5</v>
       </c>
       <c r="H269" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7757,13 +7769,13 @@
         <v>130</v>
       </c>
       <c r="E270" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F270">
         <v>5</v>
       </c>
       <c r="H270" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7780,13 +7792,13 @@
         <v>213</v>
       </c>
       <c r="E271" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F271">
         <v>5</v>
       </c>
       <c r="H271" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7803,13 +7815,13 @@
         <v>214</v>
       </c>
       <c r="E272" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F272">
         <v>5</v>
       </c>
       <c r="H272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7826,13 +7838,13 @@
         <v>215</v>
       </c>
       <c r="E273" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F273">
         <v>5</v>
       </c>
       <c r="H273" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7849,13 +7861,13 @@
         <v>216</v>
       </c>
       <c r="E274" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F274">
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7872,13 +7884,13 @@
         <v>217</v>
       </c>
       <c r="E275" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F275">
         <v>5</v>
       </c>
       <c r="H275" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7886,7 +7898,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C276" s="2">
         <v>43280</v>
@@ -7895,13 +7907,13 @@
         <v>218</v>
       </c>
       <c r="E276" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F276">
         <v>5</v>
       </c>
       <c r="H276" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7909,7 +7921,7 @@
         <v>10</v>
       </c>
       <c r="B277" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C277" s="2">
         <v>43280</v>
@@ -7918,13 +7930,13 @@
         <v>64</v>
       </c>
       <c r="E277" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F277">
         <v>5</v>
       </c>
       <c r="H277" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7941,13 +7953,13 @@
         <v>219</v>
       </c>
       <c r="E278" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F278">
         <v>5</v>
       </c>
       <c r="H278" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7955,22 +7967,22 @@
         <v>10</v>
       </c>
       <c r="B279" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C279" s="2">
         <v>43281</v>
       </c>
       <c r="D279" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E279" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F279">
         <v>5</v>
       </c>
       <c r="H279" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7987,13 +7999,13 @@
         <v>220</v>
       </c>
       <c r="E280" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F280">
         <v>5</v>
       </c>
       <c r="H280" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8010,13 +8022,13 @@
         <v>221</v>
       </c>
       <c r="E281" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F281">
         <v>5</v>
       </c>
       <c r="H281" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8033,13 +8045,13 @@
         <v>222</v>
       </c>
       <c r="E282" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F282">
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8053,16 +8065,16 @@
         <v>43284</v>
       </c>
       <c r="D283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E283" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F283">
         <v>5</v>
       </c>
       <c r="H283" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8070,22 +8082,22 @@
         <v>119.9</v>
       </c>
       <c r="B284" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C284" s="2">
         <v>43284</v>
       </c>
       <c r="D284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E284" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F284">
         <v>5</v>
       </c>
       <c r="H284" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8099,16 +8111,16 @@
         <v>43284</v>
       </c>
       <c r="D285" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F285">
         <v>5</v>
       </c>
       <c r="H285" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8116,22 +8128,22 @@
         <v>3.5</v>
       </c>
       <c r="B286" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C286" s="2">
         <v>43284</v>
       </c>
       <c r="D286" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E286" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F286">
         <v>5</v>
       </c>
       <c r="H286" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8145,16 +8157,16 @@
         <v>43284</v>
       </c>
       <c r="D287" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E287" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F287">
         <v>5</v>
       </c>
       <c r="H287" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8168,16 +8180,16 @@
         <v>43285</v>
       </c>
       <c r="D288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E288" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F288">
         <v>5</v>
       </c>
       <c r="H288" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8191,16 +8203,16 @@
         <v>43285</v>
       </c>
       <c r="D289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E289" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F289">
         <v>5</v>
       </c>
       <c r="H289" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8214,16 +8226,16 @@
         <v>43286</v>
       </c>
       <c r="D290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E290" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F290">
         <v>5</v>
       </c>
       <c r="H290" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8237,16 +8249,16 @@
         <v>43287</v>
       </c>
       <c r="D291" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E291" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F291">
         <v>5</v>
       </c>
       <c r="H291" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8260,16 +8272,16 @@
         <v>43288</v>
       </c>
       <c r="D292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E292" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F292">
         <v>5</v>
       </c>
       <c r="H292" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8283,16 +8295,16 @@
         <v>43288</v>
       </c>
       <c r="D293" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E293" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F293">
         <v>5</v>
       </c>
       <c r="H293" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8306,16 +8318,16 @@
         <v>43288</v>
       </c>
       <c r="D294" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E294" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F294">
         <v>5</v>
       </c>
       <c r="H294" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8323,22 +8335,22 @@
         <v>25</v>
       </c>
       <c r="B295" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C295" s="2">
         <v>43289</v>
       </c>
       <c r="D295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E295" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F295">
         <v>5</v>
       </c>
       <c r="H295" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8346,22 +8358,22 @@
         <v>3.5</v>
       </c>
       <c r="B296" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C296" s="2">
         <v>43289</v>
       </c>
       <c r="D296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F296">
         <v>5</v>
       </c>
       <c r="H296" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8375,16 +8387,16 @@
         <v>43289</v>
       </c>
       <c r="D297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E297" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F297">
         <v>4</v>
       </c>
       <c r="H297" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8401,13 +8413,13 @@
         <v>195</v>
       </c>
       <c r="E298" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F298">
         <v>4</v>
       </c>
       <c r="H298" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8421,16 +8433,16 @@
         <v>43291</v>
       </c>
       <c r="D299" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E299" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F299">
         <v>4</v>
       </c>
       <c r="H299" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8444,16 +8456,16 @@
         <v>43292</v>
       </c>
       <c r="D300" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E300" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F300">
         <v>4</v>
       </c>
       <c r="H300" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8467,16 +8479,16 @@
         <v>43292</v>
       </c>
       <c r="D301" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E301" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F301">
         <v>4</v>
       </c>
       <c r="H301" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8484,22 +8496,22 @@
         <v>15</v>
       </c>
       <c r="B302" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C302" s="2">
         <v>43293</v>
       </c>
       <c r="D302" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E302" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F302">
         <v>4</v>
       </c>
       <c r="H302" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8516,13 +8528,13 @@
         <v>201</v>
       </c>
       <c r="E303" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F303">
         <v>4</v>
       </c>
       <c r="H303" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8536,16 +8548,16 @@
         <v>43293</v>
       </c>
       <c r="D304" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E304" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F304">
         <v>4</v>
       </c>
       <c r="H304" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8559,16 +8571,16 @@
         <v>43294</v>
       </c>
       <c r="D305" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E305" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F305">
         <v>4</v>
       </c>
       <c r="H305" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8582,16 +8594,16 @@
         <v>43294</v>
       </c>
       <c r="D306" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F306">
         <v>4</v>
       </c>
       <c r="H306" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8605,16 +8617,16 @@
         <v>43294</v>
       </c>
       <c r="D307" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E307" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F307">
         <v>4</v>
       </c>
       <c r="H307" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8631,13 +8643,13 @@
         <v>2</v>
       </c>
       <c r="E308" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F308">
         <v>5</v>
       </c>
       <c r="H308" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8645,22 +8657,22 @@
         <v>7.5</v>
       </c>
       <c r="B309" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C309" s="2">
         <v>43295</v>
       </c>
       <c r="D309" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E309" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F309">
         <v>5</v>
       </c>
       <c r="H309" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8674,16 +8686,16 @@
         <v>43295</v>
       </c>
       <c r="D310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E310" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F310">
         <v>5</v>
       </c>
       <c r="H310" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8691,22 +8703,22 @@
         <v>5</v>
       </c>
       <c r="B311" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C311" s="2">
         <v>43295</v>
       </c>
       <c r="D311" t="s">
+        <v>303</v>
+      </c>
+      <c r="E311" t="s">
+        <v>239</v>
+      </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+      <c r="H311" t="s">
         <v>304</v>
-      </c>
-      <c r="E311" t="s">
-        <v>240</v>
-      </c>
-      <c r="F311">
-        <v>5</v>
-      </c>
-      <c r="H311" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8714,22 +8726,22 @@
         <v>3</v>
       </c>
       <c r="B312" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C312" s="2">
         <v>43296</v>
       </c>
       <c r="D312" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E312" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F312">
         <v>5</v>
       </c>
       <c r="H312" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8743,16 +8755,16 @@
         <v>43297</v>
       </c>
       <c r="D313" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E313" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F313">
         <v>5</v>
       </c>
       <c r="H313" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8766,16 +8778,16 @@
         <v>43297</v>
       </c>
       <c r="D314" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E314" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F314">
         <v>5</v>
       </c>
       <c r="H314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8789,16 +8801,16 @@
         <v>43298</v>
       </c>
       <c r="D315" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E315" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F315">
         <v>5</v>
       </c>
       <c r="H315" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8812,16 +8824,16 @@
         <v>43299</v>
       </c>
       <c r="D316" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E316" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F316">
         <v>5</v>
       </c>
       <c r="H316" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8835,16 +8847,16 @@
         <v>43299</v>
       </c>
       <c r="D317" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E317" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F317">
         <v>5</v>
       </c>
       <c r="H317" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8861,13 +8873,13 @@
         <v>100</v>
       </c>
       <c r="E318" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F318">
         <v>5</v>
       </c>
       <c r="H318" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8881,16 +8893,16 @@
         <v>43300</v>
       </c>
       <c r="D319" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E319" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F319">
         <v>5</v>
       </c>
       <c r="H319" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8904,16 +8916,16 @@
         <v>43300</v>
       </c>
       <c r="D320" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E320" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F320">
         <v>5</v>
       </c>
       <c r="H320" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8930,13 +8942,13 @@
         <v>122</v>
       </c>
       <c r="E321" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F321">
         <v>5</v>
       </c>
       <c r="H321" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8950,16 +8962,16 @@
         <v>43302</v>
       </c>
       <c r="D322" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E322" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F322">
         <v>5</v>
       </c>
       <c r="H322" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8973,16 +8985,16 @@
         <v>43302</v>
       </c>
       <c r="D323" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E323" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F323">
         <v>5</v>
       </c>
       <c r="H323" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8996,16 +9008,16 @@
         <v>43302</v>
       </c>
       <c r="D324" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E324" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F324">
         <v>5</v>
       </c>
       <c r="H324" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9022,13 +9034,13 @@
         <v>133</v>
       </c>
       <c r="E325" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F325">
         <v>5</v>
       </c>
       <c r="H325" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9042,16 +9054,16 @@
         <v>43303</v>
       </c>
       <c r="D326" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E326" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F326">
         <v>5</v>
       </c>
       <c r="H326" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9065,16 +9077,16 @@
         <v>43304</v>
       </c>
       <c r="D327" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E327" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F327">
         <v>5</v>
       </c>
       <c r="H327" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9088,16 +9100,16 @@
         <v>43305</v>
       </c>
       <c r="D328" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E328" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F328">
         <v>5</v>
       </c>
       <c r="H328" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9111,16 +9123,16 @@
         <v>43305</v>
       </c>
       <c r="D329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E329" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F329">
         <v>5</v>
       </c>
       <c r="H329" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -9134,16 +9146,16 @@
         <v>43305</v>
       </c>
       <c r="D330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E330" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F330">
         <v>5</v>
       </c>
       <c r="H330" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9151,22 +9163,22 @@
         <v>3.85</v>
       </c>
       <c r="B331" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C331" s="2">
         <v>43306</v>
       </c>
       <c r="D331" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E331" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F331">
         <v>5</v>
       </c>
       <c r="H331" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9180,16 +9192,16 @@
         <v>43306</v>
       </c>
       <c r="D332" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E332" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F332">
         <v>5</v>
       </c>
       <c r="H332" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9203,16 +9215,16 @@
         <v>43307</v>
       </c>
       <c r="D333" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E333" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F333">
         <v>5</v>
       </c>
       <c r="H333" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9226,16 +9238,16 @@
         <v>43307</v>
       </c>
       <c r="D334" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E334" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F334">
         <v>5</v>
       </c>
       <c r="H334" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9243,22 +9255,22 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B335" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C335" s="2">
         <v>43307</v>
       </c>
       <c r="D335" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E335" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F335">
         <v>5</v>
       </c>
       <c r="H335" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9266,22 +9278,22 @@
         <v>10</v>
       </c>
       <c r="B336" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C336" s="2">
         <v>43307</v>
       </c>
       <c r="D336" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E336" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F336">
         <v>5</v>
       </c>
       <c r="H336" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9292,16 +9304,16 @@
         <v>43307</v>
       </c>
       <c r="D337" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E337" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F337">
         <v>3</v>
       </c>
       <c r="H337" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9309,7 +9321,7 @@
         <v>350</v>
       </c>
       <c r="B338" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C338" s="2">
         <v>43308</v>
@@ -9318,13 +9330,13 @@
         <v>192</v>
       </c>
       <c r="E338" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F338">
         <v>5</v>
       </c>
       <c r="H338" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9338,16 +9350,16 @@
         <v>43308</v>
       </c>
       <c r="D339" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E339" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F339">
         <v>5</v>
       </c>
       <c r="H339" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9361,16 +9373,16 @@
         <v>43310</v>
       </c>
       <c r="D340" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E340" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F340">
         <v>5</v>
       </c>
       <c r="H340" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9384,16 +9396,16 @@
         <v>43311</v>
       </c>
       <c r="D341" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E341" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F341">
         <v>5</v>
       </c>
       <c r="H341" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9410,13 +9422,13 @@
         <v>83</v>
       </c>
       <c r="E342" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F342">
         <v>5</v>
       </c>
       <c r="H342" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9424,22 +9436,22 @@
         <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C343" s="2">
         <v>43311</v>
       </c>
       <c r="D343" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E343" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F343">
         <v>5</v>
       </c>
       <c r="H343" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9453,16 +9465,16 @@
         <v>43311</v>
       </c>
       <c r="D344" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E344" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F344">
         <v>5</v>
       </c>
       <c r="H344" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9476,16 +9488,16 @@
         <v>43312</v>
       </c>
       <c r="D345" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E345" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F345">
         <v>5</v>
       </c>
       <c r="H345" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9499,16 +9511,16 @@
         <v>43312</v>
       </c>
       <c r="D346" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E346" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F346">
         <v>5</v>
       </c>
       <c r="H346" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9516,22 +9528,22 @@
         <v>43.22</v>
       </c>
       <c r="B347" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C347" s="2">
         <v>43312</v>
       </c>
       <c r="D347" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E347" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F347">
         <v>5</v>
       </c>
       <c r="H347" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9545,16 +9557,16 @@
         <v>43313</v>
       </c>
       <c r="D348" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E348" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F348">
         <v>5</v>
       </c>
       <c r="H348" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9571,13 +9583,13 @@
         <v>204</v>
       </c>
       <c r="E349" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F349">
         <v>5</v>
       </c>
       <c r="H349" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9591,16 +9603,16 @@
         <v>43313</v>
       </c>
       <c r="D350" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E350" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F350">
         <v>5</v>
       </c>
       <c r="H350" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9608,7 +9620,7 @@
         <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C351" s="2">
         <v>43314</v>
@@ -9617,13 +9629,13 @@
         <v>192</v>
       </c>
       <c r="E351" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F351">
         <v>4</v>
       </c>
       <c r="H351" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9631,22 +9643,22 @@
         <v>14.84</v>
       </c>
       <c r="B352" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C352" s="2">
         <v>43314</v>
       </c>
       <c r="D352" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E352" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F352">
         <v>3</v>
       </c>
       <c r="H352" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="353" spans="1:12">
@@ -9660,16 +9672,16 @@
         <v>43315</v>
       </c>
       <c r="D353" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E353" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F353">
         <v>4</v>
       </c>
       <c r="H353" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="354" spans="1:12">
@@ -9683,16 +9695,16 @@
         <v>43315</v>
       </c>
       <c r="D354" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E354" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F354">
         <v>5</v>
       </c>
       <c r="H354" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="355" spans="1:12">
@@ -9706,16 +9718,16 @@
         <v>43316</v>
       </c>
       <c r="D355" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E355" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F355">
         <v>4</v>
       </c>
       <c r="H355" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="356" spans="1:12">
@@ -9723,22 +9735,22 @@
         <v>29.4</v>
       </c>
       <c r="B356" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C356" s="2">
         <v>43317</v>
       </c>
       <c r="D356" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E356" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F356">
         <v>4</v>
       </c>
       <c r="H356" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="357" spans="1:12">
@@ -9752,16 +9764,16 @@
         <v>43318</v>
       </c>
       <c r="D357" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E357" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F357">
         <v>5</v>
       </c>
       <c r="H357" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="358" spans="1:12">
@@ -9775,16 +9787,16 @@
         <v>43320</v>
       </c>
       <c r="D358" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E358" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F358">
         <v>4</v>
       </c>
       <c r="H358" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="359" spans="1:12">
@@ -9801,13 +9813,13 @@
         <v>122</v>
       </c>
       <c r="E359" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F359">
         <v>4</v>
       </c>
       <c r="H359" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="360" spans="1:12">
@@ -9821,16 +9833,16 @@
         <v>43321</v>
       </c>
       <c r="D360" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E360" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F360">
         <v>5</v>
       </c>
       <c r="H360" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -9844,16 +9856,16 @@
         <v>43321</v>
       </c>
       <c r="D361" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E361" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F361">
         <v>4</v>
       </c>
       <c r="H361" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="362" spans="1:12">
@@ -9867,16 +9879,16 @@
         <v>43321</v>
       </c>
       <c r="D362" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E362" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F362">
         <v>4</v>
       </c>
       <c r="H362" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="363" spans="1:12">
@@ -9884,22 +9896,22 @@
         <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C363" s="2">
         <v>43321</v>
       </c>
       <c r="D363" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E363" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F363">
         <v>4</v>
       </c>
       <c r="H363" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="364" spans="1:12">
@@ -9913,16 +9925,16 @@
         <v>43322</v>
       </c>
       <c r="D364" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E364" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F364">
         <v>4</v>
       </c>
       <c r="H364" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="365" spans="1:12">
@@ -9930,22 +9942,22 @@
         <v>100</v>
       </c>
       <c r="B365" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C365" s="2">
         <v>43322</v>
       </c>
       <c r="D365" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E365" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F365">
         <v>3</v>
       </c>
       <c r="H365" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="366" spans="1:12">
@@ -9959,17 +9971,17 @@
         <v>43322</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E366" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F366" s="1">
         <v>5</v>
       </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="367" spans="1:12">
@@ -9983,16 +9995,16 @@
         <v>43322</v>
       </c>
       <c r="D367" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E367" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F367">
         <v>5</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -10004,22 +10016,22 @@
         <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C368" s="2">
         <v>43322</v>
       </c>
       <c r="D368" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E368" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F368">
         <v>5</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10027,7 +10039,7 @@
         <v>10</v>
       </c>
       <c r="B369" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C369" s="2">
         <v>43324</v>
@@ -10036,13 +10048,13 @@
         <v>64</v>
       </c>
       <c r="E369" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F369">
         <v>5</v>
       </c>
       <c r="H369" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10050,22 +10062,22 @@
         <v>10.8</v>
       </c>
       <c r="B370" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C370" s="2">
         <v>43326</v>
       </c>
       <c r="D370" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E370" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F370">
         <v>5</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10079,16 +10091,16 @@
         <v>43326</v>
       </c>
       <c r="D371" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E371" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F371">
         <v>5</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10102,16 +10114,16 @@
         <v>43326</v>
       </c>
       <c r="D372" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E372" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F372">
         <v>5</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10125,16 +10137,16 @@
         <v>43327</v>
       </c>
       <c r="D373" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E373" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F373">
         <v>5</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,22 +10154,22 @@
         <v>0.5</v>
       </c>
       <c r="B374" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C374" s="2">
         <v>43327</v>
       </c>
       <c r="D374" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E374" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F374">
         <v>5</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10171,16 +10183,16 @@
         <v>43327</v>
       </c>
       <c r="D375" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E375" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F375">
         <v>5</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10194,33 +10206,132 @@
         <v>43327</v>
       </c>
       <c r="D376" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E376" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F376">
         <v>5</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="377" spans="1:8">
-      <c r="C377" s="2"/>
-      <c r="H377" s="1"/>
+      <c r="A377">
+        <v>2</v>
+      </c>
+      <c r="B377" t="s">
+        <v>224</v>
+      </c>
+      <c r="C377" s="2">
+        <v>43328</v>
+      </c>
+      <c r="D377" t="s">
+        <v>379</v>
+      </c>
+      <c r="E377" t="s">
+        <v>239</v>
+      </c>
+      <c r="F377">
+        <v>5</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="378" spans="1:8">
-      <c r="H378" s="1"/>
+      <c r="A378">
+        <v>3.5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>346</v>
+      </c>
+      <c r="C378" s="2">
+        <v>43328</v>
+      </c>
+      <c r="D378" t="s">
+        <v>380</v>
+      </c>
+      <c r="E378" t="s">
+        <v>239</v>
+      </c>
+      <c r="F378">
+        <v>5</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="379" spans="1:8">
-      <c r="H379" s="1"/>
+      <c r="A379">
+        <v>3.5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>224</v>
+      </c>
+      <c r="C379" s="2">
+        <v>43328</v>
+      </c>
+      <c r="D379" t="s">
+        <v>381</v>
+      </c>
+      <c r="E379" t="s">
+        <v>239</v>
+      </c>
+      <c r="F379">
+        <v>5</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="380" spans="1:8">
-      <c r="H380" s="1"/>
+      <c r="A380">
+        <v>2</v>
+      </c>
+      <c r="B380" t="s">
+        <v>224</v>
+      </c>
+      <c r="C380" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
+      </c>
+      <c r="E380" t="s">
+        <v>239</v>
+      </c>
+      <c r="F380">
+        <v>5</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="381" spans="1:8">
-      <c r="H381" s="1"/>
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381" t="s">
+        <v>224</v>
+      </c>
+      <c r="C381" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D381" t="s">
+        <v>383</v>
+      </c>
+      <c r="E381" t="s">
+        <v>239</v>
+      </c>
+      <c r="F381">
+        <v>5</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="382" spans="1:8">
       <c r="H382" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="391">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1166,6 +1166,27 @@
   </si>
   <si>
     <t>τοστ στο coral</t>
+  </si>
+  <si>
+    <t>πρωινό λουκουμάς, κουλούρι, χυμοί</t>
+  </si>
+  <si>
+    <t>καφές στο κονδύλι</t>
+  </si>
+  <si>
+    <t>water sports</t>
+  </si>
+  <si>
+    <t>γιαουρτι, στρούντελ, piccetti</t>
+  </si>
+  <si>
+    <t>κρέπα , νερό στο Αρόδο</t>
+  </si>
+  <si>
+    <t>πρωινό λουκουμάς, σπανακοστριφτόπιτα</t>
+  </si>
+  <si>
+    <t>fruse tea coral</t>
   </si>
 </sst>
 </file>
@@ -1601,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="F381" sqref="F381"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="E389" sqref="E389:H391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10289,7 +10310,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="B380" t="s">
         <v>224</v>
@@ -10298,7 +10319,7 @@
         <v>43329</v>
       </c>
       <c r="D380" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E380" t="s">
         <v>239</v>
@@ -10321,7 +10342,7 @@
         <v>43329</v>
       </c>
       <c r="D381" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E381" t="s">
         <v>239</v>
@@ -10334,22 +10355,174 @@
       </c>
     </row>
     <row r="382" spans="1:8">
-      <c r="H382" s="1"/>
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382" t="s">
+        <v>224</v>
+      </c>
+      <c r="C382" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D382" t="s">
+        <v>383</v>
+      </c>
+      <c r="E382" t="s">
+        <v>239</v>
+      </c>
+      <c r="F382">
+        <v>5</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="383" spans="1:8">
-      <c r="H383" s="1"/>
+      <c r="A383">
+        <v>2.5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>224</v>
+      </c>
+      <c r="C383" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D383" t="s">
+        <v>385</v>
+      </c>
+      <c r="E383" t="s">
+        <v>239</v>
+      </c>
+      <c r="F383">
+        <v>5</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="384" spans="1:8">
-      <c r="H384" s="1"/>
-    </row>
-    <row r="385" spans="8:8">
-      <c r="H385" s="1"/>
-    </row>
-    <row r="386" spans="8:8">
-      <c r="H386" s="1"/>
-    </row>
-    <row r="387" spans="8:8">
-      <c r="H387" s="1"/>
+      <c r="A384">
+        <v>6.5</v>
+      </c>
+      <c r="B384" t="s">
+        <v>349</v>
+      </c>
+      <c r="C384" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D384" t="s">
+        <v>386</v>
+      </c>
+      <c r="E384" t="s">
+        <v>239</v>
+      </c>
+      <c r="F384">
+        <v>5</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385">
+        <v>3.78</v>
+      </c>
+      <c r="B385" t="s">
+        <v>224</v>
+      </c>
+      <c r="C385" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D385" t="s">
+        <v>387</v>
+      </c>
+      <c r="E385" t="s">
+        <v>239</v>
+      </c>
+      <c r="F385">
+        <v>5</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386">
+        <v>7</v>
+      </c>
+      <c r="B386" t="s">
+        <v>224</v>
+      </c>
+      <c r="C386" s="2">
+        <v>43329</v>
+      </c>
+      <c r="D386" t="s">
+        <v>388</v>
+      </c>
+      <c r="E386" t="s">
+        <v>239</v>
+      </c>
+      <c r="F386">
+        <v>5</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387">
+        <v>2.5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>224</v>
+      </c>
+      <c r="C387" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D387" t="s">
+        <v>389</v>
+      </c>
+      <c r="E387" t="s">
+        <v>239</v>
+      </c>
+      <c r="F387">
+        <v>5</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388">
+        <v>2</v>
+      </c>
+      <c r="B388" t="s">
+        <v>224</v>
+      </c>
+      <c r="C388" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D388" t="s">
+        <v>390</v>
+      </c>
+      <c r="E388" t="s">
+        <v>239</v>
+      </c>
+      <c r="F388">
+        <v>5</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8">
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="1:8">
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="H391" s="1"/>
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="392">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1183,10 +1183,13 @@
     <t>πρωινό λουκουμάς, σπανακοστριφτόπιτα</t>
   </si>
   <si>
-    <t>fruse tea coral</t>
-  </si>
-  <si>
     <t>Κλάμπ(3 ποτά και 2 εισόδους) + Κώστα</t>
+  </si>
+  <si>
+    <t>fruse tea peach coral</t>
+  </si>
+  <si>
+    <t>fruse tea lemon coral</t>
   </si>
 </sst>
 </file>
@@ -1622,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2807,7 +2810,7 @@
         <v>43155</v>
       </c>
       <c r="D51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E51" t="s">
         <v>240</v>
@@ -10503,7 +10506,7 @@
         <v>43330</v>
       </c>
       <c r="D388" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E388" t="s">
         <v>238</v>
@@ -10516,7 +10519,27 @@
       </c>
     </row>
     <row r="389" spans="1:8">
-      <c r="H389" s="1"/>
+      <c r="A389">
+        <v>1</v>
+      </c>
+      <c r="B389" t="s">
+        <v>223</v>
+      </c>
+      <c r="C389" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D389" t="s">
+        <v>391</v>
+      </c>
+      <c r="E389" t="s">
+        <v>238</v>
+      </c>
+      <c r="F389">
+        <v>5</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="390" spans="1:8">
       <c r="H390" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="394">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>fruse tea lemon coral</t>
+  </si>
+  <si>
+    <t>μπύρα (+ Ανέστη, + Ηλία)</t>
+  </si>
+  <si>
+    <t>ποδοσφαιράκι (+ Βαγγέλη, + Ανέστη)</t>
   </si>
 </sst>
 </file>
@@ -1625,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="E390" sqref="E390"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="D391" sqref="D391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10542,10 +10548,104 @@
       </c>
     </row>
     <row r="390" spans="1:8">
-      <c r="H390" s="1"/>
+      <c r="A390">
+        <v>10.5</v>
+      </c>
+      <c r="B390" t="s">
+        <v>223</v>
+      </c>
+      <c r="C390" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D390" t="s">
+        <v>392</v>
+      </c>
+      <c r="E390" t="s">
+        <v>238</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="391" spans="1:8">
-      <c r="H391" s="1"/>
+      <c r="A391">
+        <v>1.5</v>
+      </c>
+      <c r="B391" t="s">
+        <v>348</v>
+      </c>
+      <c r="C391" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D391" t="s">
+        <v>393</v>
+      </c>
+      <c r="E391" t="s">
+        <v>238</v>
+      </c>
+      <c r="F391">
+        <v>5</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392">
+        <v>2.7</v>
+      </c>
+      <c r="B392" t="s">
+        <v>223</v>
+      </c>
+      <c r="C392" s="2">
+        <v>43331</v>
+      </c>
+      <c r="E392" t="s">
+        <v>238</v>
+      </c>
+      <c r="F392">
+        <v>5</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="B393" t="s">
+        <v>223</v>
+      </c>
+      <c r="C393" s="2">
+        <v>43331</v>
+      </c>
+      <c r="E393" t="s">
+        <v>238</v>
+      </c>
+      <c r="F393">
+        <v>5</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="B394" t="s">
+        <v>223</v>
+      </c>
+      <c r="C394" s="2">
+        <v>43331</v>
+      </c>
+      <c r="E394" t="s">
+        <v>238</v>
+      </c>
+      <c r="F394">
+        <v>5</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="518" spans="1:8">
       <c r="A518" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="395">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1196,6 +1196,9 @@
   </si>
   <si>
     <t>ποδοσφαιράκι (+ Βαγγέλη, + Ανέστη)</t>
+  </si>
+  <si>
+    <t>πρωινό λουκουμά και φλογέρα</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1635,7 @@
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="D391" sqref="D391"/>
+      <selection activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10603,6 +10606,9 @@
       <c r="C392" s="2">
         <v>43331</v>
       </c>
+      <c r="D392" t="s">
+        <v>394</v>
+      </c>
       <c r="E392" t="s">
         <v>238</v>
       </c>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="396">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1199,6 +1199,9 @@
   </si>
   <si>
     <t>πρωινό λουκουμά και φλογέρα</t>
+  </si>
+  <si>
+    <t>fruse tea mango coral</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1638,7 @@
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="E392" sqref="E392"/>
+      <selection activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10620,11 +10623,17 @@
       </c>
     </row>
     <row r="393" spans="1:8">
+      <c r="A393">
+        <v>2</v>
+      </c>
       <c r="B393" t="s">
         <v>223</v>
       </c>
       <c r="C393" s="2">
         <v>43331</v>
+      </c>
+      <c r="D393" t="s">
+        <v>395</v>
       </c>
       <c r="E393" t="s">
         <v>238</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="397">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1202,6 +1202,9 @@
   </si>
   <si>
     <t>fruse tea mango coral</t>
+  </si>
+  <si>
+    <t>μπύρα (+ Ανέστη, + Ηλία, +Βαγγέλη, + Σταύρου)</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1641,7 @@
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="D393" sqref="D393"/>
+      <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10646,11 +10649,17 @@
       </c>
     </row>
     <row r="394" spans="1:8">
+      <c r="A394">
+        <v>17.5</v>
+      </c>
       <c r="B394" t="s">
         <v>223</v>
       </c>
       <c r="C394" s="2">
         <v>43331</v>
+      </c>
+      <c r="D394" t="s">
+        <v>396</v>
       </c>
       <c r="E394" t="s">
         <v>238</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Έξοδα" sheetId="1" r:id="rId1"/>
+    <sheet name="costs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1210,12 +1210,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1256,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1396,7 +1396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,9 +1428,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1462,6 +1463,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1637,14 +1639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
       <selection activeCell="D394" sqref="D394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1660,7 +1662,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1713,7 +1715,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1736,7 +1738,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1805,7 +1807,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1920,7 +1922,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2012,7 +2014,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2035,7 +2037,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2357,7 +2359,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2426,7 +2428,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2607,7 +2609,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2814,7 +2816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2860,7 +2862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2907,7 +2909,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2953,7 +2955,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -2976,7 +2978,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3022,7 +3024,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3045,7 +3047,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3068,7 +3070,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3114,7 +3116,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3160,7 +3162,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3207,7 +3209,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3322,7 +3324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3345,7 +3347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3369,7 +3371,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3415,7 +3417,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3438,7 +3440,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3484,7 +3486,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3530,7 +3532,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3553,7 +3555,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3576,7 +3578,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3622,7 +3624,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3645,7 +3647,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3668,7 +3670,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3829,13 +3831,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3858,7 +3860,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -3950,7 +3952,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -3973,10 +3975,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4045,7 +4047,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4183,7 +4185,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4206,7 +4208,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4298,7 +4300,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4390,7 +4392,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4459,7 +4461,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4482,7 +4484,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4574,7 +4576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4597,7 +4599,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4712,7 +4714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4758,7 +4760,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4781,7 +4783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4804,7 +4806,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4827,7 +4829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4850,7 +4852,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4873,7 +4875,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -4942,7 +4944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5011,7 +5013,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5034,7 +5036,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5057,7 +5059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5149,7 +5151,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5195,7 +5197,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5218,7 +5220,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5241,7 +5243,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5333,7 +5335,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5356,7 +5358,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5379,7 +5381,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5402,7 +5404,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5448,7 +5450,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5494,7 +5496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5517,7 +5519,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5540,7 +5542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5586,7 +5588,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5678,7 +5680,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5701,7 +5703,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5724,7 +5726,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5770,7 +5772,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5816,7 +5818,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5839,7 +5841,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5862,7 +5864,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5908,7 +5910,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -5977,7 +5979,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6000,7 +6002,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6069,7 +6071,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6092,7 +6094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6115,7 +6117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6161,7 +6163,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6230,7 +6232,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6322,7 +6324,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6345,7 +6347,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6368,7 +6370,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6391,7 +6393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6414,7 +6416,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6483,7 +6485,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6506,7 +6508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6529,7 +6531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6552,7 +6554,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6598,7 +6600,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6644,7 +6646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6667,7 +6669,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6713,7 +6715,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6759,7 +6761,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6782,7 +6784,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7012,7 +7014,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7035,7 +7037,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7058,7 +7060,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7104,7 +7106,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7127,7 +7129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7150,7 +7152,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7242,7 +7244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7265,7 +7267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7288,7 +7290,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7311,7 +7313,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7357,7 +7359,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7380,7 +7382,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7426,7 +7428,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7472,7 +7474,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7518,7 +7520,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7564,7 +7566,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7610,7 +7612,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7633,7 +7635,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7656,7 +7658,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7679,7 +7681,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7702,7 +7704,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7725,7 +7727,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7748,7 +7750,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7817,7 +7819,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7840,7 +7842,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7886,7 +7888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7909,7 +7911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7932,7 +7934,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8024,7 +8026,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8093,7 +8095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8116,7 +8118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8162,7 +8164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8208,7 +8210,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8300,7 +8302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8323,7 +8325,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8346,7 +8348,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8392,7 +8394,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8438,7 +8440,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8484,7 +8486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8530,7 +8532,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8576,7 +8578,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8599,7 +8601,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8622,7 +8624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8668,7 +8670,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8691,7 +8693,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8714,7 +8716,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8760,7 +8762,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8783,7 +8785,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8806,7 +8808,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8852,7 +8854,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8875,7 +8877,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8921,7 +8923,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -8944,7 +8946,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -8967,7 +8969,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -8990,7 +8992,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9013,7 +9015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9036,7 +9038,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9059,7 +9061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9105,7 +9107,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9128,7 +9130,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9151,7 +9153,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9174,7 +9176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9220,7 +9222,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9266,7 +9268,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9289,7 +9291,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9312,7 +9314,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9335,7 +9337,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9355,7 +9357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9424,7 +9426,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9470,7 +9472,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9493,7 +9495,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9516,7 +9518,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9539,7 +9541,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9562,7 +9564,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9677,7 +9679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9700,7 +9702,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9723,7 +9725,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9746,7 +9748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9769,7 +9771,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9792,7 +9794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9815,7 +9817,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9838,7 +9840,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9884,7 +9886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9907,7 +9909,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -9930,7 +9932,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -9953,7 +9955,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -9976,7 +9978,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -9999,7 +10001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10050,7 +10052,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10</v>
       </c>
@@ -10096,7 +10098,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10.8</v>
       </c>
@@ -10119,7 +10121,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.5</v>
       </c>
@@ -10142,7 +10144,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5.5</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5</v>
       </c>
@@ -10188,7 +10190,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.5</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>10.5</v>
       </c>
@@ -10234,7 +10236,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>14</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -10280,7 +10282,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10303,7 +10305,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10326,7 +10328,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10349,7 +10351,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10395,7 +10397,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2.5</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6.5</v>
       </c>
@@ -10441,7 +10443,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3.78</v>
       </c>
@@ -10464,7 +10466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -10487,7 +10489,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2.5</v>
       </c>
@@ -10510,7 +10512,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -10556,7 +10558,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>10.5</v>
       </c>
@@ -10579,7 +10581,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1.5</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2.7</v>
       </c>
@@ -10625,7 +10627,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -10648,7 +10650,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17.5</v>
       </c>
@@ -10671,7 +10673,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="397">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1210,12 +1210,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,7 +1256,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1396,7 +1396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1428,10 +1428,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1463,7 +1462,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1639,14 +1637,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L518"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="D394" sqref="D394"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1662,7 +1660,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1691,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1715,7 +1713,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1738,7 +1736,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1761,7 +1759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1784,7 +1782,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1853,7 +1851,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1876,7 +1874,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1899,7 +1897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1922,7 +1920,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -1945,7 +1943,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2014,7 +2012,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2037,7 +2035,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2060,7 +2058,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2083,7 +2081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2106,7 +2104,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2175,7 +2173,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2198,7 +2196,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2267,7 +2265,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2336,7 +2334,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2359,7 +2357,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2382,7 +2380,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2405,7 +2403,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2428,7 +2426,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2448,7 +2446,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2471,7 +2469,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2494,7 +2492,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2540,7 +2538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2563,7 +2561,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2586,7 +2584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2609,7 +2607,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2632,7 +2630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2655,7 +2653,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2678,7 +2676,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2701,7 +2699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2747,7 +2745,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2770,7 +2768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2793,7 +2791,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2839,7 +2837,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2862,7 +2860,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2885,7 +2883,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2909,7 +2907,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2955,7 +2953,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -2978,7 +2976,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3024,7 +3022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3070,7 +3068,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3093,7 +3091,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3162,7 +3160,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3185,7 +3183,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3209,7 +3207,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3301,7 +3299,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3324,7 +3322,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3347,7 +3345,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3371,7 +3369,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3394,7 +3392,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3486,7 +3484,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3509,7 +3507,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3555,7 +3553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3601,7 +3599,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3624,7 +3622,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3647,7 +3645,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3670,7 +3668,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3693,7 +3691,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3762,7 +3760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3808,7 +3806,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3831,13 +3829,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -3975,10 +3973,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4001,7 +3999,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4024,7 +4022,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4070,7 +4068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4093,7 +4091,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4139,7 +4137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4162,7 +4160,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4185,7 +4183,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4300,7 +4298,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4323,7 +4321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4346,7 +4344,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4392,7 +4390,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4507,7 +4505,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4599,7 +4597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4714,7 +4712,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4737,7 +4735,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4852,7 +4850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4898,7 +4896,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4921,7 +4919,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5151,7 +5149,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5266,7 +5264,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5289,7 +5287,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5312,7 +5310,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5404,7 +5402,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5427,7 +5425,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5611,7 +5609,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5772,7 +5770,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5795,7 +5793,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5864,7 +5862,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -5956,7 +5954,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -5979,7 +5977,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6002,7 +6000,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6048,7 +6046,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6071,7 +6069,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6094,7 +6092,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6140,7 +6138,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6163,7 +6161,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6186,7 +6184,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6209,7 +6207,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6232,7 +6230,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6255,7 +6253,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6278,7 +6276,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6301,7 +6299,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6324,7 +6322,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6347,7 +6345,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6370,7 +6368,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6393,7 +6391,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6416,7 +6414,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6439,7 +6437,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6508,7 +6506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6531,7 +6529,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6577,7 +6575,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6600,7 +6598,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6623,7 +6621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6646,7 +6644,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6669,7 +6667,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6692,7 +6690,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6715,7 +6713,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6784,7 +6782,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6807,7 +6805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6830,7 +6828,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6853,7 +6851,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6876,7 +6874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6899,7 +6897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6922,7 +6920,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -6945,7 +6943,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -6968,7 +6966,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7014,7 +7012,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7037,7 +7035,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7060,7 +7058,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7083,7 +7081,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7106,7 +7104,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7129,7 +7127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7152,7 +7150,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7175,7 +7173,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7198,7 +7196,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7221,7 +7219,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7244,7 +7242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7267,7 +7265,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7290,7 +7288,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7313,7 +7311,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7336,7 +7334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7359,7 +7357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7382,7 +7380,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7405,7 +7403,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7428,7 +7426,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7451,7 +7449,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7474,7 +7472,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7520,7 +7518,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7543,7 +7541,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7566,7 +7564,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7589,7 +7587,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7612,7 +7610,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7635,7 +7633,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7658,7 +7656,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7681,7 +7679,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7727,7 +7725,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7773,7 +7771,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7796,7 +7794,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7819,7 +7817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7842,7 +7840,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7865,7 +7863,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7888,7 +7886,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7911,7 +7909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7934,7 +7932,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -7957,7 +7955,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -7980,7 +7978,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8003,7 +8001,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8026,7 +8024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8049,7 +8047,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8072,7 +8070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8095,7 +8093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8118,7 +8116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8141,7 +8139,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8164,7 +8162,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8187,7 +8185,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8210,7 +8208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8233,7 +8231,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8279,7 +8277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8302,7 +8300,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8325,7 +8323,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8348,7 +8346,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8371,7 +8369,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8394,7 +8392,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8417,7 +8415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8440,7 +8438,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8463,7 +8461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8532,7 +8530,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8555,7 +8553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8578,7 +8576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8601,7 +8599,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8624,7 +8622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8647,7 +8645,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8670,7 +8668,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8693,7 +8691,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8716,7 +8714,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8739,7 +8737,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8762,7 +8760,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8785,7 +8783,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8808,7 +8806,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8831,7 +8829,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8854,7 +8852,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8877,7 +8875,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8900,7 +8898,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8923,7 +8921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -8946,7 +8944,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -8969,7 +8967,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -8992,7 +8990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9015,7 +9013,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9038,7 +9036,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9061,7 +9059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9084,7 +9082,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9107,7 +9105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9130,7 +9128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9153,7 +9151,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9176,7 +9174,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9199,7 +9197,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9222,7 +9220,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9245,7 +9243,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9291,7 +9289,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9337,7 +9335,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9357,7 +9355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9380,7 +9378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9403,7 +9401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9426,7 +9424,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9449,7 +9447,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9472,7 +9470,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9518,7 +9516,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9541,7 +9539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9564,7 +9562,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9587,7 +9585,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9610,7 +9608,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9633,7 +9631,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9656,7 +9654,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9679,7 +9677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9702,7 +9700,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9725,7 +9723,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9748,7 +9746,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9771,7 +9769,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9794,7 +9792,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9817,7 +9815,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9840,7 +9838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9863,7 +9861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9886,7 +9884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9909,7 +9907,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -9932,7 +9930,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>7</v>
       </c>
@@ -9955,7 +9953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -9978,7 +9976,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10001,7 +9999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10025,7 +10023,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10052,7 +10050,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10075,7 +10073,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>10</v>
       </c>
@@ -10098,7 +10096,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>10.8</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>10.5</v>
       </c>
@@ -10144,7 +10142,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>5.5</v>
       </c>
@@ -10167,7 +10165,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>5</v>
       </c>
@@ -10190,7 +10188,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>0.5</v>
       </c>
@@ -10213,7 +10211,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>10.5</v>
       </c>
@@ -10236,7 +10234,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>14</v>
       </c>
@@ -10259,7 +10257,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>2</v>
       </c>
@@ -10282,7 +10280,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10305,7 +10303,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10328,7 +10326,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10351,7 +10349,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10374,7 +10372,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10397,7 +10395,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>2.5</v>
       </c>
@@ -10420,7 +10418,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>6.5</v>
       </c>
@@ -10443,7 +10441,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>3.78</v>
       </c>
@@ -10466,7 +10464,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>7</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>2.5</v>
       </c>
@@ -10512,7 +10510,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>2</v>
       </c>
@@ -10535,7 +10533,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>1</v>
       </c>
@@ -10558,7 +10556,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>10.5</v>
       </c>
@@ -10581,7 +10579,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>1.5</v>
       </c>
@@ -10604,7 +10602,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>2.7</v>
       </c>
@@ -10627,7 +10625,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>2</v>
       </c>
@@ -10650,7 +10648,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>17.5</v>
       </c>
@@ -10673,7 +10671,50 @@
         <v>263</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
+      <c r="A395">
+        <v>43</v>
+      </c>
+      <c r="B395" t="s">
+        <v>344</v>
+      </c>
+      <c r="C395" s="2">
+        <v>43332</v>
+      </c>
+      <c r="D395" t="s">
+        <v>94</v>
+      </c>
+      <c r="E395" t="s">
+        <v>238</v>
+      </c>
+      <c r="F395">
+        <v>5</v>
+      </c>
+      <c r="H395" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="B396" t="s">
+        <v>353</v>
+      </c>
+      <c r="C396" s="2">
+        <v>43332</v>
+      </c>
+      <c r="E396" t="s">
+        <v>238</v>
+      </c>
+      <c r="F396">
+        <v>5</v>
+      </c>
+      <c r="H396" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="398">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1205,6 +1205,9 @@
   </si>
   <si>
     <t>μπύρα (+ Ανέστη, + Ηλία, +Βαγγέλη, + Σταύρου)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ακουστικά </t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1644,7 @@
   <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+      <selection activeCell="D396" sqref="D396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10704,6 +10707,9 @@
       <c r="C396" s="2">
         <v>43332</v>
       </c>
+      <c r="D396" t="s">
+        <v>397</v>
+      </c>
       <c r="E396" t="s">
         <v>238</v>
       </c>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1207,7 +1207,7 @@
     <t>μπύρα (+ Ανέστη, + Ηλία, +Βαγγέλη, + Σταύρου)</t>
   </si>
   <si>
-    <t xml:space="preserve">Ακουστικά </t>
+    <t>Ακουστικά bluetooth</t>
   </si>
 </sst>
 </file>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1207,7 +1207,7 @@
     <t>μπύρα (+ Ανέστη, + Ηλία, +Βαγγέλη, + Σταύρου)</t>
   </si>
   <si>
-    <t>Ακουστικά bluetooth</t>
+    <t>Ακουστικά bluetooth JBL</t>
   </si>
 </sst>
 </file>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -1213,12 +1213,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,7 +1259,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1340,8 +1340,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H518" totalsRowShown="0">
-  <autoFilter ref="A1:H518"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H396" totalsRowShown="0">
+  <autoFilter ref="A1:H396"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1357,7 +1357,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1399,7 +1399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1431,9 +1431,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1465,6 +1466,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1640,14 +1642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L518"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
-      <selection activeCell="D396" sqref="D396"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="J394" sqref="J394"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1663,7 +1665,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1716,7 +1718,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1900,7 +1902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -1946,7 +1948,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2084,7 +2086,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2107,7 +2109,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2199,7 +2201,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2245,7 +2247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2429,7 +2431,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2610,7 +2612,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2679,7 +2681,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2748,7 +2750,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2771,7 +2773,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2794,7 +2796,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2817,7 +2819,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2863,7 +2865,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2910,7 +2912,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -2956,7 +2958,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -2979,7 +2981,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3002,7 +3004,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3025,7 +3027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3140,7 +3142,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3163,7 +3165,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3210,7 +3212,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3279,7 +3281,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3325,7 +3327,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3348,7 +3350,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3372,7 +3374,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3418,7 +3420,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3464,7 +3466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3487,7 +3489,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3602,7 +3604,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3625,7 +3627,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3648,7 +3650,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3694,7 +3696,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3717,7 +3719,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3740,7 +3742,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3809,7 +3811,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3832,13 +3834,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -3976,10 +3978,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4002,7 +4004,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4048,7 +4050,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4140,7 +4142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4186,7 +4188,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4255,7 +4257,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4278,7 +4280,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4324,7 +4326,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4370,7 +4372,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4393,7 +4395,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4416,7 +4418,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4462,7 +4464,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4485,7 +4487,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4554,7 +4556,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4577,7 +4579,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4761,7 +4763,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4807,7 +4809,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4830,7 +4832,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4922,7 +4924,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -4968,7 +4970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4991,7 +4993,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5014,7 +5016,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5037,7 +5039,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5060,7 +5062,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5083,7 +5085,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5198,7 +5200,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5221,7 +5223,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5244,7 +5246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5267,7 +5269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5313,7 +5315,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5336,7 +5338,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5359,7 +5361,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5382,7 +5384,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5428,7 +5430,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5543,7 +5545,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5566,7 +5568,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5658,7 +5660,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5681,7 +5683,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5704,7 +5706,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5750,7 +5752,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5796,7 +5798,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5888,7 +5890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -5957,7 +5959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6003,7 +6005,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6026,7 +6028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6210,7 +6212,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6256,7 +6258,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6279,7 +6281,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6394,7 +6396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6440,7 +6442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6486,7 +6488,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6509,7 +6511,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6532,7 +6534,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6555,7 +6557,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6578,7 +6580,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6647,7 +6649,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6670,7 +6672,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6739,7 +6741,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6762,7 +6764,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -6946,7 +6948,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -6969,7 +6971,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7015,7 +7017,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7038,7 +7040,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7084,7 +7086,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7130,7 +7132,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7199,7 +7201,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7222,7 +7224,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7245,7 +7247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7337,7 +7339,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7383,7 +7385,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7406,7 +7408,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7452,7 +7454,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7498,7 +7500,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7567,7 +7569,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7636,7 +7638,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7682,7 +7684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7705,7 +7707,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7728,7 +7730,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7774,7 +7776,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7820,7 +7822,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7866,7 +7868,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7912,7 +7914,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -7981,7 +7983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8004,7 +8006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8050,7 +8052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8096,7 +8098,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8119,7 +8121,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8142,7 +8144,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8188,7 +8190,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8234,7 +8236,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8257,7 +8259,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8280,7 +8282,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8326,7 +8328,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8372,7 +8374,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8395,7 +8397,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8418,7 +8420,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8464,7 +8466,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8487,7 +8489,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8510,7 +8512,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8579,7 +8581,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8602,7 +8604,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8648,7 +8650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8671,7 +8673,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8694,7 +8696,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8717,7 +8719,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8763,7 +8765,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8832,7 +8834,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8855,7 +8857,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8924,7 +8926,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -8970,7 +8972,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9016,7 +9018,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9085,7 +9087,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9108,7 +9110,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9154,7 +9156,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9177,7 +9179,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9200,7 +9202,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9223,7 +9225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9269,7 +9271,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9292,7 +9294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9315,7 +9317,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9338,7 +9340,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9358,7 +9360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9381,7 +9383,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9404,7 +9406,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9427,7 +9429,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9450,7 +9452,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9473,7 +9475,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9496,7 +9498,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9542,7 +9544,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9565,7 +9567,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9611,7 +9613,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9634,7 +9636,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9657,7 +9659,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9680,7 +9682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9726,7 +9728,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9749,7 +9751,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9772,7 +9774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9795,7 +9797,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9841,7 +9843,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9864,7 +9866,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9887,7 +9889,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9910,7 +9912,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -9979,7 +9981,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10002,7 +10004,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10026,7 +10028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10053,7 +10055,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10076,7 +10078,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>10</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10.8</v>
       </c>
@@ -10122,7 +10124,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.5</v>
       </c>
@@ -10145,7 +10147,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5.5</v>
       </c>
@@ -10168,7 +10170,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5</v>
       </c>
@@ -10191,7 +10193,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0.5</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>10.5</v>
       </c>
@@ -10237,7 +10239,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>14</v>
       </c>
@@ -10260,7 +10262,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -10283,7 +10285,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>3.5</v>
       </c>
@@ -10306,7 +10308,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10329,7 +10331,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -10375,7 +10377,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10398,7 +10400,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2.5</v>
       </c>
@@ -10421,7 +10423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6.5</v>
       </c>
@@ -10444,7 +10446,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>3.78</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7</v>
       </c>
@@ -10490,7 +10492,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2.5</v>
       </c>
@@ -10513,7 +10515,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -10536,7 +10538,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1</v>
       </c>
@@ -10559,7 +10561,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>10.5</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1.5</v>
       </c>
@@ -10605,7 +10607,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2.7</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -10651,7 +10653,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17.5</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>43</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>69.900000000000006</v>
       </c>
@@ -10719,16 +10721,6 @@
       <c r="H396" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" s="1"/>
-      <c r="B518" s="1"/>
-      <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
-      <c r="E518" s="1"/>
-      <c r="F518" s="1"/>
-      <c r="G518" s="1"/>
-      <c r="H518" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="405">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1208,6 +1208,27 @@
   </si>
   <si>
     <t>Ακουστικά bluetooth JBL</t>
+  </si>
+  <si>
+    <t>burger Στο Γασπαρ με Σταυρινό</t>
+  </si>
+  <si>
+    <t>Psihiko</t>
+  </si>
+  <si>
+    <t>παγωτό με Σταυρινό</t>
+  </si>
+  <si>
+    <t>ντάκος και σουβλάκι</t>
+  </si>
+  <si>
+    <t>fredo  espresso ( + Αντώνη)</t>
+  </si>
+  <si>
+    <t>fredo  espresso που χύθηκε</t>
+  </si>
+  <si>
+    <t>fredo espresso και Ζαμπονοτυρόπιτα</t>
   </si>
 </sst>
 </file>
@@ -1340,8 +1361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H396" totalsRowShown="0">
-  <autoFilter ref="A1:H396"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H403" totalsRowShown="0">
+  <autoFilter ref="A1:H403"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1643,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L396"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
-      <selection activeCell="J394" sqref="J394"/>
+    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
+      <selection activeCell="A403" sqref="A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10722,6 +10743,144 @@
         <v>260</v>
       </c>
     </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>16</v>
+      </c>
+      <c r="B397" t="s">
+        <v>223</v>
+      </c>
+      <c r="C397" s="2">
+        <v>43333</v>
+      </c>
+      <c r="D397" t="s">
+        <v>398</v>
+      </c>
+      <c r="E397" t="s">
+        <v>238</v>
+      </c>
+      <c r="F397">
+        <v>5</v>
+      </c>
+      <c r="H397" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B398" t="s">
+        <v>223</v>
+      </c>
+      <c r="C398" s="2">
+        <v>43333</v>
+      </c>
+      <c r="D398" t="s">
+        <v>400</v>
+      </c>
+      <c r="E398" t="s">
+        <v>238</v>
+      </c>
+      <c r="F398">
+        <v>5</v>
+      </c>
+      <c r="H398" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1.72</v>
+      </c>
+      <c r="B399" t="s">
+        <v>223</v>
+      </c>
+      <c r="C399" s="2">
+        <v>43334</v>
+      </c>
+      <c r="D399" t="s">
+        <v>401</v>
+      </c>
+      <c r="E399" t="s">
+        <v>238</v>
+      </c>
+      <c r="F399">
+        <v>4</v>
+      </c>
+      <c r="H399" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>6</v>
+      </c>
+      <c r="B400" t="s">
+        <v>223</v>
+      </c>
+      <c r="C400" s="2">
+        <v>43334</v>
+      </c>
+      <c r="D400" t="s">
+        <v>402</v>
+      </c>
+      <c r="E400" t="s">
+        <v>238</v>
+      </c>
+      <c r="F400">
+        <v>4</v>
+      </c>
+      <c r="H400" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1.8</v>
+      </c>
+      <c r="B401" t="s">
+        <v>223</v>
+      </c>
+      <c r="C401" s="2">
+        <v>43335</v>
+      </c>
+      <c r="D401" t="s">
+        <v>403</v>
+      </c>
+      <c r="E401" t="s">
+        <v>238</v>
+      </c>
+      <c r="F401">
+        <v>3</v>
+      </c>
+      <c r="H401" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B402" t="s">
+        <v>223</v>
+      </c>
+      <c r="C402" s="2">
+        <v>43335</v>
+      </c>
+      <c r="D402" t="s">
+        <v>404</v>
+      </c>
+      <c r="E402" t="s">
+        <v>238</v>
+      </c>
+      <c r="F402">
+        <v>4</v>
+      </c>
+      <c r="H402" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="412">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1229,6 +1229,27 @@
   </si>
   <si>
     <t>fredo espresso και Ζαμπονοτυρόπιτα</t>
+  </si>
+  <si>
+    <t>Δώρο στον Ηλία για τα γενέθια</t>
+  </si>
+  <si>
+    <t>Pyrgos</t>
+  </si>
+  <si>
+    <t>μακαρόνια, χόρτα, πίτσα coca-cola (+Ελένης, +Αντώνη)</t>
+  </si>
+  <si>
+    <t>Kalamata</t>
+  </si>
+  <si>
+    <t>ποτό (+ Αντώνη)</t>
+  </si>
+  <si>
+    <t>τσίχλα και παγωμένο τσάι</t>
+  </si>
+  <si>
+    <t>καφέ και παγωμένη σοκολάτα (+ Δήμητρας)</t>
   </si>
 </sst>
 </file>
@@ -1361,8 +1382,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H403" totalsRowShown="0">
-  <autoFilter ref="A1:H403"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H416" totalsRowShown="0">
+  <autoFilter ref="A1:H416"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1664,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L402"/>
+  <dimension ref="A1:L407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" workbookViewId="0">
-      <selection activeCell="A403" sqref="A403"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="H408" sqref="H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1696,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -10101,16 +10122,16 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B369" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C369" s="2">
-        <v>43324</v>
+        <v>43323</v>
       </c>
       <c r="D369" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="E369" t="s">
         <v>238</v>
@@ -10118,22 +10139,22 @@
       <c r="F369">
         <v>5</v>
       </c>
-      <c r="H369" t="s">
-        <v>242</v>
+      <c r="H369" s="1" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="B370" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C370" s="2">
-        <v>43326</v>
+        <v>43324</v>
       </c>
       <c r="D370" t="s">
-        <v>363</v>
+        <v>63</v>
       </c>
       <c r="E370" t="s">
         <v>238</v>
@@ -10141,22 +10162,22 @@
       <c r="F370">
         <v>5</v>
       </c>
-      <c r="H370" s="1" t="s">
-        <v>263</v>
+      <c r="H370" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="B371" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="C371" s="2">
         <v>43326</v>
       </c>
       <c r="D371" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E371" t="s">
         <v>238</v>
@@ -10170,7 +10191,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="B372" t="s">
         <v>223</v>
@@ -10179,7 +10200,7 @@
         <v>43326</v>
       </c>
       <c r="D372" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E372" t="s">
         <v>238</v>
@@ -10193,16 +10214,16 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="B373" t="s">
         <v>223</v>
       </c>
       <c r="C373" s="2">
-        <v>43327</v>
+        <v>43326</v>
       </c>
       <c r="D373" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E373" t="s">
         <v>238</v>
@@ -10216,16 +10237,16 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="C374" s="2">
         <v>43327</v>
       </c>
       <c r="D374" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E374" t="s">
         <v>238</v>
@@ -10239,16 +10260,16 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>10.5</v>
+        <v>0.5</v>
       </c>
       <c r="B375" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="C375" s="2">
         <v>43327</v>
       </c>
       <c r="D375" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E375" t="s">
         <v>238</v>
@@ -10262,7 +10283,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="B376" t="s">
         <v>223</v>
@@ -10271,7 +10292,7 @@
         <v>43327</v>
       </c>
       <c r="D376" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E376" t="s">
         <v>238</v>
@@ -10285,16 +10306,16 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B377" t="s">
         <v>223</v>
       </c>
       <c r="C377" s="2">
-        <v>43328</v>
+        <v>43327</v>
       </c>
       <c r="D377" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E377" t="s">
         <v>238</v>
@@ -10308,16 +10329,16 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>345</v>
+        <v>223</v>
       </c>
       <c r="C378" s="2">
         <v>43328</v>
       </c>
       <c r="D378" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E378" t="s">
         <v>238</v>
@@ -10334,13 +10355,13 @@
         <v>3.5</v>
       </c>
       <c r="B379" t="s">
-        <v>223</v>
+        <v>345</v>
       </c>
       <c r="C379" s="2">
         <v>43328</v>
       </c>
       <c r="D379" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E379" t="s">
         <v>238</v>
@@ -10360,10 +10381,10 @@
         <v>223</v>
       </c>
       <c r="C380" s="2">
-        <v>43329</v>
+        <v>43328</v>
       </c>
       <c r="D380" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E380" t="s">
         <v>238</v>
@@ -10377,7 +10398,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="B381" t="s">
         <v>223</v>
@@ -10386,7 +10407,7 @@
         <v>43329</v>
       </c>
       <c r="D381" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E381" t="s">
         <v>238</v>
@@ -10409,7 +10430,7 @@
         <v>43329</v>
       </c>
       <c r="D382" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E382" t="s">
         <v>238</v>
@@ -10423,7 +10444,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s">
         <v>223</v>
@@ -10432,7 +10453,7 @@
         <v>43329</v>
       </c>
       <c r="D383" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E383" t="s">
         <v>238</v>
@@ -10446,16 +10467,16 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="B384" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="C384" s="2">
         <v>43329</v>
       </c>
       <c r="D384" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E384" t="s">
         <v>238</v>
@@ -10469,16 +10490,16 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>3.78</v>
+        <v>6.5</v>
       </c>
       <c r="B385" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="C385" s="2">
         <v>43329</v>
       </c>
       <c r="D385" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E385" t="s">
         <v>238</v>
@@ -10492,7 +10513,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>7</v>
+        <v>3.78</v>
       </c>
       <c r="B386" t="s">
         <v>223</v>
@@ -10501,7 +10522,7 @@
         <v>43329</v>
       </c>
       <c r="D386" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E386" t="s">
         <v>238</v>
@@ -10515,16 +10536,16 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
         <v>223</v>
       </c>
       <c r="C387" s="2">
-        <v>43330</v>
+        <v>43329</v>
       </c>
       <c r="D387" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E387" t="s">
         <v>238</v>
@@ -10538,7 +10559,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="B388" t="s">
         <v>223</v>
@@ -10547,7 +10568,7 @@
         <v>43330</v>
       </c>
       <c r="D388" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E388" t="s">
         <v>238</v>
@@ -10561,7 +10582,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B389" t="s">
         <v>223</v>
@@ -10570,7 +10591,7 @@
         <v>43330</v>
       </c>
       <c r="D389" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E389" t="s">
         <v>238</v>
@@ -10584,7 +10605,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="B390" t="s">
         <v>223</v>
@@ -10593,7 +10614,7 @@
         <v>43330</v>
       </c>
       <c r="D390" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E390" t="s">
         <v>238</v>
@@ -10607,16 +10628,16 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
       <c r="B391" t="s">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="C391" s="2">
         <v>43330</v>
       </c>
       <c r="D391" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E391" t="s">
         <v>238</v>
@@ -10630,16 +10651,16 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="B392" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="C392" s="2">
-        <v>43331</v>
+        <v>43330</v>
       </c>
       <c r="D392" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E392" t="s">
         <v>238</v>
@@ -10653,7 +10674,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="B393" t="s">
         <v>223</v>
@@ -10662,7 +10683,7 @@
         <v>43331</v>
       </c>
       <c r="D393" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E393" t="s">
         <v>238</v>
@@ -10676,7 +10697,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>17.5</v>
+        <v>2</v>
       </c>
       <c r="B394" t="s">
         <v>223</v>
@@ -10685,7 +10706,7 @@
         <v>43331</v>
       </c>
       <c r="D394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E394" t="s">
         <v>238</v>
@@ -10699,16 +10720,16 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>43</v>
+        <v>17.5</v>
       </c>
       <c r="B395" t="s">
-        <v>344</v>
+        <v>223</v>
       </c>
       <c r="C395" s="2">
-        <v>43332</v>
+        <v>43331</v>
       </c>
       <c r="D395" t="s">
-        <v>94</v>
+        <v>396</v>
       </c>
       <c r="E395" t="s">
         <v>238</v>
@@ -10716,22 +10737,22 @@
       <c r="F395">
         <v>5</v>
       </c>
-      <c r="H395" t="s">
-        <v>242</v>
+      <c r="H395" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>69.900000000000006</v>
+        <v>43</v>
       </c>
       <c r="B396" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C396" s="2">
         <v>43332</v>
       </c>
       <c r="D396" t="s">
-        <v>397</v>
+        <v>94</v>
       </c>
       <c r="E396" t="s">
         <v>238</v>
@@ -10740,21 +10761,21 @@
         <v>5</v>
       </c>
       <c r="H396" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>16</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="B397" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="C397" s="2">
-        <v>43333</v>
+        <v>43332</v>
       </c>
       <c r="D397" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E397" t="s">
         <v>238</v>
@@ -10763,12 +10784,12 @@
         <v>5</v>
       </c>
       <c r="H397" t="s">
-        <v>399</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>2.2000000000000002</v>
+        <v>16</v>
       </c>
       <c r="B398" t="s">
         <v>223</v>
@@ -10777,7 +10798,7 @@
         <v>43333</v>
       </c>
       <c r="D398" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E398" t="s">
         <v>238</v>
@@ -10791,30 +10812,30 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1.72</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B399" t="s">
         <v>223</v>
       </c>
       <c r="C399" s="2">
-        <v>43334</v>
+        <v>43333</v>
       </c>
       <c r="D399" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E399" t="s">
         <v>238</v>
       </c>
       <c r="F399">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H399" t="s">
-        <v>251</v>
+        <v>399</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6</v>
+        <v>1.72</v>
       </c>
       <c r="B400" t="s">
         <v>223</v>
@@ -10823,7 +10844,7 @@
         <v>43334</v>
       </c>
       <c r="D400" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E400" t="s">
         <v>238</v>
@@ -10832,35 +10853,35 @@
         <v>4</v>
       </c>
       <c r="H400" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="B401" t="s">
         <v>223</v>
       </c>
       <c r="C401" s="2">
-        <v>43335</v>
+        <v>43334</v>
       </c>
       <c r="D401" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E401" t="s">
         <v>238</v>
       </c>
       <c r="F401">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H401" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>4.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="B402" t="s">
         <v>223</v>
@@ -10869,16 +10890,131 @@
         <v>43335</v>
       </c>
       <c r="D402" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E402" t="s">
         <v>238</v>
       </c>
       <c r="F402">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H402" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B403" t="s">
+        <v>223</v>
+      </c>
+      <c r="C403" s="2">
+        <v>43335</v>
+      </c>
+      <c r="D403" t="s">
+        <v>404</v>
+      </c>
+      <c r="E403" t="s">
+        <v>238</v>
+      </c>
+      <c r="F403">
+        <v>4</v>
+      </c>
+      <c r="H403" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>27</v>
+      </c>
+      <c r="B404" t="s">
+        <v>223</v>
+      </c>
+      <c r="C404" s="2">
+        <v>43337</v>
+      </c>
+      <c r="D404" t="s">
+        <v>407</v>
+      </c>
+      <c r="E404" t="s">
+        <v>238</v>
+      </c>
+      <c r="F404">
+        <v>5</v>
+      </c>
+      <c r="H404" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>14</v>
+      </c>
+      <c r="B405" t="s">
+        <v>223</v>
+      </c>
+      <c r="C405" s="2">
+        <v>43338</v>
+      </c>
+      <c r="D405" t="s">
+        <v>409</v>
+      </c>
+      <c r="E405" t="s">
+        <v>238</v>
+      </c>
+      <c r="F405">
+        <v>5</v>
+      </c>
+      <c r="H405" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2.5</v>
+      </c>
+      <c r="B406" t="s">
+        <v>223</v>
+      </c>
+      <c r="C406" s="2">
+        <v>43338</v>
+      </c>
+      <c r="D406" t="s">
+        <v>410</v>
+      </c>
+      <c r="E406" t="s">
+        <v>238</v>
+      </c>
+      <c r="F406">
+        <v>5</v>
+      </c>
+      <c r="H406" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>10</v>
+      </c>
+      <c r="B407" t="s">
+        <v>223</v>
+      </c>
+      <c r="C407" s="2">
+        <v>43338</v>
+      </c>
+      <c r="D407" t="s">
+        <v>411</v>
+      </c>
+      <c r="E407" t="s">
+        <v>238</v>
+      </c>
+      <c r="F407">
+        <v>5</v>
+      </c>
+      <c r="H407" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="417">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1250,6 +1250,21 @@
   </si>
   <si>
     <t>καφέ και παγωμένη σοκολάτα (+ Δήμητρας)</t>
+  </si>
+  <si>
+    <t>σουβλάκια Κρέας στην πυρά (+ Μανούλας)</t>
+  </si>
+  <si>
+    <t>Street work</t>
+  </si>
+  <si>
+    <t>Καφές Αλεξ</t>
+  </si>
+  <si>
+    <t>Mall με Δήμητρα, Frape Bistro</t>
+  </si>
+  <si>
+    <t>πρωινό κουλούρι και κρουασαν σοκολάτα</t>
   </si>
 </sst>
 </file>
@@ -1685,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L407"/>
+  <dimension ref="A1:L412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="H408" sqref="H408"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11014,7 +11029,122 @@
         <v>5</v>
       </c>
       <c r="H407" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>11</v>
+      </c>
+      <c r="B408" t="s">
+        <v>223</v>
+      </c>
+      <c r="C408" s="2">
+        <v>43338</v>
+      </c>
+      <c r="D408" t="s">
+        <v>412</v>
+      </c>
+      <c r="E408" t="s">
+        <v>238</v>
+      </c>
+      <c r="F408">
+        <v>5</v>
+      </c>
+      <c r="H408" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>5.55</v>
+      </c>
+      <c r="B409" t="s">
+        <v>223</v>
+      </c>
+      <c r="C409" s="2">
+        <v>43341</v>
+      </c>
+      <c r="D409" t="s">
+        <v>413</v>
+      </c>
+      <c r="E409" t="s">
+        <v>238</v>
+      </c>
+      <c r="F409">
+        <v>5</v>
+      </c>
+      <c r="H409" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>3</v>
+      </c>
+      <c r="B410" t="s">
+        <v>223</v>
+      </c>
+      <c r="C410" s="2">
+        <v>43341</v>
+      </c>
+      <c r="D410" t="s">
+        <v>414</v>
+      </c>
+      <c r="E410" t="s">
+        <v>238</v>
+      </c>
+      <c r="F410">
+        <v>5</v>
+      </c>
+      <c r="H410" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>3.5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>223</v>
+      </c>
+      <c r="C411" s="2">
+        <v>43342</v>
+      </c>
+      <c r="D411" t="s">
+        <v>415</v>
+      </c>
+      <c r="E411" t="s">
+        <v>238</v>
+      </c>
+      <c r="F411">
+        <v>5</v>
+      </c>
+      <c r="H411" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>3.8</v>
+      </c>
+      <c r="B412" t="s">
+        <v>223</v>
+      </c>
+      <c r="C412" s="2">
+        <v>43342</v>
+      </c>
+      <c r="D412" t="s">
+        <v>416</v>
+      </c>
+      <c r="E412" t="s">
+        <v>238</v>
+      </c>
+      <c r="F412">
+        <v>5</v>
+      </c>
+      <c r="H412" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="costs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1270,12 +1270,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,7 +1316,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1414,7 +1414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1456,7 +1456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,10 +1488,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1523,7 +1522,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1699,14 +1697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="C412" sqref="C412"/>
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1722,7 +1720,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1751,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1775,7 +1773,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1798,7 +1796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1821,7 +1819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1844,7 +1842,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1867,7 +1865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1890,7 +1888,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1913,7 +1911,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1936,7 +1934,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1959,7 +1957,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1982,7 +1980,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2028,7 +2026,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2097,7 +2095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2143,7 +2141,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2166,7 +2164,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2189,7 +2187,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2258,7 +2256,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2281,7 +2279,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2304,7 +2302,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2350,7 +2348,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2373,7 +2371,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2396,7 +2394,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2419,7 +2417,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2442,7 +2440,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2465,7 +2463,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2508,7 +2506,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2531,7 +2529,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2577,7 +2575,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2600,7 +2598,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2623,7 +2621,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2646,7 +2644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2669,7 +2667,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2692,7 +2690,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2738,7 +2736,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2761,7 +2759,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2784,7 +2782,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2830,7 +2828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2876,7 +2874,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2899,7 +2897,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2922,7 +2920,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2945,7 +2943,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2969,7 +2967,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2992,7 +2990,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3038,7 +3036,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3084,7 +3082,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3107,7 +3105,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3130,7 +3128,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3153,7 +3151,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3176,7 +3174,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3245,7 +3243,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3269,7 +3267,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3292,7 +3290,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3315,7 +3313,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3384,7 +3382,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3431,7 +3429,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3477,7 +3475,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3500,7 +3498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3523,7 +3521,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3592,7 +3590,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3661,7 +3659,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3684,7 +3682,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3707,7 +3705,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3730,7 +3728,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3776,7 +3774,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3799,7 +3797,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3822,7 +3820,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3868,7 +3866,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3891,13 +3889,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3920,7 +3918,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3966,7 +3964,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4035,10 +4033,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4107,7 +4105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4153,7 +4151,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4176,7 +4174,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4199,7 +4197,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4245,7 +4243,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4291,7 +4289,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4314,7 +4312,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4337,7 +4335,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4360,7 +4358,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4383,7 +4381,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4406,7 +4404,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4429,7 +4427,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4452,7 +4450,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4475,7 +4473,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4498,7 +4496,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4521,7 +4519,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4544,7 +4542,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4590,7 +4588,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4613,7 +4611,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4636,7 +4634,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4659,7 +4657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4682,7 +4680,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4705,7 +4703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4728,7 +4726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4751,7 +4749,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4774,7 +4772,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4797,7 +4795,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4820,7 +4818,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4843,7 +4841,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4866,7 +4864,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4889,7 +4887,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4912,7 +4910,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4935,7 +4933,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4981,7 +4979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5004,7 +5002,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5027,7 +5025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5050,7 +5048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5073,7 +5071,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5096,7 +5094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5119,7 +5117,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5142,7 +5140,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5165,7 +5163,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5188,7 +5186,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5211,7 +5209,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5234,7 +5232,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5303,7 +5301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5326,7 +5324,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5349,7 +5347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5372,7 +5370,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5395,7 +5393,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5418,7 +5416,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5441,7 +5439,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5464,7 +5462,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5487,7 +5485,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5510,7 +5508,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5533,7 +5531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5556,7 +5554,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5579,7 +5577,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5602,7 +5600,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5625,7 +5623,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5648,7 +5646,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5671,7 +5669,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5694,7 +5692,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5717,7 +5715,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5740,7 +5738,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5763,7 +5761,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5786,7 +5784,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5809,7 +5807,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5832,7 +5830,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5855,7 +5853,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5901,7 +5899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5947,7 +5945,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5970,7 +5968,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5993,7 +5991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6016,7 +6014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6039,7 +6037,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6062,7 +6060,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6085,7 +6083,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6108,7 +6106,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6131,7 +6129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6154,7 +6152,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6200,7 +6198,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6223,7 +6221,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6246,7 +6244,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6269,7 +6267,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6292,7 +6290,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6315,7 +6313,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6338,7 +6336,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6361,7 +6359,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6384,7 +6382,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6407,7 +6405,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6430,7 +6428,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6453,7 +6451,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6476,7 +6474,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6499,7 +6497,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6522,7 +6520,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6545,7 +6543,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6568,7 +6566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6591,7 +6589,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6614,7 +6612,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6637,7 +6635,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6660,7 +6658,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6706,7 +6704,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6752,7 +6750,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6775,7 +6773,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6798,7 +6796,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6821,7 +6819,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6844,7 +6842,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6890,7 +6888,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6913,7 +6911,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6959,7 +6957,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6982,7 +6980,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7005,7 +7003,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7028,7 +7026,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7074,7 +7072,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7120,7 +7118,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7143,7 +7141,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7166,7 +7164,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7212,7 +7210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7235,7 +7233,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7258,7 +7256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7281,7 +7279,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7304,7 +7302,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7327,7 +7325,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7350,7 +7348,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7373,7 +7371,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7396,7 +7394,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7419,7 +7417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7442,7 +7440,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7488,7 +7486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7511,7 +7509,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7534,7 +7532,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7580,7 +7578,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7603,7 +7601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7626,7 +7624,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7649,7 +7647,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7672,7 +7670,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7695,7 +7693,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7718,7 +7716,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7741,7 +7739,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7764,7 +7762,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7787,7 +7785,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7810,7 +7808,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7833,7 +7831,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7856,7 +7854,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7879,7 +7877,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7902,7 +7900,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7948,7 +7946,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7971,7 +7969,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7994,7 +7992,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8017,7 +8015,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8040,7 +8038,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8063,7 +8061,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8086,7 +8084,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8109,7 +8107,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8132,7 +8130,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8155,7 +8153,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8178,7 +8176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8224,7 +8222,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8247,7 +8245,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8270,7 +8268,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8293,7 +8291,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8316,7 +8314,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8339,7 +8337,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8362,7 +8360,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8385,7 +8383,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8408,7 +8406,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8431,7 +8429,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8454,7 +8452,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8500,7 +8498,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8523,7 +8521,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8546,7 +8544,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8569,7 +8567,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8592,7 +8590,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8615,7 +8613,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8638,7 +8636,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8661,7 +8659,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8684,7 +8682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8707,7 +8705,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8730,7 +8728,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8753,7 +8751,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8776,7 +8774,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8799,7 +8797,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8822,7 +8820,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8845,7 +8843,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8868,7 +8866,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8891,7 +8889,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8914,7 +8912,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8937,7 +8935,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8983,7 +8981,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9006,7 +9004,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9029,7 +9027,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9052,7 +9050,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9075,7 +9073,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9098,7 +9096,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9121,7 +9119,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9144,7 +9142,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9167,7 +9165,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9190,7 +9188,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9236,7 +9234,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9259,7 +9257,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9305,7 +9303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9328,7 +9326,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9351,7 +9349,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9374,7 +9372,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9397,7 +9395,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9417,7 +9415,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9463,7 +9461,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9486,7 +9484,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9509,7 +9507,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9532,7 +9530,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9555,7 +9553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9578,7 +9576,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9601,7 +9599,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9647,7 +9645,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9670,7 +9668,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9693,7 +9691,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9716,7 +9714,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9739,7 +9737,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9762,7 +9760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9785,7 +9783,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9808,7 +9806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9831,7 +9829,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9854,7 +9852,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9877,7 +9875,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9900,7 +9898,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9923,7 +9921,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9946,7 +9944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9969,7 +9967,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -9992,7 +9990,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10015,7 +10013,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10038,7 +10036,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10061,7 +10059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10085,7 +10083,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10112,7 +10110,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10135,7 +10133,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10158,7 +10156,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10204,7 +10202,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10227,7 +10225,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10250,7 +10248,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10273,7 +10271,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10296,7 +10294,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10319,7 +10317,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10342,7 +10340,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10365,7 +10363,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10388,7 +10386,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10411,7 +10409,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10434,7 +10432,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10457,7 +10455,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10480,7 +10478,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10503,7 +10501,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10526,7 +10524,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10549,7 +10547,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10572,7 +10570,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10595,7 +10593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10618,7 +10616,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10641,7 +10639,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10664,7 +10662,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10687,7 +10685,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10710,7 +10708,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10733,7 +10731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10756,7 +10754,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10779,7 +10777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10802,7 +10800,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10825,7 +10823,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10848,7 +10846,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10871,7 +10869,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10894,7 +10892,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10917,7 +10915,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -10940,7 +10938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>27</v>
       </c>
@@ -10963,7 +10961,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>14</v>
       </c>
@@ -10986,7 +10984,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11009,7 +11007,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11032,7 +11030,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11055,7 +11053,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11078,12 +11076,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>3</v>
       </c>
       <c r="B410" t="s">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="C410" s="2">
         <v>43341</v>
@@ -11101,7 +11099,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11124,7 +11122,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>3.8</v>
       </c>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:L412"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="B411" sqref="B411"/>
+      <selection activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="419">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1265,6 +1265,12 @@
   </si>
   <si>
     <t>πρωινό κουλούρι και κρουασαν σοκολάτα</t>
+  </si>
+  <si>
+    <t>φαγητό του κώστα στην Dataverse</t>
+  </si>
+  <si>
+    <t>βενζίνη πέτρου για να με πάει σπίτι</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L412"/>
+  <dimension ref="A1:L414"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A413" sqref="A413"/>
+      <selection activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11145,6 +11151,52 @@
         <v>260</v>
       </c>
     </row>
+    <row r="413" spans="1:8">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>350</v>
+      </c>
+      <c r="C413" s="2">
+        <v>43343</v>
+      </c>
+      <c r="D413" t="s">
+        <v>417</v>
+      </c>
+      <c r="E413" t="s">
+        <v>238</v>
+      </c>
+      <c r="F413">
+        <v>5</v>
+      </c>
+      <c r="H413" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>344</v>
+      </c>
+      <c r="C414" s="2">
+        <v>43140</v>
+      </c>
+      <c r="D414" t="s">
+        <v>418</v>
+      </c>
+      <c r="E414" t="s">
+        <v>238</v>
+      </c>
+      <c r="F414">
+        <v>5</v>
+      </c>
+      <c r="H414" t="s">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="422">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1271,17 +1271,26 @@
   </si>
   <si>
     <t>βενζίνη πέτρου για να με πάει σπίτι</t>
+  </si>
+  <si>
+    <t>σουβλάκια και coca-cola (+ μανούλας)</t>
+  </si>
+  <si>
+    <t>fruse tea</t>
+  </si>
+  <si>
+    <t>καπνογόνα για τον γάμο του Άγγελου</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,7 +1331,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1403,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H416" totalsRowShown="0">
-  <autoFilter ref="A1:H416"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H417" totalsRowShown="0">
+  <autoFilter ref="A1:H417"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1420,7 +1429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1462,7 +1471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,9 +1503,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1528,6 +1538,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1703,14 +1714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L414"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L417"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415"/>
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1726,7 +1737,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1755,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1779,7 +1790,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1802,7 +1813,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1825,7 +1836,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1848,7 +1859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1917,7 +1928,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1940,7 +1951,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1963,7 +1974,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2009,7 +2020,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2055,7 +2066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2078,7 +2089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2101,7 +2112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2124,7 +2135,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2170,7 +2181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2193,7 +2204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2216,7 +2227,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2239,7 +2250,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2354,7 +2365,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2377,7 +2388,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2400,7 +2411,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2423,7 +2434,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2446,7 +2457,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2469,7 +2480,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2535,7 +2546,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2558,7 +2569,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2581,7 +2592,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2627,7 +2638,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2650,7 +2661,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2673,7 +2684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2696,7 +2707,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2719,7 +2730,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2742,7 +2753,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2765,7 +2776,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2788,7 +2799,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2834,7 +2845,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2880,7 +2891,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2903,7 +2914,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2926,7 +2937,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2949,7 +2960,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -2973,7 +2984,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -2996,7 +3007,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3019,7 +3030,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3042,7 +3053,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3088,7 +3099,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3111,7 +3122,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3134,7 +3145,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3157,7 +3168,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3180,7 +3191,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3203,7 +3214,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3226,7 +3237,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3249,7 +3260,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3273,7 +3284,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3296,7 +3307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3319,7 +3330,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3342,7 +3353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3388,7 +3399,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3411,7 +3422,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3435,7 +3446,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3458,7 +3469,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3481,7 +3492,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3504,7 +3515,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3527,7 +3538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3550,7 +3561,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3573,7 +3584,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3596,7 +3607,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3619,7 +3630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3642,7 +3653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3665,7 +3676,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3688,7 +3699,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3711,7 +3722,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3734,7 +3745,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3826,7 +3837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3849,7 +3860,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3872,7 +3883,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3895,13 +3906,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3924,7 +3935,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3947,7 +3958,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3970,7 +3981,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -3993,7 +4004,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4016,7 +4027,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4039,10 +4050,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4065,7 +4076,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4088,7 +4099,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4111,7 +4122,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4134,7 +4145,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4203,7 +4214,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4226,7 +4237,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4249,7 +4260,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4272,7 +4283,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4364,7 +4375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4387,7 +4398,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4410,7 +4421,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4433,7 +4444,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4456,7 +4467,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4479,7 +4490,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4502,7 +4513,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4525,7 +4536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4548,7 +4559,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4571,7 +4582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4594,7 +4605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4617,7 +4628,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4640,7 +4651,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4663,7 +4674,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4686,7 +4697,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4709,7 +4720,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4732,7 +4743,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4755,7 +4766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4778,7 +4789,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4801,7 +4812,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4847,7 +4858,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4870,7 +4881,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4893,7 +4904,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4916,7 +4927,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4939,7 +4950,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4962,7 +4973,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -4985,7 +4996,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5008,7 +5019,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5031,7 +5042,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5054,7 +5065,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5077,7 +5088,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5100,7 +5111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5123,7 +5134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5146,7 +5157,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5169,7 +5180,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5192,7 +5203,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5215,7 +5226,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5238,7 +5249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5261,7 +5272,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5284,7 +5295,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5307,7 +5318,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5330,7 +5341,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5353,7 +5364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5376,7 +5387,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5399,7 +5410,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5422,7 +5433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5445,7 +5456,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5468,7 +5479,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5491,7 +5502,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5514,7 +5525,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5537,7 +5548,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5583,7 +5594,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5606,7 +5617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5652,7 +5663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5675,7 +5686,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5698,7 +5709,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5721,7 +5732,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5744,7 +5755,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5767,7 +5778,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5790,7 +5801,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5813,7 +5824,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5836,7 +5847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5859,7 +5870,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5882,7 +5893,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5905,7 +5916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5951,7 +5962,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -5974,7 +5985,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -5997,7 +6008,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6020,7 +6031,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6043,7 +6054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6066,7 +6077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6089,7 +6100,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6112,7 +6123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6135,7 +6146,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6158,7 +6169,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6204,7 +6215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6227,7 +6238,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6250,7 +6261,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6273,7 +6284,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6296,7 +6307,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6319,7 +6330,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6342,7 +6353,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6388,7 +6399,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6411,7 +6422,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6434,7 +6445,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6457,7 +6468,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6480,7 +6491,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6503,7 +6514,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6526,7 +6537,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6549,7 +6560,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6572,7 +6583,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6618,7 +6629,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6641,7 +6652,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6664,7 +6675,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6687,7 +6698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6710,7 +6721,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6733,7 +6744,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6756,7 +6767,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6779,7 +6790,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6802,7 +6813,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6825,7 +6836,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6848,7 +6859,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6871,7 +6882,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6894,7 +6905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6917,7 +6928,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6940,7 +6951,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6963,7 +6974,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7009,7 +7020,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7032,7 +7043,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7055,7 +7066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7078,7 +7089,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7101,7 +7112,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7124,7 +7135,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7147,7 +7158,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7170,7 +7181,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7193,7 +7204,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7216,7 +7227,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7239,7 +7250,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7262,7 +7273,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7285,7 +7296,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7308,7 +7319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7331,7 +7342,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7354,7 +7365,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7377,7 +7388,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7400,7 +7411,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7446,7 +7457,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7469,7 +7480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7492,7 +7503,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7515,7 +7526,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7538,7 +7549,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7561,7 +7572,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7584,7 +7595,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7607,7 +7618,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7630,7 +7641,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7653,7 +7664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7676,7 +7687,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7699,7 +7710,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7722,7 +7733,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7745,7 +7756,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7768,7 +7779,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7791,7 +7802,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7814,7 +7825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7837,7 +7848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7860,7 +7871,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7883,7 +7894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7906,7 +7917,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7929,7 +7940,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7952,7 +7963,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -7975,7 +7986,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -7998,7 +8009,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8021,7 +8032,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8044,7 +8055,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8067,7 +8078,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8090,7 +8101,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8113,7 +8124,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8136,7 +8147,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8159,7 +8170,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8182,7 +8193,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8205,7 +8216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8228,7 +8239,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8251,7 +8262,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8274,7 +8285,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8297,7 +8308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8320,7 +8331,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8366,7 +8377,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8389,7 +8400,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8412,7 +8423,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8435,7 +8446,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8458,7 +8469,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8481,7 +8492,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8504,7 +8515,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8527,7 +8538,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8550,7 +8561,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8573,7 +8584,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8596,7 +8607,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8619,7 +8630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8642,7 +8653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8665,7 +8676,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8688,7 +8699,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8711,7 +8722,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8734,7 +8745,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8757,7 +8768,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8780,7 +8791,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8803,7 +8814,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8826,7 +8837,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8849,7 +8860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8872,7 +8883,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8895,7 +8906,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8918,7 +8929,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8941,7 +8952,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8964,7 +8975,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -8987,7 +8998,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9010,7 +9021,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9033,7 +9044,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9056,7 +9067,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9102,7 +9113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9125,7 +9136,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9148,7 +9159,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9171,7 +9182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9194,7 +9205,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9217,7 +9228,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9240,7 +9251,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9263,7 +9274,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9286,7 +9297,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9309,7 +9320,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9332,7 +9343,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9355,7 +9366,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9378,7 +9389,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9401,7 +9412,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9421,7 +9432,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9444,7 +9455,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9467,7 +9478,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9490,7 +9501,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9513,7 +9524,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9536,7 +9547,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9559,7 +9570,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9582,7 +9593,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9605,7 +9616,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9628,7 +9639,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9651,7 +9662,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9674,7 +9685,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9720,7 +9731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9743,7 +9754,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9766,7 +9777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9789,7 +9800,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9812,7 +9823,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9835,7 +9846,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9858,7 +9869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9881,7 +9892,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9904,7 +9915,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9927,7 +9938,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9950,7 +9961,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -9973,7 +9984,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -9996,7 +10007,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10019,7 +10030,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10042,7 +10053,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10065,7 +10076,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10089,7 +10100,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10116,7 +10127,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10139,7 +10150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10162,7 +10173,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10185,7 +10196,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10208,7 +10219,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10231,7 +10242,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10254,7 +10265,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10277,7 +10288,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10300,7 +10311,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10323,7 +10334,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10346,7 +10357,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10369,7 +10380,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10392,7 +10403,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10415,7 +10426,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10438,7 +10449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10484,7 +10495,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10507,7 +10518,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10553,7 +10564,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10576,7 +10587,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10599,7 +10610,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10622,7 +10633,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10645,7 +10656,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10668,7 +10679,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10691,7 +10702,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10714,7 +10725,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10737,7 +10748,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10760,7 +10771,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10783,7 +10794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10806,7 +10817,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10829,7 +10840,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10852,7 +10863,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10875,7 +10886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10921,7 +10932,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>27</v>
       </c>
@@ -10967,7 +10978,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>14</v>
       </c>
@@ -10990,7 +11001,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11013,7 +11024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11036,7 +11047,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11059,7 +11070,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11082,7 +11093,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11105,7 +11116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11128,7 +11139,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11151,7 +11162,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11174,7 +11185,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11195,6 +11206,75 @@
       </c>
       <c r="H414" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>11.6</v>
+      </c>
+      <c r="B415" t="s">
+        <v>223</v>
+      </c>
+      <c r="C415" s="2">
+        <v>43168</v>
+      </c>
+      <c r="D415" t="s">
+        <v>419</v>
+      </c>
+      <c r="E415" t="s">
+        <v>238</v>
+      </c>
+      <c r="F415">
+        <v>5</v>
+      </c>
+      <c r="H415" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1.6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>223</v>
+      </c>
+      <c r="C416" s="2">
+        <v>43199</v>
+      </c>
+      <c r="D416" t="s">
+        <v>420</v>
+      </c>
+      <c r="E416" t="s">
+        <v>238</v>
+      </c>
+      <c r="F416">
+        <v>4</v>
+      </c>
+      <c r="H416" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>44.41</v>
+      </c>
+      <c r="B417" t="s">
+        <v>345</v>
+      </c>
+      <c r="C417" s="2">
+        <v>43199</v>
+      </c>
+      <c r="D417" t="s">
+        <v>421</v>
+      </c>
+      <c r="E417" t="s">
+        <v>238</v>
+      </c>
+      <c r="F417">
+        <v>4</v>
+      </c>
+      <c r="H417" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="428">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1280,6 +1280,24 @@
   </si>
   <si>
     <t>καπνογόνα για τον γάμο του Άγγελου</t>
+  </si>
+  <si>
+    <t>πίτσα και κουλούρι</t>
+  </si>
+  <si>
+    <t>κρέπα σοκολάτα (+ Κώστα)</t>
+  </si>
+  <si>
+    <t>sprite με τα Φακινάκια</t>
+  </si>
+  <si>
+    <t>club sandwitch με Φακίνο</t>
+  </si>
+  <si>
+    <t>σουβλάκια μανούλας</t>
+  </si>
+  <si>
+    <t>Alpha bank Web transfer</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H417" totalsRowShown="0">
-  <autoFilter ref="A1:H417"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H426" totalsRowShown="0">
+  <autoFilter ref="A1:H426"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1715,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L417"/>
+  <dimension ref="A1:L426"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+      <selection activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11193,7 +11211,7 @@
         <v>344</v>
       </c>
       <c r="C414" s="2">
-        <v>43140</v>
+        <v>43345</v>
       </c>
       <c r="D414" t="s">
         <v>418</v>
@@ -11216,7 +11234,7 @@
         <v>223</v>
       </c>
       <c r="C415" s="2">
-        <v>43168</v>
+        <v>43346</v>
       </c>
       <c r="D415" t="s">
         <v>419</v>
@@ -11239,7 +11257,7 @@
         <v>223</v>
       </c>
       <c r="C416" s="2">
-        <v>43199</v>
+        <v>43347</v>
       </c>
       <c r="D416" t="s">
         <v>420</v>
@@ -11262,7 +11280,7 @@
         <v>345</v>
       </c>
       <c r="C417" s="2">
-        <v>43199</v>
+        <v>43347</v>
       </c>
       <c r="D417" t="s">
         <v>421</v>
@@ -11274,6 +11292,213 @@
         <v>4</v>
       </c>
       <c r="H417" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>4.8</v>
+      </c>
+      <c r="B418" t="s">
+        <v>223</v>
+      </c>
+      <c r="C418" s="2">
+        <v>43347</v>
+      </c>
+      <c r="D418" t="s">
+        <v>203</v>
+      </c>
+      <c r="E418" t="s">
+        <v>238</v>
+      </c>
+      <c r="F418">
+        <v>4</v>
+      </c>
+      <c r="H418" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1.7</v>
+      </c>
+      <c r="B419" t="s">
+        <v>223</v>
+      </c>
+      <c r="C419" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D419" t="s">
+        <v>420</v>
+      </c>
+      <c r="E419" t="s">
+        <v>238</v>
+      </c>
+      <c r="F419">
+        <v>4</v>
+      </c>
+      <c r="H419" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2.85</v>
+      </c>
+      <c r="B420" t="s">
+        <v>223</v>
+      </c>
+      <c r="C420" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D420" t="s">
+        <v>422</v>
+      </c>
+      <c r="E420" t="s">
+        <v>238</v>
+      </c>
+      <c r="F420">
+        <v>4</v>
+      </c>
+      <c r="H420" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>6.4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>223</v>
+      </c>
+      <c r="C421" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D421" t="s">
+        <v>423</v>
+      </c>
+      <c r="E421" t="s">
+        <v>238</v>
+      </c>
+      <c r="F421">
+        <v>4</v>
+      </c>
+      <c r="H421" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>3.5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>348</v>
+      </c>
+      <c r="C422" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D422" t="s">
+        <v>76</v>
+      </c>
+      <c r="E422" t="s">
+        <v>238</v>
+      </c>
+      <c r="F422">
+        <v>4</v>
+      </c>
+      <c r="H422" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>6.5</v>
+      </c>
+      <c r="B423" t="s">
+        <v>223</v>
+      </c>
+      <c r="C423" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D423" t="s">
+        <v>425</v>
+      </c>
+      <c r="E423" t="s">
+        <v>238</v>
+      </c>
+      <c r="F423">
+        <v>4</v>
+      </c>
+      <c r="H423" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1.2</v>
+      </c>
+      <c r="B424" t="s">
+        <v>223</v>
+      </c>
+      <c r="C424" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D424" t="s">
+        <v>424</v>
+      </c>
+      <c r="E424" t="s">
+        <v>238</v>
+      </c>
+      <c r="F424">
+        <v>5</v>
+      </c>
+      <c r="H424" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B425" t="s">
+        <v>223</v>
+      </c>
+      <c r="C425" s="2">
+        <v>43348</v>
+      </c>
+      <c r="D425" t="s">
+        <v>426</v>
+      </c>
+      <c r="E425" t="s">
+        <v>238</v>
+      </c>
+      <c r="F425">
+        <v>4</v>
+      </c>
+      <c r="H425" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>8</v>
+      </c>
+      <c r="B426" t="s">
+        <v>354</v>
+      </c>
+      <c r="C426" s="2">
+        <v>43349</v>
+      </c>
+      <c r="D426" t="s">
+        <v>427</v>
+      </c>
+      <c r="E426" t="s">
+        <v>238</v>
+      </c>
+      <c r="F426">
+        <v>4</v>
+      </c>
+      <c r="H426" t="s">
         <v>251</v>
       </c>
     </row>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="D427" sqref="D427"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="C426" sqref="C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11487,7 +11487,7 @@
         <v>354</v>
       </c>
       <c r="C426" s="2">
-        <v>43349</v>
+        <v>43379</v>
       </c>
       <c r="D426" t="s">
         <v>427</v>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="432">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1298,17 +1298,29 @@
   </si>
   <si>
     <t>Alpha bank Web transfer</t>
+  </si>
+  <si>
+    <t>ταξί για τον γάμο</t>
+  </si>
+  <si>
+    <t>Petroupoli</t>
+  </si>
+  <si>
+    <t>δώρο γάμου</t>
+  </si>
+  <si>
+    <t>ταξί από το Ιλιον για σπίτι</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1349,7 +1361,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1430,8 +1442,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H426" totalsRowShown="0">
-  <autoFilter ref="A1:H426"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H436" totalsRowShown="0">
+  <autoFilter ref="A1:H436"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1447,7 +1459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1489,7 +1501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1521,10 +1533,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,7 +1567,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1732,14 +1742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L426"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="C426" sqref="C426"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1755,7 +1765,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1784,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1808,7 +1818,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1831,7 +1841,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1923,7 +1933,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1946,7 +1956,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2015,7 +2025,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2061,7 +2071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2176,7 +2186,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2199,7 +2209,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2222,7 +2232,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2245,7 +2255,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2268,7 +2278,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2314,7 +2324,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2337,7 +2347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2406,7 +2416,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2429,7 +2439,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2452,7 +2462,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2475,7 +2485,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2498,7 +2508,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2541,7 +2551,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2656,7 +2666,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2748,7 +2758,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2771,7 +2781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2817,7 +2827,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2886,7 +2896,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2909,7 +2919,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2932,7 +2942,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2955,7 +2965,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2978,7 +2988,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3002,7 +3012,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3025,7 +3035,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3140,7 +3150,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3163,7 +3173,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3209,7 +3219,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3232,7 +3242,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3255,7 +3265,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3278,7 +3288,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3302,7 +3312,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3348,7 +3358,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3371,7 +3381,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3394,7 +3404,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3417,7 +3427,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3440,7 +3450,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3464,7 +3474,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3487,7 +3497,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3510,7 +3520,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3556,7 +3566,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3602,7 +3612,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3625,7 +3635,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3671,7 +3681,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3694,7 +3704,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3717,7 +3727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3740,7 +3750,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3786,7 +3796,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3878,7 +3888,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3924,13 +3934,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3953,7 +3963,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -4022,7 +4032,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4068,10 +4078,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4094,7 +4104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4117,7 +4127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4163,7 +4173,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4209,7 +4219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4232,7 +4242,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4255,7 +4265,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4278,7 +4288,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4324,7 +4334,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4393,7 +4403,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4439,7 +4449,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4462,7 +4472,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4531,7 +4541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4646,7 +4656,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4715,7 +4725,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4738,7 +4748,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4876,7 +4886,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4922,7 +4932,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4945,7 +4955,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -4991,7 +5001,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5060,7 +5070,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5083,7 +5093,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5152,7 +5162,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5198,7 +5208,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5267,7 +5277,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5290,7 +5300,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5313,7 +5323,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5336,7 +5346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5382,7 +5392,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5405,7 +5415,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5428,7 +5438,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5451,7 +5461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5520,7 +5530,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5543,7 +5553,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5635,7 +5645,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5681,7 +5691,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5727,7 +5737,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5750,7 +5760,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5773,7 +5783,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5796,7 +5806,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5819,7 +5829,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5842,7 +5852,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5865,7 +5875,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5888,7 +5898,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5911,7 +5921,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5980,7 +5990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6003,7 +6013,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -6026,7 +6036,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6049,7 +6059,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6118,7 +6128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6141,7 +6151,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6164,7 +6174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6187,7 +6197,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6233,7 +6243,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6256,7 +6266,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6302,7 +6312,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6325,7 +6335,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6348,7 +6358,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6371,7 +6381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6394,7 +6404,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6417,7 +6427,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6440,7 +6450,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6463,7 +6473,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6486,7 +6496,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6509,7 +6519,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6532,7 +6542,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6555,7 +6565,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6601,7 +6611,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6624,7 +6634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6647,7 +6657,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6670,7 +6680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6693,7 +6703,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6716,7 +6726,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6762,7 +6772,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6785,7 +6795,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6808,7 +6818,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6900,7 +6910,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6923,7 +6933,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6946,7 +6956,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6969,7 +6979,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7015,7 +7025,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7038,7 +7048,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7061,7 +7071,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7084,7 +7094,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7107,7 +7117,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7130,7 +7140,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7176,7 +7186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7199,7 +7209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7222,7 +7232,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7245,7 +7255,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7268,7 +7278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7291,7 +7301,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7314,7 +7324,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7337,7 +7347,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7360,7 +7370,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7406,7 +7416,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7429,7 +7439,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7452,7 +7462,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7475,7 +7485,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7498,7 +7508,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7521,7 +7531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7544,7 +7554,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7567,7 +7577,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7636,7 +7646,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7659,7 +7669,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7682,7 +7692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7705,7 +7715,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7728,7 +7738,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7751,7 +7761,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7774,7 +7784,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7797,7 +7807,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7820,7 +7830,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7843,7 +7853,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7866,7 +7876,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7889,7 +7899,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7912,7 +7922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7935,7 +7945,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7958,7 +7968,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7981,7 +7991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8004,7 +8014,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8050,7 +8060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8073,7 +8083,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8096,7 +8106,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8119,7 +8129,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8142,7 +8152,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8165,7 +8175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8188,7 +8198,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8211,7 +8221,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8257,7 +8267,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8280,7 +8290,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8303,7 +8313,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8326,7 +8336,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8349,7 +8359,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8372,7 +8382,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8395,7 +8405,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8418,7 +8428,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8441,7 +8451,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8464,7 +8474,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8487,7 +8497,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8510,7 +8520,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8533,7 +8543,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8556,7 +8566,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8579,7 +8589,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8602,7 +8612,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8625,7 +8635,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8671,7 +8681,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8694,7 +8704,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8717,7 +8727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8740,7 +8750,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8763,7 +8773,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8786,7 +8796,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8809,7 +8819,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8832,7 +8842,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8855,7 +8865,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8878,7 +8888,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8901,7 +8911,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8924,7 +8934,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8947,7 +8957,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8970,7 +8980,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9016,7 +9026,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9039,7 +9049,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9062,7 +9072,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9085,7 +9095,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9108,7 +9118,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9131,7 +9141,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9154,7 +9164,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9177,7 +9187,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9200,7 +9210,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9223,7 +9233,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9246,7 +9256,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9269,7 +9279,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9292,7 +9302,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9315,7 +9325,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9338,7 +9348,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9361,7 +9371,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9384,7 +9394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9407,7 +9417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9430,7 +9440,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9450,7 +9460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9473,7 +9483,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9496,7 +9506,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9519,7 +9529,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9542,7 +9552,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9565,7 +9575,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9588,7 +9598,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9611,7 +9621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9657,7 +9667,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9680,7 +9690,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9703,7 +9713,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9726,7 +9736,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9749,7 +9759,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9795,7 +9805,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9818,7 +9828,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9841,7 +9851,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9887,7 +9897,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9910,7 +9920,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9933,7 +9943,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9956,7 +9966,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9979,7 +9989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -10002,7 +10012,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -10025,7 +10035,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10048,7 +10058,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10071,7 +10081,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10094,7 +10104,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10118,7 +10128,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10145,7 +10155,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10168,7 +10178,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10191,7 +10201,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10214,7 +10224,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10237,7 +10247,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10260,7 +10270,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10283,7 +10293,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10306,7 +10316,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10329,7 +10339,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10352,7 +10362,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10375,7 +10385,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10398,7 +10408,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10421,7 +10431,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10444,7 +10454,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10467,7 +10477,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10490,7 +10500,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10513,7 +10523,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10536,7 +10546,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10559,7 +10569,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10582,7 +10592,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10605,7 +10615,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10628,7 +10638,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10651,7 +10661,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10674,7 +10684,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10697,7 +10707,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10720,7 +10730,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10743,7 +10753,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10766,7 +10776,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10789,7 +10799,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10812,7 +10822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10835,7 +10845,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10858,7 +10868,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10904,7 +10914,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10927,7 +10937,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10950,7 +10960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -10973,7 +10983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>27</v>
       </c>
@@ -10996,7 +11006,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>14</v>
       </c>
@@ -11019,7 +11029,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11042,7 +11052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11065,7 +11075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11088,7 +11098,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11111,7 +11121,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11134,7 +11144,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11157,7 +11167,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11180,7 +11190,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11203,7 +11213,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11226,7 +11236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>11.6</v>
       </c>
@@ -11249,7 +11259,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1.6</v>
       </c>
@@ -11272,7 +11282,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>44.41</v>
       </c>
@@ -11295,7 +11305,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>4.8</v>
       </c>
@@ -11318,7 +11328,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1.7</v>
       </c>
@@ -11341,7 +11351,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>2.85</v>
       </c>
@@ -11364,7 +11374,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>6.4</v>
       </c>
@@ -11387,7 +11397,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>3.5</v>
       </c>
@@ -11410,7 +11420,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>6.5</v>
       </c>
@@ -11433,7 +11443,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>1.2</v>
       </c>
@@ -11456,7 +11466,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>4.5999999999999996</v>
       </c>
@@ -11479,7 +11489,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11487,7 +11497,7 @@
         <v>354</v>
       </c>
       <c r="C426" s="2">
-        <v>43379</v>
+        <v>43349</v>
       </c>
       <c r="D426" t="s">
         <v>427</v>
@@ -11501,6 +11511,97 @@
       <c r="H426" t="s">
         <v>251</v>
       </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427">
+        <v>3.5</v>
+      </c>
+      <c r="B427" t="s">
+        <v>344</v>
+      </c>
+      <c r="C427" s="2">
+        <v>43351</v>
+      </c>
+      <c r="D427" t="s">
+        <v>428</v>
+      </c>
+      <c r="E427" t="s">
+        <v>239</v>
+      </c>
+      <c r="F427">
+        <v>5</v>
+      </c>
+      <c r="H427" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="1">
+        <v>50</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C428" s="2">
+        <v>43351</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F428" s="1">
+        <v>5</v>
+      </c>
+      <c r="G428" s="1"/>
+      <c r="H428" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>344</v>
+      </c>
+      <c r="C429" s="2">
+        <v>43352</v>
+      </c>
+      <c r="D429" t="s">
+        <v>431</v>
+      </c>
+      <c r="E429" t="s">
+        <v>239</v>
+      </c>
+      <c r="F429">
+        <v>5</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="H430" s="1"/>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="H431" s="1"/>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="H432" s="1"/>
+    </row>
+    <row r="433" spans="8:8">
+      <c r="H433" s="1"/>
+    </row>
+    <row r="434" spans="8:8">
+      <c r="H434" s="1"/>
+    </row>
+    <row r="435" spans="8:8">
+      <c r="H435" s="1"/>
+    </row>
+    <row r="436" spans="8:8">
+      <c r="H436" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="438">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1310,17 +1310,35 @@
   </si>
   <si>
     <t>ταξί από το Ιλιον για σπίτι</t>
+  </si>
+  <si>
+    <t>σπανακόπιτα και φυσικός χυμός από το κυλικείο</t>
+  </si>
+  <si>
+    <t>πίτσα μπύρα (+ χυμό Μιχάλη)</t>
+  </si>
+  <si>
+    <t>ταξί για μεταφορά στο μετρό</t>
+  </si>
+  <si>
+    <t>αποσμητικό και σαμπουάν</t>
+  </si>
+  <si>
+    <t>φωτοφραφίες για δίπλωμα</t>
+  </si>
+  <si>
+    <t>βραστά λαχανικά και πατάτες</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,7 +1379,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1459,7 +1477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1501,7 +1519,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1533,9 +1551,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1567,6 +1586,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1742,14 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L436"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="H429" sqref="H429"/>
+      <selection activeCell="C436" sqref="C436"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1765,7 +1785,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1794,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1818,7 +1838,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1841,7 +1861,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1864,7 +1884,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1887,7 +1907,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1910,7 +1930,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1933,7 +1953,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1956,7 +1976,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1979,7 +1999,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2002,7 +2022,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2025,7 +2045,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2048,7 +2068,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2071,7 +2091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2094,7 +2114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2117,7 +2137,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2140,7 +2160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2163,7 +2183,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2186,7 +2206,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2209,7 +2229,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2232,7 +2252,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2255,7 +2275,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2278,7 +2298,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2324,7 +2344,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2347,7 +2367,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2370,7 +2390,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2393,7 +2413,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2439,7 +2459,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2462,7 +2482,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2485,7 +2505,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2508,7 +2528,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2531,7 +2551,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2551,7 +2571,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2574,7 +2594,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2620,7 +2640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2643,7 +2663,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2666,7 +2686,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2689,7 +2709,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2712,7 +2732,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2758,7 +2778,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2781,7 +2801,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2804,7 +2824,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2827,7 +2847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2850,7 +2870,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2873,7 +2893,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2896,7 +2916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2942,7 +2962,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2965,7 +2985,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3012,7 +3032,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3035,7 +3055,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3081,7 +3101,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3150,7 +3170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3173,7 +3193,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3196,7 +3216,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3219,7 +3239,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3242,7 +3262,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3265,7 +3285,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3312,7 +3332,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3335,7 +3355,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3358,7 +3378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3381,7 +3401,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3404,7 +3424,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3427,7 +3447,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3450,7 +3470,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3474,7 +3494,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3520,7 +3540,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3543,7 +3563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3566,7 +3586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3589,7 +3609,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3635,7 +3655,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3658,7 +3678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3681,7 +3701,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3704,7 +3724,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3727,7 +3747,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3750,7 +3770,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3773,7 +3793,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3842,7 +3862,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3865,7 +3885,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3888,7 +3908,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3911,7 +3931,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3934,13 +3954,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3963,7 +3983,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -3986,7 +4006,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4009,7 +4029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -4032,7 +4052,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4055,7 +4075,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4078,10 +4098,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4104,7 +4124,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4150,7 +4170,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4173,7 +4193,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4196,7 +4216,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4219,7 +4239,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4242,7 +4262,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4265,7 +4285,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4288,7 +4308,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4311,7 +4331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4334,7 +4354,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4357,7 +4377,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4380,7 +4400,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4403,7 +4423,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4449,7 +4469,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4472,7 +4492,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4495,7 +4515,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4541,7 +4561,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4587,7 +4607,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4610,7 +4630,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4656,7 +4676,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4679,7 +4699,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4702,7 +4722,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4725,7 +4745,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4748,7 +4768,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4771,7 +4791,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4794,7 +4814,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4817,7 +4837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4840,7 +4860,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4863,7 +4883,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4886,7 +4906,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4909,7 +4929,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4932,7 +4952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4955,7 +4975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4978,7 +4998,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -5001,7 +5021,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5024,7 +5044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5047,7 +5067,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5070,7 +5090,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5093,7 +5113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5116,7 +5136,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5139,7 +5159,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5162,7 +5182,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5185,7 +5205,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5208,7 +5228,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5231,7 +5251,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5254,7 +5274,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5277,7 +5297,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5300,7 +5320,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5323,7 +5343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5346,7 +5366,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5369,7 +5389,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5392,7 +5412,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5415,7 +5435,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5438,7 +5458,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5461,7 +5481,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5484,7 +5504,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5507,7 +5527,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5530,7 +5550,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5553,7 +5573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5576,7 +5596,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5599,7 +5619,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5622,7 +5642,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5645,7 +5665,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5668,7 +5688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5691,7 +5711,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5714,7 +5734,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5737,7 +5757,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5760,7 +5780,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5783,7 +5803,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5806,7 +5826,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5829,7 +5849,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5852,7 +5872,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5875,7 +5895,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5898,7 +5918,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5921,7 +5941,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5944,7 +5964,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5967,7 +5987,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -5990,7 +6010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6013,7 +6033,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -6036,7 +6056,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6059,7 +6079,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6082,7 +6102,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6105,7 +6125,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6128,7 +6148,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6151,7 +6171,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6174,7 +6194,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6197,7 +6217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6220,7 +6240,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6243,7 +6263,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6266,7 +6286,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6289,7 +6309,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6312,7 +6332,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6335,7 +6355,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6358,7 +6378,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6381,7 +6401,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6404,7 +6424,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6427,7 +6447,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6450,7 +6470,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6473,7 +6493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6496,7 +6516,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6519,7 +6539,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6542,7 +6562,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6588,7 +6608,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6611,7 +6631,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6634,7 +6654,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6657,7 +6677,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6680,7 +6700,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6703,7 +6723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6726,7 +6746,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6749,7 +6769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6772,7 +6792,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6795,7 +6815,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6818,7 +6838,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6841,7 +6861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6864,7 +6884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6887,7 +6907,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6910,7 +6930,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6933,7 +6953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6956,7 +6976,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6979,7 +6999,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -7002,7 +7022,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7025,7 +7045,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7048,7 +7068,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7071,7 +7091,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7094,7 +7114,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7117,7 +7137,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7140,7 +7160,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7163,7 +7183,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7186,7 +7206,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7209,7 +7229,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7232,7 +7252,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7255,7 +7275,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7278,7 +7298,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7301,7 +7321,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7324,7 +7344,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7347,7 +7367,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7370,7 +7390,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7393,7 +7413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7416,7 +7436,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7439,7 +7459,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7462,7 +7482,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7485,7 +7505,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7508,7 +7528,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7531,7 +7551,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7577,7 +7597,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7600,7 +7620,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7623,7 +7643,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7646,7 +7666,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7669,7 +7689,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7738,7 +7758,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7784,7 +7804,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7807,7 +7827,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7830,7 +7850,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7853,7 +7873,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7876,7 +7896,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7922,7 +7942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7945,7 +7965,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7968,7 +7988,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -7991,7 +8011,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8014,7 +8034,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -8037,7 +8057,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8060,7 +8080,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8083,7 +8103,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8106,7 +8126,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8129,7 +8149,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8152,7 +8172,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8175,7 +8195,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8198,7 +8218,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8221,7 +8241,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8244,7 +8264,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8267,7 +8287,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8290,7 +8310,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8313,7 +8333,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8336,7 +8356,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8359,7 +8379,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8382,7 +8402,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8405,7 +8425,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8428,7 +8448,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8451,7 +8471,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8474,7 +8494,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8497,7 +8517,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8520,7 +8540,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8543,7 +8563,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8566,7 +8586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8589,7 +8609,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8612,7 +8632,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8635,7 +8655,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8658,7 +8678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8681,7 +8701,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8704,7 +8724,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8727,7 +8747,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8750,7 +8770,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8773,7 +8793,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8796,7 +8816,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8819,7 +8839,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8842,7 +8862,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8865,7 +8885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8888,7 +8908,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8911,7 +8931,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8934,7 +8954,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8957,7 +8977,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -8980,7 +9000,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -9003,7 +9023,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9026,7 +9046,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9049,7 +9069,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9072,7 +9092,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9095,7 +9115,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9118,7 +9138,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9141,7 +9161,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9164,7 +9184,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9187,7 +9207,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9210,7 +9230,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9233,7 +9253,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9256,7 +9276,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9279,7 +9299,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9302,7 +9322,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9325,7 +9345,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9348,7 +9368,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9371,7 +9391,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9394,7 +9414,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9417,7 +9437,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9460,7 +9480,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9483,7 +9503,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9506,7 +9526,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9529,7 +9549,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9552,7 +9572,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9575,7 +9595,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9598,7 +9618,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9621,7 +9641,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9644,7 +9664,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9667,7 +9687,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9690,7 +9710,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9713,7 +9733,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9736,7 +9756,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9759,7 +9779,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9782,7 +9802,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9805,7 +9825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9828,7 +9848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9851,7 +9871,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9874,7 +9894,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9897,7 +9917,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9920,7 +9940,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9943,7 +9963,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9966,7 +9986,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -9989,7 +10009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -10035,7 +10055,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10058,7 +10078,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10081,7 +10101,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10104,7 +10124,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10128,7 +10148,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10155,7 +10175,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10178,7 +10198,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10201,7 +10221,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10224,7 +10244,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10247,7 +10267,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10270,7 +10290,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10293,7 +10313,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10316,7 +10336,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10339,7 +10359,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10362,7 +10382,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10385,7 +10405,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10408,7 +10428,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10431,7 +10451,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10454,7 +10474,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10477,7 +10497,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10500,7 +10520,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10523,7 +10543,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10546,7 +10566,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10569,7 +10589,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10592,7 +10612,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10615,7 +10635,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10638,7 +10658,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10661,7 +10681,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10684,7 +10704,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10707,7 +10727,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10730,7 +10750,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10753,7 +10773,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10776,7 +10796,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10799,7 +10819,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10822,7 +10842,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10845,7 +10865,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10868,7 +10888,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10891,7 +10911,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10914,7 +10934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10937,7 +10957,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10960,7 +10980,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -10983,7 +11003,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>27</v>
       </c>
@@ -11006,7 +11026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>14</v>
       </c>
@@ -11029,7 +11049,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11052,7 +11072,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11075,7 +11095,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11098,7 +11118,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11121,7 +11141,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11144,7 +11164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11167,7 +11187,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11190,7 +11210,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11213,7 +11233,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11236,7 +11256,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>11.6</v>
       </c>
@@ -11259,7 +11279,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.6</v>
       </c>
@@ -11282,7 +11302,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>44.41</v>
       </c>
@@ -11305,7 +11325,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4.8</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1.7</v>
       </c>
@@ -11351,7 +11371,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2.85</v>
       </c>
@@ -11374,7 +11394,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6.4</v>
       </c>
@@ -11397,7 +11417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3.5</v>
       </c>
@@ -11420,7 +11440,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>6.5</v>
       </c>
@@ -11443,7 +11463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1.2</v>
       </c>
@@ -11466,7 +11486,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4.5999999999999996</v>
       </c>
@@ -11489,7 +11509,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11512,7 +11532,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3.5</v>
       </c>
@@ -11535,7 +11555,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>50</v>
       </c>
@@ -11559,7 +11579,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>10</v>
       </c>
@@ -11582,25 +11602,145 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
-      <c r="H430" s="1"/>
-    </row>
-    <row r="431" spans="1:8">
-      <c r="H431" s="1"/>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="H432" s="1"/>
-    </row>
-    <row r="433" spans="8:8">
-      <c r="H433" s="1"/>
-    </row>
-    <row r="434" spans="8:8">
-      <c r="H434" s="1"/>
-    </row>
-    <row r="435" spans="8:8">
-      <c r="H435" s="1"/>
-    </row>
-    <row r="436" spans="8:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2.9</v>
+      </c>
+      <c r="B430" t="s">
+        <v>223</v>
+      </c>
+      <c r="C430" s="2">
+        <v>43353</v>
+      </c>
+      <c r="D430" t="s">
+        <v>432</v>
+      </c>
+      <c r="E430" t="s">
+        <v>239</v>
+      </c>
+      <c r="F430">
+        <v>5</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>15</v>
+      </c>
+      <c r="B431" t="s">
+        <v>223</v>
+      </c>
+      <c r="C431" s="2">
+        <v>43353</v>
+      </c>
+      <c r="D431" t="s">
+        <v>433</v>
+      </c>
+      <c r="E431" t="s">
+        <v>239</v>
+      </c>
+      <c r="F431">
+        <v>5</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>3.5</v>
+      </c>
+      <c r="B432" t="s">
+        <v>344</v>
+      </c>
+      <c r="C432" s="2">
+        <v>43354</v>
+      </c>
+      <c r="D432" t="s">
+        <v>434</v>
+      </c>
+      <c r="E432" t="s">
+        <v>239</v>
+      </c>
+      <c r="F432">
+        <v>5</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>9.25</v>
+      </c>
+      <c r="B433" t="s">
+        <v>345</v>
+      </c>
+      <c r="C433" s="2">
+        <v>43354</v>
+      </c>
+      <c r="D433" t="s">
+        <v>435</v>
+      </c>
+      <c r="E433" t="s">
+        <v>239</v>
+      </c>
+      <c r="F433">
+        <v>5</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>8</v>
+      </c>
+      <c r="B434" t="s">
+        <v>354</v>
+      </c>
+      <c r="C434" s="2">
+        <v>43354</v>
+      </c>
+      <c r="D434" t="s">
+        <v>436</v>
+      </c>
+      <c r="E434" t="s">
+        <v>239</v>
+      </c>
+      <c r="F434">
+        <v>5</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B435" t="s">
+        <v>223</v>
+      </c>
+      <c r="C435" s="2">
+        <v>43355</v>
+      </c>
+      <c r="D435" t="s">
+        <v>437</v>
+      </c>
+      <c r="E435" t="s">
+        <v>239</v>
+      </c>
+      <c r="F435">
+        <v>5</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H436" s="1"/>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="438">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1765,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="C436" sqref="C436"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="H437" sqref="H437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11741,7 +11741,27 @@
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H436" s="1"/>
+      <c r="A436">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B436" t="s">
+        <v>223</v>
+      </c>
+      <c r="C436" s="2">
+        <v>43356</v>
+      </c>
+      <c r="D436" t="s">
+        <v>338</v>
+      </c>
+      <c r="E436" t="s">
+        <v>239</v>
+      </c>
+      <c r="F436">
+        <v>5</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="441">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1328,17 +1328,26 @@
   </si>
   <si>
     <t>βραστά λαχανικά και πατάτες</t>
+  </si>
+  <si>
+    <t>διόδια με το ταξί</t>
+  </si>
+  <si>
+    <t>ταξί από Χαλάνδρι</t>
+  </si>
+  <si>
+    <t>λάδωμα για δίπλωμα οδήγησης</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1379,7 +1388,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1460,8 +1469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H436" totalsRowShown="0">
-  <autoFilter ref="A1:H436"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H441" totalsRowShown="0">
+  <autoFilter ref="A1:H441"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1477,7 +1486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1519,7 +1528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1551,10 +1560,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1586,7 +1594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1762,14 +1769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L436"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="H437" sqref="H437"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="A442" sqref="A442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1785,7 +1792,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1814,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1838,7 +1845,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1930,7 +1937,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1953,7 +1960,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -1999,7 +2006,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2091,7 +2098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2160,7 +2167,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2252,7 +2259,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2275,7 +2282,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2321,7 +2328,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2367,7 +2374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2390,7 +2397,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2436,7 +2443,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2459,7 +2466,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2482,7 +2489,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2594,7 +2601,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2640,7 +2647,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2663,7 +2670,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2686,7 +2693,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2709,7 +2716,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2755,7 +2762,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2778,7 +2785,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2801,7 +2808,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2824,7 +2831,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2847,7 +2854,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2870,7 +2877,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2939,7 +2946,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2962,7 +2969,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2985,7 +2992,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3032,7 +3039,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3055,7 +3062,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3078,7 +3085,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3147,7 +3154,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3170,7 +3177,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3239,7 +3246,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3262,7 +3269,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3285,7 +3292,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3332,7 +3339,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3378,7 +3385,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3401,7 +3408,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3447,7 +3454,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3470,7 +3477,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3494,7 +3501,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3517,7 +3524,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3586,7 +3593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3609,7 +3616,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3655,7 +3662,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3678,7 +3685,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3701,7 +3708,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3770,7 +3777,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3793,7 +3800,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3839,7 +3846,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3862,7 +3869,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3931,7 +3938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3954,13 +3961,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4029,7 +4036,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4075,7 +4082,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4098,10 +4105,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4147,7 +4154,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4170,7 +4177,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4262,7 +4269,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4308,7 +4315,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4331,7 +4338,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4354,7 +4361,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4400,7 +4407,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4423,7 +4430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4492,7 +4499,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4584,7 +4591,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4630,7 +4637,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4745,7 +4752,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4768,7 +4775,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4791,7 +4798,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4814,7 +4821,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4860,7 +4867,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4883,7 +4890,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4906,7 +4913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4929,7 +4936,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4952,7 +4959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4975,7 +4982,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -4998,7 +5005,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5044,7 +5051,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5067,7 +5074,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5090,7 +5097,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5113,7 +5120,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5182,7 +5189,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5205,7 +5212,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5228,7 +5235,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5274,7 +5281,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5320,7 +5327,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5366,7 +5373,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5389,7 +5396,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5412,7 +5419,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5435,7 +5442,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5458,7 +5465,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5481,7 +5488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5504,7 +5511,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5527,7 +5534,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5550,7 +5557,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5573,7 +5580,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5596,7 +5603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5619,7 +5626,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5642,7 +5649,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5665,7 +5672,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5688,7 +5695,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5711,7 +5718,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5734,7 +5741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5780,7 +5787,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5803,7 +5810,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5826,7 +5833,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5849,7 +5856,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5872,7 +5879,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5895,7 +5902,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5918,7 +5925,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5941,7 +5948,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5964,7 +5971,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -6010,7 +6017,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6033,7 +6040,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -6056,7 +6063,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6079,7 +6086,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6125,7 +6132,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6148,7 +6155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6194,7 +6201,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6286,7 +6293,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6309,7 +6316,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6332,7 +6339,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6355,7 +6362,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6378,7 +6385,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6401,7 +6408,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6424,7 +6431,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6447,7 +6454,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6470,7 +6477,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6516,7 +6523,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6539,7 +6546,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6562,7 +6569,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6608,7 +6615,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6654,7 +6661,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6677,7 +6684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6700,7 +6707,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6723,7 +6730,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6746,7 +6753,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6769,7 +6776,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6792,7 +6799,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6815,7 +6822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6838,7 +6845,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6861,7 +6868,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6930,7 +6937,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6953,7 +6960,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -6999,7 +7006,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -7022,7 +7029,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7045,7 +7052,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7068,7 +7075,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7091,7 +7098,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7114,7 +7121,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7137,7 +7144,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7160,7 +7167,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7206,7 +7213,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7229,7 +7236,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7252,7 +7259,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7275,7 +7282,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7321,7 +7328,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7344,7 +7351,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7367,7 +7374,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7390,7 +7397,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7436,7 +7443,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7459,7 +7466,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7482,7 +7489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7505,7 +7512,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7528,7 +7535,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7551,7 +7558,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7574,7 +7581,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7597,7 +7604,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7620,7 +7627,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7643,7 +7650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7666,7 +7673,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7689,7 +7696,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7712,7 +7719,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7735,7 +7742,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7758,7 +7765,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7781,7 +7788,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7827,7 +7834,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7850,7 +7857,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7873,7 +7880,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7896,7 +7903,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7919,7 +7926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7942,7 +7949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7965,7 +7972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7988,7 +7995,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -8011,7 +8018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8034,7 +8041,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8080,7 +8087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8103,7 +8110,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8126,7 +8133,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8149,7 +8156,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8172,7 +8179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8195,7 +8202,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8218,7 +8225,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8241,7 +8248,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8287,7 +8294,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8310,7 +8317,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8333,7 +8340,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8356,7 +8363,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8379,7 +8386,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8402,7 +8409,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8425,7 +8432,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8448,7 +8455,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8471,7 +8478,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8517,7 +8524,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8540,7 +8547,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8563,7 +8570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8586,7 +8593,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8609,7 +8616,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8632,7 +8639,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8655,7 +8662,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8678,7 +8685,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8701,7 +8708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8747,7 +8754,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8770,7 +8777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8793,7 +8800,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8816,7 +8823,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8839,7 +8846,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8862,7 +8869,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8885,7 +8892,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8908,7 +8915,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8931,7 +8938,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8954,7 +8961,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8977,7 +8984,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2</v>
       </c>
@@ -9000,7 +9007,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -9023,7 +9030,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9046,7 +9053,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9092,7 +9099,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9115,7 +9122,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9138,7 +9145,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9161,7 +9168,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9184,7 +9191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9207,7 +9214,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9230,7 +9237,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9253,7 +9260,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9276,7 +9283,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9299,7 +9306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9322,7 +9329,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9345,7 +9352,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9368,7 +9375,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9391,7 +9398,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9414,7 +9421,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9437,7 +9444,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9460,7 +9467,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9480,7 +9487,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9526,7 +9533,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9549,7 +9556,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9572,7 +9579,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9595,7 +9602,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9618,7 +9625,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9641,7 +9648,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9664,7 +9671,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9687,7 +9694,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9710,7 +9717,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9733,7 +9740,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9756,7 +9763,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9779,7 +9786,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9802,7 +9809,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9825,7 +9832,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9848,7 +9855,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9871,7 +9878,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9894,7 +9901,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9917,7 +9924,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9940,7 +9947,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9963,7 +9970,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9986,7 +9993,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -10009,7 +10016,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -10032,7 +10039,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -10055,7 +10062,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10078,7 +10085,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10101,7 +10108,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10124,7 +10131,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10148,7 +10155,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10175,7 +10182,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10198,7 +10205,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10221,7 +10228,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10267,7 +10274,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10290,7 +10297,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10313,7 +10320,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10336,7 +10343,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10359,7 +10366,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10405,7 +10412,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10428,7 +10435,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10451,7 +10458,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10474,7 +10481,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10497,7 +10504,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10520,7 +10527,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10543,7 +10550,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10566,7 +10573,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10589,7 +10596,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10612,7 +10619,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10658,7 +10665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10681,7 +10688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10727,7 +10734,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10750,7 +10757,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10773,7 +10780,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10796,7 +10803,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10819,7 +10826,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10842,7 +10849,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10865,7 +10872,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10888,7 +10895,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10911,7 +10918,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10934,7 +10941,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10957,7 +10964,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10980,7 +10987,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -11003,7 +11010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>27</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>14</v>
       </c>
@@ -11049,7 +11056,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11072,7 +11079,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11095,7 +11102,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11118,7 +11125,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11141,7 +11148,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11164,7 +11171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11187,7 +11194,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11210,7 +11217,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11233,7 +11240,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11256,7 +11263,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>11.6</v>
       </c>
@@ -11279,7 +11286,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1.6</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>44.41</v>
       </c>
@@ -11325,7 +11332,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>4.8</v>
       </c>
@@ -11348,7 +11355,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1.7</v>
       </c>
@@ -11371,7 +11378,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>2.85</v>
       </c>
@@ -11394,7 +11401,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>6.4</v>
       </c>
@@ -11417,7 +11424,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>3.5</v>
       </c>
@@ -11440,7 +11447,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>6.5</v>
       </c>
@@ -11463,7 +11470,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>1.2</v>
       </c>
@@ -11486,7 +11493,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>4.5999999999999996</v>
       </c>
@@ -11509,7 +11516,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11532,7 +11539,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>3.5</v>
       </c>
@@ -11555,7 +11562,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8">
       <c r="A428" s="1">
         <v>50</v>
       </c>
@@ -11579,7 +11586,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>10</v>
       </c>
@@ -11602,7 +11609,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>2.9</v>
       </c>
@@ -11625,7 +11632,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>15</v>
       </c>
@@ -11648,7 +11655,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>3.5</v>
       </c>
@@ -11671,7 +11678,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>9.25</v>
       </c>
@@ -11694,7 +11701,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>8</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>4.0999999999999996</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>4.9000000000000004</v>
       </c>
@@ -11761,6 +11768,123 @@
       </c>
       <c r="H436" s="1" t="s">
         <v>251</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437">
+        <v>2.8</v>
+      </c>
+      <c r="B437" t="s">
+        <v>354</v>
+      </c>
+      <c r="C437" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D437" t="s">
+        <v>438</v>
+      </c>
+      <c r="E437" t="s">
+        <v>239</v>
+      </c>
+      <c r="F437">
+        <v>5</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438">
+        <v>18.7</v>
+      </c>
+      <c r="B438" t="s">
+        <v>344</v>
+      </c>
+      <c r="C438" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D438" t="s">
+        <v>439</v>
+      </c>
+      <c r="E438" t="s">
+        <v>239</v>
+      </c>
+      <c r="F438">
+        <v>5</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439">
+        <v>20</v>
+      </c>
+      <c r="B439" t="s">
+        <v>354</v>
+      </c>
+      <c r="C439" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D439" t="s">
+        <v>359</v>
+      </c>
+      <c r="E439" t="s">
+        <v>239</v>
+      </c>
+      <c r="F439">
+        <v>5</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="1">
+        <v>150</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C440" s="2">
+        <v>43357</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F440" s="1">
+        <v>5</v>
+      </c>
+      <c r="G440" s="1"/>
+      <c r="H440" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="1">
+        <v>10</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C441" s="7">
+        <v>43357</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F441" s="1">
+        <v>5</v>
+      </c>
+      <c r="G441" s="1"/>
+      <c r="H441" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="441">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1342,12 +1342,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,7 +1388,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1469,8 +1469,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H441" totalsRowShown="0">
-  <autoFilter ref="A1:H441"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H446" totalsRowShown="0">
+  <autoFilter ref="A1:H446"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1486,7 +1486,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1528,7 +1528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,9 +1560,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,6 +1595,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1769,14 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L441"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L443"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+      <selection activeCell="A444" sqref="A444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1792,7 +1794,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>235</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1845,7 +1847,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1937,7 +1939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2029,7 +2031,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2190,7 +2192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2351,7 +2353,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2374,7 +2376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2420,7 +2422,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2466,7 +2468,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2489,7 +2491,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2558,7 +2560,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2624,7 +2626,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2670,7 +2672,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2693,7 +2695,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2762,7 +2764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2808,7 +2810,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2854,7 +2856,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2877,7 +2879,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2946,7 +2948,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2969,7 +2971,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2992,7 +2994,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3039,7 +3041,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3108,7 +3110,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3154,7 +3156,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3223,7 +3225,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3292,7 +3294,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3315,7 +3317,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3339,7 +3341,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3408,7 +3410,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3454,7 +3456,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3501,7 +3503,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3524,7 +3526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3570,7 +3572,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3639,7 +3641,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3754,7 +3756,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3800,7 +3802,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3846,7 +3848,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3869,7 +3871,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3938,7 +3940,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3961,13 +3963,13 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3990,7 +3992,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -4059,7 +4061,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4082,7 +4084,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4105,10 +4107,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4246,7 +4248,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4315,7 +4317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4338,7 +4340,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4361,7 +4363,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4407,7 +4409,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4499,7 +4501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4568,7 +4570,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4614,7 +4616,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4660,7 +4662,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4775,7 +4777,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4890,7 +4892,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4913,7 +4915,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4959,7 +4961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -5028,7 +5030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5074,7 +5076,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5120,7 +5122,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5166,7 +5168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5281,7 +5283,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5350,7 +5352,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5396,7 +5398,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5419,7 +5421,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5442,7 +5444,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5488,7 +5490,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5580,7 +5582,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5603,7 +5605,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5626,7 +5628,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5672,7 +5674,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5718,7 +5720,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5741,7 +5743,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5764,7 +5766,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5787,7 +5789,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5856,7 +5858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5902,7 +5904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5948,7 +5950,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5971,7 +5973,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -6017,7 +6019,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6040,7 +6042,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6132,7 +6134,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6201,7 +6203,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6293,7 +6295,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6316,7 +6318,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6385,7 +6387,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6431,7 +6433,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6454,7 +6456,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6523,7 +6525,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6546,7 +6548,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6592,7 +6594,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6638,7 +6640,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6707,7 +6709,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6730,7 +6732,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6753,7 +6755,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6776,7 +6778,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6799,7 +6801,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6868,7 +6870,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6914,7 +6916,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6937,7 +6939,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6983,7 +6985,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -7029,7 +7031,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7075,7 +7077,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7098,7 +7100,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7144,7 +7146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7167,7 +7169,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7190,7 +7192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7236,7 +7238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7328,7 +7330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7351,7 +7353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7374,7 +7376,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7420,7 +7422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7512,7 +7514,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7558,7 +7560,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7581,7 +7583,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7604,7 +7606,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7650,7 +7652,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7673,7 +7675,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7696,7 +7698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7719,7 +7721,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7742,7 +7744,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7788,7 +7790,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7834,7 +7836,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7880,7 +7882,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7903,7 +7905,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7926,7 +7928,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7972,7 +7974,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -8064,7 +8066,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8156,7 +8158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8179,7 +8181,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8202,7 +8204,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8225,7 +8227,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8248,7 +8250,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8271,7 +8273,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8294,7 +8296,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8340,7 +8342,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8386,7 +8388,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8409,7 +8411,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8432,7 +8434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8478,7 +8480,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8524,7 +8526,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8570,7 +8572,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8593,7 +8595,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8616,7 +8618,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8639,7 +8641,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8662,7 +8664,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8708,7 +8710,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8731,7 +8733,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8800,7 +8802,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8823,7 +8825,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8846,7 +8848,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8892,7 +8894,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8915,7 +8917,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8938,7 +8940,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8984,7 +8986,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -9007,7 +9009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -9030,7 +9032,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9053,7 +9055,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9076,7 +9078,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9145,7 +9147,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9168,7 +9170,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9214,7 +9216,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9237,7 +9239,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9260,7 +9262,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9306,7 +9308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9352,7 +9354,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9375,7 +9377,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9398,7 +9400,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9421,7 +9423,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9444,7 +9446,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9487,7 +9489,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9510,7 +9512,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9533,7 +9535,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9556,7 +9558,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9579,7 +9581,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9602,7 +9604,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9625,7 +9627,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9671,7 +9673,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9694,7 +9696,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9717,7 +9719,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9740,7 +9742,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9786,7 +9788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9809,7 +9811,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9832,7 +9834,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9855,7 +9857,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9878,7 +9880,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9901,7 +9903,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9924,7 +9926,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9993,7 +9995,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -10062,7 +10064,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10085,7 +10087,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10108,7 +10110,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10131,7 +10133,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10182,7 +10184,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10205,7 +10207,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10228,7 +10230,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10251,7 +10253,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10297,7 +10299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10320,7 +10322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10366,7 +10368,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10389,7 +10391,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10458,7 +10460,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10504,7 +10506,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10527,7 +10529,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10550,7 +10552,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10573,7 +10575,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10596,7 +10598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10619,7 +10621,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10642,7 +10644,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10665,7 +10667,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10711,7 +10713,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10734,7 +10736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10780,7 +10782,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10803,7 +10805,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10826,7 +10828,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10849,7 +10851,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10872,7 +10874,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10895,7 +10897,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10918,7 +10920,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10941,7 +10943,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10964,7 +10966,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10987,7 +10989,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -11010,7 +11012,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>27</v>
       </c>
@@ -11033,7 +11035,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>14</v>
       </c>
@@ -11056,7 +11058,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11079,7 +11081,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11102,7 +11104,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11125,7 +11127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11148,7 +11150,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11194,7 +11196,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11263,7 +11265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>11.6</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.6</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>44.41</v>
       </c>
@@ -11332,7 +11334,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4.8</v>
       </c>
@@ -11355,7 +11357,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1.7</v>
       </c>
@@ -11378,7 +11380,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2.85</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6.4</v>
       </c>
@@ -11424,7 +11426,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3.5</v>
       </c>
@@ -11447,7 +11449,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>6.5</v>
       </c>
@@ -11470,7 +11472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1.2</v>
       </c>
@@ -11493,7 +11495,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4.5999999999999996</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11539,7 +11541,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3.5</v>
       </c>
@@ -11562,7 +11564,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>50</v>
       </c>
@@ -11586,7 +11588,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>10</v>
       </c>
@@ -11609,7 +11611,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2.9</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>15</v>
       </c>
@@ -11655,7 +11657,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>3.5</v>
       </c>
@@ -11678,7 +11680,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9.25</v>
       </c>
@@ -11701,7 +11703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>8</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4.0999999999999996</v>
       </c>
@@ -11747,7 +11749,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>4.9000000000000004</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2.8</v>
       </c>
@@ -11793,7 +11795,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>18.7</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>20</v>
       </c>
@@ -11839,7 +11841,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>150</v>
       </c>
@@ -11863,7 +11865,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>10</v>
       </c>
@@ -11885,6 +11887,52 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2.1</v>
+      </c>
+      <c r="B442" t="s">
+        <v>223</v>
+      </c>
+      <c r="C442" s="2">
+        <v>43360</v>
+      </c>
+      <c r="D442" t="s">
+        <v>132</v>
+      </c>
+      <c r="E442" t="s">
+        <v>239</v>
+      </c>
+      <c r="F442">
+        <v>5</v>
+      </c>
+      <c r="H442" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>5</v>
+      </c>
+      <c r="B443" t="s">
+        <v>223</v>
+      </c>
+      <c r="C443" s="2">
+        <v>43360</v>
+      </c>
+      <c r="D443" t="s">
+        <v>121</v>
+      </c>
+      <c r="E443" t="s">
+        <v>239</v>
+      </c>
+      <c r="F443">
+        <v>5</v>
+      </c>
+      <c r="H443" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="442">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1337,17 +1337,20 @@
   </si>
   <si>
     <t>βιβλία αγγλικών</t>
+  </si>
+  <si>
+    <t>πρωινό, 2 μπάρες και γλογέρα με τυρί</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1388,7 +1391,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1486,7 +1489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1528,7 +1531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1560,9 +1563,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1594,6 +1598,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1769,14 +1774,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L444"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L445"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445"/>
+      <selection activeCell="D446" sqref="D446"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1792,7 +1797,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>234</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1845,7 +1850,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -2006,7 +2011,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2029,7 +2034,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2052,7 +2057,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2328,7 +2333,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2351,7 +2356,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2443,7 +2448,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2489,7 +2494,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2558,7 +2563,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2601,7 +2606,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2647,7 +2652,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2670,7 +2675,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2716,7 +2721,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2808,7 +2813,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2900,7 +2905,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3039,7 +3044,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3131,7 +3136,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3223,7 +3228,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3246,7 +3251,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3292,7 +3297,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3339,7 +3344,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3408,7 +3413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3431,7 +3436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3477,7 +3482,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3501,7 +3506,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3593,7 +3598,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3616,7 +3621,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3662,7 +3667,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3823,7 +3828,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3846,7 +3851,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3961,13 +3966,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3990,7 +3995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>3.5</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>34.9</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>12</v>
       </c>
@@ -4105,10 +4110,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>5</v>
       </c>
@@ -4131,7 +4136,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>6.9</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>6.04</v>
       </c>
@@ -4177,7 +4182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>4.8</v>
       </c>
@@ -4200,7 +4205,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>5.5</v>
       </c>
@@ -4246,7 +4251,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>7</v>
       </c>
@@ -4269,7 +4274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>4</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>2.3199999999999998</v>
       </c>
@@ -4361,7 +4366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>8</v>
       </c>
@@ -4384,7 +4389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>12.5</v>
       </c>
@@ -4407,7 +4412,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>0.7</v>
       </c>
@@ -4430,7 +4435,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>6.3</v>
       </c>
@@ -4453,7 +4458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>8</v>
       </c>
@@ -4476,7 +4481,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -4499,7 +4504,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>8</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -4545,7 +4550,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>2.5</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>24.3</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>2</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>16</v>
       </c>
@@ -4637,7 +4642,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>6</v>
       </c>
@@ -4660,7 +4665,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>5</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>6.52</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1.8</v>
       </c>
@@ -4729,7 +4734,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>5</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43</v>
       </c>
@@ -4798,7 +4803,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>10</v>
       </c>
@@ -4821,7 +4826,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>2.97</v>
       </c>
@@ -4844,7 +4849,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>10</v>
       </c>
@@ -4867,7 +4872,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1.6</v>
       </c>
@@ -4890,7 +4895,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1.5</v>
       </c>
@@ -4913,7 +4918,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1.8</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>7.3</v>
       </c>
@@ -4959,7 +4964,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>2.1</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>4.2</v>
       </c>
@@ -5028,7 +5033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>9</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>3.5</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -5120,7 +5125,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>3</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>2</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>150</v>
       </c>
@@ -5189,7 +5194,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>7</v>
       </c>
@@ -5212,7 +5217,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>5</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>8</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>3.5</v>
       </c>
@@ -5281,7 +5286,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>55</v>
       </c>
@@ -5304,7 +5309,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>0.6</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>4</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>39.9</v>
       </c>
@@ -5373,7 +5378,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1.6</v>
       </c>
@@ -5396,7 +5401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>80</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>6.2</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>15</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>4.3</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>9.6999999999999993</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>2.4500000000000002</v>
       </c>
@@ -5534,7 +5539,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1.96</v>
       </c>
@@ -5557,7 +5562,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>11.5</v>
       </c>
@@ -5580,7 +5585,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>2.7</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>2.7</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>7</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>4.8</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>3.8</v>
       </c>
@@ -5718,7 +5723,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -5741,7 +5746,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>11.5</v>
       </c>
@@ -5764,7 +5769,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>6.5</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>6.5</v>
       </c>
@@ -5833,7 +5838,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>5</v>
       </c>
@@ -5856,7 +5861,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>6</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>8</v>
       </c>
@@ -5902,7 +5907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>3.2</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>10</v>
       </c>
@@ -5948,7 +5953,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>3</v>
       </c>
@@ -5971,7 +5976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>10</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>3.5</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>10</v>
       </c>
@@ -6040,7 +6045,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>8</v>
       </c>
@@ -6063,7 +6068,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>6.2</v>
       </c>
@@ -6086,7 +6091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>2</v>
       </c>
@@ -6109,7 +6114,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>10</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>22</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>14</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>14</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>4.7</v>
       </c>
@@ -6224,7 +6229,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>69.900000000000006</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>8.4</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>5</v>
       </c>
@@ -6293,7 +6298,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>4.5</v>
       </c>
@@ -6316,7 +6321,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>6</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>5.46</v>
       </c>
@@ -6362,7 +6367,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>78.849999999999994</v>
       </c>
@@ -6385,7 +6390,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>10</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>10</v>
       </c>
@@ -6431,7 +6436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>26</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2</v>
       </c>
@@ -6477,7 +6482,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2.5</v>
       </c>
@@ -6500,7 +6505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>5.9</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>8.6</v>
       </c>
@@ -6546,7 +6551,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>2.7</v>
       </c>
@@ -6569,7 +6574,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>4.8</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>2.8</v>
       </c>
@@ -6615,7 +6620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>2</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>5</v>
       </c>
@@ -6661,7 +6666,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>2.5</v>
       </c>
@@ -6684,7 +6689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>3.5</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>1.8</v>
       </c>
@@ -6730,7 +6735,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>4</v>
       </c>
@@ -6753,7 +6758,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>6</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>1.8</v>
       </c>
@@ -6799,7 +6804,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>5</v>
       </c>
@@ -6822,7 +6827,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>5</v>
       </c>
@@ -6845,7 +6850,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>4.7</v>
       </c>
@@ -6868,7 +6873,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>5</v>
       </c>
@@ -6891,7 +6896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>10</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>1.5</v>
       </c>
@@ -6937,7 +6942,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>129</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>7</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>2.8</v>
       </c>
@@ -7006,7 +7011,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>1</v>
       </c>
@@ -7029,7 +7034,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>4</v>
       </c>
@@ -7052,7 +7057,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>50</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>7.2</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -7121,7 +7126,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>7</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -7167,7 +7172,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>7</v>
       </c>
@@ -7190,7 +7195,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>15</v>
       </c>
@@ -7213,7 +7218,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>3</v>
       </c>
@@ -7236,7 +7241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>11.2</v>
       </c>
@@ -7259,7 +7264,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>2.1</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>150</v>
       </c>
@@ -7305,7 +7310,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>12.7</v>
       </c>
@@ -7328,7 +7333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>89.9</v>
       </c>
@@ -7351,7 +7356,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>4.4000000000000004</v>
       </c>
@@ -7374,7 +7379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>4.2</v>
       </c>
@@ -7397,7 +7402,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>5</v>
       </c>
@@ -7443,7 +7448,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>5</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>3.9</v>
       </c>
@@ -7489,7 +7494,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>0.5</v>
       </c>
@@ -7512,7 +7517,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>2.4</v>
       </c>
@@ -7535,7 +7540,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>2</v>
       </c>
@@ -7558,7 +7563,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>4.7</v>
       </c>
@@ -7581,7 +7586,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>5.3</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>4.2</v>
       </c>
@@ -7627,7 +7632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>5</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>2.5</v>
       </c>
@@ -7673,7 +7678,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>3.3</v>
       </c>
@@ -7696,7 +7701,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>5.6</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>4</v>
       </c>
@@ -7742,7 +7747,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>10.199999999999999</v>
       </c>
@@ -7765,7 +7770,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>8</v>
       </c>
@@ -7788,7 +7793,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>2.1</v>
       </c>
@@ -7811,7 +7816,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>3.7</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>7</v>
       </c>
@@ -7857,7 +7862,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>13.5</v>
       </c>
@@ -7880,7 +7885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
         <v>5</v>
       </c>
@@ -7903,7 +7908,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
         <v>20</v>
       </c>
@@ -7926,7 +7931,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
         <v>6</v>
       </c>
@@ -7949,7 +7954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
         <v>0.5</v>
       </c>
@@ -7972,7 +7977,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
         <v>5</v>
       </c>
@@ -7995,7 +8000,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
         <v>11</v>
       </c>
@@ -8018,7 +8023,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
         <v>8.8000000000000007</v>
       </c>
@@ -8041,7 +8046,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
         <v>0.5</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>5</v>
       </c>
@@ -8087,7 +8092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>10</v>
       </c>
@@ -8110,7 +8115,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
         <v>15</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
         <v>10</v>
       </c>
@@ -8156,7 +8161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
         <v>11.9</v>
       </c>
@@ -8179,7 +8184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
         <v>7</v>
       </c>
@@ -8202,7 +8207,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1.9</v>
       </c>
@@ -8248,7 +8253,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>119.9</v>
       </c>
@@ -8271,7 +8276,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>6.3</v>
       </c>
@@ -8294,7 +8299,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3.5</v>
       </c>
@@ -8317,7 +8322,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1.5</v>
       </c>
@@ -8340,7 +8345,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1.9</v>
       </c>
@@ -8363,7 +8368,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4.5</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>6.4</v>
       </c>
@@ -8409,7 +8414,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1.9</v>
       </c>
@@ -8432,7 +8437,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>10.6</v>
       </c>
@@ -8455,7 +8460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4.5</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>22.2</v>
       </c>
@@ -8501,7 +8506,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>25</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>3.5</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2.2000000000000002</v>
       </c>
@@ -8593,7 +8598,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>11.5</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>6.3</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3.6</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>15</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4.5</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2.9</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3.9</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1.7</v>
       </c>
@@ -8800,7 +8805,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -8823,7 +8828,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>7.5</v>
       </c>
@@ -8846,7 +8851,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>10.050000000000001</v>
       </c>
@@ -8869,7 +8874,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>5</v>
       </c>
@@ -8892,7 +8897,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>3</v>
       </c>
@@ -8915,7 +8920,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -8938,7 +8943,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>10.6</v>
       </c>
@@ -8961,7 +8966,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>5.8</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9053,7 +9058,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>6.55</v>
       </c>
@@ -9076,7 +9081,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2.8</v>
       </c>
@@ -9099,7 +9104,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>3.8</v>
       </c>
@@ -9122,7 +9127,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>9</v>
       </c>
@@ -9145,7 +9150,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>8</v>
       </c>
@@ -9168,7 +9173,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1.5</v>
       </c>
@@ -9191,7 +9196,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5</v>
       </c>
@@ -9214,7 +9219,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4.5999999999999996</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>0.5</v>
       </c>
@@ -9260,7 +9265,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2.95</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>3.8</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>10</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3.85</v>
       </c>
@@ -9352,7 +9357,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1.2</v>
       </c>
@@ -9375,7 +9380,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -9398,7 +9403,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>8.5</v>
       </c>
@@ -9421,7 +9426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4.9000000000000004</v>
       </c>
@@ -9444,7 +9449,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>10</v>
       </c>
@@ -9467,7 +9472,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1.5</v>
       </c>
@@ -9487,7 +9492,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>350</v>
       </c>
@@ -9510,7 +9515,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4.4000000000000004</v>
       </c>
@@ -9533,7 +9538,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>3.2</v>
       </c>
@@ -9556,7 +9561,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>0.9</v>
       </c>
@@ -9602,7 +9607,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>6</v>
       </c>
@@ -9625,7 +9630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>3.8</v>
       </c>
@@ -9648,7 +9653,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -9671,7 +9676,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5.5</v>
       </c>
@@ -9694,7 +9699,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>43.22</v>
       </c>
@@ -9717,7 +9722,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -9740,7 +9745,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>7</v>
       </c>
@@ -9763,7 +9768,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1.61</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>20</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>14.84</v>
       </c>
@@ -9832,7 +9837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5.6</v>
       </c>
@@ -9855,7 +9860,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>6.8</v>
       </c>
@@ -9878,7 +9883,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>7.7</v>
       </c>
@@ -9901,7 +9906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>29.4</v>
       </c>
@@ -9924,7 +9929,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>0.5</v>
       </c>
@@ -9947,7 +9952,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2.2000000000000002</v>
       </c>
@@ -9970,7 +9975,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>3.5</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4.4000000000000004</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5.7</v>
       </c>
@@ -10039,7 +10044,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>7.74</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>7</v>
       </c>
@@ -10085,7 +10090,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -10108,7 +10113,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>100</v>
       </c>
@@ -10131,7 +10136,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>5</v>
       </c>
@@ -10155,7 +10160,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>2</v>
       </c>
@@ -10182,7 +10187,7 @@
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>7</v>
       </c>
@@ -10205,7 +10210,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>50</v>
       </c>
@@ -10228,7 +10233,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>10</v>
       </c>
@@ -10251,7 +10256,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>10.8</v>
       </c>
@@ -10274,7 +10279,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>10.5</v>
       </c>
@@ -10297,7 +10302,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5.5</v>
       </c>
@@ -10320,7 +10325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>0.5</v>
       </c>
@@ -10366,7 +10371,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>10.5</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>14</v>
       </c>
@@ -10412,7 +10417,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>3.5</v>
       </c>
@@ -10458,7 +10463,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>3.5</v>
       </c>
@@ -10481,7 +10486,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>3.5</v>
       </c>
@@ -10504,7 +10509,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -10527,7 +10532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -10550,7 +10555,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2.5</v>
       </c>
@@ -10573,7 +10578,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6.5</v>
       </c>
@@ -10596,7 +10601,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>3.78</v>
       </c>
@@ -10619,7 +10624,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>7</v>
       </c>
@@ -10642,7 +10647,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2.5</v>
       </c>
@@ -10665,7 +10670,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -10688,7 +10693,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1</v>
       </c>
@@ -10711,7 +10716,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>10.5</v>
       </c>
@@ -10734,7 +10739,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1.5</v>
       </c>
@@ -10757,7 +10762,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2.7</v>
       </c>
@@ -10780,7 +10785,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -10803,7 +10808,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17.5</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>43</v>
       </c>
@@ -10849,7 +10854,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>69.900000000000006</v>
       </c>
@@ -10872,7 +10877,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>16</v>
       </c>
@@ -10895,7 +10900,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2.2000000000000002</v>
       </c>
@@ -10918,7 +10923,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1.72</v>
       </c>
@@ -10941,7 +10946,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6</v>
       </c>
@@ -10964,7 +10969,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1.8</v>
       </c>
@@ -10987,7 +10992,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4.5999999999999996</v>
       </c>
@@ -11010,7 +11015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>27</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>14</v>
       </c>
@@ -11056,7 +11061,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2.5</v>
       </c>
@@ -11079,7 +11084,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>10</v>
       </c>
@@ -11102,7 +11107,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>11</v>
       </c>
@@ -11125,7 +11130,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5.55</v>
       </c>
@@ -11148,7 +11153,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>3</v>
       </c>
@@ -11171,7 +11176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>3.5</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>3.8</v>
       </c>
@@ -11217,7 +11222,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4</v>
       </c>
@@ -11240,7 +11245,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>8</v>
       </c>
@@ -11263,7 +11268,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>11.6</v>
       </c>
@@ -11286,7 +11291,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1.6</v>
       </c>
@@ -11309,7 +11314,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>44.41</v>
       </c>
@@ -11332,7 +11337,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4.8</v>
       </c>
@@ -11355,7 +11360,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>1.7</v>
       </c>
@@ -11378,7 +11383,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2.85</v>
       </c>
@@ -11401,7 +11406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>6.4</v>
       </c>
@@ -11424,7 +11429,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>3.5</v>
       </c>
@@ -11447,7 +11452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>6.5</v>
       </c>
@@ -11470,7 +11475,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>1.2</v>
       </c>
@@ -11493,7 +11498,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4.5999999999999996</v>
       </c>
@@ -11516,7 +11521,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>8</v>
       </c>
@@ -11539,7 +11544,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>3.5</v>
       </c>
@@ -11562,7 +11567,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>50</v>
       </c>
@@ -11586,7 +11591,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>10</v>
       </c>
@@ -11609,7 +11614,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2.9</v>
       </c>
@@ -11632,7 +11637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>15</v>
       </c>
@@ -11655,7 +11660,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>3.5</v>
       </c>
@@ -11678,7 +11683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>9.25</v>
       </c>
@@ -11701,7 +11706,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>8</v>
       </c>
@@ -11724,7 +11729,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4.0999999999999996</v>
       </c>
@@ -11747,7 +11752,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>4.9000000000000004</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2.8</v>
       </c>
@@ -11793,7 +11798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>18.7</v>
       </c>
@@ -11816,7 +11821,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>20</v>
       </c>
@@ -11839,7 +11844,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>150</v>
       </c>
@@ -11863,7 +11868,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>10</v>
       </c>
@@ -11887,7 +11892,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2.1</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>5</v>
       </c>
@@ -11933,7 +11938,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>59</v>
+      </c>
       <c r="B444" t="s">
         <v>346</v>
       </c>
@@ -11951,6 +11959,29 @@
       </c>
       <c r="H444" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>223</v>
+      </c>
+      <c r="C445" s="2">
+        <v>43361</v>
+      </c>
+      <c r="D445" t="s">
+        <v>441</v>
+      </c>
+      <c r="E445" t="s">
+        <v>238</v>
+      </c>
+      <c r="F445">
+        <v>5</v>
+      </c>
+      <c r="H445" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="443">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1340,6 +1340,9 @@
   </si>
   <si>
     <t>πρωινό, 2 μπάρες και γλογέρα με τυρί</t>
+  </si>
+  <si>
+    <t>vegan superfruits blend</t>
   </si>
 </sst>
 </file>
@@ -1472,8 +1475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H446" totalsRowShown="0">
-  <autoFilter ref="A1:H446"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H447" totalsRowShown="0">
+  <autoFilter ref="A1:H447"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1775,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L445"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="D446" sqref="D446"/>
+      <selection activeCell="A445" sqref="A445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11940,16 +11943,16 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B444" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C444" s="2">
         <v>43360</v>
       </c>
       <c r="D444" t="s">
-        <v>440</v>
+        <v>63</v>
       </c>
       <c r="E444" t="s">
         <v>238</v>
@@ -11958,30 +11961,76 @@
         <v>5</v>
       </c>
       <c r="H444" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B445" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
       <c r="C445" s="2">
+        <v>43360</v>
+      </c>
+      <c r="D445" t="s">
+        <v>440</v>
+      </c>
+      <c r="E445" t="s">
+        <v>238</v>
+      </c>
+      <c r="F445">
+        <v>5</v>
+      </c>
+      <c r="H445" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>223</v>
+      </c>
+      <c r="C446" s="2">
         <v>43361</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D446" t="s">
         <v>441</v>
       </c>
-      <c r="E445" t="s">
-        <v>238</v>
-      </c>
-      <c r="F445">
-        <v>5</v>
-      </c>
-      <c r="H445" t="s">
+      <c r="E446" t="s">
+        <v>238</v>
+      </c>
+      <c r="F446">
+        <v>5</v>
+      </c>
+      <c r="H446" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>33.39</v>
+      </c>
+      <c r="B447" t="s">
+        <v>223</v>
+      </c>
+      <c r="C447" s="2">
+        <v>43361</v>
+      </c>
+      <c r="D447" t="s">
+        <v>442</v>
+      </c>
+      <c r="E447" t="s">
+        <v>238</v>
+      </c>
+      <c r="F447">
+        <v>5</v>
+      </c>
+      <c r="H447" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="444">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1339,10 +1339,13 @@
     <t>βιβλία αγγλικών</t>
   </si>
   <si>
-    <t>πρωινό, 2 μπάρες και γλογέρα με τυρί</t>
-  </si>
-  <si>
-    <t>vegan superfruits blend</t>
+    <t>πρωινό, 2 μπάρες και φλογέρα με τυρί</t>
+  </si>
+  <si>
+    <t>πρωινό, 3 μπάρες και brioce με τυρί</t>
+  </si>
+  <si>
+    <t>coconut café και χυμό μπανάνα</t>
   </si>
 </sst>
 </file>
@@ -1475,8 +1478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H447" totalsRowShown="0">
-  <autoFilter ref="A1:H447"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H449" totalsRowShown="0">
+  <autoFilter ref="A1:H449"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1778,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L447"/>
+  <dimension ref="A1:L448"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A445" sqref="A445"/>
+      <selection activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12012,13 +12015,13 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>33.39</v>
+        <v>4.17</v>
       </c>
       <c r="B447" t="s">
         <v>223</v>
       </c>
       <c r="C447" s="2">
-        <v>43361</v>
+        <v>43362</v>
       </c>
       <c r="D447" t="s">
         <v>442</v>
@@ -12030,7 +12033,30 @@
         <v>5</v>
       </c>
       <c r="H447" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>4.2</v>
+      </c>
+      <c r="B448" t="s">
+        <v>223</v>
+      </c>
+      <c r="C448" s="2">
+        <v>43362</v>
+      </c>
+      <c r="D448" t="s">
+        <v>443</v>
+      </c>
+      <c r="E448" t="s">
+        <v>238</v>
+      </c>
+      <c r="F448">
+        <v>5</v>
+      </c>
+      <c r="H448" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="445">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t>coconut café και χυμό μπανάνα</t>
+  </si>
+  <si>
+    <t>spaggetti με λαχανικά</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L448"/>
+  <dimension ref="A1:L449"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A449" sqref="A449"/>
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12059,6 +12062,29 @@
         <v>259</v>
       </c>
     </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B449" t="s">
+        <v>223</v>
+      </c>
+      <c r="C449" s="2">
+        <v>43362</v>
+      </c>
+      <c r="D449" t="s">
+        <v>444</v>
+      </c>
+      <c r="E449" t="s">
+        <v>238</v>
+      </c>
+      <c r="F449">
+        <v>5</v>
+      </c>
+      <c r="H449" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="447">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1349,6 +1349,12 @@
   </si>
   <si>
     <t>spaggetti με λαχανικά</t>
+  </si>
+  <si>
+    <t>μακαρόνια φούρνου</t>
+  </si>
+  <si>
+    <t>εισητήριο για Museum of illusion</t>
   </si>
 </sst>
 </file>
@@ -1481,8 +1487,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H449" totalsRowShown="0">
-  <autoFilter ref="A1:H449"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Πίνακας1" displayName="Πίνακας1" ref="A1:H468" totalsRowShown="0">
+  <autoFilter ref="A1:H468"/>
   <tableColumns count="8">
     <tableColumn id="1" name="amount" totalsRowDxfId="7"/>
     <tableColumn id="11" name="type" totalsRowDxfId="6"/>
@@ -1784,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L449"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
+      <selection activeCell="D452" sqref="D452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12085,6 +12091,52 @@
         <v>250</v>
       </c>
     </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
+        <v>223</v>
+      </c>
+      <c r="C450" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D450" t="s">
+        <v>445</v>
+      </c>
+      <c r="E450" t="s">
+        <v>238</v>
+      </c>
+      <c r="F450">
+        <v>5</v>
+      </c>
+      <c r="H450" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>7</v>
+      </c>
+      <c r="B451" t="s">
+        <v>346</v>
+      </c>
+      <c r="C451" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D451" t="s">
+        <v>446</v>
+      </c>
+      <c r="E451" t="s">
+        <v>238</v>
+      </c>
+      <c r="F451">
+        <v>5</v>
+      </c>
+      <c r="H451" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="452">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1354,7 +1354,22 @@
     <t>μακαρόνια φούρνου</t>
   </si>
   <si>
-    <t>εισητήριο για Museum of illusion</t>
+    <t>στον πατέρα για την LR</t>
+  </si>
+  <si>
+    <t>φαγητό με Αγίλαρα στο Παραδοσιακόν (+ Αγιλαρας)</t>
+  </si>
+  <si>
+    <t>ημερολόγιο για να 5ήμερη μιας κοπέλας στα Χανιά</t>
+  </si>
+  <si>
+    <t>μπύρα με Γεωργία και Μαντό</t>
+  </si>
+  <si>
+    <t>Gazi</t>
+  </si>
+  <si>
+    <t>ταξί απο ανθούπολη για σπίτι</t>
   </si>
 </sst>
 </file>
@@ -1790,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L451"/>
+  <dimension ref="A1:L455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="D452" sqref="D452"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="E456" sqref="E456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12093,16 +12108,16 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B450" t="s">
-        <v>223</v>
+        <v>349</v>
       </c>
       <c r="C450" s="2">
         <v>43363</v>
       </c>
       <c r="D450" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E450" t="s">
         <v>238</v>
@@ -12111,21 +12126,21 @@
         <v>5</v>
       </c>
       <c r="H450" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B451" t="s">
-        <v>346</v>
+        <v>223</v>
       </c>
       <c r="C451" s="2">
         <v>43363</v>
       </c>
       <c r="D451" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E451" t="s">
         <v>238</v>
@@ -12134,7 +12149,99 @@
         <v>5</v>
       </c>
       <c r="H451" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>15.7</v>
+      </c>
+      <c r="B452" t="s">
+        <v>223</v>
+      </c>
+      <c r="C452" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D452" t="s">
+        <v>447</v>
+      </c>
+      <c r="E452" t="s">
+        <v>238</v>
+      </c>
+      <c r="F452">
+        <v>5</v>
+      </c>
+      <c r="H452" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>346</v>
+      </c>
+      <c r="C453" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D453" t="s">
+        <v>448</v>
+      </c>
+      <c r="E453" t="s">
+        <v>238</v>
+      </c>
+      <c r="F453">
+        <v>5</v>
+      </c>
+      <c r="H453" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>8</v>
+      </c>
+      <c r="B454" t="s">
+        <v>223</v>
+      </c>
+      <c r="C454" s="2">
+        <v>43363</v>
+      </c>
+      <c r="D454" t="s">
+        <v>449</v>
+      </c>
+      <c r="E454" t="s">
+        <v>238</v>
+      </c>
+      <c r="F454">
+        <v>5</v>
+      </c>
+      <c r="H454" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>3.5</v>
+      </c>
+      <c r="B455" t="s">
+        <v>343</v>
+      </c>
+      <c r="C455" s="2">
+        <v>43364</v>
+      </c>
+      <c r="D455" t="s">
+        <v>451</v>
+      </c>
+      <c r="E455" t="s">
+        <v>238</v>
+      </c>
+      <c r="F455">
+        <v>5</v>
+      </c>
+      <c r="H455" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="453">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1370,6 +1370,9 @@
   </si>
   <si>
     <t>ταξί απο ανθούπολη για σπίτι</t>
+  </si>
+  <si>
+    <t>καυτερά noodles με λαχανικά</t>
   </si>
 </sst>
 </file>
@@ -1805,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L455"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="E456" sqref="E456"/>
+      <selection activeCell="D457" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12244,6 +12247,29 @@
         <v>241</v>
       </c>
     </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>4.2</v>
+      </c>
+      <c r="B456" t="s">
+        <v>223</v>
+      </c>
+      <c r="C456" s="2">
+        <v>43364</v>
+      </c>
+      <c r="D456" t="s">
+        <v>452</v>
+      </c>
+      <c r="E456" t="s">
+        <v>238</v>
+      </c>
+      <c r="F456">
+        <v>5</v>
+      </c>
+      <c r="H456" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/costs.xlsx
+++ b/costs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11760"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="454">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1373,17 +1373,20 @@
   </si>
   <si>
     <t>καυτερά noodles με λαχανικά</t>
+  </si>
+  <si>
+    <t>παραβολα για proficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1424,7 +1427,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -1522,7 +1525,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1564,7 +1567,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,10 +1599,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1631,7 +1633,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1807,14 +1808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L456"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L457"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
-      <selection activeCell="D457" sqref="D457"/>
+      <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1830,7 +1831,7 @@
     <col min="12" max="12" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>234</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="4">
         <v>20</v>
       </c>
@@ -1883,7 +1884,7 @@
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="4">
         <v>10</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="4">
         <v>50</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="4">
         <v>3.2</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="4">
         <v>1.3</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="4">
         <v>1.2</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="4">
         <v>4.5</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="4">
         <v>10.6</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="4">
         <v>1.8</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="4">
         <v>5.15</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="4">
         <v>18</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>1.5</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>7.8</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>4.4400000000000004</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>1.5</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>8.84</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>10</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>1.8</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>11.8</v>
       </c>
@@ -2412,7 +2413,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>40</v>
       </c>
@@ -2435,7 +2436,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>2.9</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>4.3</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>3.35</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>5.2</v>
       </c>
@@ -2527,7 +2528,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>3.9</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>63.45</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>49.9</v>
       </c>
@@ -2616,7 +2617,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>140</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>13.02</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>4.7</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>15.96</v>
       </c>
@@ -2731,7 +2732,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>9.8000000000000007</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>79.8</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>11.9</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>38.880000000000003</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>7.75</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>0.79</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>10</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="4">
         <v>1.8</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="4">
         <v>24</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="4">
         <v>24</v>
       </c>
@@ -3007,7 +3008,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="4">
         <v>1.8</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="4">
         <v>3.5</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="4">
         <v>5.6</v>
       </c>
@@ -3077,7 +3078,7 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="4">
         <v>1.5</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="4">
         <v>5.4</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="4">
         <v>8</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="4">
         <v>5.4</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="4">
         <v>0.6</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="4">
         <v>1.5</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="4">
         <v>1.2</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="4">
         <v>13.5</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="4">
         <v>3.5</v>
       </c>
@@ -3377,7 +3378,7 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="4">
         <v>90</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="4">
         <v>65.5</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="4">
         <v>4.5</v>
       </c>
@@ -3469,7 +3470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="4">
         <v>10</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="4">
         <v>18.8</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="4">
         <v>1.8</v>
       </c>
@@ -3539,7 +3540,7 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="4">
         <v>5.5</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="4">
         <v>2</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="4">
         <v>9.9</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="4">
         <v>6.5</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="4">
         <v>79.8</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="4">
         <v>10</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="4">
         <v>2.5</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="4">
         <v>5</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
       <c r="A85" s="4">
         <v>1.6</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="4">
         <v>5.5</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="4">
         <v>0.8</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
       <c r="A88" s="4">
         <v>17</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="4">
         <v>24.9</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
       <c r="A90" s="4">
         <v>1.8</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
       <c r="A91" s="4">
         <v>44.99</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="4">
         <v>4</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
       <c r="A93" s="4">
         <v>5</v>
       </c>
@@ -3976,7 +3977,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="4">
         <v>5</v>
       </c>
@@ -3999,13 +4000,13 @@
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="4">
         <v>3</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="4">
         <v>6</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8">